--- a/기사데이터/토스/엑셀파일/news(토스, 2021.10.16~2021.10.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.10.16~2021.10.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2511 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2021.10.26.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>최태원 회장, 7200명에게 '감사 문자 메시지' 보낸 이유는?</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000112467?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>최태원 대한상공회의소 회장이 국가발전 프로젝트 공모전 응모자 7200여 명에게 감사 문자 메시지를 보냈다. 사진은 지난 8월 국가발전 프로젝트 공모전의 맛보기 오디션인 '아이디어리그' 방송에 출연한 최태원 회장. /대한상공회의소 제공국가발전 프로젝트 예상 밖 응모 쇄도에 감사 인사 최태원 대한상공회의소(대한상의) 회장이 7200명에게 감사 문자 메시지를 보냈다.신종 코로나바이러스 감염증(코로나19) 위기를 극복하고, 나아가 국가를 발전시킬 아이디어를 발굴하는 최태원 회장 취임 첫 민간 프로젝트인 '국가발전 대국민 아이디어 공모전'에 예상 밖 성원을 보내준 응모자들에게 감사 인사를 전한 것이다.26일 대한상의에 따르면 최태원 회장은 국가발전 프로젝트 공모전 응모자들에게 감사 서한과 문자 메시지를 보냈다.문자 메시지에는 "소중한 아이디어를 내주신 한분 한분께 진심으로 감사의 말씀 드린다. 포스트 코로나 시대, 민간 주도의 국가발전 아이디어를 찾아보자는 경제계의 노력에 7200여 분의 국민께서 4704건의 프로젝트를 보내주셨다" 등의 내용이 담겼다.국가발전 프로젝트는 최태원 회장의 주도 아래 지난 6월 중순부터 시작됐다. 대한상의는 응모 기간인 100일 동안 2000여 건의 아이디어 공모를 예상했으나, 결과적으로 두 배 이상의 응모 성과를 얻었다.이와 관련해 대한상의는 "국가적 난제를 풀어보자는 국민들의 관심, 스타 기업인들의 방송 출연 등에 힘입은 결과"라고 설명했다.앞서 최태원 회장과 김택진 엔씨소프트 대표, 이한주 베스핀글로벌 대표, 이승건 토스 대표 등은 SBS를 통해 지난 8월 방송된 국가발전 프로젝트 공모전의 맛보기 오디션 '아이디어리그'에 심사위원으로 참여한 바 있다.이날 최태원 회장은 "심사 절차 역시 투명하고 엄정하게 진행할 것"이라고 밝혔다.구체적으로 "사계의 전문가(30여 명)들이 서류 심사를 진행하고 기업인들의 멘토링, 국민들의 집단지성을 통해 아이디어를 발전시킬 예정"이라며 "최종 오디션도 국민들의 지지를 담아 치를 계획"이라고 설명했다.'상시적인 아이디어 뱅크'도 만들겠다는 계획도 제시했다. 선택되지 못한 아이디어도 추후 보상받을 수 있는 마켓플레이스를 만들겠다는 것이다.최태원 회장은 "이번에 선발되지 못한 아이디어에 대해서도 국가발전에 도움이 될 수 있는 길을 모색하겠다"며 "국민들의 아이디어가 자유롭게 생성, 교환, 발전되는 상시 플랫폼을 개설하는 것을 목표로 한다"고 말했다.끝으로 최태원 회장은 "공모전은 대한상의가 처음 시도한 프로젝트"라며 "앞으로도 계속된 조언과 지지를 부탁드린다"고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[2021 국감]선불충전금 규모 1.6조원…"머지 사태에도 규제 미비"</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004987011?sid=100</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>"금감원은 운용 적정성을 판단해야"[이미지출처=연합뉴스]머지포인트 사태로 선불회사들의 이용자 예탁금 관리가 도마에 오른 가운데 국회 정무위원회 소속 송재호 더불어민주당 의원은 21일 “선불충전금 규모가 1조6000억원이 넘었지만 여전히 규제는 미비하다”고 지적했다.송 의원이 이날 금융감독원으로부터 제출받은 자료에 따르면 등록대상 선불업자 52개사의 선불충전금 규모는 올해 3월 기준 1조 6000억원이다. 다만 이번 조사에서 스타벅스는 선불업자에 속하지 않아 제외됐다.선불충전금이 가장 많은 곳은 카카오페이로 3211억 8000만원(19%)이었고, 코나아이 2697억 5700만원(16%), 하이패스카드 2462억 6600만원(14.6%), 티머니 2011억 1200만원(12%), 토스 1211억 1800만원(7%) 순이었다.현재 선불업자 52개사 중 26개사만 송금 기능을 가지고 있다. 지난해 만들어진 이용자보호 가이드라인에 따르면 송금이 가능한 기업은 100%, 비송금기업은 50%로 신탁 또는 보증보험에 가입해야 한다. 그러나 현재 가이드라인은 권고사항일뿐 강제력을 가지지 않는다는 비판이 나온다.송 의원은 “이용자 보호에 한계가 있고, 선불업자의 재정건전성 등에 대한 규제가 없어 이용자 충전금에 따른 이자수익은 기업의 사금융으로 이용된다”고 지적했다.이어 “머지포인트 사태 이후 금융사고나 이용자피해를 예방하기 위해 선불업자의 건전성이 필요하다”며 “선불충전금 규모가 1조 6000억 원에 달하는 만큼 금감원은 운용 적정성을 판단해야 한다”고 말했다.그러면서 “선불충전금에 대한 법적 규제가 없어 이를 외부에 예치할 경우 발생하는 이자나 운용상황을 알 수가 없다. 기업이 사적 유용이나 사금고처럼 이용할 수 있기 때문에 이자 부가소득에 대한 공론화가 필요하다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2021.10.16.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>마이데이터 D-40...IT인력 충원 서두르는 증권가</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002538688?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>9개 증권사 채용 진행 중업계-개발자 간 시각차 커ⓒ게티이미지뱅크[데일리안 = 황인욱 기자] 마이데이터 시범 사업이 다가오며 증권사들이 인력 채용을 확대하고 있다. 정보기술(IT) 분야 전문인력 확보에 총력을 기울이는 모습이다. 업계는 실무 능력을 갖춘 개발자를 선호하고 있어 증권사들 간 경쟁도 치열해질 전망이다.16일 금융투자협회에 따르면 국내 9개 증권사가 공채 및 상시채용을 진행 중이고, 2개 증권사는 다음달 채용을 진행할 예정이다.증권업계가 인력을 늘리는 건, 우선 시장의 변화에 대응하기 위해서다. 지난해부터 이어진 '동학개미운동'으로 위탁매매 수수료(브로커리지) 수익이 실적 상승을 이끌었으나 최근엔 유동성 축소 우려로 주춤한 상황이다.이에 투자은행(IB)과 트레이딩 및 이자수익을 통해 실적을 끌어올리겠다는 복안이다. 퇴직연금 투자시장이 새로운 먹거리로 떠오르고 있어 관련 부서 신설도 늘고 있다. 미래에셋·NH투자·KB증권 등은 최근 외부위탁운용관리(OCIO) 관련 부서를 신설해 사업 확장에 적극 나서고 있다.무엇보다 증권사들은 40여일 앞으로 다가온 마이데이터 사업에 대응할 인력 확보에 총력을 기울일 방침이다. 디지털·IT 분야가 본래 전문 영역이 아닌 만큼 관련 인력이 넉넉하지 않지 않기때문이다.현재까지 마이데이터 본허가를 취득한 증권사는 하나금융투자·미래에셋·한국투자·키움증권 등 4곳이고, 예비허가를 받은 곳은 신한금융투자·NH투자·KB·현대차·교보증권 등 5곳이다.미래에셋은 디지털 부문 경력직을 채용 중이며, 한국투자증권도 데이터분석, 클라우드 엔지니어 분야에서 일반공채 진행하고 있다.◆ 전문 개발자 모집 난항…"빅테크 수준 연봉 요구 부담"증권사들은 필요한 인재를 모집하는데 애를 먹고 있는 것으로 알려졌다. 정보기술(IT) 업계 개발자들과 금융투자업계 간 시각차가 큰 것이 원인으로 지목된다.한 금융투자업계 관계자는 "지원자는 많지만 정말 필요로 하는 실무능력을 갖춘 분들이 많지 않다"고 말했다. 이 관계자는 "빅테크업계 눈높이에 맞춰 과도한 연봉을 희망하는 점도 부담스런 부분"이라고 덧붙였다.IT업계 개발자들이 금융증권업계 진출을 꺼리는 분위기도 고급 인력 확보 난항에 원인이다. 한 스타트업 개발자는 "IT 개발자들은 대체로 빅테크 기업과 스타트업을 우선 순위로 생각하는 경우가 많다"며 "금융투자업계는 업무상 창의성 발휘가 어려워 장기적인 관점에서 커리어에 도움이 될지 의문이기 때문"이라고 설명했다.카카오·토스 등과 경쟁해야하는 점도 부담스러운 대목이다. 토스증권은 현재 110명이 재직 중인데 올해 연말까지 70~80명을 추가로 채용해 해외주식, 인공지능(AI) 자산관리 서비스를 준비할 계획이다.지난 8월에 있었던 경력 3년 이하 개발자 채용에서 5000명이 지원하며 화제를 모은 바 있다. 새로 시스템을 구축해야 하는 만큼 개발자들의 역량 발휘가 중요해, 다양한 업종에서 지원자가 몰린 것으로 알려졌다.업계 내부 인력으로 눈을 돌릴 경우 증권사들 간 인력지키기는 더 치열해질 전망이다. 한 예로 카카오페이증권은 지난해 2월 사업을 본격화한 이후 미래에셋증권 디지털·IT 직군 출신 인력 10여명을 수혈한 바 있다.한 증권업계 관계자는 "카카오와 토스 등과 사업영역이 겹치다보니 언제 인재를 빼앗길지 몰라 긴장되는 게 사실"이라며 "개발자들은 IT기업보다 딱딱한 분위기의 금융업종을 선호하지 않는 것 같다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2021.10.17.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>닻 올린 토스뱅크의 '파격' 카뱅 넘어설까</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000744310?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[편집자주]인터넷전문은행 삼국지가 막이 올랐다. 2017년 문을 열었던 케이뱅크와 카카오뱅크에 이어 토스뱅크가 지난 5일 세 번째로 인터넷전문은행 서비스를 시작했다. 토스뱅크는 기존 은행권보다 파격적인 혜택을 내세워 초기 흥행몰이에 성공했다는 평가를 받고 있다. 하지만 앞으로의 길은 험난할 것으로 예상된다. 중·저신용자 대출 비중을 2023년말까지 40%까지 달성해야 하고 향후 5년간 1조원 규모의 자본금을 확충해야 하는 숙제를 안고 있다. 여·수신 성장을 위해선 이용자 수를 확보하는 것도 관건이다. 무엇보다 정부의 가계대출 규제가 큰 부담이다. 정부 눈치에 결국, 지금의 파격적인 금리 혜택도 얼마 안 가 점차 줄여나갈 수밖에 없을 것이라는 게 업계의 분석이다. 지금의 개장 효과가 얼마나 이어지고 그 성과가 카카오뱅크를 뛰어넘을 수 있을지가 토스뱅크 위상을 가름할 것이라는 전망이다.국내 제3호 인터넷전문은행인 토스뱅크가 파격적인 조건을 내걸고 지난 5일부터 대출·예금 영업을 시작했다. 하지만 이같은 혜택의 ‘지속가능성’이란 면에선 물음표가 달린다. 2017년 출범한 카카오뱅크와 케이뱅크의 사례처럼 고객이 많이 모이는 초반 국면이 지나면 대출금리를 슬금슬금 끌어올릴 것이라는 관측이 나온다./그래픽=김영찬 기자‘조건 없이 연 2%의 이자를 주는 수시입출금 통장’, ’은행권에서 가장 낮은 연 2.76% 금리에 최대 2억7000만원까지 빌려주는 신용대출’, ‘매월 4만6500원을 돌려주는 체크카드’.국내 제3호 인터넷전문은행이자 20번째 은행인 토스뱅크가 이 같은 파격적인 조건을 내걸고 지난 5일부터 대출·예금 영업을 시작했다. 홍민택 토스뱅크 대표는 출범 첫날 “고객이 고민할 필요 없는 가장 단순한 상품을 제공하고 최고의 혜택을 고객에게 먼저 제시한다”고 강조했다.토스뱅크의 계좌를 개설하기 위해 지난 9월10일부터 시작한 사전접수에는 112만명이 몰리며 1·2호 인터넷은행인 케이뱅크·카카오뱅크와 치열한 경쟁을 예고했다. 금융당국의 가계대출 총량관리로 시중은행의 대출이 얼어붙은 상황에서 토스뱅크는 흥행을 이끌 것으로 기대된다. 하지만 토스뱅크의 파격적인 조건은 추후 중금리 대출 확대와 수익 실현 등의 이유로 재조정될 수밖에 없을 것이라는 게 전문가들의 전망이다.━여·수신 모두 2%대 파격 금리━토스뱅크는 대출 최저 금리에 최고 한도를 책정하며 고객몰이에 나섰다. 토스뱅크의 신용대출의 금리는 연 2.76~15%까지며 최대 한도는 2억7000만원이다. 마이너스통장 대출의 경우 토스뱅크는 연 3.26~13.1%의 금리로 최대 1억5000만원까지 빌려준다.5대 은행의 신용대출 최저금리가 연 3~4%대이고 카카오뱅크와 케이뱅크의 경우 각각 2.86%, 2.87%인 점을 감안하면 토스뱅크의 신용대출 최저금리는 은행권에서 가장 낮은 수준이다. 마이너스통장의 최저금리도 카카오뱅크는 연 3.35%, 케이뱅크는 연 3.36%로 토스뱅크보다 0.1%포인트 높다.은행권에서 억대 신용대출·마이너스 통장을 취급하는 곳도 드물다. 토스뱅크는 금융당국의 규제에 따라 대출 한도를 연소득 이내로 제한했지만 최대 한도가 2억7000만원에 달한다. 시중은행과 인터넷은행들의 신용대출 최대 한도는 5000만~1억5000만원이다. 연봉 2억원인 개인이 시중은행에서 1억원대 대출을 받을 수 있지만 토스뱅크에선 2억원까지 돈을 빌릴 수 있다는 얘기다. 특히 마이너스통장의 경우 시중은행들은 한도를 5000만원 이내로 줄이고 카카오뱅크는 연말까지 신규 취급을 중단한 상태에서 억대 마이너스통장을 개설할 수 있는 곳은 케이뱅크(1억원)와 토스뱅크뿐이다.금융당국의 고강도 가계대출 규제로 ‘대출 보릿고개’를 넘기 위한 대출 난민들이 토스뱅크로 몰릴 것이라는 전망이 나오는 이유다. 여기에 토스뱅크는 아무 조건 없이 연 2.0%의 이자를 주는 수시입출금식 통장도 선보여 금리 노마드(유목민)족을 끌어모을 것으로 보인다. 시중은행과 인터넷은행의 수시입출금식 통장 금리가 연 0.1%에 그친다는 점을 감안하면 이 역시 파격적인 금리다.━예정된 흥행, 예고된 배신으로 이어지나━사진=토스뱅크첫발을 내딛은 토스뱅크에 대한 평가는 개장효과 측면에선 대중의 관심을 사면서 긍정적인 평가를 받지만 ‘지속가능성’이란 면에선 물음표가 달린다. 2017년 출범한 카카오뱅크와 케이뱅크의 사례처럼 고객이 많이 모이는 초반 국면이 지나면 그때부터는 대출금리를 슬금슬금 끌어올릴 것이라는 관측이다.케이뱅크와 카카오뱅크는 출범 당시 각각 신용대출 최저금리를 각각 연 2.73%, 2.86%로 매겨 시중은행보다 저렴한 이자를 내세웠다. 그렇게 흥행몰이에 성공했던 케이뱅크와 카카오뱅크는 올 들어 대출 금리를 크게 올리며 논란이 됐다. ‘인터넷은행의 대출 이자가 싸다’는 생각으로 인터넷은행을 이용해오던 고객들은 배신감에 발길을 돌리고 있다.시중은행들이 최근 1년동안 고신용자(1~2등급)의 마이너스통장의 금리를 0.59~0.92%포인트 올리는 동안 카카오뱅크는 1.07%포인트, 케이뱅크는 1.04%포인트 인상했다. 신용대출 금리도 마찬가지다. 시중은행의 고신용자 신용대출 금리 인상폭은 0.5~0.99%포인트에 그쳤지만 카카오뱅크는 1.05%포인트에 이른다. 인터넷은행들이 출범 초기에는 가입자를 모으기 위해 낮은 금리를 내세웠지만 더이상 은행권 내 금리 경쟁력이 사라졌다는 지적이 나오는 대목이다.토스뱅크 역시 이같은 흐름에서 벗어나기 힘들 것으로 업계는 전망한다. 토스뱅크는 올해 말까지 전체 가계신용대출 가운데 중·저신용자 비중을 카카오뱅크(20.8%)·케이뱅크(21.5%)보다 높은 34.9%까지 끌어올려야 한다. 이에 최저 금리를 찾아 토스뱅크로 몰릴 가능성이 큰 고신용자의 대출을 점차 줄여나가는 방식을 쓸 수밖에 없을 것이란 지적이다. 금융당국이 연말까지 토스뱅크의 가계대출 총량을 5000억원으로 제한하는 권고를 내린 점도 이런 현상을 부추길 것이라는 분석도 나온다.현실적으로 시간이 지날수록 대출 한도를 줄이거나 금리를 올리는 식으로 대응할 수밖에 없다는 것이다. 홍민택 토스뱅크 대표가 “은행권 (통틀어 토스뱅크가) 대출 최저금리를 제공하는 것은 일시적인 전략이 아니다”고 일축했지만 여전히 물음표가 달리는 이유다.김영도 한국금융연구원 선임연구위원은 “토스뱅크의 이러한 혜택이 얼마나 유지될지는 시기의 문제로 보인다”며 “대출 수요가 늘고 있지만 돈줄이 막힌 상황에서 금융당국이 어느 수준까지 토스뱅크의 여신규모를 용인할지 지켜봐야할 것”이라고 말했다.성태윤 연세대 경제학부 교수는 “토스뱅크가 카카오뱅크처럼 수년 후 대출금리를 올릴 가능성이 크지만 인터넷은행의 파이가 커진다는 점에서 긍정적으로 평가한다”며 “기존 은행보다 인터넷은행 금리가 높아졌다고 하지만 이들의 등장으로 시중은행들이 대출금리를 섣불리 올리지 못하게 하는 방어역할을 했고 소비자에게 유리한 방향으로 은행 간 경쟁요소를 불어넣는다는 점에서 의미가 있다”고 말했다.━카뱅도 못지킨 약속… 토뱅은 "자신 있다“━토스뱅크의 목표는 명확하다. 더 좋은 금융 혜택을 더 많은 고객에게 제공한다는 포부다. 하지만 정부의 대출관리 압박, 중금리대출 확대, 이용자 확보, 자본금 확충 등 풀어내야 할 과제가 산적해있다. 이에 토스뱅크의 앞날이 '꽃길' 보다 '가시밭길'에 가까울 것이라는 시각도 나온다. 윤재옥 국회 정무위원회 위원장은 토스뱅크 출범식 축사를 통해 "토스뱅크가 나아가야 할 길이 순탄해 보이지만은 않다"고 평가한 것도 이 같은 이유에서다.토스뱅크는 인터넷은행의 출범 목표인 중금리대출 활성화에 주목해 중·저신용자 신용대출 비중을 올해 34.9%로 잡았다. 2022년 42%, 2023년엔 44%로 올려놓겠다는 계획이다. 카카오뱅크와 케이뱅크는 올해 20.8%, 21.5%, 2022년 각각 25%, 오는 2023년 목표치는 30%, 32%로 잡았다. 토스뱅크는 올해가 석 달도 남지 않은 상황이지만 카카오뱅크, 케이뱅크의 목표치를 연내 뛰어넘겠다는 포부다.하지만 이 호언장담엔 기대와 동시에 물음표가 뒤따르고 있다. 카카오뱅크의 약속이 '반쪽 성공'에 그치면서다. 카카오뱅크는 올해 초 중·저신용자 대출 확대를 약속했지만 설립 취지에 부합하지 못하고 고신용자를 통한 수익성 위주의 장사를 이어가고 있단 지적이 나왔다.실제 국회 정무위원회 소속 배진교(정의당·비례대표) 의원에 따르면 올 상반기 신용점수 900점 이상인 고신용자에 대한 신용대출, 전세자금대출 비중은 시중은행은 57.7%, 카카오뱅크는 이보다 높은 74.2%에 달했다. 또 카카오뱅크는 올 연말까지 중·저신용자 대출 비중을 20.8%까지 높인다고 금융당국과 약속했지만 지난 8월 말 기준 중신용자 대출 비중이 12.4%에 그쳤다. 앞서 금융당국과 인터넷은행은 지난 5월 2023년말까지 중·저신용자 신용대출 비중을 30%까지 올린다는 계획을 세운 바 있다.토스뱅크 관계자는 "기존 신용평가모형은 안전하게 이익을 얻을 수 있는 고신용자를 찾는데 목표를 두고 있지만 토스뱅크는 자체 신용평가모형 'TSS'를 구축해 중·저신용자, 사회초년생, 개인사업자 등 신용대출이 필요하지만 소외됐던 대상을 포괄할 수 있다"며 연내 목표치 도달에 자신감을 내비쳤다.━이미 둥지 튼 이용자… '원 앱'으로 잡는다━사진=토스뱅크토스뱅크는 서비스 사전신청에만 고객 112만명이 몰리는 등 초반 흥행몰이에 성공했다는 평가가 나오지만 서비스 '지속 가능성'을 위해선 이용자 확보가 관건으로 지목된다. 후발주자로 뛰어든 만큼 이미 다른 인터넷은행에 둥지를 튼 고객의 가입을 유도하고 이탈을 방지하는 게 주요 과제로 지목된다.현재 인터넷은행 중 가장 많은 고객 수를 확보한 곳은 카카오뱅크로 2017년 7월 출범 당시 100만명이던 고객 수는 지난 8월말 기준 1717만명으로 17배 이상 뛰어올랐다. SNS(소셜네트워크서비스) 카카오톡 이용자를 끌어들인 게 주효했다. 반면 케이뱅크는 지난해 6월 가상화폐거래소 '업비트'와 제휴해 고객을 확보했다. 그 결과 2017년 4월 문을 연 이후 지난 2분기 처음으로 흑자전환에 성공했다. 고객유치에 따른 여·수신 확대가 실적 성장을 이끌었다.토스뱅크의 전략은 '원 앱'이다. 별도의 앱 없이 기존 토스 앱으로 은행 서비스를 이용할 수 있단 점을 강점으로 꼽는다. 토스 앱의 MAU(월간활성사용자수)는 1200만명에 달하는데 이들을 토스뱅크 고객으로 흡수해 몸집을 키운다는 전략이다.정준섭 NH투자증권 연구원은 "토스의 플랫폼 파워와 마케팅의 성과는 토스증권을 통해 충분히 입증돼 토스뱅크가 목표로 하는 수준의 계좌, 수신 확보는 충분히 가능할 것으로 보인다"고 내다봤다.━건전성 관리, 자본금 확충은 어떻게━ 무엇보다 '지속 가능성'을 위해선 건전성, 자본금 확충이 필요하다는 지적이다. 특히 카카오뱅크, 케이뱅크와 비교해 중금리대출 비중을 높게 잡은 만큼 중·저신용자 확대에 따른 연체율 관리도 요구된다. 부실위험이 높은 중·저신용자에 대한 신용대출 확대는 연체율 상승으로 이어져 재무 건전성을 저하시킬 수 있기 때문이다.한국은행이 지난달 발표한 '금융안정 상황' 보고서에 따르면 인터넷은행 신용대출 연체율을 과거 연체율 변화 등을 활용해 예측해본 결과 지난해 0.7%에서 올해 말 1.3%, 오는 2022과 2023년 중엔 1.7~2.2%로 상승할 것으로 추정됐다.이와 관련 홍민택 대표는 "감당할 수 있다"며 "저신용자에게 여신을 제공하는 만큼 그에 맞는 사후관리 리스크 관리 체계가 구축돼 있다"고 자신했다.토스뱅크는 현재 2500억원 수준의 자본금을 앞으로 5년동안 1조원까지 키워야 하는 숙제도 안고 있다. 과거 케이뱅크가 자본금 확충을 위한 유상 증자에 연이어 실패하면서 2019년 5월부터 지난해 7월까지 대출 사업을 중단한 바 있다. 토스뱅크의 '지속 가능성'을 위해선 자본금 확충이 절실한 상황이다. 홍민택 대표는 "무엇보다 서비스 중단 없이 더 빠르게 증자할 수 있도록 주주사들과 사전 협의가 돼 있다"고 설명했다.서지용 상명대학교 경영학과 교수는 "앞서 5년 동안 1조원이라는 자본금 확충 계획을 밝혔지만 증자를 서두르지 않을 경우 과거 케이뱅크 사례가 나타날 수도 있다"며 "계획한 서비스, 목표한 신용대출 비중 도달 등을 위해선 증자에 속도를 내야할 것으로 보인다"고 진단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>알체라, 비대면 신원확인 수요에 금융권 20여개 고객사 확보</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002977420?sid=105</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>황영규 알체라 대표인공지능(AI) 영상인식 기술기업 알체라(대표 황영규)가 비대면 신원확인(e-KYC) 수요에 힘입어 올해만 금융권에서 20여개 신규 고객사를 확보했다. 알체라는 기존 출입통제, 화재감지, 이상상황감지 등 안전 분야를 넘어 금융 시장으로 영역을 확대했다.알체라는 올해 금융 시장에 본격 진출하면서 제1금융권을 비롯한 유수 금융사에 자사 기술을 공급했다고 25일 밝혔다. 카카오뱅크, 토스뱅크를 비롯해 신한은행, 광주은행, 전북은행 등이 주요 고객사다. 회사 측은 연내 다른 금융사와 추가 계약도 기대하고 있다.알체라가 금융권에서 두각을 보이는 건 코로나19 사태 이후 e-KYC 수요가 급증했기 때문이다. 금융사는 탈세, 자금세탁, 테러자금지원 등 불법거래를 방지하기 위해 고객 신원과 실사용자를 확인해야 할 의무가 있다. 최근 비대면 금융거래가 폭증하면서 e-KYC 전환이 가파르게 진행됐다. 국회 정무위원회 소속 김병욱 더불어민주당 의원(성남 분당구을)이 금융감독원에서 제출받은 자료에 따르면 올 상반기 증권 신규 계좌 2280만7722건 가운데 88.7%(2024만7598건)가 비대면 개설됐다.e-KYC는 신원확인을 뜻하는 'KYC(Know Your Customer)'가 온라인에서 처리되는 것을 이르는 용어다. 자금세탁방지를 위한 특정금융정보법이 시행되면서 암호화폐 거래소 등으로 신원확인 의무가 확대, e-KYC 수요가 더욱 상승했다. 글로벌 시장조사업체 팩츠앤팩터스에 따르면 e-KYC 시장은 2019~2026년 연평균 성장률 22%를 보이며 약 10억달러(1조2000억원)까지 성장할 전망이다.알체라는 데이터 가공부터 개발까지 전 과정을 자체 수행하는 국내 AI 영상인식 기술기업이다.2016년 설립된 이래 보안, 핀테크, 화재감지, 이상상황감지 등 다양한 분야에 AI 기술을 공급해 왔다. 현재 임직원은 120여명이며 데이터 제작 인력 100여명을 별도로 운용하고 있다.네이버 자회사 스노우가 알체라 지분 약 15%를 보유, 협력관계를 이어오고 있다.지난해 12월엔 스노우와 조인트벤처(JV) '플레이스에이'를 설립, 실시간 3차원(3D) 전신 인식 기술을 개발 중이다.알체라가 공급하는 AI 얼굴인식 솔루션은 두 가지로 구성된다. 첫째 e-KYC는 이용자의 셀프 카메라 사진과 신분증을 대조하는 서비스, 둘째 신분증 진위확인은 신분증 사진을 각 발급기관에 등록된 사진과 비교하는 서비스다. 알체라의 AI 얼굴인식 기술을 활용하면 0.5초당 약 100만명을 스캔할 수 있다. 이때 스캔한 생체(얼굴)정보는 암호화한 뒤 분산 저장, 보안성을 확보한다.AI 얼굴인식을 활용한 신원확인 서비스는 신분증과 셀프 카메라 사진 촬영을 대조하기 때문에 신분증 위조와 도용 방지에 효과적이다. 인식을 위한 별도 장비가 필요하지 않아 구축이 편리하다. 사진 촬영이라는 직관적인 방법을 활용해 이용자 경험을 개선한다. 우리나라 외교부는 비대면 여권 인식과 발부를 위해 이 서비스를 도입한 바 있다.황영규 알체라 대표는 “알체라 AI 얼굴인식 솔루션은 현재 서버 내 구축 형태(온프레미스)로 제공하고 있지만 앞으로 서비스형 소프트웨어(SaaS) 기반 구독형 모델로 확장할 것”이라면서 “이를 통해 금융권 디지털 전환을 본격 지원할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>토스, 워라밸 높이고 대우는 업계 최고 수준으로 강화</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000629517?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>주 4.5일 및 '겨울방학' 정례화, 포괄임금제 폐지토스가 근태 및 고과 부문에서 과감한 제도를 도입한다.19일 토스는 11월부터 '워라밸 및  보상강화' '단기 평가 폐지'로 요약할 수 있다.지난 연말 휴가 제도인 '겨울방학' 도 정례화된다. '겨울방학'은 성탄절을 전후하여 약 10일 간의 전사 휴무를 갖는 제도다. 고객센터 등 일부 필수 인력을 제외 하고 모든 팀원이 쉬는 것을 원칙으로 한다. 또한, 사내 메신저도 업무 종료 후 상호 답변을 요구하지 않는 휴식모드에 들어간다.간편 결제 서비스 '토스' 개발사인 비바리퍼블리카가 신규 본인확인기관으로 지정됐다. [사진=토스]선택적근로시간제 도입과 함께, 휴가 사용과 재택 근무, 출퇴근 시간 등 근태를 별도의 승인 없이 구성원 자율에 맡기는 원칙은 변함없이 유지된다. 그 동안 높은 퍼포먼스와 몰입을 지향하는 문화를 바탕으로, 상호 신뢰가 구축되었다는 판단에서다.현재 포괄임금제는 내년 초 비포괄임금제로 전환한다. 새 임금제도에서는 법정 표준 근무시간인 주 40시간을 초과한 근무시간은 연봉 외에 별도 수당이 지급되기 때문에, 신규 입사자 뿐 아니라 기존 입사자들에게도 기존 연봉이 크게 상승하는 효과가 있다는 설명이다. 다만 총 근무시간은 주 52시간을 초할 수 없다.평가 제도도 대폭 바뀐다. 토스 초창기부터 전통적 인사 고과의 대안으로 운영되던 '3개월 리뷰 과정'과 '스트라이크' 제도가 폐지된다.토스는 입사 지원자와 재직자 모두에게 충분한 심리적 안정감을 제공하는 것이 장기적으로 팀의 성공에 더 효과적이라고 판단, 이 제도를 폐지하기로 했다.토스는 대신 채용 절차 고도화 및 동료간 자유로운 업무 피드백 문화 활성화를 통해 조직의 인재 밀도와 역량을 관리해 나갈 방침이다.박토니 토스 피플앤컬쳐팀 리더는 "인력 규모와 다양성이 증가하며 인사 제도의 변화는 계속 되겠지만, 신뢰에 기반한 자율과 책임, 높은 퍼포먼스 지향의 문화라는 핵심원칙은 변하지 않을 것" 이라고 설명했다.한편 이번 인사제도는 토스(법인명 비바리퍼블리카)는 물론, 토스뱅크, 토스증권, 토스페이먼츠 등 주요 계열사에 모두 동일하게 적용된다. 다만 고객 상담업무를 하는 토스CX 와 보험 컨설턴트 중심 조직인 토스인슈어런스는 업무 특성을 감안하여 수습기간 유지 등 자체 인사제도를 운영할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>전세대출 '증액분만 잔금일 전' 규제 모든 은행서 시행</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002542030?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>서울 시내의 한 은행 외벽에 대출 상품 안내문이 붙어 있다.ⓒ연합뉴스[데일리안 = 부광우 기자] 전세대출을 전셋값 증액분 만큼만 잔금 지급일 이전에 받을 수 있게 하는 규제가 모든 은행에서 시행된다. 집을 갖고 있는 사람이 전세대출을 받으려면 깐깐한 오프라인 심사를 거쳐야만 한다.27일 금융권에 따르면 소매금융을 취급하는 국내 17개 은행은 임대차계약 갱신에 따른 전세자금 대출의 한도를 임차보증금 증액 금액 범위 이내로 축소하기로 했다. 은행권은 늦어도 이달 안에 해당 규제를 도입할 계획이다.예를 들어 4억원이었던 전세 보증금이 임대차보호법의 상한선인 5%만큼 올랐다면, 지금까지 전세대출 한도는 총 전세금인 4억2000만원 대비 80%인 3억3600만원이었다. 만약 기존 대출이 2억원이었다면 차액인 1억3600만원을 빌릴 수 있었다. 그런데 앞으로는 보증금 증액분인 2000만원까지로 전세대출 한도가 묶이게 된다.전세대출이 가능한 시간적 여유도 크게 축소된다. 현재는 신규 전세의 경우 입주일이나 전입일 가운데 이른 날로부터 3개월 이내까지 전세대출을 신청할 수 있지만, 이제는 잔금 지급일 이전까지만 가능하다. 다른 곳에서 돈을 융통해 일단 전셋값을 치르고 입주한 뒤 석 달 내 은행에서 전세대출을 받아 자금을 해결하던 방식이 차단된다는 의미다.아울러 이들 은행은 임대차계약서상 잔금 지급일 이전까지만 전세자금 대출을 내줄 방침이다. 현재 은행들은 신규 임차(전세)의 경우, 입주일과 주민등록전입일 가운데 이른 날로부터 3개월 이내까지 전세자금 대출 신청을 받았다. 하지만, 잔금 지급일 이전까지만 대출을 내주게 되면 대출 신청 가능 기간이 크게 줄어든다.이미 주택을 보유하고 있는 사람이 전세대출을 받으려면 반드시 은행 창구를 찾아 심사를 거쳐야 한다. 은행들이 1주택 보유자의 비대면 전세대출을 막기로 하면서다.다만 케이뱅크의 1주택자 비대면 전세대출의 경우 당국이나 업계가 무리하게 막지 않는 분위기다. 케이뱅크는 대면 창구가 없는 인터넷전문은행으로서 1주택자 비대면 전세대출 금지에 따른 어려움을 호소한 것으로 알려졌다.반면 같은 인터넷은행이라도 카카오뱅크는 1주택자 비대면 전세대출을 중단하기로 했다. 토스뱅크는 아직 전세대출 상품을 취급하지 않고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2021.10.31.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>"떠나요 해외로"…환전 수수료 아껴 여행경비 보태볼까</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004622785?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크은행앱서 달러 환전하면최대 90% 수수료 할인中 위안화·태국 바트화우대율 낮고 수수료 높아달러 가져가 현지서 환전‘위드 코로나’로 하늘길이 다시 열릴 것이란 기대감이 높아지는 가운데 해외여행이나 출장경비 마련을 위한 환전 수요도 늘어날 것으로 예상된다. 국내 시중은행의 환전 서비스를 이용하면 주요 통화 기준 최대 90%까지 수수료 우대 혜택을 받을 수 있다. 연간 한도는 있지만 수수료를 받지 않고 환전 서비스를 제공하는 핀테크 기업도 있다.전국은행연합회 공시에 따르면 경남·국민·기업·농협·대구·부산·신한·우리·제주·하나은행 등의 미국 달러 환전 수수료는 모두 1.75%다. 달러는 거래실적을 쌓고 각 은행의 모바일 앱을 통해 환전하면 최대 90%까지 수수료 할인을 받을 수 있다. 엔과 유로 등 주요 통화에 대해서도 최대 80~90% 수준의 수수료 우대가 제공된다.반면 중국 위안화와 태국 바트화 등은 5대 대형은행 기준 수수료가 5~6%로 비교적 높은 편이다. 수수료 우대율도 최대 30~60%로 달러와 유로 등에 비해 낮다. 필리핀 페소와 베트남 동 등은 수수료가 10%대로 뛰기도 한다. 이들 화폐는 한국에서 원화를 달러로 바꾸고, 현지에서 달러를 해당 지역 통화로 다시 바꾸는 ‘이중 환전’이 수수료를 아끼는 방법이 될 수 있다.핀테크 기업들의 서비스를 이용하면 은행보다 수수료를 더 아낄 수 있다. 토스는 첫 1회에 한해 달러·엔·유로 환전 수수료를 받지 않는다. 그 이후부턴 은행과 비슷한 수준인 최대 90%까지 환전 수수료를 감면해준다.트래블월렛은 달러와 유로, 엔을 환전할 때 횟수 제한 없이 수수료가 무료다. 바트와 동, 페소 등 12개 통화에 대해서도 0.5%만 받고 있다. 김형우 트래블월렛 대표는 “현지에 있는 메이저 은행들과 다이렉트 송금망을 구축했기 때문에 낮은 수수료율을 유지할 수 있다”고 설명했다. 다만 환전가액 한도가 없는 은행과 달리 트래블월렛 서비스의 경우 1회에 5000달러, 1년에 5만달러까지만 원화를 외국 통화로 바꿀 수 있다.환전하지 않고 신용카드를 이용해 해외에서 바로 결제할 때는 비자나 마스터카드 등 해외 결제 브랜드에 내는 수수료 등이 붙어 환전에 비해 2~3%의 추가 비용이 드는 것으로 알려졌다. 트래블월렛은 이런 결제 관련 수수료를 ‘제로(0)’ 수준으로 낮춘 트래블페이 서비스도 운영하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>스타벅스, 금감원 조사받는다…미등록 선불업체 58곳 타깃</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005065385?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>선불업체 등록 대상 아니지만, 충전금 규모 커금감원, 머지포인트 사태 재발방지용 전수조사서울의 한 이마트 내 입점한 스타벅스 매장.(사진=연합뉴스)[이데일리 전선형 기자] 금융감독원이 미등록 선불전자지급수단 발행업체(페이 업체)에 대한 전수조사를 실시한다. 이번 조사에는 스타벅스 등 대형 유통업체도 포함됐다. 21일 금융업계에 따르면 금감원은 최근 전자식 상품권을 발행하는 미등록 선불업체 58곳으로부터 사업 현황 자료를 전달받고 조사를 진행중이다. 구체적으로 전자식 상품권 발행 잔액 및 사용 가맹점 수 등을 분석한다. 이번 조사는 제2의 머지포인트 사태를 방지하기 위해 이뤄지는 것으로 조사 결과에 따라 사업체가 전자금융거래법에 부합하면 정부 등록을 권고하고, 이를 따르지 않을 경우 검경에 수사 의뢰해 소비자 피해자를 선제적으로 방지할 계획이다. 스타벅스는 현행법상 선불업체 등록 대상은 아니다. 전자금융거래법에 따르면, 자사의 가맹점 내에서만 선불기능을 사용하는 업체는 정부 등록 의무에서 제외되는 탓이다. 스타벅스는 자사 모바일 앱을 통해 선불금 충전과 사용이 가능하다. 하지만 스타벅스의 선불충전금 규모가 상당하고, 부실이 발생했을 때 소비자피해가 클 것으로 우려돼 조사대상에 포함됐다. 실제 홍성국 더불어민주당 의원의 자료에 따르면 스타벅스 선불충전금은 1801억원에 달한다. 이는 기존 선불업체인 네이버파이낸셜(1264억원), 토스(1301억원)와 맞먹는 규모다.금감원 관계자는 “미등록 선불업체에 자료를 받아 분석 중에 있고, 스타벅스가 포함된 것은 맞다”고 말했다. 이에 대해 스타벅스 관계자는 “현재 금융당국에서 건전성 검사를 하고 있지만 부정적인 의미의 조사는 아니다”라며 “스타벅스 카드의 선불 충전금은 간편한 결제 편의 서비스를 제공하기 위한 예치금으로 언제든지 환불할 수 있으며, 2년전부터 전자상거래보증보험에 가입돼 있는 상태”라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>“경고 세 번에 퇴사권고 폐지”…토스, 새 인사 제도 발표</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005063509?sid=105</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>핵심 역량 평가때문이라지만..퇴사자 속출에 혁신기업대신 나쁜 기업이란 평가 받아11월 말부터 시행토스, 토스뱅크, 토스증권, 토스페이먼츠 공통 시행주 4.5일 및 ‘겨울방학’ 정례화, 포괄임금제 폐지로 처우 높아져[이데일리 김현아 기자]이승건 비바리퍼블리카 대표. 이데일리DB토스가 팀 안에서 경고를 세 번 받은 직원에게 퇴사를 권고하는 소위 ‘스트라이크’ 제도를 폐지한다. 이 제도는 팀 내부적으로 ‘모 직원과 함께 일하기 어렵다’는 의견이 접수되면 일종의 경고와 같은 ‘스트라이크’를 해당 개인에게 부여해 퇴사를 권고하는 제도인데, 오히려 사내 분위기를 망치고 인재들의 줄퇴사를 앞당긴다는 비판을 받아왔다. 그런데 이번에 ‘스트라이크’ 제도를 폐지하기로 했다. “경고 세번 퇴사 폐지해 자유로운 피드백 문화 만들 것”토스를 서비스하는 비바리퍼블리카는 11월 말부터 토스 초창기부터 ‘3개월 리뷰 과정’과 ‘스트라이크’ 제도를 폐지한다고 19일 발표했다.이 제도는 동료간 적극적인 피드백을 통해 신규 입사자의 성과 수준을 높이고, 구성원들의 도덕적 해이를 방지 한다는 취지에서 운영했지만, 여러 논란이 끊이지 않았다.실제로 토스는 높은 연봉에도 불구하고 퇴사자가 많은 기업으로 꼽혔다. 기업정보사이트 크레딧잡이 국민연금 정보를 기반으로 작성한 자료에 따르면, 2020년 2월 기준으로 지난 1년간 비바리퍼블리카에 입사한 사람은 259명이었고 퇴사자는 102명이었다. 3명이 입사하면 이 중 적어도 1명은 퇴사한다는 얘기다. 이에 대해 토스 관계자는 “퇴사자로 집계된 인원 중 상당수는 계열사 전보나 계약 종료로 인한 것이며 실제 퇴사율은 IT업계 평균 수준”이라며 “스트라이크로 퇴사한 경우는 전체 퇴사의 1%가 채 안된다”고 해명했다.하지만, IT 업계에서 토스가 유지해 온 ‘스트라이크’ 제도는 개인의 창의성뿐 아니라 집단지성이 중요한 혁신 기업에 어울리지 않는다는 얘기가 많았다.토스는 ‘경고 세번 퇴사권고’ 제도를 폐지한 이유로 ‘입사 지원자와 재직자 모두에게 충분한 심리적 안정감을 제공하는 것이 장기적으로 팀의 성공에 더 효과적이라고 판단, 이 제도를 폐지하기로 했다’고 밝혔다.하지만 그렇다고 높은 성과(퍼포먼스)를 지향하는 기업문화를 바꾸는 것은 아니다.  회사는 ‘스트라이크 제도’는 없애지만, 채용 절차 고도화 및 동료간 자유로운 업무 피드백 문화 활성화를 통해 조직의 인재 밀도와 역량을 관리해 나갈 방침이라고 했다.박토니 피플앤컬쳐팀 리더는 “인력 규모와 다양성이 증가하며 인사 제도의 변화는 계속 되겠지만, 신뢰에 기반한 자율과 책임, 높은 퍼포먼스 지향의 문화라는 핵심원칙은 변하지 않을 것” 이라고 설명했다. 주 4.5일 및 ‘겨울방학’ 정례화, 포괄임금제 폐지로 처우 높아져  이번 개편으로 워라밸 및  보상강화도 이뤄진다.지난 연말 휴가 제도인 ‘겨울방학’ 도 정례화된다. ‘겨울방학’은 성탄절을 전후하여 약 10일 간의 전사 휴무를 갖는 제도다. 고객센터 등 일부 필수 인력을 제외 하고 모든 팀원이 쉬는 것을 원칙으로 한다. 사내 메신저도 업무 종료 후 상호 답변을 요구하지 않는 휴식모드에 들어간다.  선택적근로시간제 도입과 함께, 휴가 사용과 재택 근무, 출퇴근 시간 등 근태를 별도의 승인 없이 구성원 자율에 맡기는 원칙은 변함없이 유지된다. 그 동안 높은 퍼포먼스와 몰입을 지향하는 문화를 바탕으로, 상호 신뢰가 구축되었다는 판단에서다. 현재 포괄임금제는 내년 초 비포괄임금제로 전환한다. 새 임금제도에서는 법정 표준 근무시간인 주 40시간을 초과한 근무시간은 연봉 외에 별도 수당이 지급되기 때문에, 신규 입사자 뿐 아니라 기존 입사자들에게도 기존 연봉이 크게 상승하는 효과가 있다.(단, 총 근무시간은 주 52시간 초과 불가)  이번 인사제도는 토스(법인명 비바리퍼블리카)는 물론, 토스뱅크, 토스증권, 토스페이먼츠 등 주요 계열사에 모두 동일하게 적용된다.  단, 고객 상담업무를 하는 토스CX 와 보험 컨설턴트 중심 조직인 토스인슈어런스는 업무 특성을 감안하여 수습기간 유지 등 자체 인사제도를 운영할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>코스피 주춤하자 동학개미 장외주식 기웃…전용앱도 봇물</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004868958?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>핀테크 업체 9곳 대기이용자 절반 MZ세대K-OTC 거래 6배 '쑥' 올해 기업공개(IPO)가 활발하고 공모주시장이 달아오르면서 개인 투자자들의 비상장 주식 장외거래도 급증하고 있다. 특히, 20·30대 MZ세대 참여가 활발해 눈길을 끈다. 애플리케이션(앱)만 깔면 거래가 가능하고, 과거처럼 사기를 당할 우려도 크게 낮아졌기 때문이라는 분석이다. 공모주 청약을 해도 1주밖에 못 받기 때문에 미리 좋은 종목을 선점해 수익을 극대화하기 위해서라는 평가도 나온다.24일 금융투자업계 등에 따르면 최근 금융위원회에 비상장 주식 거래 플랫폼 서비스를 하겠다며 9개 업체가 혁신금융서비스 지정 신청을 했다. 혁신금융서비스로 지정 받으면 금융투자업 인가가 면제된다. 금융위는 지난해 4월 피에스엑스(서울거래소 비상장)와 두나무(증권플러스 비상장) 등 2곳이 비상장 주식 거래 플랫폼 사업을 할 수 있게 허가했다. 핀테크 업체가 줄을 길게 늘어선 건 비상장 주식 거래가 급증하고 있기 때문이다. 금융투자협회가 운영하는 준공공 성격 K-OTC의 경우 2017년 하루 평균 거래대금이 10억9000만원이었지만 올 상반기에 64억7000만원으로 약 6배 증가했다. 이환태 금투협 시장관리본부 부장은 "개설 이후 지난 22일까지 누적거래대금은 4조9565억원으로 5조원 돌파를 앞둘 정도로 성장세가 가파르다"고 밝혔다.지난해 12월 문을 연 서울거래소 비상장의 경우 비바리퍼블리카(토스), 야놀자, 케이뱅크, 컬리, 오아시스 등 상장이 임박했고 젊은 세대에게 인기가 있는 기업이 많다. 이에 지난달 말 기준으로 20·30대 회원 비중이 전체의 절반에 가까운 47%에 이른다. 한 달 동안 최소 1회 이상 앱에 접속한 회원(월간활성화이용자·MAU)도 올해 초 10만명에서 지난달 말 29만명으로 3배 급증했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2021.10.28.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>"은행 곧 사라진다" 우려에...고승범, '음식배달'도 허용 검토</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000637714?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>고승범 금융위원장, 시중은행장과 간담회"은행 투자자문업, 모든 상품으로 확대""금융권-빅테크 간 규제 차익 없도록 노력"고승범 금융위원장이 28일 서울 중구 은행회관에서 열린 '금융위원장-은행업계 간담회'에 참석한 시중은행장들과 기념촬영을 하고 있다. 연합뉴스고승범 금융위원장이 28일 "부동산으로 제한한 은행의 투자자문업을 모든 상품으로 넓히고 은행 부수 업무도 합리적인 수준으로 확대하는 방안을 검토하겠다"고 밝혔다. 은행권이 전통적인 업무에만 매몰되지 않고 새로운 먹거리를 찾을 수 있도록 돕겠다는 취지다.고 위원장은 이날 서울 중구 은행연합회에서 열린 주요 시중은행장과의 간담회에서 "지난 5월 영국 이코노미스트지는 '은행이 사라진 세상이 곧 도래할지 모른다'고 언급했는데 금융산업 근간인 은행업의 경쟁력 강화를 위해 정부도 함께 고민하겠다"며 이같이 말했다.고 위원장은 우선 은행의 겸영·부수 업무를 적극 넓히겠다고 했다. 그는 "은행이 종합재산관리자의 역할을 수행할 수 있도록 신탁재산 범위를 확대하고 다양한 방식의 신탁을 허용하는 방향으로 제도를 개선하겠다"고 밝혔다. 고 위원장은 증권업계가 반대하고 있는 은행의 투자자문업 진출도 허용하기로 했다. 현재 은행은 부동산 투자만 자문할 수 있다.고 위원장은 "혁신금융서비스로 지정돼 운영 중인 은행의 부수 업무도 확대하는 방안을 검토하겠다"고 했다. 은행이 규제를 일정 기간 적용받지 않는 혁신금융서비스를 통해 본연의 업무 외에 실시하고 있는 부수 업무는 신한은행 '음식배달 서비스'가 대표적이다.고 위원장은 또 "은행이 하나의 '슈퍼 애플리케이션'으로 은행, 증권, 보험 등 다양한 서비스를 제공하는 '디지털 유니버설 뱅크'가 가능하도록 제도적 여건을 조성할 생각"이라고 말했다.고 위원장은 카카오뱅크, 토스뱅크 등 빅테크가 금융업에 진출하는 것과 관련해선 "빅테크는 금융분야 경쟁과 혁신을 촉진하는 역할을 수행했다"면서도 "정부는 금융권과 빅테크 간 불합리한 규제 차익이 발생하지 않는 공정한 경쟁 환경을 만들도록 노력하겠다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2021.10.18.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>'토스보험파트너' 가입 설계사 10만명 돌파</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002976023?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>모바일 금융 플랫폼 토스가 내놓은 보험설계사 전용 영업지원 앱 '토스보험파트너' 가입 설계사가 10만명을 돌파했다.18일 토스보험파트너에 따르면 지난 5월 가입 설계사 5만명을 돌파한 후 약 4개월 만에 10만 가입자를 확보했다. 손해보험과 생명보험협회에 등록된 설계사가 약 40만명이라는 점을 감안하면 설계사 4명 중 1명이 토스보험파트너에 가입한 셈이다.토스보험파트너는 보험협회에 등록된 설계사만 가입할 수 있는 설계사 전용 영업지원 앱이다. 대형보험사 전속 설계사를 비롯해 대형 GA(보험대리점) 소속 설계사도 유입하고 있다.지난해 8월 토스보험파트너 출시 후 등록 설계사에게 상담이 연결된 건수는 10월 현재 누적 320만건에 달한다고 토스 측은 밝혔다. 고객 리뷰는 82만건을 돌파했다.현재 토스보험파트너 가입 설계사가 가장 많은 보험사는 메리츠화재다. 소속 설계사 약 7100명이 서비스를 이용하고 있다.이어 삼성생명·삼성화재(4600명), DB손해보험(4500명) 등이 가입자 상위 보험사에 이름을 올렸다. 보험법인대리점(GA) 중에는 한화생명금융서비스(4400명), 프라임에셋(3200명), 인카금융서비스(2600명) 순으로 가입자가 많았다.토스보험파트너 관계자는 “토스 사용자와 설계사, 보험사까지 연결할 수 있는 새로운 생태계를 만들어 가고 있다”며 “앞으로도 고객이 새로운 보험상담과 가입까지의 경험을 이어갈 수 있도록 서비스를 고도화하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>빅테크 보험판매 길 열리지만…車보험 금지 등 제약 많을 듯 [인더머니]</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001901528?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>보험업계 유통종속 우려방카·GA수준 규제 적용수수료·판매비중 제한도[헤럴드경제=정경수 기자] 금융위원회가 카카오페이·토스 등 빅테크의 보험 중개를 허용하기로 가닥을 잡으면서 기존 보험사들의 유통시장 종속 우려도 다시 커지게 됐다. 이 때문에 금융위가 빅테크 에 적용할 각종 판매 규제에 관심이 모아지고 있다.20일 금융당국에 따르면 금융위원회는 온라인·모바일 플랫폼을 통한 보험판매 가이드라인에 사전, 사후적 판매 규율을 담을 계획이다. 보험대리점(GA)으로 등록할 수 있게 진입규제를 개선하는 만큼 소비자 보호 책임도 강화한다는 취지다. 기존 보험사나 보험대리점과 공정경쟁을 보장하기 위한 목적도 있다.먼저 모집상품 범위다. 온라인플랫폼 보험대리점은 CM(사이버마케팅) 상품만 팔도록 제한하는 방안이 검토되고 있다. 오프라인 전용인 GA 상품이나 TM(텔레마케팅) 상품은 팔지 못한다. CM 보험상품은 특약이 많지 않아 비교적 상품 구조가 단순하다. 또 수수료도 가장 저렴하게 설계돼 있다.자동차보험도 취급하지 못할 가능성이 크다. 금융소비자보호법 이슈와 별개로 금융당국은 플랫폼의 자동차보험 비교·추천 서비스에 대해 부정적인 입장을 업계에 전달한 바 있다. 자동차보험은 의무보험인 데다가 상품 간 차별도가 낮아 플랫폼 의존도가 높아질 수 있다는 이유에서다. 이미 자동차보험 가입자의 약 50%가 비대면 채널을 통해 가입하고 있다.또 보험료가 인상될 우려도 금지 이유가 된다. 현재 다이렉트 자동차보험은 오프라인보다 18%가량 보험료가 저렴하다. 그런데 플랫폼이 중개를 하면 ‘원수사→고객’의 직거래 구조가 ‘원수사-유통업자(빅테크)-고객’의 옛 구조로 돌아가 소비자에게 돌아가는 할인 혜택이 줄 수 있다.방카슈랑스(은행서 보험 판매)가 일반보장성보험과 자동차보험을 팔지 못하는 것과 유사한 규제다.플랫폼 업체들의 반발이 예상된다. 한 핀테크 업체 관계자는 “미니보험과 같은 간단 보험만 취급해선 생존하기 어렵다. 장기보험까지 열어줘야 한다”며 “또 CM상품의 경우 보험사들이 다양하게 만들지 않아 고객들에게 제공할 수 있는 리스트가 제한적”이라고 말했다.아울러 ‘방카슈랑스 25% 룰’처럼 특정 보험사 상품 판매 비중을 25%를 넘지 않게 제한하는 규제도 담을 계획이다. 특정 보험사 밀어주기를 막기 위한 조치다. 카카오페이가 카카오페이손해보험의 상품만 팔아 줄 우려가 있다.수수료 규제도 포함된다. 오프라인 GA는 과당경쟁을 방지하기 위해 세밀한 수수료 규제를 받고 있다. 1200% 룰이 대표적이다. 보험사가 GA에 지급하는 첫해 모집수수료를 월 납입보험료의 12배로 제한하는 내용이다. 반면 플랫폼은 ‘광고비’ 명목으로 각 보험사들한테 받는 실질적 수수료는 그러한 제한이 없다.이 밖에 대출모집인도 GA로 등록할 수 있게 허용할 계획이다. 다만 GA의 마이데이터 사업자 등록은 포함되지 않을 가능성이 있다.보험업계는 초긴장 상태다. 빅테크가 자신들의 데이터베이스(DB)를 바탕으로 보험영업을 시작하면 기존 중소형 보험사의 영업 실적을 뛰어넘는 영향력을 미칠 것이라고 우려하고 있다.지난달 보험협회는 금융당국에 플랫폼의 보험 중개 시장 진출과 관련한 의견을 전달했다. 보험업계 관계자는 “동일업무 동일규제 기조에 맞게 플랫폼에도 똑같은 판매 규제들이 동등하게 적용돼야 한다”고 지적했다.금융위 관계자는 “아직 결정된 내용이 없다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>14조 이익 신기록 5대 금융지주, 인건비도 11.7조 사상 최대 [인더머니]</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001904630?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>전년비 10.4% 늘어판관비 64.3% 차지기업가치 할인 요인[헤럴드경제=이승환 기자] 5대 금융그룹(KB·신한·하나·우리·NH농협 금융)의 인건비 상승이 가파르게 이뤄지고 있다. 빅테크과 핀테크의 금융시장 진출이 가속화되는 상황에서 5대 금융지주의 기업가치 개선을 제한하는 압박 요인이다.5대 금융그룹의 올 9월까지 순이익은 14조352억원을 벌었다. 지난 해 연간(12조5504억원)보다 많다. 대출자산 증가세가 이어지는 가운데 저원가성 예금이 넘쳐나면서 조달비용은 감소했고, 정부 규제와 시장금리 상승으로 대출이자율은 높아지고 있어서다.주댁담보대출과 신용대출의 기준금리 역할을 하는 금융채의 지표금리인 국채 5년물 금리와 국채 1년물 금리는 1년 전에 비해 각각 약 1%p, 0.5%p 정도 올랐다. 정부의 가계대출 규제에 보조를 맞추기 위해 우대금리도 축소하거나 폐지했다. 5대 금융그룹의 올해 3분기 누적 이자이익은 31조3138억원으로 전년동기(27조9078억원) 대비 12.2% 늘었다.하지만 이자이익 만큼이나 인건비 부담도 커졌다. 5대 금융그룹 인건비는 올해 3분기 누적 11조7280억원으로 전년동기(10조6230억원)보다 10.4% 늘었다. 올해 6월 기준 5대 은행의 총 임직원은 7만5082명으로 작년 6월보다 오히려 1934명 줄었다. 은행권 임금상승률은 평균 2%가량이다.반면 인건비를 제외하면 감가상각비, 기타일반관리비 등을 합친 판관비는 올해 3분기 누적 6조5160억원으로 전년동기(6조4300억원)으로 1.3% 증가하는데 그쳤다. 영업 과정에서 쓰는 비용에는 물가상승률(최근 5년 평균 1.1%) 등이 반영된다. 전체 판관비에서 인건비가 차지하는 비율은 64.3%로 전년동기보다 2%포인트가 높아졌다.순이익 규모와 맞먹는 인건비 지출이 계속된다면 빅테크·핀테크의 금융진출이 확장되는 상황에서 상당한 부담이 될 수 밖에 없다. 금리비교 서비스가 보편화되는 상황에서 인건비 부담이 적은 카카오뱅크와 토스뱅크 등이 파격적 금리로 대출시장을 공략할 경우 ‘대규모 자금이동(money move)’이 나타날 가능성도 배제하기 어렵다.사상 최대실적에도 불구하고 KB금융와 신한지주 시가총액은 24조원, 20조원 수준으로 카카오뱅크의 29조원에 한참 못미친다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>한화투자증권 가파른 주가상승, 본업보다 투자 덕봤다</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000112835?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>한화투자증권이 증권주 중에서도 높은 주가상승률을 보이고 있다. 27일 한화투자증권은 오전 9시40분께 전일대비 0.51%(30원) 오른 5800원을 나타내고 있다. /더팩트 DB두나무·토스뱅크 투자로 수혜…지분가치 상승 기대감 한화투자증권이 증권주 중에서도 높은 주가상승률을 보이고 있다. 최근 증권주에 대한 투심이 다소 낮아진 국내 증시에서 투자를 통한 전략이 차별점으로 작용했다는 분석이다.27일 한국거래소에 따르면 한화투자증권은 오전 9시 40분께 전일대비 0.51%(30원) 오른 5800원을 나타내고 있다.지난 20일에는 가파른 매수세에 힘입어 장중 7.6% 상승한 6230원까지 치솟아 최고가를 경신했다. 이날 보인 가격은 이달 6일 나타난 저점 4105원 대비 50% 넘게 상승(51.7%)한 것으로 증권주 중에서는 가장 큰 상승폭이다. 올해 최저가인 지난 3월 9일(2550원)과 비교하면 144% 상승했다.올해 이같은 성장세를 나타낼 수 있었던 것은 증권업으로서 성과보다 투자해온 기업들의 상승 기대감과 기업가치가 커진 영향으로 분석된다. 최근 증권업에 우호적이지 않은 시장 환경이 나타나고 있는데다 한화투자증권이 나타낸 올해 실적이 탄탄하지 못했기 때문이다.최근 금리 상승에 의한 채권가격 하락으로 증권사들의 채권운용 실적이 부진할 것으로 예상되고 있다. 더불어 한화투자증권이 올해 2분기에 기록한 순이익은 지난해 2분기(310억 원) 대비 12.48% 줄어든 271억 원(연결기준)이다.한화투자증권은 현재 가상화폐 거래소 업비트를 운영하는 두나무 주식을 6.15% 보유 중이다. 최근 비트코인 가격은 국내 거래소에서 7000만 원을 상회하는 등 오름폭을 키우고 있다. /이동률 기자이에 본업을 통한 기대감보다 핀테크 등 올해 투자해 온 성과가 주가를 끌어올린 것으로 해석된다.한화투자증권은 현재 가상화폐 거래소 업비트를 운영하는 두나무 주식을 6.15% 보유 중으로, 암호화폐 관련주로 꼽힌다. 최근 비트코인 가격은 국내 거래소에서 7000만 원을 상회하는 등 오름폭을 키우고 있는데다 지난 20일 뉴욕증권거래소에서 미국 첫 비트코인 선물 ETF(상장지수펀드)가 상장되며 투심이 높아졌다.또한 토스뱅크 지분 7.5%를 보유하고 있으며 특수관계자로도 이어져있어 인터넷은행 관련주도로 이름을 올리고 있다. 토스뱅크는 이달 초 정식 출범한 뒤 신규고객이 증가해 대출한도가 소진되는 등 화제가 된 바 있다.아울러 보유한 기업들의 지분가치는 최근 무럭무럭 자라고 있다. 증시에 상장할 것으로 예상되고 있는 두나무의 기업가치는 현재 장외 시장에서 14조 원대 평가되고 있다. 이를 토대로 한 한화투자증권의 지분 가치는 단순 계산으로도 8600억 원 수준이다. 이는 현재 한화투자증권의 시총 규모인 1조2400억 원의 70%에 이른다.상장 전인 토스뱅크는 정확한 기업가치를 가늠하기 어려우나 같은 인터넷은행 사업자인 카카오뱅크(시가총액 29조2662억 원)와 케이뱅크(장외시장 기준 6조 원대)의 기업가치와 비교할 때 최소 6조 원 이상으로 판단할 수 있다. 토스뱅크가 6조 원의 기업가치로 평가될 경우 한화투자증권의 지분가치는 4500억 원에 이른다.한화투자증권은 토스뱅크의 성장성에 베팅하며 지난 25일 300억 원 규모의 주식 추가 취득을 결정했다. 이로 인해 전날 오전 10시 12분께 한화투자증권은 전일 대비 7.08%(390원) 오른 5900원까지 올랐다.다만 일각에선 투자지분에 따른 기대감에 의존한 매수는 리스크가 있다는 지적도 나온다.한 증권업계 관계자는 "가상자산과 관련된 산업은 아직까지 변동성이 큰 시장이며 인터넷은행 역시 업황이 어려워질 수 있다"며 "기업들이 기대만큼 성장하지 못할 가능성이나 IPO(기업공개)를 진행할 때 장외시장에서의 가격을 인정받지 못할 수 있는 점 등 다양한 부분에서 리스크를 살펴야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>호박 속에서 발견된 '1억 년' 전 고대 게…진화 미스테리 풀릴까?</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001615762?sid=104</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>지금까지 발견된 적 없는 종으로 파악돼육지 게 화석 중 가장 오래된 화석호박 속에서 발견된 고대 게/사진=CNN호박 안에서 1억 년 전의 모습이 그대로 보존된 고대 게가 발견돼 학계가 주목하고 있습니다.현지시간으로 20일, CNN은 "최근 고생물학 분야에서의 가장 흥미로운 발견"이라며 미국 하버드대학 연구진이 2015년 미얀마 북부에서 수집한 호박 안에서 몸길이 5mm의 고대 게의 흔적이 발견됐다고 전했습니다.호박 속에 갇힌 게는 지금까지 발견된 적이 없는 신종으로, 어린 개체인 것으로 파악됐습니다. 최대 1억 년 전에 서식한 것으로 추정되며 백악기를 나타내는 '크레타세우스'(Cretaceous)와 동남아시아 신화에 나오는 구름과 물의 영혼을 나타내는 단어 '압사라'(Apsara), 불멸을 상징하는 그리스어 '아다나토스'를 따 '크레타프사라 아다나타'라는 이름을 갖게 됐습니다.이번에 발견된 고대 게는 지금까지 발견된 호박 속 수생동물 중 가장 오래된 것으로, 몸에 있는 더듬이와 여러 기관이 모두 완벽하게 보존되는 등 보존 상태가 매우 양호합니다.연구진은 이 게가 완전한 바다 게도, 육지 게도 아니었을 것으로 추정하고 있습니다. 숲 바닥의 담수나 기수에서 살았을 가능성이 있는 것으로 보고 있습니다.지금까지 발견된 가장 오래된 게 화석은 2억 년 전 쥐라기 시대에 살았을 것으로 추정되는 고대 게로, 이는 바다에 서식하는 게였습니다. 따라서 이번에 발견된 크레타프사라 아다나타는 육지 게 화석 중 가장 오래된 화석 타이틀을 가져갈 것으로 보입니다.호박 속에서 발견된 고대 게/사진=CNN또 이번에 발견된 게에서 아가미와 폐를 찾을 수 없었음에도 불구하고 나무 수액에 갇힌 채 발견된 점을 미루어 보아 바다 게와 육지 게의 진화 과정에 대한 궁금증을 어느 정도 해소할 수 있을 것이란 기대감도 생기고 있습니다.연구진은 "이것은 호박에 갇힌 게 중에 가장 오래된 발견이며, 특히 나무 수액에 둘러싸여 있다는 사실은 갑각류가 바다가 아닌 나무 근처에 살았다는 것을 암시하는 만큼, 진화 과정의 미스터리를 푸는데 도움이 될 것"이라고 밝혔습니다.해당 게에 대한 자세한 연구 결과는 저명 학술지 '사이언스 어드밴스' 최신호에서 확인할 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2021.10.31.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>가족관계·공인중개사 자격증도 이젠 '전자증명서' 발급</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010802593?sid=102</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>기사내용 요약행안부, 올해 연말까지 전자증명서 발급 확대[서울=뉴시스] 전자증명서 이용 방법. (사진=행정안전부 제공) 2021.10.30 photo@newsis.com [서울=뉴시스] 강지은 기자 = 올해 연말이면 자신이 갖고 있는 각종 국가전문자격증과 면허증을 전자증명서로 발급받고 제출까지 할 수 있게 된다.행정안전부는 올해 말까지 가족관계증명서는 물론 공인중개사 자격증, 건강검진내역서, 학점은행제 학위증명서 등 생활자격·면허증 등 200종을 추가해 총 300종 이상으로 전자증명서 발급을 확대한다고 31일 밝혔다.행안부는 2019년부터 모바일 전자증명서 서비스를 시행해 국민이 발급 기관을 직접 방문하지 않아도 24시간 스마트폰을 통해 원하는 서류를 발급받을 수 있도록 하고 있다.이번 전자증명서 발급 확대는 기존 100종의 증명서에 더해 올해 10월부터 추가된 공인중개사 자격증 등 50종, 연말까지 가족관계증명서나 학점은행제 학위증명서 등 150종을 확대한 것이다.구체적으로 11월부터는 건강검진내역서 등 34종과 대법원의 가족관계증명서 등 22종이 추가돼 총 56종을 전자증명서로 발급할 수있다.12월에는 중소·벤처기업 확인서, 청소년지도사 자격증 등 100종의 전자증명서도 추가로 발급 가능하다.전자증명서는 '정부24' 외 페이코, 토스, NH스마트뱅킹 등 민간 앱에서도 발급받을 수 있다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2021.10.29.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>디지털화로 영업 활로 찾는 저축銀 ... "빅테크 종속 우려 커져"</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004663262?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>부족한 점포 수를 극복하기 위해 인수합병(M&amp;A) 등에 시도하던 저축은행들이 제도적 문제로 여의치 않자 급한대로 디지털 전환에 진력한다. 자체 앱을 출시하는 것에 그치지 않고 토스, 카카오페이 등 대출비교 플랫폼과 제휴를 통해 영업 채널을 확대하고 있다. ━모바일 앱은 저축은행 기본 전략 ... 영업 채널 확대 위해 메타버스까지 활용━22일 저축은행업계에 따르면 웰컴저축은행의 모바일 앱 '웰컴디지털뱅크(웰뱅)'의 고객 수는 지난달 말에 250만명을 넘어섰다. 웰뱅은 웰컴저축은행이 2018년 저축은행 업계 최초로 만든 모바일 앱이다. 저축은행의 주 고객이 고령층인 만큼 앱 이용이 저조할 것이란 금융업계의 우려와 달리 인터넷은행 수준의 편리함을 무기로 비대면 시장에 안착한 것이다. SBI저축은행의 모바일 앱 '사이다뱅크'도 지난달 말 가입자 수가 85만명을 넘었다. 2019년 6월 등장한 사이다뱅크는 10% 적금 특판과 조건 없는 2% 자유입출금 통장 등 비대면 전용 상품을 앞세워 2040 고객을 모았다. 앱을 통한 영업 채널 강화는 저축은행의 기본 공식이 됐다. 빅3 저축은행(SBI·OK·웰컴저축은행)에 이어 중소형 저축은행도 차례로 앱을 출시하며 비대면 시장에 뛰어들고 있다. 유진저축은행은 '유행'을 페퍼저축은행의 경우 '페퍼루'를 선보였다. 상상인저축은행은 지난해 '뱅뱅뱅'을 내놨고, 출시 하루 만에 예적금 7억원을 유치하기도 했다.저축은행들은 고객 접점을 늘리기 위해 앱 개발에 사활을 건다. 금융감독원에 따르면 올 6월 말 기준 79개 저축은행의 영업점포 수는 304개로, KB국민·신한·우리·하나은행의 영업점포 수(3257개)와 비교할 수준이 못 된다. 영업 채널 다각화를 위해 메타버스도 활용한다. OK저축은행은 지난달 과학기술정보통신부가 주관하는 메타버스 협의체인 '메타버스 얼라이언스'에 가입했다. 웰컴저축은행도  메타버스를 이용한 영업방안을  검토하고 있다. ━대출비교 플랫폼과의 협업도 확대 ... "빅테크 종속 우려"━저축은행은 대출비교 플랫폼과 적극 협업해 왔다. 현재 카카오페이를 통해 17개 저축은행이, 핀다를 통해 22개 저축은행이 대출상품을 판다. 긍정적인 점은 대출비교 플랫폼을 통해 영업 채널을 다양화하면서 대출 중개 수수료를 아낀 것이다. 저축은행중앙회가 공시한 오프라인 모집법인의 신용대출 중개 수수료율은 각각 2.99%인데, 저축은행의 플랫폼 중개 수수료율은 이보다 1%P 가량 낮은 것으로 알려졌다. 한편으로 저축은행의 빅테크 종속 심화현상도 나타난다. 국회 정무위원회 소속 윤창현 국민의힘 의원실이 금융감독원으로부터 받은 자료에 따르면 SBI·OK·웰컴·한국투자·페퍼·유진·KB·애큐온·상상인·모아저축은행 등 10개 저축은행의 올 7월 누적 신규 개인신용대출(12조2215억원) 가운데 18.8%(2조3080억원)가 대출비교 플랫폼을 통해 이뤄졌다. 2019년 10개 저축은행의 신규 개인신용대출(12조2837억원) 중 0.7%(871억원)에 불과했던 플랫폼 대출 비중이 2년 새 20%까지 높아졌다. 특히 토스와 카카오페이 등 빅테크의 비중이 80%에 달했다. 은행의 경우 플랫폼을 통한 대출이 여전히 1%를 넘지 않는 것과 대조적이다.  저축은행업계 관계자는 "플랫폼 의존도가 올라갈수록 이들에 상품을 공급하는 하청업체로 전락할 것이라는 불안감도 크다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2021.10.16.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>올 연말 택시 플랫폼 '삼국지' 열린다…우티·타다 '반격'</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005661004?sid=105</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>독과점 논란 휩싸인 카카오모빌리티, 주춤…업계 "지금이 기회"타다, '카카오T 벤티' 겨냥한 대형택시 서비스 예고…우티, 11월 1일 앱통합© 뉴스1(서울=뉴스1) 장도민 기자 = 모빌리티 시장의 압도적 1위인 카카오모빌리티가 정치권과 여론의 뭇매를 맞고 스마트호출 기능을 없애는 등 주춤한 사이 토스를 등에 업은 '타다'와 우티(우버+티맵택시)가 반격을 노리고 있다.올 연말을 기점으로 택시 플랫폼이 '3강' 구도로 재편될지 주목된다.◇우티·타다, 고객 확보·증차 '한창'…재정비 마치고 올 연말 '출격'16일 관련업계에 따르면 우티는 기존 택시호출 앱과 새로운 버전의 앱을 통합하기 위해 베타테스트를 진행하고 있다. 통합 앱은 내달 1일부터 서비스할 계획이다.우티는 고객을 적극적으로 끌어모으기 위해 이달 말까지 횟수에 관계없이 택시요금의 30%를 할인해주는 다소 파격적인 프로모션도 진행하고 있다.지난해 4월 택시업계의 거센 반발에 의해 '타다 금지법'(개정 여객자동차운송사업법)이 시행되면서 주요 사업을 접어야했던 타다는 토스라는 든든한 우군을 얻었다. 최근 토스 운영사인 비바리퍼블리카는 쏘카가 보유한 타다 운영사 VCNC 지분 60%를 인수하는 내용의 3사 간 양해각서(MOU)를 최근 체결했다.토스를 등에 업은 타다는 현재 운영하고 있는 가맹택시 사업 '타다 라이트'를 유지하면서 대형택시 서비스도 함께 운영하기로 했다.이를 위해 타다는 지난 6일과 7일, 13일 개인택시 기사들을 대상으로 대형 승합차 사업설명회를 진행했다. 이 자리에서 타다는 대형택시 기사로 등록하는 기사들에게 최대 4000만원의 지원금을 지급하겠다고 밝혔다. 지원금은 '가입 지원금' 1500만원, 운행 지원금 2400만원(매월 200만원 분할 지급), 기타 지원금 100만원(1년) 등으로 구성했다. 타다는 택시기사가 직접 고가의 승합차량을 구입해야하는 부담을 덜기위해 이례적인 규모의 지원금을 책정했다. ◇카카오모빌리티 독과점·수수료 논란 '주춤'…"지금이 기회"택시 플랫폼 시장에서 약 80%에 달하는 압도적인 점유율을 기록 중인 카카오모빌리티는 최근 독과점 및 호출 수수료 인상 논란에 휩싸이며 정치권으로부터 집중 질타를 받았다. 이에 카카오모빌리티는 독과점 및 수수료 논란을 야기한 '스마트호출' 기능을 없애는 등 몸을 사리고 있다.카카오가 소극적인 모습을 보이는 사이 토스가 타다를 인수하고, 우티가 앱 재정비 및 증차를 통해 경쟁력을 끌어올리면서 카카오의 독점 구조에 도전장을 냈다. 시장 점유율을 빠르게 끌어올릴 수 있는 적기라고 판단한 것이다.한 모빌리티 업계 관계자는 "카카오모빌리티의 택시업계 독과점 이슈가 진행 중인 만큼 적극적인 견제가 어려울 것이라는 판단이 작용한 것"이라며 "단기간 내에는 어렵겠지만 올해 연말을 기점으로 3강 구도가 형성되기 시작할 것으로 예상한다"고 말했다.또 SKT와 토스가 카카오모빌리티의 아성에 도전하는 것은 핀테크와 모빌리티 산업 간의 시너지가 크다는 점도 작용했다. 핀테크 업계에 따르면 택시 이용 후 결제되는 금액은 연간 12조원에 달한다. 특히 토스의 경우 결제 앱과 택시 결제 시스템을 연동하면 고객 확보 측면에서 큰 시너지를 낼 수 있고, 막대한 결제 데이터까지 얻을 수 있게 된다.토스 관계자는 "막대한 모빌리티 관련 결제 데이터를 확보하면 큰 시너지가 날 수 있다는 점이 큰 영향을 미쳤다"고 인수 배경에 대해 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2021.10.23.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>훌쩍 오른 신용대출 금리..고신용자도 4% 근접</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005067957?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>지난해 하반기 이후 줄곧 상승, 2% 금리상품 희귀고신용자도 3% 중후반 금리 신용대출 받아금리↑에 당국 규제로 신용대출 문턱 더 높아질듯[이데일리 김유성 기자] 신용점수 1~2등급에 해당하는 고신용자들도 은행에서 신용대출을 받으려면 평균 3% 중반대 이상의 금리를 부담해야하는 것으로 나타났다. 이들보다 신용점수가 낮다면 평균 4%대의 금리를 감수해야 했다. 금융 당국의 가계대출 규제 방침에 따라 한도까지 줄면서 1금융권 은행의 신용대출 문턱은 더 높아졌다. 23일 은행연합회 소비자포털에 따르면 지난 9월 집행된 신용대출 평균 금리(신용등급 1~2등급)는 3% 중후반대를 기록했다. 17개 은행들의 신용대출 평균 금리를 합해 평균으로 냈을 때 3.63%를 기록했다. 전달 대비 0.11%포인트가 올랐다. 은행권 고신용자 신용대출 금리 추이 (자료 : 은행연합회) *각 은행 신용대출 평균금리(1~2등급)를 합산해 평균을 낸 수치로, 금리 추이를 살펴보기 위한 목적의 추정치임.비중은 적지만 3등급 이하 중저 신용자들까지 합하면 은행권 신용대출 평균 금리는 4%를 넘겼다. 2%대 신용대출 상품 자체가 희귀해진 것이다. 실제 9월 기준 1~2등급 기준 신용대출 평균 금리가 가장 낮은 곳이 하나은행이었다. 2.72%였다. 두번째로 낮은 은행이 KB국민은행으로 2.94%였다. 신한은행이 2.98%로 세번째였다. 나머지 은행들은 평균 3%대에서 1~2등급 고신용자들도 신용대출을 받아야 했다. 대체로 시중은행의 금리가 약간 낮았고 지방은행과 인터넷은행의 신용대출 평균 금리가 높았다. 고신용자 기준 신용대출 평균 금리는 지난해 10월 3% 선을 넘어선 이후 줄곧 올랐다. 지난해 하반기에는 인플레이션 우려에 따른 시장금리 상승이 영향을 미쳤고, 올해 하반기부터는 한국은행의 기준금리 인상이 직접적인 영향을 주었다. 2020년 하반기부터 본격화된 강도 높은 신용대출 규제 또한 신용대출 금리 상승에 일조했다. 고신용자 신용대출 우대금리를 철폐하기 시작하던 지난해 12월 신용대출 금리는 훌쩍 뛰기도 했다. 금융 당국의 규제 강화와 시장금리 상승은 은행들의 조달금리를 기반으로 한 주택담보대출에도 잘 나타났다. 지난 15일 발표된 코픽스는 3년 10개월만에 가장 큰 폭(0.14%포인트)으로 오른 1.16%(신규취급액 기준)를 기록했다. 시장금리가 상승하면서 은행의 예금이나 은행채 발행 금리도 따라 뛰었기 때문이다. 대출자들에게 문제는 앞으로 금리가 더 오를 것이라는 점이다. 한국은행이 11월 기준금리 인상 가능성을 내비친 가운데 가을철 이사철을 맞아 전세나 주담대 등 실수요 자금이 늘어나고 있다. 가계대출 총량 규제에 따라 신용대출에 대한 제한이 더 커질 수 있다. 이는 은행들의 신용대출 금리 인상과 한도 축소로 이어지고 있다. 각 은행들은 신규 신용대출의 경우 한도를 대출자의 연소득 이내로 제한하고 있다. 토스뱅크 등 신규 은행에 대해서도 대출 총량 한도를 두고 관리하고 있다. 이 때문에 토스뱅크의 여신 영업도 사실상 개점 휴업 상태인 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2021.10.28.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>토스증권 해외주식 서비스·카카오페이증권 MTS 곧 출시</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012752180?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>증권가 긴장…증권사들, 간편 투자 가능한 MTS 내놓고 앱 통합하기도 플랫폼 증권사, 거래 편리·많은 유저 장점…신용공여 제공 어렵다는 단점도토스증권, MTS 공개[토스증권 제공. 재판매 및 DB 금지] photo@yna.co.kr(서울=연합뉴스) 채새롬 기자 = 연내 토스증권의 해외주식 서비스, 카카오페이증권의 모바일트레이딩시스템(MTS)이 출시될 예정이어서 플랫폼 기반 증권사들의 주식 거래 서비스가 본격적으로 시작된다.     다른 증권사들은 후발주자 도전을 앞두고 편리한 것을 선호하는 MZ세대 성향에 맞게끔 자사 MTS 개편에 나서고 있다.     28일 금융투자업계에 따르면 토스증권은 이르면 다음 달, 늦어도 연내 해외주식 서비스를 개시하기로 하고, 막바지 내부 테스트 작업을 하고 있다.     토스증권은 자사 MTS가 투자 입문자를 타깃으로 한 '쉬운 UX(사용자 경험)'로 인기를 끈 만큼 해외주식도 기존 증권사보다 직관적인 방법으로 매매할 수 있는 방안을 준비 중이다.     해외투자를 위해 따로 앱을 다운받아야 하는 기존 증권사와 달리 기존 토스 앱에서 해외주식까지 거래할 수 있을 것으로 보인다. 미리 환전을 해야 하는 등 현 해외주식 투자의 불편을 개선하는 방식이 될 것으로 예상된다.    토스증권 관계자는 "국내 주식 서비스에서 보인 혁신적인 투자 경험을 해외주식 서비스에서도 그대로 경험할 수 있도록 할 것"이라며 "해외주식 서비스 이후 주식 소수점 매매, 간접 투자 등으로 서비스 영역을 넓혀갈 예정"이라고 말했다.     토스증권은 올해 3월 MTS 서비스를 정식 개시한 지 약 7개월 만에 계좌 수 380만개를 돌파했다. 특히 신규 계좌개설 고객에게 주식 1주를 주는 이벤트로만 200만명 넘는 고객을 모았다. 카카오페이증권 로고[카카오페이 제공]카카오페이증권 역시 연내 MTS를 선보이며 본격적 주식 거래 서비스에 나선다. 모회사인 카카오페이의 3천650만명 가입자를 기반으로 공격적인 확장에 나설 예정이다.     카카오페이는 기업공개(IPO)를 통해 확보한 자금을 카카오페이증권의 리테일 사업 확충에 쓰겠다고 밝힌 바 있다.    카카오페이증권 역시 토스증권과 마찬가지로 별도의 MTS 앱을 만들지 않을 예정이다.     '국민 플랫폼'인 카카오톡 내 정보 제공 위주의 비교적 가벼운 기능의 MTS를 넣고, 카카오페이앱에는 거래를 포함해 다양한 기능을 넣는다.    카카오페이증권은 MTS 출시 시점에 국내 주식, 해외 주식 서비스를 한꺼번에 선보이기 위해 준비 중이다.    카카오페이증권은 작년 2월 출범 이후 주식거래 서비스 없이 펀드 투자·자산관리 서비스만으로 올해 7월까지 500만명의 가입자를 유치했다.    토스증권과 카카오페이증권이 본격적인 주식 거래를 시작하면서 증권사들의 MZ세대 고객 유치 경쟁은 더욱 치열해질 것으로 전망된다.     앞서 KB증권은 8월 라이브커머스와 주식거래를 접목한 MTS '마블 미니'를 출시했고, 삼성증권은 6월 기존 MTS보다 메뉴 수를 줄여 간소화한 'O2(오늘의 투자)'를 내놨다.    키움증권은 이르면 연말, 늦어도 내년 초까지 차세대 MTS 서비스를 내놓을 계획이다. 현재 국내 주식과 해외 주식으로 나뉜 앱을 통합하고, UI(사용자 인터페이스)·UX 및 디자인을 개선하는 것이 골자다.    다만 증권가에서는 토스증권과 카카오페이증권의 성과를 좀 더 지켜봐야 한다는 의견이 나온다.    KB증권 강승건 연구원은 "토스증권 MTS 출범 이후 거래대금이나 위탁매매 약정 점유율이 아직 큰 폭으로 상승하지는 않았다"며 "플랫폼 기반 증권사가 거래가 편리하고, 유저 수가 많다는 장점이 있지만, 자기자본 규모가 작아 신용공여를 제공하기 어렵다는 측면이 한계점"이라고 지적했다.    srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>전세대출 '전셋값 상승분, 잔금일 이전' 까지만 받는다</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0000992844?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>앞으로 모든 은행에서 전세대출을 최대 전셋값 상승분까지, 잔금 지급일 이전에만 받을 수 있다.1주택자가 케이뱅크가 아닌 다른 은행에서 앱 등을 통해 비대면 전세대출을 받기도 어려워진다.소매금융을 취급하는 17개 은행은 모두 임대차(전세)계약 갱신에 따른 전세자금 대출의 한도를 '임차보증금(전셋값) 증액 금액 범위 내'로 축소하기로 했다.아울러 이들 은행은 임대차계약서상 잔금 지급일 이전까지만 전세자금 대출을 내줄 방침이다. 현재 은행들은 신규 임차(전세)의 경우, 입주일과 주민등록전입일 가운데 이른 날로부터 3개월 이내까지 전세자금 대출 신청을 받았다. 하지만, 잔금 지급일 이전까지만 대출을 내주게 되면 대출 신청 가능 기간이 크게 줄어든다.은행들은 1주택 보유자의 비대면 전세대출 신청도 막는다. 따라서 앞으로 1주택자는 꼭 은행 창구에서만 전세대출을 신청할 수 있다.이 세 가지 종류의 전세대출 규제는 앞서 지난 15일 KB·신한·하나·우리·NH농협 5대 은행이 27일부터 도입하기로 합의한 내용이다.다만 케이뱅크의 1주택자 비대면 전세대출의 경우 당국이나 업계가 무리하게 막지 않는 분위기다.케이뱅크는 지난 18일 회의에서 대면 창구가 없는 인터넷 은행으로서 1주택자 비대면 전세대출 금지에 따른 어려움을 호소한 것으로 알려졌다.하지만 같은 인터넷 은행이라도 카카오뱅크의 경우 1주택자 비대면 전세대출을 중단하기로 했다. 토스뱅크의 경우 아직 전세대출 상품을 취급하지 않고 있다.이처럼 은행들이 명백한 '실수요'를 제외한 전세자금대출을 더 강하게 조이는 것은, 자칫 전세자금대출이 부동산·주식 등 자산 투자에 흘러드는 것을 최대한 막기 위한 조치다.예를 들어 임차보증금(전셋값)이 최초 4억원에서 6억원으로 2억원 오른 경우, 지금까지 기존 전세자금대출이 없는 세입자는 임차보증금(6억원)의 80%인 4억8천만원까지 전세자금대출을 받을 수 있었다.최대한 대출을 받으면 오른 전셋값 2억원을 내고도 2억8천만원이 남는 셈으로, 이 여윳돈을 투자 등에 활용할 여지가 생긴다.하지만 대출 한도를 최대 '전셋값 증액분까지'로 묶으면 해당 세입자는 딱 오른 2억원만 빌릴 수 있다.전세계약이나 입주가 끝난 뒤 받는 전세자금 대출을 막는 것도 마찬가지 이유다.본인 자금이나 가족·친척 등으로부터 빌린 돈으로 전셋값을 이미 해결하고도 입주나 주민등록상 전입 후 3개월 안에 전세자금을 또 은행에서 대출받아 다른 곳에 쓸 가능성을 원천적으로 차단하자는 취지다.무주택자가 아닌 1주택자 전세자금 대출의 경우 실수요도 섞여 있는 만큼, 은행들은 완전히 막지는 않더라도 대면 창구에서만 신청을 받고 면밀히 심사할 방침이다. 현재 비규제 지역과 조정대상 지역의 시가 9억원 이하 한 주택을 보유한 사람은 전세자금 대출도 받을 수 있다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2021.10.28.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>[단독] ‘몸값 7,000억’ KTB네트워크, 100% 신주로 연내 코스닥 입성</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003978810?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>주관사 한국투자證 앞세워거래소 상장 예비심사 통과[서울경제] 벤처캐피털(VC) KTB네트워크가 연내 코스닥 입성을 위한 9부 능선을 넘었다. 거래소의 상장 예비 심사를 통과하며 당장 다음 달 투자자설명회(IR) 등에 나설 것으로 전망된다. 상장 몸값이 최대 7,000억 원으로 평가되고 있어 상장 직후 VC업계 대장주가 될 것이라는 기대가 나온다.28일 거래소 등 투자은행(IB) 업계에 따르면 KTB네트워크가 이날 거래소의 상장 예비 심사를 통과했다. 다음 달 IR 일정을 시작으로 본격적인 상장 일정에 돌입할 것으로 관측된다. KTB네트워크는 지난 8월 18일 한국투자증권을 주관사로 앞세워 상장 심사를 청구한 바 있다.KTB네트워크는 1981년 정부가 설립한 한국기술개발(KTB)이 전신인 국내 1세대 VC다. 민영화와 종합증권업 본인가 등의 과정을 겪으며 KTB투자증권(030210)으로 사명을 변경했고 2008년 6월 창업 투자 부문만 물적 분할해 현재의 KTB네트워크가 탄생했다. 최근에는 배달의민족과 토스 투자로 유명세를 탔다. 올 3월 보유 중이던 배달의민족 지분을 팔아 625억 원을 회수했는데 이는 투자 원금 23억 원의 26배 수준이다. 데카콘을 눈앞에 둔 토스 지분도 보유하고 있다.상장 몸값은 약 7,000억 원이 될 것으로 전망된다. 지난해 영업수익 670억 원, 영업이익 446억 원을 각각 거뒀는데 전년의 매출 292억 원, 영업이익 159억 원에 비해 외형 성장과 수익성 확보에 모두 성공했다는 평가다. 5,000억~6,000억 원의 시총을 보이는 아주IB투자 몸값을 뛰어넘을 것이라는 기대가 나온다.공모 구조는 구주 매출 없이 100% 신주 모집 방식으로 진행될 것으로 분석된다. 대주주인 KTB투자증권이 프리IPO를 통해 보유 중인 지분을 상당 부분 미리 정리했기 때문이다. KTB투자증권은 지분율 100% 대주주였으나 올 6월 주요 증권사와 자산운용사를 대상으로 35% 상당의 지분을 매각해 1,540억 원을 회수했다.이번 신주 모집으로 회사에 유입되는 자금은 약 1,500억 원이 될 것으로 관측된다. 공모 자금은 펀드 대형화 및 현재 15% 수준인 운용사 출자(GP 커밋) 비율을 높이는 데 투입할 계획이다.공모주 투자자들의 반응도 좋을 것으로 전망된다. 신주 모집으로만 공모가 진행되는 데다 투자금 회수가 기대되는 포트폴리오도 많기 때문이다. KTB네트워크는 펀드를 통해 현재 코스닥 상장을 추진 중인 140억 원 상당의 RBW 주식을 들고 있다. 당장 구주 매출을 통해 당장 27억 원을 우선 회수할 계획이다. 이날 일반 청약을 마무리하는 지니너스에도 ‘KTBN 16호 벤처투자조합’을 통해 공모가 기준 50억 원어치의 지분을 보유하고 있어 1개 월 이후부터 투자금 회수의 길이 열린다.상장 이후 ‘따상(시초가가 공모가의 두 배, 이후 상한가)’으로 시장의 주목을 받은 원티드랩과 현재 나스닥 상장을 추진 중인 그랩 지분도 일부 보유 중인 것으로 전해졌다. 업계는 KTB네트워크의 그랩 지분 가치가 200억 원 이상 될 것으로 전망하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>한국인이 가장 많이 쓰는 앱은 '카톡'…유튜브·네이버 뒤이어</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010778160?sid=105</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>기사내용 요약9월 기준 4385만명 카톡 이용…토스, 1년새 사용자 53% 증가'701억분' 유튜브, 사용시간 가장 길어…2위 카톡 2배 이상만 10세 이상 한국인이 가장 많이 사용하는 앱으로 카카오톡이 선정됐다. (사진=와이즈앱·리테일·굿즈 제공) *재판매 및 DB 금지[서울=뉴시스]윤현성 기자 = 한국인이 가장 많이 사용하는 스마트폰 앱은 '카카오톡'인 것으로 나타났다. 사용 시간이 가장 긴 앱은 유튜브가 압도적인 1위를 차지했다.앱·리테일 분석서비스 업체 와이즈앱·리테일·굿즈는 한국인이 가장 많이, 가장 오래, 가장 자주 사용하는 스마트폰 앱을 조사해 19일 발표했다.만 10세 이상 한국인 스마트폰 사용자 4722만명(안드로이드 3867만명·iOS 855만명)을 표본 조사한 결과 지난 9월 기준 가장 많은 사람이 사용한 앱은 4385만명이 사용한 카카오톡으로 조사됐다.그 외엔 유튜브(4203만명), 네이버(3925만명), 쿠팡(2403만명), 밴드(2008만명), 네이버 지도(1752만명), 인스타그램(1744만명), 배달의민족(1707만명), 당근마켓(1601만명), 토스(1304만명) 등이 뒤를 이었다.작년 동월 대비 사용자 증가율이 가장 높은 앱은 토스로, 지난해 9월 855만명에서 올해 9월엔 1304만명으로 1년 사이 사용자가 53% 늘어난 것으로 집계됐다.만 10세 이상 한국인이 가장 오래 사용하는 앱으로 유튜브가 선정됐다. (사진=와이즈앱·리테일·굿즈 제공) *재판매 및 DB 금지가장 사용 시간이 긴 앱은 701억분의 유튜브였다. 그 뒤는 카카오톡(279억분), 네이버(197억분), 인스타그램(71억분), 틱톡(46억분), 넷플릭스(42억분), 티맵(40억분), 페이스북(40억분), 다음(37억분), 네이버 웹툰(34억분) 순이었다.작년 동월대비 사용시간 증가율이 가장 높은 앱은 넷플릭스와 틱톡이다. 넷플릭스는 지난해 9월 26억분에서 올해 9월 24억분, 틱톡은 28억분에서 46억분으로 두 앱 모두 1년 전보다 사용시간이 61% 늘었다.가장 자주 사용한 앱은 실행횟수 961억회의 카카오톡이었고, 네이버(207억회), 트위터(124억회), 유튜브(122억회), 인스타그램(88억회), 당근마켓(74억회), 네이버 카페(74억회), 쿠팡(59억회), 밴드(46억회), 네이버 웹툰(45억회) 등이 뒤를 이었다.작년 동월 대비 실행횟수가 가장 높은 앱은 지난해 9월 61억회에서 올해 9월 88억회로 1년 전보다 실행횟수가 44% 늘어난 인스타그램이었다.만 10세 이상 한국인이 가장 자주 사용하는 앱으로 카카오톡이 선정됐다. (사진=와이즈앱·리테일·굿즈 제공) *재판매 및 DB 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2021.10.30.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>큰길 대신 샛길로 빠져 와인 한잔, 나그네에겐 생명수</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/353/0000040823?sid=103</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>━   와글와글       '제주올레 스페인 산티아고 순례길' 사전답사팀이 제주올레1코스를 둘러보고 있다. 최충일 기자           마침표를 찍은 뒤 제주도행 여객기에 몸을 실었다. 몇 달 동안 책을 쓰느라 육체와 영혼의 에너지가 모두 고갈되어 있다고 느꼈을 때 괴테의 시 한 편이 여행 충동을 일으켰다. “당신은 아는가, 저 레몬꽃 피는 나라를? / 그늘진 잎 속에서 금빛 오렌지 빛나고 / 푸른 하늘에선 부드러운 바람 불어오며 / 은매화는 고요히, 월계수는 드높이 서 있는 / 그 나라를 아는가?”      괴테가 알프스산맥 넘어 로마에 체류하던 시절을 그리워하면서 쓴 시로 레몬과 오렌지는 따뜻한 남유럽을 상징한다. 괴테처럼 레몬과 오렌지 나무가 있는 곳으로 여행을 떠나고 싶었지만, 팬데믹의 여파 때문에 귤나무가 노랗게 익어가던 제주도로 향했다. 나는 렌터카를 빌리지 않고 바다 특유의 갯내음이 물씬 풍겨오는 삶의 현장으로서의 소박한 바닷가에 숙소를 정했다. 관광객들에게 보여 주기 위해 인공적으로 꾸민 곳이 아니라 하루 종일 파도 소리와 새소리, 풀냄새, 동네 사람들의 정겨운 제주도 사투리가 들려오는 동네 골목이었다. 낮에는 어촌 마을 골목과 한적한 바닷가, 그리고 서귀포 ‘작가의 산책길’을 걷다가 지치면 숙소로 돌아와 독서로 휴식을 취하곤 했다. 여행 가방에는 세스 노터봄의 『산티아고 가는 길』을 넣어왔다. 노터봄은 네덜란드를 대표하는 소설가이지만, 저널리즘과 여행을 결합한 훌륭한 여행작가이기도 하다.      “내 인생에는 변치 않는 것이 몇 가지가 있는데, 스페인을 사랑하는 마음이 그렇다. 사실은 사랑이라는 말로는 부족하다. 여자와 친 구는 내 곁을 떠났지만 한 나라는 그리 쉽사리 내 마음을 떠나지 않는다.”      산티아고 순례길 중 피니스테레 해안 바위의 신발상. 손민호 기자           550쪽에 이르는 이 책은 제목과 달리 종교적 순례의 여행이 아니라 스페인이라는 나라를 탐구하는 명작이다. 그는 바르셀로나, 마드리드 같은 대도시는 물론이고 관광객들의 발길이 닿지 않는 지방의 구석구석까지 방문하여 옛 성 같은 곳을 국영호텔로 만든 파라도르, 시골의 허름한 숙소, 더 나아가 수도원에 투숙하며 세상을 등진 채 아직도 고립되어 살면서 똑같은 규칙으로 천년을 견디는 수도사들의 삶을 작가로서 관찰한 뒤 그곳에서 꿀과 빵, 치즈와 포도주까지 선물로 받는다. 세르반테스의 소설 『돈키호테』의 무대인 메마른 고원 메세타의 땅에 들렸을 때의 기록은 명문 중의 명문이다.      “라만차의 옥수수밭과 포도밭은 가도가도 끝이 없다. 기사들, 작부들, 밀사들, 군인들, 거지들, 수사들, 은행가들, 무어인들, 유대인들, 기독교도들이 모두 이 길들로 다녔다. 역사를 만드는 옷감인 셈이다.”      이 책을 읽는 것은 이번이 세 번째로 읽을 때마다 다른 부분이 눈에 들어온다. 노터봄의 스페인 여행에서 먹고 마시는 이야기가 빠질 리가 없다. 스페인을 대표하는 독주 ‘아니스’의 명산지인 친촌의 시골 마을식당에서 나오는 메뉴 묘사가 화려하다.      “음식도 이곳에서는 아직 구수한 흙냄새가 난다. 빵과 달걀이 들어간 마늘 수프, 이름하여 ‘소파스 데 아호’가 담긴 둥글넓적한 큰 뚜껑냄비, 양고기구이와 새끼 돼지, 농부들이 즐겨 먹는다는, 달걀에다 볶은 소시지를 큼직큼직하게 썰어 넣은 ‘두엘로스 이 케브란토스’, 토마토와 양파 샐러드, 큼지막한 주전자로 나오는 진한 적포도주, 테라스에서는 밑에서 우리를 올려다보는 경찰관이 마치 무대 위에서 혼자 연기를 하는 것처럼 보인다.”      이 책의 네덜란드 원제목은 ‘omweg’, ‘우회로’를 뜻한다. 이웃 나라 독일의 번역판도 ‘Umweg’으로 역시 우회와 돌아가는 길을 의미한다. 제주도 올레길에서 만나는 ‘산티아고 가는 길’의 의미는 또 다르다. 많은 이들이 성과 위주의 삶에 지쳐 까미노(Camino)라 부르는 산티아고 길을 걷고 올레길을 걷지만, 자기를 찾는 그 여행길에서도 사실은 효율성과 직진 개념에서 완전히 벗어나기 힘들다. 가는 곳마다 반드시 도장을 받아야 하고 모든 길을 완주하려고 한다. 모든 것을 내려놓고 떠나왔다지만 우리가 익숙한 것은 직진이고 자기보상이라는 또 다른 욕심이 앞서기 때문일까. 그런 점에서 노터봄의 책은 시사하는 바가 크다. ‘샛길의 유혹’이라는 장에서 작가는 직선이 아닌 곡선, 효율이 아닌 헤맴의 미학을 강조하고 있다.      “나에게 여행은 질러가는 길이 아니라 둘러가는 길이다. 나그네는 옆길로, 시골길로, 큰길에서 샛길로 빠지는 유혹, 지금까지 한 번도 들러본 적이 없는 이름을 가리키는 표지판의 유혹, 오솔길 하나만 난 저 멀리 성채의 윤곽이 주는 유혹, 저 언덕이나 산맥의 맞은 편에서 나그네를 기다릴지도 모를 수려한 장관의 유혹을 이기지 못하고 제발로 일부러 영원한 미로를 만들어간다.”      작가는 ‘하느님도 점심을 먹고 나서는 주무신다는 스페인’을 걷다가 지칠 때면 그 샛길에서 포도주 한잔과 마주한다. 포도주는 여행자의 육체와 정신의 갈증을 해소해 주는 생명수와 같다. 주전자에 담겨 나오는 붉은 포도주와 커다란 빵 덩어리는 전통적이고도 건강한 시골생활을 말한다. 나는 노터봄의 여행법처럼 혼자서 제주도의 시골 마을 골목길을 우회하여 걷고 어촌의 허름한 식당에서 어부들처럼 밥을 먹었다. 직접 잡은 멍게와 뿔소라를 팔던 해녀 할머니, 오후 늦게 떠나 새벽에 들어오던 갈치잡이 어선 선장과 그가 잡은 싱싱한 갈치로 갈치국을 팔던 가족, 언제 닥칠지 모를 풍랑과 무서운 자연재해 앞에서 안전을 기원하는 석상들, 그것이 바닷가의 진짜 삶이었다. 그들은 도시인이 아닌 뱃사람의 다리를 갖고 있었다. 파도와 격랑에 흔들거려도 중심을 잡을 수 있는 탄력성이다. 팬데믹이 길어지고 있는 지금 같은 때에는 도시인의 다리가 아닌 어부들처럼 뱃사람의 다리감각이 필요하다.      몸과 마음이 지쳐 그저 산책만 하겠다고 떠났던 걷기 여행은 뜻밖에도 내게 많은 것을 주었다. 쓰고 싶은 글의 아이디어와 하고 싶은 강연 제안이 물밀듯 몰려왔다. 걷기는 참으로 위대한 치유행위였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>27일 장 마감 후 주요 종목 뉴스</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005071588?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[이데일리 김연지 기자] 다음은 27일 장 마감 이후 주요 종목 뉴스다.◇코스피△삼성물산(028260)=올해 3분기 연결기준 영업이익 1410억원으로 전년 동기 대비 34.6% 감소했다고 공시.△GS건설(006360)=올해 3분기 연결기준 영업이익 1522억원으로 전년 동기 대비 27% 감소했다고 공시. 같은 기간 매출액은 2조 1716억원으로 6.26% 줄었고 당기순이익은 1332억원으로 29.68% 증가.△HDC현대EP(089470)= SK케미칼(285130)의 PPS사업에 대해 영업양수 계약을 체결했다고 공시. 양수가액은 385억원이며 계약금 38억원, 잔금 347억원. △기아(000270)= 2021년 임금협상에 따른 회사주식 지급을 위해 375억 4002만 7200원 규모의 자기주식 44만 2689주를 장내 매수한다고 공시.△LG디스플레이(034220)=올해 3분기 연결기준 영업이익이 5289억원으로 전년 동기 대비 221.8% 증가했다고 공시. 같은 기간 매출액은 7조 2231억원으로 7.2% 늘었고 당기순이익은 4634억원으로 4067.5% 증가.△OCI(010060)=올해 3분기 연결기준 영업이익이 1945억원으로 전년 동기 대비 976.9% 증가했다고 공시. 같은 기간 매출액은 8887억원으로 89.9% 늘었고 당기순이익은 1776억원으로 2829.7% 증가.△현대일렉트릭(267260)=올해 3분기 연결기준 영업이익이 74억원으로 전년 동기 대비 74.8% 감소했다고 공시. 같은 기간 매출액은 3941억원으로 1% 줄었고 당기순이익은 39억원으로 40% 감소.△대웅제약(069620)=올해 3분기 영업이익이 239억원으로 전년 동기 대비 240.5% 증가했다고 공시. 같은 기간 매출액은 2650억원으로 6.5% 늘었고 당기순이익은 144억원으로 303.3% 증가.△한올바이오파마(009420)=올해 3분기 영업이익이 20억원으로 전년 동기 대비 109.7% 증가했다고 공시. 같은 기간 매출액은 254억원으로 15.2% 늘었고 당기순이익은 18억원으로 48.3% 감소.△삼성전기(009150)=올해 3분기 연결기준 영업이익이 4578억원으로 전년 동기 대비 48.9% 증가했다고 공시. 같은 기간 매출액은 2조 6886억원으로 20.6% 늘었고 당기순이익은 3534억원으로 47.3% 증가.△현대건설기계(267270)=올해 3분기 연결기준 영업이익이 430억원으로 전년 동기 대비 63.5% 증가했다고 공시. 같은 기간 매출액은 8138억원으로 30.4% 늘었고 당기순이익은 332억원으로 526.4% 증가.△자이에스앤디(317400)=올해 3분기 영업이익이 133억원으로 전년 동기 대비 130.99% 증가했다고 공시. 같은 기간 매출액은 989억원으로 27.76% 늘었고 당기순이익은 100억원으로 128.18% 증가.△씨에스윈드(112610)=115억원 베스타스 아시아 퍼시픽(Vestas Asia Pacific A/S)과 115억 3424만원 규모의 윈드타워 공급계약을 체결했다고 공시. 계약금액은 매출액 대비 1.2% 규모고 판매·공급 지역은 핀란드·대만.△현대로템(064350)=올해 3분기 연결기준 영업이익이 79억원으로 전년 동기 대비 74.6% 감소했다고 공시. 같은 기간 매출액은 7104억원으로 2.5% 증가했고 당기순이익은 62억원으로 36.3% 늘어.△고려아연(010130)=올해 3분기 연결기준 영업이익이 2657억원으로 전년 동기 대비 0.6% 감소했다고 공시. 같은 기간 매출액은 2조 4146억원으로 22.2% 증가했고 당기순이익은 2002억원으로 17.5% 늘어.△더존비즈온(012510)=올해 3분기 연결기준 영업이익이 171억원으로 전년 동기 대비 6.7% 증가했다고 공시. 같은 기간 매출액은 774억원으로 6.1% 늘었고 당기순이익은 16억원으로 85.5% 감소.△팬오션(028670)=올해 3분기 연결기준 영업이익이 1913억원으로 전년 동기 대비 204% 증가했다고 공시. 같은기간 매출액은 1조 3282억원으로 109.4% 늘었고 당기순이익은 1790억원으로 325.2% 증가.△CJ제일제당(097950)= CJ셀렉타 매각 추진 보도에 대한 조회공시 답변에서 “CJ셀렉타에 대한 다양한 전략적 방안을 검토 중”이라고 밝혀. 향후 이와 관련해 구체적 내용이 결정되는 시점 또는 6개월 이내에 재공시하겠다고 덧붙여.△보령제약(003850)=올해 3분기 영업이익이 185억원으로 전년 동기 대비 44.6% 증가했다고 공시. 같은 기간 매출액은 1582억원으로 8.86% 늘었고 당기순이익은 46억원으로 42% 감소.◇코스닥△올릭스(226950)=경기도 성남시에 위치한 225억원 규모의 토지를 골프코리아로부터 양수 결정했다고 공시. 이는 자산총액 대비 28.63%에 해당하는 규모. 양수기준일과 등기예정일은 오는 12월 29일. 회사 측은 “연구개발(R&amp;D) 센터 및 사옥 마련을 위한 부지 확보를 위해서”라고 설명. △신화인터텍(056700)=미국 기업 에피톤(Epitone, Inc.) 주식 3000만주를 약 117억원에 취득 결정했다고 공시. 이는 자기자본 대비 11.8%에 해당하는 규모이며, 취득은 유상증자를 통한 신주 취득으로 이뤄져. 취득 후 신화인터텍의 에피톤 지분율은 18.2%. 취득 예정일은 오는 11월 12일.. △큐라클(365270)=프랑스 기업 떼아오픈이노베이션(Thea Open Innovation)과 당뇨병성 황반부종 및 습성 황반변성 치료제 ‘CU06-RE’ 기술이전계약을 체결했다고 공시. 계약 지역은 아시아를 제외한 전세계이며, 계약 기간은 라이선스 제품의 최초 상업적 판매로부터 10년 중 마지막 날짜까지.  △코스맥스엔비티(222040)=100억원 규모의 단기차입금 증가를 결정했다고 공시. 이는 자기자본 대비 16.7%에 해당하는 규모. 회사 측은 “원부자재 구입 등 안정적인 운영자금 확보를 위해 차입을 결정했다”고 설명. △서울옥션(063170)=보유 중인 자기주식 20만주를 주당 2만7455원, 약 55억원 규모로 처분 결정했다고 공시. 처분예정일은 오는 28일. 회사 측은 “배당 재원 적립 등을 위해 처분을 결정했다”라고 설명. △라온피플(300120)=시설자금과 운영자금을 위해 키움증권 등을 대상으로 300억원 규모의 전환사채를 발행 결정했다고 공시. 사채의 주당 전환가액은 1만7581원이고, 표면이자율과 만기이자율은 모두 0.0%. 청약일과 납입일은 모두 오는 29일. 전환청구기간은 2022년 10월 29일부터 2026년 9월 29일이며, 만기일은 2026년 10월 29일.사채가 모두 주식으로 전환되면 주식총수 대비 13.96%에 해당하는 170만6387주가 새로 발행될 수 있다. △디케이티(290550)=3분기 영업이익이 전년 동기 대비 12.4% 늘어난 64억원으로 잠정 집계됐다고 공시. 같은 기간 매출액은 8.6% 감소한 944억원. △피엔티(137400)= 중국 업체( Hefei Guoxuan Battery Co.,Ltd.  )를 대상으로 약 424억원 규모의 2차 전지 전극공정 장비 공급 계약을 체결했다고 공시. 이는 지난해 매출액 대비 10.86%에 해당하는 규모. 계약기간은 이날부터 오는 2022년 3월 17일까지. △에스제이그룹(306040)=올 3분기 연결기준 영업이익이 전년 동기 대비 48.0% 증가한 50억7000만원으로 잠정 집계됐다고 공시. 같은 기간 매출액은 34.1% 증가한 327억7300만원.△웨이브일렉트로(095270)=3분기 영업이익이 약 15억원을 기록, 전년 동기 대비 흑자전환한 것으로 잠정 집계됐다고 공시. 같은 기간 매출액은 30.84% 감소한 46억원. △ 서호전기(065710)=임직원 성과급 지급을 위해 보유 중인 자기주식 4만6200주를 주당 2만2050원, 총 9억72510만원 규모로 처분하기로 결정했다고 공시. 처분은 회사의 자기주식 계좌에서 지급대상자의 증권계좌로 계좌이체되는 방식으로 이뤄져. △ 한송네오텍(226440)=운영자금을 위해 인슈어테크르네상스판드 제2호를 대상으로 약 90억원 규모의 제3자배정 유상증자를 결정했다고 공시. 이번 유상증자로 보통주 697만6754주가 새로 발행될 수 있으며, 주당 발행가액은 1290원. 납입일은 오는 2022년 3월 31일. 신주 상장예정일은 2022년 4월 18일.  △아이엘사이언스(307180)=경기도 성남시에 위치한 45억원 규모의 토지 및 건물을 라이트큐어코리아에 양도 결정했다고 공시. 이는 자산총액 대비 11.20%에 해당하는 규모. 양도 기준일과 등기 예정일은 오는 11월 30일. 회사 측은 “신사옥 이전과 부채 상환을 위해 양도를 결정했다”고 설명. △한국전자인증(041460)=토스뱅크 주식 290만9주를 약 145억원에 취득 결정했다고 공시. 이는 자기자본 대비 36%에 해당하는 규모. 취득 후 한국전자인증의 토스뱅크에 대한 지분율은 4%(440만14주). 취득 예정일은 오는 12월 30일.△EDGC(245620)=채무상환을 위해 KB증권, 삼성증권 등을 대상으로 300억원 규모의 전환사채를 발행 결정했다고 공시. 사채의 주당 발행가액은 3408원. 표면이자율과 만기이자율은 모두 0.0%. 전환청구기간은 2022년 10월 29일부터 2026년 9월 29일까지. △수젠텍(253840)=베트남 업체(Medaz Vietnam General Service Company Ltd. )를 대상으로 약 42억원 규모의 코로나19 항원 신속진단키트 공급계약을 체결했다고 공시. 이는 지난해 매출액 대비 10.13%에 해당하는 규모. 계약기간은 이날부터 오는 12월 10일까지.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>서울 강남구, 지자체 최초 메타버스 취업박람회</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003565650?sid=004</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>핵심요약25~27일까지 3차원 가상세계에서 개최강남구, 토스‧LF엘지패션‧HP 현직자 멘토링 등 지원강남구 제공서울 강남구(구청장 정순균)가 코로나19로 구인·취업활동이 더 어려워진 기업과 구직자의 매칭을 돕기 위해 25~27일까지 3차원 가상세계에서 개최되는 '2021 강남구 메타버스 취업박람회'를 추진한다.이를위해 구는 오는 24일까지 참가신청을 받는다.이번 취업박람회는 구인‧구직 플랫폼 '인크루트'와의 협업으로 진행되는대 전국 지자체 최초로 '메타버스' 플랫폼(게더타운)을 도입했다.30개 참여 기업은 각 기업에 이력서를 제출한 구직자 중 1차 합격자를 선발해 비대면 화상면접을 실시한다.구는 구직자 전원을 대상으로 △삼성 SDS 등 채용설명회 △취업특강 △토스·LF엘지패션·HP 등 현직자들의 1:1 멘토링 프로그램을 제공한다.참여 희망자는 '강남구 취업박람회 전용관' 홈페이지를 통해 사전신청을 받는데 선착순 270명에 한해 'AI면접 이용권'이 제공된다.김미욱 일자리정책과장은 "민선 7기 강남구는 4차 산업혁명 시대를 대비해 스마트 전략산업 지원에 주력하고 있다"며 "앞으로도 일자리와 기업을 위한 다양한 지원정책을 펼쳐 나갈것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>[시선집중] 박찬대 "김'용판' 아니라 '재판', 그렇게 공작하다 공작'새' 된다"</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001154606?sid=100</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>&lt;박찬대 더불어민주당 의원&gt; -- 野 '짚을 건 짚었다' 평가? 자평 아닌 자뻑 -- 결정적 한 방 없고, 헛방만..-- 김용판 '조폭 돈다발' 의혹 제기, 공작 수준 -- 초과이익 환수 조항 삭제? 구조 몰라서 하는 지적 -- 이재명, 최소 10차례 서류 서명? 시청 공문 ■ 방송 : MBC 라디오 표준FM 95.9MHz &lt;김종배의 시선집중&gt;(07:05~08:30)■ 진행 : 김종배 시사평론가■ 대담 : 박찬대 더불어민주당 의원☏ 진행자 &gt; 이번에는 여당으로 가겠습니다. 박찬대 더불어민주당 의원 연결하겠습니다. 나와 계시죠?☏ 박찬대 &gt; 박찬대입니다.☏ 진행자 &gt; 조금 전에 박완수 의원으로부터 국민의힘 입장을 들어봤는데요. 짚을 건 전반적으로 짚었다, 자평을 하시던데 여당 의원으로서 어떻게 평가를 해주시겠습니까, 어제 국감을?☏ 박찬대 &gt; 자평하신 게 아니라 자뻑하신 것 같고요. 어저께 결정적인 한 방이 없었어요. 헛방만 있었죠. 실질적으로 새로운 내용은 전혀 없었고요. 김용판 의원이 새로운 거 하나 내놨었죠.☏ 진행자 &gt; 조폭 돈 20억 말씀하시는 거죠?☏ 박찬대 &gt; 예, 그래서 오전에 그 발언을 해서 그것만 유일하게 새로 제시된 의혹이었어요. 그런데 그것에 대해서 우리가 맹비난하고 어디서 확인도 안 한 내용을 제시하냐라는 신상발언까지 했거든요. 전혀 신상이 아니었어요. 너무 올드했고요. 김용판 의원 잘 아시지 않습니까? 옛날 국정원 댓글 사건 관련해서 초동수사 소홀히 해서 나중에 그거 뒤집어졌지 않습니까. 물론 의원이 되고 나서 그러지 않을 거라고 생각하는데 어제 보니까 재판이 아니었나 용판이 아니라 재판이었다, 이런 생각이 듭니다.☏ 진행자 &gt; 오늘 아주 용어 구사가 독창적이십니다. 의원님.☏ 박찬대 &gt; (웃음) 소문났어요.☏ 진행자 &gt; 하나하나 차근차근 여쭤볼 텐데요. 일단 그 전에 궁금한 게 국감 끝나고 나서 이재명 지사가 혹시 소감 남긴 게 있습니까?☏ 박찬대 &gt; 따로 듣진 못했어요. 왜냐하면 쭉 인사하고 돌아서 저희들도 급하게 다시 또 경기도 경찰청 국감이 남아 있어서요. 급하게 이동하기 때문에 악수만 한 번 하고 넘어갔는데요.☏ 진행자 &gt; 그랬군요. 알겠습니다. 조금 전에 했던 돈뭉치 이야기부터 한번 여쭤볼게요. 김용판 의원이 공개한 직후에 한병도 의원이 이거 박철민 씨가 자기 페이스북 2018년 11월에 올린 거다, 똑같은 거다 밝혀내지 않았습니까? 조금 전에 박완수 의원한테 이 질문을 드렸더니 페이스북에 올린 건 11월이라고 하더라도 찍은 시점은 다를 수 있는 것 아니냐, 이렇게 주장하던데 어떤 말씀 주시겠습니까?☏ 박찬대 &gt; 일단은 자료로 제출했던 사진 자체가 일단 페이스북에 그러면 거짓말한 것 아니에요? 자기가 돈 번 거라고 이야기했는데 그건 돈 준 거라고 이야기한 거고, 시점도 2018년 8월 이후로 추정되지 않습니까? 거기 무슨 바(bar) 선전하는 명함도 같이 있던데,☏ 진행자 &gt; 페이스북에 돈뭉치 사진 올린 시점은 11월이었어요, 2018년.☏ 박찬대 &gt; 그렇죠. 그렇죠. 그리고 바(bar)는 8월 이후였기 때문에 시점적으로 안 맞고 내용도 뇌물로 준 돈이라고 했는데 벌었다라고 얘기하니까 내용도 믿을 수 없고, 메신저도 믿을 수 없고 국감장에서 그걸 터뜨렸던 김용판 의원도 과거 전력 때문에 믿기 상당히 어렵다. 국민이 다 지켜보고는 있는 국감장에서 거의 학예회 수준의 사실은 작품을 들고 나온 것 아니겠습니까?☏ 진행자 &gt; 그런데 어제 이재명 지사 답변은 수사까지 했지만 다 무혐의 나왔던 거다 분명히 이야기했음에도 불구하고 반복적으로 이 문제를 계속 제기하는 배경이 뭐라고 보세요?☏ 박찬대 &gt; 공작이죠. 제가 아까 용판이 아니라 재판이라고 하지 않았습니까? 계속 똑같은 일하고 있고요. 계속 공작하다 보면 진짜 공작새 됩니다.☏ 진행자 &gt; (웃음)☏ 박찬대 &gt; 정말 이렇게 하시면 안 돼요. 국민이 지켜보고 있는데☏ 진행자 &gt; 지금 이런 용어 구사는 미리 고민하신 겁니까? 즉석에서 나오시는 겁니까.☏ 박찬대 &gt; 평소에 고민하니까 현장에서는 즉석에서 나옵니다.☏ 진행자 &gt; 그러십니까?☏ 박찬대 &gt; 어저께 그 사건도요, 제가 불가피하게 부친상을 당한 이형석 의원 때문에 국감 하루 전날 급하게 사보임 됐어요.☏ 진행자 &gt; 원래는 다른 상임위시죠?☏ 박찬대 &gt; 예, 교육위에 있었는데요. 그래서 우리가 사실 두 번밖에 못 해요. 7분 한 번, 5분 한 번 하는데 두 번째 끝나고 이제 한 10여 분 남았을 때 우리 보좌관한테 이 제보가 들어왔어요.☏ 진행자 &gt; 어떤 제보요?☏ 박찬대 &gt; 지금 이 사진과 관련해서 신빙성에 문제가 있다. 우리 보좌진이 저한테 연락 와서 급하게 봤더니 우리 쪽에서 이걸 질의해줄 수 사람이 한병도하고 박재호 간사밖에 없는 거예요. 두 분한테 다 제시했던 한병도 의원이 너무나 잘 대응해주셨고 그러고 나서 저쪽에서는 만회하기 위해서 다시 이재명 지사를 욕보일 수 있는 질문을 또 추가로 강제로 받아냈길래 이번에는 백혜련 의원이 강하게 이 부분에 대해서 쳤어요.☏ 진행자 &gt; 한병도 의원이 제기한 거 의원님이 토스해주신 겁니까, 그러면?☏ 박찬대 &gt; 우리 원팀이니까. 그리고 질의순서는 정해져 있고 제한이 있다보니까 경찰청에 가 가지고 박완주 의원이 한 번 더 쳐줬어요. 거짓이 있다면 벌을 받겠다 했기 때문에 이 사실에 대해서 수사하겠느냐 물어봤더니 살펴보겠다 얘기했고, 살펴볼 게 아니라 수사해라 그랬더니 거짓이면 수사하겠다, 이런 답변까지 받아냈거든요. 오늘 당에서도 강력하게 아마 이 부분에 대해서 대처할 거라고 생각됩니다.☏ 진행자 &gt; 조금 전에 인터뷰하면서 나왔던 그것이 초과이익 환수 조항 삭제 문제는 집중적으로 어제 제기했고 오늘 또 이야기하던데 어떻게 봐야 될까요?☏ 박찬대 &gt; 첫 번째는 사실관계 여부는 좀 더 수사 결과를 놓고 지켜보고요. 가정해서 그런 일이 있다고 해도 삭제가 아니라 추가 의견을 받아들이지 않은 걸로 생각돼요.☏ 진행자 &gt; 그런데 설령 그렇다고 해도 그건 문제가 있다는 취지의 답변이 조금 전에 나왔는데 어떻게 보세요?☏ 박찬대 &gt; 그건 전혀 구조를 몰라서 그렇고요. 이건 1조 5천억짜리 사업이고, 매출액은 2조가 넘어가는 것이지 않습니까? 주택용지를 만들어서 파는 사업이 성남의뜰 고유 사업이고 그 땅을 산 민간업자들이 다시 주택을 지어서 파는 건데 성남시는 주택용지를 만드는 데까지 사업을 하는 거예요. 큰 사업이다 보니까 컨소시엄을 구성한 사람들한테 공모를 하지 않습니까? 3개 컨소시엄이 들어왔고요. 어떤 조건으로 이걸 선정할 거다라고 하는 것을 민간사업자 공모지침서에 분명히 언급을 해요. 이게 이재명 지사님이 설계했다는 말이 그거거든요, 얼마나 무위험하게 안정적으로 공공이익을 환수할 수 있느냐 해서 두 가지 조건 아주 세게 제시하거든요. 하나는 뭐냐면 임대주택부지 내놔라, 돈으로 내놓든지 보증하든지. 그다음에 또 하나가 떨어져 있는 원도심에 공원을 지어달라, 이 두 가지를 요구하지 않습니까? 그걸 확정적으로 했기 때문에 3개 컨소시엄이 그걸 제안해요. 그 제안사항하고 그리고 제일 중요한 건 안전적으로 자금을 조달해야 되는 거니까 금융기관의 능력이나 업력을 보게 되거든요. 그리고 리스크는 누가 부담할 거냐. 그랬더니 하나은행은 리스크를 전혀 부담하지 않는다고 그랬고, 메리츠는 반띵하자고 그랬고, 산업은행은 우리가 그만큼 돈이 안 나오면 우리가 부담하라 이렇게 했어요. 세 가지를 종합적으로 고려해봤을 때 이익도 제일 많이 보장해주고, 그다음에 위험도 안 부담하고, 금융기관도 가장 시중은행으로 탄탄하다 보니까 이 조건으로 공모가 된 거거든요. 그래서 우선협상이 3월 27일날부터 들어간 것 아닙니까? 제기됐던 시점은 5월달이거든요. 그러니까 아이디어 차원에서 직원이 ‘이거 추가이익 더 환수하면 안 될까요?’라고 했을 때 첫 번째 공모지침에 정액으로 받아놓고서 우선지침 세워놨는데 이걸 공모 과정에서 바꿀 수 있겠느냐라고 하는 부분이 하나가 있고요. 두 번째는 처음에 설계할 때 우선협상을 통해서 우리가 70%까지 확보를 하거든요. 원가로 3681억인가를 확보하고 우선주 1종으로 해서 1822억인가를 확보를 해요. 그런데 혹시 미래에 발생할지 모르는 민간인 몫 1800억 중에서 이익이 조금 더 발생하면 그거 추가적으로 환수하자 이렇게 얘기하는데 아이 뭐든지 우리 뜻대로 다 되면 어떻게 민관합작이 이뤄지고 민간이 들어오겠어요. 그러니까 이건 있을 수 없는 일이다.☏ 진행자 &gt; 알겠습니다. 내일 진행되는 국토위 경기도 국감에서도 이 문제가 집중 질의가 될 것 같아서 미리 질문을 드려보는데 어제도 물론 나왔던 질문이고 대장동 공문에 이재명 당시 성남시장이 최소 10차례 서명했다는 국민의힘 의혹 제기는 어떻게 파악해야 될까요?☏ 박찬대 &gt; 서류절차를 보시면 이 서류가 저기서 올라오는 게 아니에요. 대장동 주관으로 하고 있던 도시개발공사에서 올라온 서류가 아니고요, 이게 도시개발과 관련된 성남시에서 일어나고 있는 일반적 행정과 내용에 대해서 시청에서 공문 해 가지고 올리는 거거든요. 일상적인 업무이기 때문에 당연히 시장이 당연히 살펴야죠. 얼마나 세밀하게 다 기억할 수 있느냐, 세밀하게 다 보냐, 이건 정도의 차이가 있겠지만 아니 시장으로서 성남시의 최고시정 책임자로서 성남에서 이뤄지는 중요한 일에 대한 서류에 사인 안 할 수 있나요? 저는 그 일상적인 일인데 도대체 이걸 제안했던 그분들, 의원 하기 전에 무슨 일을 했는지 참 궁금해요. 아니, 너무 웃기잖아요. 기자들이 전화가 많이 왔어요, 아무 문제도 없는데 왜 이걸 올렸을까 이종배 의원님이, 그래서 기자님들 생각이 맞다, 기자님들이 판단해서 쓰면 되지, 기자님 생각하고 내 생각이 똑같다, 이렇게 말씀드렸던 적이 있거든요. 허허허☏ 진행자 &gt; 알겠습니다. 이게 무슨 엄청난 비밀이 담겨 있는 문서에 서명한 게 아니라 일상 행정문서다, 이런 말씀이신 거죠? 정리하면.☏ 박찬대 &gt; 아이, 그럼요. 쭉 보세요. 쭉 올라와 있지 않습니까? 주사보부터 해가지고 시장님까지 올라와 있지 않습니까? 얼마나 성실하게 일을 하시는데요.☏ 진행자 &gt; 어제 국감 끝나고 나서 국민의힘에서는 이재명 지사의 답변 태도를 문제 삼던데 이건 어떻게 평가해야 될까요?☏ 박찬대 &gt; 답변 태도, 문제가 있었죠.☏ 진행자 &gt; 어떤?☏ 박찬대 &gt; 국민의힘이 볼 때는 너무 잘했어요. 문제가 있죠. 못해줘야 되는데 그래서 (웃음) 국토위에서는 좀 못했으면 좋겠어요. 너무 잘하니까 얄밉잖아요. 그래서 국토위에서는 너무나 충실하게 하지 말고 이미 잘했으니까 국토위에서 좀 점잖고 대선후보로서 품격과 여유를 가질 수 있는 그렇게 했으면 좋겠다라는 게 제 개인적 생각입니다.☏ 진행자 &gt; 알겠습니다. 웃고 이랬던 것이 답변 태도에 문제가 있다는 지적이었던 것 같은데 이건 큰 문제 안 된다, 이렇게 보시는 거고요.☏ 박찬대 &gt; 그것도 조심하시는 게 좋죠. 얼마나 허탈하면 국감장에서 헛웃음이 나오겠어요. 사실 비웃는 웃음은 아니잖아요. 허탈한 웃음이죠.☏ 진행자 &gt; 알겠습니다. 이렇게 마무리할게요. 고맙습니다. 의원님.☏ 박찬대 &gt; 감사합니다.☏ 진행자 &gt; 더불어민주당의 박찬대 의원과 인터뷰했습니다.[내용 인용 시 MBC &lt;김종배의 시선집중&gt;과의 인터뷰 내용임을 밝혀주시기 바랍니다.]저작권자(c) MBC (www.imnews.com) 무단복제-재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2021.10.18.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>카카오T·우티·타다…모빌리티 앱 최종 승자는</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004617429?sid=105</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>국내 택시 호출 앱 3파전독주하던 카카오T '공격 영업' 주춤우티, 우버 앱과 곧 통합…30% 할인 행사타다, 새 주인에 토스…시너지 기대모빌리티 시장이 술렁이기 시작했다. 독주하던 카카오모빌리티가 골목상권 침해 논란으로 주춤한 사이, 타다가 토스를 운영하는 비바리퍼블리카에 매각되며 추격의 발판을 마련했다. 티맵모빌리티와 우버가 손잡고 내놓은 우티도 사업 확장에 속도를 내고 있다. 모빌리티업계 관계자는 “카카오모빌리티는 올해로 계획된 기업공개(IPO)도 불투명해졌고 당분간 제대로 된 사업을 할 수 없을 것”이라며 “후발 주자 추격이 확대되면서 국내 모빌리티 시장에 균열이 생기고 있다”고 말했다.그래픽=전희성 기자 타다의 매서운 추격비바리퍼블리카는 타다 운영업체 VCNC 지분 60%를 확보했다고 지난 8일 발표했다. VCNC는 차량 공유업체 쏘카가 지분 100%를 갖고 있었다. 이번 인수합병(M&amp;A)은 VCNC가 발행한 신주를 비바리퍼블리카가 사들이는 방식으로 진행됐다. 구체적인 투자액은 공개하지 않았지만 수백억원에 달할 것으로 추정된다.VCNC는 “이달 주식매매 계약을 마무리하고, 올해 말 새 단장한 타다 서비스를 선보일 예정”이라고 밝혔다. 40%의 지분을 갖고 있는 쏘카도 비바리퍼블리카와 함께 ‘타다 살리기’에 적극 나서기로 했다. 타다, 토스, 쏘카는 각자 브랜드를 유지하며 공동 마케팅에 나선다. 토스는 2000만 명, 쏘카와 타다는 900만 명 안팎의 가입자를 확보하고 있다.VCNC의 모빌리티 사업은 지난해 국회에서 일명 ‘타다 금지법’으로 불리는 여객운수법 개정안이 통과되면서 큰 타격을 받았다. 법안 통과로 타다 베이직 서비스를 종료해야 했다. 가맹택시 서비스 ‘타다 라이트’를 선보였지만 신통치 않았다. VCNC의 지난해 매출은 59억원으로 타다 금지법 전인 2019년(109억) 대비 반토막났다. 또 순손실 112억원을 내며 적자전환했다.VCNC와 비바리퍼블리카는 타다와 토스가 충분히 시너지를 낼 수 있을 것이라고 봤다. 현재 타다가 하고 있는 가맹택시 호출 사업은 물론 배달, 퀵서비스 등 모빌리티 기업 비즈니스에서 금융 결제 서비스는 필수다. 외부 금융업체에 의존하면 서비스 고도화의 핵심인 데이터를 직접 확보할 수 없기 때문이다. 서비스 질도 높아진다. 금융업을 자체 운영하면 차량을 이용하는 승객과 기사를 대상으로 대출, 보험 상품 등을 연계해 서비스를 내놓을 수 있다.모빌리티 기업이 금융사와 공동 사업을 추진하는 건 이미 글로벌 트렌드다. 동남아시아 최대 사업자인 그랩은 2018년 그랩파이낸셜을 설립하며 금융업에 진출한 뒤 결제, 쇼핑, 예약, 보험 등으로 영역을 확장하고 있다. 우버도 금융사 ‘우버머니’ 등을 설립해 모빌리티와 금융을 접목했다.타다의 사업 확장은 이미 진행되고 있다. 비바리퍼블리카는 오는 12월 출시할 신규 대형 모빌리티 서비스 기사를 모집하고 있다. 스타리아 9인승, 4세대 카니발 등 대형 차량 약 1000대를 운행하는 것이 목표다. 외형은 카카오모빌리티가 운영하고 있는 대형 택시 ‘카카오벤티’와 같은 형태다.모빌리티업계 관계자는 “쏘카의 구주를 매각하는 방식이 아니라 신주를 발행해 새 사업 실탄 자금을 마련한 만큼 타다의 사업 확장 속도가 빨라질 것”이라고 말했다. 우티도 가세…모빌리티 시장 판도 바뀌나우티도 모빌리티 시장 공략에 나섰다. 택시 호출 앱인 우티는 연내 우버 앱과 통합한다. 우버의 가맹택시 서비스 ‘우버택시’도 ‘우티택시’로 이름을 바꾸면서 우티 앱에서 통합 운영되고 있다.우티는 이달부터 베타테스트를 진행하고 있는 ‘뉴 우티’ 앱으로 택시를 호출할 경우 횟수에 관계없이 요금 30%를 할인하는 프로모션을 시작했다. 이달 31일까지 호출 1회당 최대 3만원까지 할인받을 수 있다. 앞서 사전 체험 신청을 받아 이달 초 30% 할인 행사를 열었다.후발 주자의 사업 확장이 카카오모빌리티가 사실상 독점하던 시장에 균열을 일으킬지 업계의 관심이 모아지고 있다. 카카오모빌리티가 정치권으로부터 전방위 공세를 받으며 사업 확장에 제동이 걸렸기 때문이다. 김범수 카카오 의장은 지난 5일 국회 국정감사에서 “내부적으로 성장에 취해 사회적 책임을 다하지 못한 면이 있다”며 “논란이 있는 부분은 과감하게 수정하고 개선하겠다”고 말했다. 카카오모빌리티는 지난 8월 추진했던 전화대리 업체 두 곳 인수를 포기하고, 향후 추가적으로 대리운전 업체를 인수하지 않겠다고 밝혔다. 또 유료 택시호출 서비스인 스마트호출 서비스를 폐지하고, 택시 기사 멤버십 요금을 월 9만9000원에서 월 3만9000원으로 인하하기로 했다. 기업 고객 대상 꽃, 간식, 샐러드 등 배달 중개 서비스와 미용실 사업 등에선 철수할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>토스 '꿈의 직장'만들어 인재영입..주 4.5일 근무에 10일간 겨울방학</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004725791?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>내년 비포괄임금제로 전환  금융 플랫폼 기업 토스는 포괄임금제를 폐지하고 '주4.5일 근무제'와 '겨울방학' 제도를 정식으로 도입한다.   19일 금융권에 따르면 토스는 현재 포괄임금제를 시행하고 있지만 내년 초 이를 비포괄임금제로 전환한다.   이에 따라 법정 표준 근무시간인 주40시간을 초과한 근무시간은 연봉 외에 별도 수당을 직원들에게 지급하게 된다. 토스는 또 지난 4개월간 시범 운영한 금요일 조기 퇴근제를 다음달부터 정식으로 운영해 사실상 주4.5일 근무제로 전환키로 했다.   성탄절을 전후해 약 10일간 회사가 모두 쉬는 겨울방학도 정례화한다. 고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 것을 원칙으로 하며, 사내 메신저도 서로 답변을 요구하지 않는 휴식 상태로 전환한다.   토스는 아울러 그동안 운영해온 동료 간 단기 평가 시스템인 '3개월 리뷰 과정'과 '스트라이크' 제도를 다음달부터 폐지하기로 했다.   토스 측은 "입사 지원자와 재직자 모두에게 충분한 심리적 안정감을 제공하는 것이 장기적으로 팀의 성공에 더 효과적이라고 판단했다"고 설명했다.   이런 인사 제도는 토스와 토스뱅크, 토스증권, 토스페이먼츠 등 주요 계열사에 동일하게 적용된다. 다만 고객 상담업무를 하는 토스CX와 보험 상담사 중심 조직 토스인슈어런스는 기존 인사 제도를 유지할 예정이다.   최근 몇년간 게임업계를 포함한 정보기술(IT)업계에서는 '공짜 야근'을 양산하는 근로제도로 꼽히던 포괄임금제를 폐지하는 움직임이 일고 있다.   카카오엔터테인먼트는 올해 9월부터 포괄임금제를 폐지하고 시간이나 장소에 구애받지 않는 완전 자율근무 제도를 시행했다. 대형 게임사들 중 넥슨·넷마블·엔씨소프트는 2019년에, 게임빌과 컴투스는 올해 5월에 각각 포괄임금제를 폐지했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>토스 이승건 대표, 엔젤투자자로 나섰다</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004726346?sid=105</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>코리아스타트업포럼 5주년 간담회장병규 크래프톤 의장과 대담 진행  [파이낸셜뉴스] 테크핀(기술+금융) 플랫폼 ‘토스’ 창업자 이승건 비바리퍼블리카 대표가 엔젤투자자로 나섰다. 지난 2013년 8월 비바리퍼블리카 설립 이후, 약 8조2000억 원까지 기업 가치를 끌어올린 이 대표가 직접 스타트업 발굴 및 성장지원에 나서 주목된다.   또 최근 비바리퍼블리카는 쏘카 자회사인 VCNC(타다 운영사) 지분 60%를 전격 인수, 네이버와 카카오에 이어 테크 스타트업 생태계 ‘큰 손’으로 자리매김하고 있다. 이른바 미국 실리콘밸리 생태계에 자리 잡은 ‘창업-투자-성장-회수 및 재투자’ 선순환 고리가 국내에도 안착되고 있다는 분석이다.    장병규 크래프톤 의장(왼쪽)과 테크핀(기술+금융) 플랫폼 ‘토스’ 창업자 이승건 비바리퍼블리카 대표가 20일 열린 ‘더 창업가 페스티벌’에서 대담을 나누고 있다. 화면 갈무리  ■토스 이승건 "5개 스타트업에 엔젤투자"  이 대표는 20일 코리아스타트업포럼 5주년을 맞이해 열린 ‘더 창업가 페스티벌’에서 장병규 크래프톤 의장과 대담을 나누며 엔젤투자 현황을 처음 밝혔다. 이 대표는 “올해부터 엔젤투자(개인투자)를 시작했다”면서 “현재 약 5개 스타트업에 엔젤투자를 했다”고 전했다.   이 대표는 혁신산업 중 규제강도가 가장 높은 금융권에서 토스 서비스를 성장시킨 인물이다. 그는 “초기투자 한 5개 기업 중에는 규제로 고생하는 팀도 있다”면서 “여러 가지 규제를 뚫고 성장하는 모습을 보니 감회가 새로웠다”고 말했다.   특히 토스는 알토스벤처스를 비롯해 클라이너퍼킨스, 세콰이어차이나, 페이팔, 알키온, 그레이파운드 등 글로벌 벤처캐피털(VC)로부터 1조원 이상 투자를 유치한 기업이다. 이 대표는 해외 유력 VC로부터 투자를 유치한 경험도 창업자들과 공유하고 있다. 그는 “해외투자자가 필요한 국내 창업가들에게 글로벌 VC 네트워크를 연결, 1000억 원에 가까운 투자유치를 지원하기도 했다”고 전했다.    장병규 크래프톤 의장(왼쪽)과 테크핀(기술+금융) 플랫폼 ‘토스’ 창업자 이승건 비바리퍼블리카 대표가 20일 열린 ‘더 창업가 페스티벌’에서 대담을 나누고 있다. 화면 갈무리  ■크래프톤 장병규 "각자 스토리로 창업"  국내 첫 엔젤투자전문 VC인 본엔젤스를 만들었던 장 의장도 창업자들을 향한 조언을 내놨다. 장 의장은 “장병규와 이승건은 창업가들 역할모델이 아니다”라며 “중,고등학교 때 대학입시를 위한 정답을 찾아다니는 것처럼 스타트업 성공사례만 찾아다녀서는 안 된다”고 지적했다. 그는 이어 “각자의 스토리로 창업에 성공하는 것이므로 각자 자기만의 스타일로 승부했으면 좋겠다”고 덧붙였다.   장 의장은 내년도 창업 생태계 전망도 내놨다. 그는 “창업자들은 내년과 내후년 경영계획을 굉장히 보수적으로 마련해야 한다”면서 “최근 스타트업 생태계가 커지고 사회 일원이 된다는 것은 거시경제 영향을 받는다는 의미이므로 자금흐름이나 유동성 문제에 더욱 철저하게 대응해야 한다”고 강조했다. #토스 #비바리퍼블리카 #크래프톤 #장병규 #이승건</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>토스 “금요일 조기퇴근… 주 4.5일 근무 시행”</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003388334?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>‘겨울방학’ 10일 휴가 공식 도입주 40시간 초과근무 별도수당모바일 금융플랫폼 토스가 주 4.5일 근무를 전면 실시하고 성탄절 전후 10일간의 ‘겨울방학’을 도입한다. 내년부터 주 40시간 초과근무에 대해 별도 수당을 지급하도록 임금체계도 개편해 실질적인 연봉이 더 오른다. 토스는 다음 달부터 토스, 토스뱅크, 토스증권, 토스페이먼츠 등 주요 계열사에 이 같은 내용의 인사제도를 새롭게 적용한다고 19일 밝혔다. 먼저 올해 6월부터 4개월간 시범 운영했던 ‘금요일 조기퇴근’을 정례화한다. 금요일 퇴근 시간을 오후 2시로 앞당겨 사실상 주 4.5일 근무를 하는 제도다. 성탄절을 전후로 10일을 전사적으로 쉬는 겨울방학 휴가도 도입한다. 해당 기간에 고객센터 등 일부 필수 인력을 제외하고 모든 직원이 출근하지 않는다. 이전 직장 연봉의 1.5배를 보장하는 등 업계 상위 수준으로 알려진 토스 직원들의 임금은 더 높아질 것으로 보인다. 현행 포괄임금제가 내년 초부터 비포괄임금제로 바뀌기 때문이다. 포괄임금제는 연장, 야간, 휴일 근로수당을 미리 정한 뒤 급여에 포함해 일괄 지급하는 방식이다. 토스 관계자는 “새 임금제도에선 주 40시간을 초과한 근무시간에 연봉 외에 별도 수당이 지급되기 때문에 신규 입사자뿐 아니라 기존 입사자들도 연봉이 크게 상승하는 효과가 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>장병규 크래프톤 의장, 과거 발언 해명 “주 100시간 근로, 개인의 선택…그런 삶도 멋진 인생”</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000768101?sid=105</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>장병규 크래프톤 의장.        장병규 크래프톤 의장이 과거 본인이 발언해 논란이 됐던 ‘주당 100시간 근로’에 대해 해명했다.장 의장은 지난 20일 열린 코리아스타트업포럼 출범 5주년 ‘더 창업가’ 컨퍼런스에 참가해 “많은 사람이 ‘주당 100시간’을 얘기하면 남이 강요해서, 착취하는 것으로 생각하는데, 내가 계속 얘기하는 것은 ‘당신의 인생에 어떤 순간을 몰입할 수 있다면 스스로 선택하라’는 것이다”라고 말했다. 이어 그는 “꼭 바로잡고 싶은 것은 ‘주당 100시간’은 각자의 선택이라는 것이다”라며 “각자 인생 중에 한 번, 주당 100시간의 인생이 있을 수 있는데 그렇게 일하는 사람들도 우리 사회의 멋진 구성원이라는 걸 양해해 달라는 것이다”라고 말했다.이날 컨퍼런스에서 대담을 나눈 이승건 비바리퍼블리카(토스) 대표도 공감을 표했다. 이 대표는 “직원들로부터 빼앗고 싶은 게 아니고 (경험을) 선물하고 싶은 거다”라며 “이 때문에 최근 토스 인사 제도 변경도 시행했는데, 직원들이 와서 쓸데없는 생각 안하고 ‘일은 일’, 스스로 몰입에 빠져들 수 있게 하고 싶다”고 말했다.장 의장은 지난 2019년, 대통령 직속 4차산업혁명위원회 위원장을 맡으며 “혁신을 위해서는 주당 100시간 일할 정도로 몰입이 필요하다” 등의 발언으로 논란을 일으킨 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>카카오페이증권, 직원 4명 中 1명은 '임원'</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004986747?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>카카오페이증권의 임원수가 직원의 25%에 달하는 것으로 나타났다.21일 카카오페이증권에 따르면 이 회사는 이달 13일 박모 전무(특수금융본부장) 등 5명의 임원을 새로 선임하며 임원수가 61명으로 늘었다. 카카오페이증권은 지난 2분기 말 기준 직원수 241명 중 임원은 55명이었다. 이달 현재 직원수 대비 임원비율이 25%에 달하는 셈이다. 이는 비슷한 시기에 출범한 토스증권(직원수 111명 중 임원수 4명)보다 압도적으로 많은 수준이며, 자기자본 기준 업계 1위인 미래에셋증권(직원수 3941명 중 임원수 108명)의 60%에 육박한다. 비율로 따지면 10배에 달한다.높은 임원 비율은 카카오페이증권이 바로투자증권을 인수한 뒤 출범하면서 비롯됐다. 카카오페이증권은 지난해 2월 카카오페이가 증권업 진출을 위해 바로투자증권의 지분 60%를 인수하면서 사명을 변경한 증권사로, 현재 바로투자증권의 최대주주였던 신안캐피탈이 지분 36%를 보유하고 있다. 이달 말 기준 카카오페이증권 임원 61명 중 바로투자증권 출신은 21명이다. 바로투자증권은 기업금융 전문 증권사로 업무 특성상 임원의 직함이 영업에 유리해 임원을 많이 선임했다는 게 업계의 설명이다.한편 카카오페이증권은 임원 등 인건비가 늘면서 수익성은 쪼그라졌다. 카카오페이증권의 2분기 인건비는 190억원으로 전년동기(169억원)에서 20억원 가량 늘었고, 이 기간 영업손실은 17억원에서 84억원으로 확대됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[블록먼데이]토스가 가상자산 시장 바라만 볼까?</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000036730?sid=105</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>매주 월요일, 주목할 만한 블록체인 프로젝트나 업계 트렌드를 알기 쉽게 풀어봅니다.(사진=토스뱅크)급속도로 성장하는 가상자산(암호화폐) 시장을 토스(비바리퍼블리카)가 그냥 두고만 볼까요? 증권, 법인보험대리점(GA), 전자결제(PG)를 비롯해 은행업까지 금융·투자분야에서 할 수 있는 모든 일을 다 하고 있는 토스가 못 할 거 없어 보입니다. 토스는 가상자산 거래소 사업자의 핵심요건인 '실명계좌 발급'을 토스뱅크를 통해 직접 할 수 있는 국내 유일한 스타트업이기도 합니다.토스뱅크의 홍민택 대표는 이달 초 회사 출범 기자간담회에서 '가상자산 거래소와 연계한 실명계좌 발급 또는 제휴계획이 있는지' 묻는 질의에 "아직까지 구체적인 계획이 없다"며 "현재 여신, 수신, 카드 시장에 안정적으로 안착하는데 전사 역량을 기울이고 있다"고 답했습니다. '아직까지'라는 단서를 달긴 했지만 가상자산 사업 가능성을 열어둔 것으로 해석할 수 있습니다.현재 토스뱅크는 은행업의 본질적인 주수익원인 '예대마진(예금과 대출금리 차이에서 발생하는 이익)'이 전혀 성립하지 않는 상황입니다. 연 2% 이율의 파킹통장, 전월 실적 없이 300원 캐시백을 주는 체크카드는 그야말로 자선사업이라 할만 하죠. 파킹통장은 금방 빠져나갈 수 있는 돈이라 은행 대출운용에 불리하고, 체크카드는 신용카드보다 가맹점 수수료가 더 낮거든요.대출로 손실을 방어해야 하는데 대출을 지금 못 하고 있습니다. 연간 대출한도를 5000억원에서 8000억원으로 늘려달라고 정부에 요구했지만 엄격한 가계대출 관리 기조에 따라 거절당했죠. 내년 1월 초 대출 서비스를 재개할 예정이라고 하는데, 올 4분기는 토스뱅크에 돈 나갈 일만 있는 셈입니다. 토스뱅크 관계자도 "(대출 외 수익을 얻을 수 있는 사업이)현재로서는 없다"고 했습니다.핵심사업이 막힌 건 중소형 가상자산 거래소들도 마찬가지입니다. 최근에 고팍스나 후오비코리아, 지닥 등 거래소들은 은행 실명계좌 발급에 실패해 원화마켓을 닫을 수밖에 없었죠. 협상을 진행했던 지방은행들의 행장 선에서 최종 반려가 이뤄진 것으로 업계는 보고 있습니다.은행들은 가상자산 거래소에서 자금세탁이 이뤄질 경우 그 리스크가 자신들에게 오는 것을 두려워합니다. 거래소들이 자금세탁방지 전문인력을 채용하고 방어체계를 구축했음에도 '혹여나'라는 우려를 완전히 거두지 못하는 것입니다. 금융당국도 "감당할 수 있다고 생각하면 (실명계좌를)받아주는 것"(은성수 전 금융위원장)이라며 은행이 책임지라는 입장이죠.이들 중소 거래소는 이번에 전통 금융권의 최종 관문을 뚫지는 못했지만, 다시 실명계좌를 취득하겠다는 재도전 의지는 명백합니다. 홍 대표가 행장으로 있는 토스뱅크를 협상 대상으로 눈여겨보지 않을 수 없습니다. 서로에게 부족한 점을 채워줄 수 있는 이해관계의 전제조건을 충족하기 때문입니다.여기서 토스가 실명계좌 발급이 절실한 중소 가상자산 거래소들과 협력해 공동 사업을 하느냐, 아니면 단독으로 거래소를 하느냐 두 가지 가능성을 떠올릴 수 있습니다. 첫 번째는 '케이뱅크-업비트'의 성공사례가 있다는 점에서 보다 안정적입니다. 케이뱅크는 지난해 중순까지만 하더라도 대출영업을 1년 반가량 중단하며 존폐 기로까지 언급될 정도였습니다. 그러던 케이뱅크를 부활시켜준 존재가 실명계좌 제휴를 맺은 가상자산 거래소 업비트였습니다. 지난해 말부터 가상화폐 시장이 활성화되면서 케이뱅크는 올 4월 한달간 신규 고객수가 146만명이나 늘어나기도 했죠. 올 상반기에 케이뱅크가 업비트를 통해 벌어들인 수수료는 170억원에 달합니다. 두 번째는 토스 단독사업으로 얻는 수수료 수입이 상당할 것으로 보입니다. 거래소를 띄울 수 있는 능력은 충분합니다. 1800만명의 고객 기반도 있고, 토스가 기술력이 부족한 기업은 아니니까요. 가상자산 거래소 한 관계자는 "카카오뱅크가 속한 카카오는 정치권에서도 도마에 오른 만큼 여의치 않을지 몰라도, 토스는 거래소 진출이 가능할 수 있다"며 "토스 쪽에서도 구미가 당기는 선택지일 것"이라고 봤습니다.그러나 이런 측면을 생각해볼 필요가 있습니다. 만약 토스 가상자산 거래소에서 리스크가 발생할 경우 토스뱅크까지 위험이 전이될 수 있다는 점입니다. 어렵게 따낸 은행업 라이선스인 만큼 '잃을 것'을 우려할 수밖에 없죠. 몸조심을 해야 하면서도 녹록지 않은 은행업황은 중소 거래소와 토스뱅크의 협력 가능성을 높이고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2021.10.30.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>'위드 코로나' 기대감에 소비 심리 상승</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000058889?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>[숫자로 본 경제] ‘위드 코로나’ 기대감에 소비 심리 상승'위드코로나'에 대한 기대감으로 국내 소비 심리가 두달 연속 상승했다. / 출처=한국경제신문한국의 소비 심리가 두 달 연속 상승한 것으로 나타났다. 정부의 위드 코로나(단계적 일상 회복) 정책 시행에 대한 기대감이 반영된 결과다. 신종 코로나바이러스 감염증(코로나19) 백신 접종률이 (방역 당국) 목표치에 도달하며 일상 회복에 대한 기대가 커지고 있는 것으로 풀이된다.한국은행이 10월 27일 발표한 ‘소비자 동향 조사’ 결과에 따르면 10월 소비자심리지수(CCSI)는 106.8로, 지난 9월보다 3포인트 상승했다. 소비자심리지수는 지난 7월(103.2)과 8월(102.5) 두 달 연속 하락했다가 9월(103.8)부터 반등했다.CCSI는 소비자동향지수(CSI)를 구성하는 15개 지수 중 현재생활형편·생활형편전망·가계수입전망·소비지출전망·현재경기판단·향후경기전망 등 6개 지수를 이용해 산출한 지표다. CCSI는 기준값 100을 기준으로 100보다 크면 장기 평균보다 ‘낙관적’, 100보다 작으면 ‘비관적’을 의미한다.이 중 가계 재정 상황에 대한 인식을 보여주는 현재생활형편 및 생활형편전망지수는 모두 한 달 새 상승하며 각각 92(+1포인트), 98(+2포인트)을 나타냈다. 가계수입전망지수는 2포인트 오른 101, 소비지출전망지수는 3포인트 오른 112를 기록했다. 경제 상황에 대한 인식을 보여주는 현재경기판단과 향후경기전망지수는 2포인트씩 상승해 각각 80, 96으로 집계됐다.하지만 취업기회전망지수는 6포인트 상승한 94, 금리전망지수는 1포인트 하락한 133이었다. 주택가격전망지수(125)는 9월(128)보다 3포인트 하락했고 물가수준전망지수(149)와 임금수준전망지수(117)는 9월과 같았다.소비 심리 개선과 함께 물가도 오를 것이라는 전망이 많았다. 단, 1년간의 소비자 물가에 대한 체감 상승률을 뜻하는 물가 인식과 향후 1년의 소비자 물가 상승률 전망 값인 기대 인플레이션율은 각각 9월과 같은 2.4%를 나타냈다. 내년 10월에도 물가가 2% 이상 오를 것으로 내다본 것이다. 지난 1년간 소비자 물가 상승률에 대한 인식을 보여주는 물가 인식도 3개월 연속 2.4%를 기록했다.해시태그 경제용어# 네오 뱅크‘네오뱅크(neo bank)’는 오프라인 지점 없이 모바일이나 인터넷만으로 금융 서비스를 제공하는 은행을 의미한다. 그간 일상적 은행 업무에 혁신적인 접근 방식 등을 도입한 것이 ‘네오뱅크’다. 디지털이나 소셜 네트워크 등을 기반으로 고객과의 접근 방식을 넓힌 인터넷 은행이라고 볼 수 있다. 한국에서는 카카오뱅크나 토스뱅크가 대표적이다. 이들은 점포 없이 비대면 채널 위주로 영업을 확대했고 로보어드바이저를 활용한 자산 관리, 빅데이터를 활용한 대출 상품 등을 선보이며 빠르게 성장하고 있다.미국 컨설팅 업체 액센추어의 분석에 따르면 2020년 기준, 세계적으로 300개의 네오뱅크가 운영 중이고 그중 절반이 유럽에 있는 것으로 분석된다. 특히 액센추어는 네오뱅크가 기존 은행 점유율의 35% 이상을 차지하는 것으로 분석한 바 있다. 또한 네오뱅크의 확산으로 기존 은행이 25% 이상 사라지게 될 것이라고 분석했다.네오뱅크는 결제 거래 수수료, 프리미엄 서비스 가입, 제삼자 서비스 수수료 등 세 가지 방법을 기반으로 수익을 창출한다. 하지만 네오뱅크의 수익성 모델은 아직 완전히 입증된 것은 아니다. 그동안 네오뱅크의 양적인 성장은 충분히 이뤄졌지만 앞으로가 더욱 중요할 것으로 전망된다. 신종 코로나바이러스 감염증(코로나19) 사태를 통해 비대면 서비스에 대한 시장의 요구가 높아지면서 기존 은행과 차별화되는 ‘킬러 콘텐츠’의 확보가 네오뱅크의 성장에 결정적인 영향을 미칠 것이라는 분석이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2021.10.16.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>예외 없는 ‘대출 옥죄기’에 백기투항 토스뱅크</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/262/0000014861?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[금융 인사이드] ‘年 2% 통장’ ‘年 2.76% 신용대출’ 그림의 떡 되나● 이슈몰이 성공, 규제 변수 못 피해● 9일 만에 대출한도 5000억 원 소진● 年2% 통장, 지속가능성 의문부호● “카뱅·케뱅과 달리 시작부터 ‘쓴맛’”홍민택 토스뱅크 대표가 10월 5일 온라인으로 열린 토스뱅크 정식 출범 기자간담회에서 발언하고 있다. [토스뱅크 제공]은행이 소비자를 끌어들이는 대표적 수단은 금리다. 예금금리를 높여 주거나 대출금리를 낮춰주는 방식이다. 또는 서비스에 대한 수수료를 낮추기도 한다. 과거 은행들은 서비스의 질을 높이는 데에도 공을 들였다. 점포를 쾌적하게 하고 직원이 친절하게 고객을 대하도록 하는 식이다.최근에는 고객이 점포를 찾는 일이 점점 줄고 있다. 이에 따라 은행 애플리케이션을 ‘쾌적’하게 만드는 데 더욱 집중하고 있다. 사용자환경(UI)에 공을 들여 소비자가 계좌 개설이나 대출 신청 절차를 손쉽게 할 수 있도록 하는 전략이다.지난 10월 5일 국내 20번째 시중은행인 토스뱅크가 문을 열었다. 인터넷전문은행(이하 인터넷은행)으로는 케이뱅크, 카카오뱅크에 이은 세 번째다. 즉 토스뱅크는 시중은행뿐만 아니라 인터넷은행 중에서도 후발 주자에 속한다. 특히 카카오뱅크와 케이뱅크가 이미 많은 고객을 끌어들인 뒤 출범했다는 점에서 공격적인 전략이 필요한 처지였다.토스뱅크는 어떤 서비스를 앞세웠을까. 은행업권의 특성상 기존 은행이 쓰던 전략에서 크게 벗어나지는 않았다. 토스뱅크 출범에 맞춰 가장 관심을 끈 점은 역시 ‘가격’이었다.토스뱅크는 예금금리를 ‘파격적’으로 제시했다. 일단 연 2% 이자를 지급하는 수시입출금 통장을 선보였다. 가입 기간이나 예치 금액 등에 아무 제한 없이 무조건 지급하는 이자다. 주요 시중은행의 경우 수신상품 금리가 가입 기간 1년 기준으로 0%대라는 점을 고려하면 파격적인 수준이다. 케이뱅크와 카카오뱅크의 1년 만기 정기예금 금리 역시 1% 중반 수준에 불과하다. 토스뱅크는 이런 이자를 매달 한 차례씩 지급할 계획이다.계좌를 개설하면 손쉽게 만들 수 있는 체크카드에도 혜택을 마련했다. 토스뱅크는 전월 실적 조건 없이 매달 최대 4만6500원을 현금으로 돌려주는 혜택을 제공한다. 통상 카드사들은 전달에 일정 금액 이상 결제해야 혜택을 제공하는데 토스뱅크는 이런 ‘조건’을 없앴다. 해외에서 사용하는 금액의 3%를 즉시 캐시백 해주는 혜택도 내놨다.후발 주자 토스뱅크의 파격토스뱅크가 출범하자 가장 관심을 받은 건 ‘대출 상품’이었다. 정부는 가계대출 규모가 위험 수위에 달했다고 판단해 규제를 강화하고 있다. 대부분 시중은행이 신용대출 한도를 연 소득 이내로 제한하는 등 당국의 기조에 맞추는 분위기다. 대출 수요자들은 발만 동동 구르고 있다. 이런 분위기에서 새로운 은행이 대출 상품을 내놓는다 하니 관심이 쏠리는 건 당연한 일이었다.토스뱅크는 후발 주자답게 파격적인 조건을 내건 대출 상품을 내놨다. 신용대출 최저금리는 은행권에서 가장 낮은 연 2.76%로 책정했다. 대출금리가 낮은 편에 속하는 케이뱅크(2.87%)와 카카오뱅크(2.86%)보다 경쟁력 있는 금리다. 신용대출 최고 금리는 연 15%로 금리의 폭을 비교적 넓게 잡았다. 중·저신용자까지 끌어안겠다는 계획이다. 인터넷은행의 경우 금융 당국의 권고로 이른바 ‘중금리 대출’의 비중을 높여야 하는 과제를 안고 있기 때문이기도 하다.대출 한도도 높였다. 토스뱅크의 신용대출 상품의 최대한도는 2억7000만 원으로 은행권 최고 수준이다. 케이뱅크의 경우 애초 일반 신용대출 한도가 2억5000만 원이었지만, 금융 당국의 ‘대출 규제’ 기조에 따라 10월부터 한도를 1억5000만 원으로 낮춘 바 있다. 카카오뱅크 역시 신용대출 한도를 기존 7000만 원에서 5000만 원으로 낮췄다. 큰 금액을 대출받으려는 이들에게 토스뱅크는 희망이었다.또 신용대출과 마이너스통장, 비상금대출 모두 자격 조건을 3개월 이상 재직 중인 직장인으로 정했다. 다른 시중은행은  6개월 이상이나 1년 이상 재직 중이어야 한다는 조건을 내걸곤 한다.이처럼 토스뱅크는 예금과 대출 상품을 파격적으로 내놓으면서 초반에 이슈몰이를 하겠다는 강한 의욕을 내비쳤다. 이는 어느 정도 성공적이었다. 하지만 복병이 있었다. 정부의 대출 규제 강화 기조다. 정부가 대출 규제를 강화한 탓에 수요자의 관심이 토스뱅크에 쏠린 것까지는 좋았다. 하지만 토스뱅크 역시 은행인지라 규제에서 자유로울 수는 없었다.100만 명 기다리는데 ‘길’ 막혔다토스뱅크는 시작부터 금융 당국의 대출 규제에 따라 이례적인 방식을 도입해 눈길을 끌었다. 토스뱅크는 오픈 한 달 전인 9월 10일부터 서비스 사전 예약을 받았다. 주목을 끌겠다는 전략이기도 했지만, 한꺼번에 가입자를 받을 경우 대출 잔액이 급격하게 소진될 우려가 있어 내놓은 방안이라는 해석이 많다.사전 신청자는 10월 5일 출범 직전까지 110만 명이나 몰렸다. 토스뱅크는 이들에게 각각 대기 번호를 지급했다. 토스뱅크 오픈 이후 가입해 계좌를 만들려는 이들은 100만 번대를 훌쩍 넘는 대기 번호를 받아야 했다. 당장 계좌를 만들고 싶어도 만들 수 없었다. 토스뱅크는 사전 신청한 100만 명에게 10월 중 서비스를 오픈하겠다고 밝혔다.문제는 또 있었다. 금융 당국은 토스뱅크에 연말까지 대출 총액이 5000억 원을 넘기지 않도록 권고했다. 그런데 대출 수요가 몰리면서 오픈 9일 만에 신용대출 총액을 모두 소진해버렸다. 토스뱅크는 금융당국에 한도를 8000억 원으로 늘려달라고 요청했지만 받아들여지지 않았다. 결국 10월 14일 대출 서비스를 중단하겠다고 선언했다.토스뱅크는 대신 기존 사전 신청 고객 전원을 대상으로 ‘연 2% 금리’ 통장 등의 서비스를 전면 오픈했다. 대출이 중단하면서 더는 ‘줄 세우기’를 할 필요가 없어졌기 때문이다. 토스뱅크 관계자는 “여러 제약 속에서도 고객이 가장 원하는 가치가 무엇인지 고민해 대고객 오픈을 결정했다”고 설명했다.업계에서는 대출이 중단되면서 연 2%대 수시입출금 통장 운영을 지속할 수 있을지에 대해 의구심을 나타내는 목소리가 많다. 은행은 대출 금리를 받아 예금 금리를 주는 식으로 운영된다. 그런데 토스뱅크는 대출 금리로 느는 수익은 없이 높은 예금 금리만 줘야 하는 상황에 부닥쳤다. 고객을 끌어들이기 위해 토스뱅크가 ‘출혈’을 감수한다고 하더라도, 시장에서 토스뱅크의 건전성에 대한 우려가 나올 수 있다. 당장은 토스뱅크 주주들이 증자를 통해 비용을 보완할 수는 있겠지만, 이를 언제까지나 지속하기는 어렵다는 지적이 많다. 무엇보다 은행의 재무건전성은 금융당국이 적극적으로 관리 감독하는 요소다.토스뱅크는 이러지도 저러지도 못하는 상황이다. 후발 주자로서 토스뱅크가 가장 먼저 할 수 있는 일은 금리 혜택으로 상품의 매력을 높이는 일이었다. 하지만 그런 상품을 마음대로 팔 수 있는 분위기가 아니다. 금융 당국 처지에서도 토스뱅크의 출범에 맞춰 ‘길’을 열어줄 수는 없다. 최근 대출 규제를 강화한 기조와 맞지 않기 때문이다.토스뱅크 정식 출범 하루 전날인 10월 4일 서울 강남구 토스뱅크 본사 모습. [뉴스1]“내부적으로 다양한 방안 고민 중”한 은행권 관계자는 “카카오뱅크나 케이뱅크는 비교적 자유로운 분위기 속에서 출범해 손쉽게 경쟁력을 강화했지만 토스뱅크는 시작부터 ‘쓴맛’을 보고 있다”며 “은행업권이 대표적인 ‘규제 산업’이라는 점을 최근 인터넷은행들이 뼈저리게 느끼면서 대응책 마련에 고심하고 있을 것”이라고 분석했다. 토스뱅크 관계자는 “정부의 가계부채 안정화 정책을 준수하고 시장의 상황을 모두 고려한 결정”이라며 “토스뱅크 대출은 약 3개월 후인, 내년 1월 초 서비스를 다시 열 예정”이라고 밝혔다.#토스뱅크 #대출 #수시입출금 #신동아</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>"딱지 한판 치시겠습니까?"…영등포구, 청년과 함께 ‘오징어 게임’한다</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004986443?sid=102</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>[서울시 자치구 뉴스] 영등포구, 10월25~29일 무중력지대-영등포에서 ‘무대For 오징어게임’ 개최 딱지치기, 달고나 뽑기 등 드라마 ‘오징어게임’ 속 추억의 놀이 체험...강북구, 26일까지 우이천에서 미술작품 전시회 개최 한국화·서양화, 서예, 도예 등 96점 전시...종로구 '2021 대한민국 도시대상' 대통령상 수상...마포구, 홍대 축제거리에서 대규모 설치 미술 프로젝트인 ‘허그 베어(Hug Bear)’ 선보여... 강남형 스타트업 플랫폼’영등포구(구청장 채현일)가 최근 전세계적으로 인기를 얻고 있는 콘텐츠 속 다양한 놀이들을 체험해보는 ‘무대For 오징어게임’을 개최한다.‘무대For 오징어게임’은 무중력지대-영등포의 야외공간을 활용해 넷플릭스 드라마 ‘오징어게임’을 실감 나게 재구성, 드라마 속 딱지치기와 달고나 뽑기, 보물찾기 등 어린 시절의 추억을 소환하는 다양한 프로그램들을 선보일 예정이다.또 ‘오징어 게임’처럼 현실의 무한 경쟁 사회 속에서 살아남기 위해 항상 고군분투하는 청년들의 마음을 표현할 수 있는 게시판을 설치해 청년들 간 공감대 형성의 장도 마련된다.구는 위로와 공감을 전하는 활력 프로그램을 통해 지쳐있던 청년들이 잠시나마 재충전의 시간을 갖고, 청년 전용 공간 ‘무중력지대 영등포’에 대한 관심도 높일 수 있을 것으로 기대하고 있다.영등포구 ‘오징어게임’은 만 19세~39세 청년이라면 누구나 무료로 참여할 수 있다. 게임에 참여한 사진을 SNS에 인증하면 추첨을 통해 소정의 선물도 받을 수 있다.이번 행사는 오는 10월25일부터 29일까지 5일간 평일 오후 4~6시에 진행된다. 참여를 희망하는 청년은 10월22일까지 ‘무중력지대 영등포’ 홈페이지의 ‘프로그램 신청’, 인스타그램 계정에 게시된 링크 또는 센터 방문을 통해 사전 신청하면 된다.모든 프로그램은 코로나19 예방수칙을 철저히 지키며, 정해진 시간 안에 인원을 나누어 야외에서 진행할 예정이다.자세한 사항은 영등포구청 사회적경제과 또는 무중력지대-영등포로 전화 문의하거나 인스타그램 게시글에서도 확인할 수 있다.채현일 영등포구청장은 “취업난과 코로나19의 장기화로 몸도 마음도 지친 청년들이 영등포에서 준비한 ‘오징어게임’을 즐기며, 잠시나마 활력을 찾아갈 수 있는 시간이 되길 바란다”며 “앞으로도 지역 청년이 필요로 하는 다양한 사업과 프로그램을 추진, 청년과 함께 성장하는 탁트인 영등포가 되도록 노력하겠다”고 전했다.강북구(구청장 박겸수)가 ‘우이천에 가을을 담다’라는 주제로 미술작품 전시회를 연다.이번 행사는 이달 26일(화)까지 우이천 번창교 하부 야외공간에서 열린다. 지역 예술인에게는 전시활동을 지원하고 주민은 일상에서 예술작품을 감상할 수 있도록 마련된 자리다.전시작품은 동양화, 서양화, 서예, 도예 등 총 96점이다. 강북미술협회 소속 작가 61명이 내놓은 그림과 조형물이다. 야외 전시회 특성에 맞춰 복제 작품을 부착한 화포(캔버스)가 내걸린다. 작가들은 주변 이웃이 살아가는 모습을 이야기 짓기로 엮어 입체적으로 표현했다. 사계절의 북한산 등 지역에 있는 다양한 풍경도 화폭에 담았다.강북구는 디자인 철재로 연결한 구조물로 전시공간을 꾸몄다. 누구나 야간에 손쉽게 미술작품을 관람할 수 있도록 전시구조물에 경관조명을 달았다. 작품설명과 안내를 담당하는 운영요원을 배치하고 관람객들이 밀집하지 않게 이동 경로도 설정했다.박겸수 강북구청장은 “야외 미술관으로 변신한 우이천에서 문화적 갈증을 해소하길 바란다”라며 “일상에서 문화예술을 누릴 수 있도록 지역 예술인이 참여하는 공공미술의 영역을 넓혀가겠다”라고 말했다.종로구(구청장 김영종)는 국토교통부가 주최한 '2021 대한민국 도시대상'에서 대도시 부문 종합평가 1위를 달성, ‘대통령상’ 수상의 영예를 안았다. 이번 수상은 2019년 대통령상에 이어 두 번째 대통령상이라는 점과 전국 지자체에서 유일하게 8년 연속 도시대상 수상이라는 점에서 더욱 의미가 크다.대한민국 도시대상은 도시의 삶의 질 향상과 특성화된 도시 발전을 위해 국토교통부가 주최, 대한국토·도시계획학회가 주관, 매년 전국 229개의 기초지방자치단체를 대상으로 국토의 계획 및 이용에 관한 법률에서 규정한 도시의 지속가능성 및 생활인프라 수준 평가를 실시, 우수한 성과를 거둔 지자체에 수여하는 권위 있는 상이다.각 분야 전문가들이 도시사회, 도시경제, 도시환경, 지원체계 총 4개 부문에 대해 1차 서면평가와 2차 온라인 발표 평가를 진행, 종로구는 각 부문별로 우수한 평가를 받으며 종합평가 1위를 달성했다.도시사회 부문에서 지역특성을 반영한 다양한 범죄예방 프로그램 운영과 도시디자인 관련한 다양한 사업들을 추진하고 있는 점, 어린이, 고령자, 다문화 가족 등 사회적 약자를 위한 구체적이고 실질적인 프로그램을 운영하고 있는 점에서 우수한 평가를 받았다.또 도시환경 부문에서 ‘인왕산 초소책방’이 지역여건을 잘 활용한 도시재생 우수사례로 인정받았다. 인왕산 초소책방은 철거 예정 초소건물을 청와대, 군부대와 협업하여 시민을 위한 휴식 공간으로 재탄생시킨 공간이다.이 밖에도 ‘정원도시 종로 만들기’ 사업, ‘친환경 녹색주차장 조성 및 가이드라인 마련’ 정책 등 도심 내 녹지 공간을 확대해 미세먼지를 줄이고 열섬현상을 완화하기 위해 노력했다는 점도 높은 평가를 받았다.아울러 구민건강을 위한 걷기운동 장려, 도시비우기 사업, 주택가 빛 환경 개선사업 등 주민 삶의 질을 높여주는 다양한 사업들이 좋은 평가를 받아 대도시 부문 종합평가 1위의 대통령상 수상의 영광을 안았다.이로써 종로구는 ‘2021 대한민국 도시대상’ 대통령상 수상, ‘2021 지역혁신’ 대통령상 수상, ‘2021 대한민국 지식대상’ 대통령상 수상 등 무려 대통령상 3관왕이라는 기록을 달성하면서 우수한 행정능력을 전국적으로 입증했다.대한민국 도시대상 시상식은 10월21일 ‘제15회 도시의 날 기념식’에서 진행, 코로나19 확산 방지 차원에서 온라인으로 진행됐다.김영종 구청장은 “2010년 구청장으로 취임하면서부터 가장 안전하고, 편리하며 아름다운 도시! 그러면서도 역사와 전통을 간직한 지속가능한 문화예술도시 종로를 만들기 위한 노력이 오늘의 종로를 만들어 냈고, 그 결과 ‘도시대상 8년 연속 수상’이라는 큰 성과를 이루어 낸 것이라 생각한다”고 말했다. 또 “앞으로도 ‘종로가 대한민국이다’라는 자부심을 가지고 사람을 향하는 따뜻한 도시 관리로 종로구가 모두가 살고 싶은 도시, 대한민국 최고의 명품도시로 인정받을 수 있도록 끝까지 최선을 다하겠다”고 밝혔다.두 팔을 벌리고 안아주는 자세를 하고 있는 높이 8m ‘허그 베어“엄청 큰 풍선 곰 정말 귀엽다. 우리 저기 앞에서 사진 찍고 가자”홍대를 방문한 젊은이들이 KT&amp;G 상상마당 인근에 설치된 ‘허그 베어(Hug Bear)’를 보고 하나 둘씩 모여 하는 말이다.마포구(구청장 유동균)가 20일부터 다음달 8일까지 홍대 축제거리(서교동 365-28 일대)에서 대규모 설치 미술 프로젝트인 ‘허그 베어(Hug Bear)’를 선보인다.이번 프로젝트는 ‘EVERYWHERE PROJECT MAPO, SEE YOU AGAIN MAPO’라는 전시명으로 유명 팝 아티스트인 임지빈 작가와 마포구가 손을 잡고 코로나19로 지친 시민들에게 위로와 희망의 메시지를 전하기 위해 마련됐다.임지빈 작가는 불특정 다수를 대상으로 일상적인 공간을 미술관으로 바꾸는 게릴라성 전시해오고 있으며, 지난해 홍대 축제거리에 ‘LOVE’ 메시지를 담은 커다란 곰 풍선을 전시한 데 이어 올해는 코로나19가 종식돼 소중한 사람들을 만날 날이 오기를 기다리는 마음을 표현한 ‘SEE YOU’라는 메시지로 시민들을 찾아간다.두 팔을 벌리고 안아주는 자세를 하고 있는 높이 8m ‘허그 베어(Hug Bear)’ 앞에 서면 푹신한 곰 인형이 따뜻하게 안아주는 느낌을 받을 수 있다.구는 지난해 인스타그램, 페이스북 등 SNS에서 일명 ‘핫(HOT)’한 포토존으로 인기를 끈 ‘허그 베어(Hug Bear)’를 올해에도 전시해 침체된 홍대와 인근 관광지가 활성화되기를 기대하고 있다.이와 함께 구는 마포구 대표 축제인 ‘제14회 마포나루 새우젓축제’를 앞두고 관광객을 안전하게 맞이하기 위해 21일 홍대 거리 일대에 방역 및 소독을 실시한다.이날 방역·소독 행사에는 유동균 마포구청장을 비롯한 마포문화관광협의회, 홍대 상인회 등 관광업계 종사자도 참여해 코로나 이후 관광지가 일상으로 조속히 복귀할 수 있도록 힘을 보탤 예정이다.유동균 마포구청장은 “이번 전시 미술이 구민들에게 일상의 활력을 주길 바란다“며 ”하루 빨리 홍대 등 관광지가 사람들로 북적일 수 있도록 방역에도 최선을 다하겠다”고 말했다.강남구(구청장 정순균)가 지역내 스타트업의 성장 기반 조성을 위해 20일 구청 본관에서 한국과학기술원(KAIST)창업원, 카이스트청년창업투자지주와 업무협약을 체결했다.강남구는 KAIST창업원과 카이스트창업투자지주에 내년 3월 개관하는 ‘강남 취·창업허브센터’ 3층 278㎡, 2층 139㎡ 등 총 417㎡의 공간을 3년간 유상으로 지원한다.두 기관은 강남구 내 유망 스타트업 발굴, 투자·유치, 정책 연계사업 등 ‘강남형 스타트업 플랫폼’ 조성을 위해 스타트업 보육공간, 창업·혁신교육, KAIST 보유 개발기술 교류 프로그램을 운영하게 된다.구는 지난 7월 중소벤처기업부에 역삼로 창업가거리 560m 구간 일대를 ‘벤처기업육성촉진지구’로 지정 신청, 9월 530억 규모의 창업펀드를 조성하는 등 ‘스타트업밸리’를 위한 체계적인 준비를 이어가고 있다.정순균 강남구청장은 “민선7기 강남구는 전국 지자체 최대 규모의 창업펀드 운영, 스타트업의 테스트베드 제공 등을 통해 유니콘기업을 육성하고 있다”며 “강남을 ‘한국의 실리콘밸리’로 부활시켜 ‘스타트업 하러 강남 간다’는 말이 나올 수 있도록 전폭적인 정책지원을 계속 하겠다”고 말했다.금천구(구청장 유성훈)는 코로나19 장기화로 어려움을 겪고 있는 온종일돌봄시설 32개소(지역아동센터, 우리동네키움센터, 포근센터)에 방역물품을 지원한다고 밝혔다.금천구는 10월 말까지 온종일돌봄시설 32개소를 대상으로 스팀살균 소독기 1대와 비접촉 자동 체온측정기 1대를 배부할 예정이다.금천구는 지난 5월과 9월 코로나19 확산에 따른 교차 등교, 전면 원격수업 등으로 아동들의 센터 이용시간이 늘어나면서, 센터의 경제적 부담이 돌봄 환경 저하로 이어지지 않도록 운영비를 추가 지원했다.유성훈 금천구청장은 “감염병에 취약한 아동들을 위해 이번 방역물품을 지원하게 됐다”라고 하면서 “앞으로도 아동들에게 건강하고 안전한 돌봄 환경을 제공하도록 노력하겠다”라고 말했다.자세한 사항은 금천구청 교육지원과로 문의하면 안내받을 수 있다.관악구(구청장 박준희)가 서울시 유아숲축제 ‘숲놀’ 행사의 일환으로 지역 내 유아숲체험원 5개소에서 ‘유아가족숲축제’를 운영한다.‘유아숲체험원’은 아이들이 숲에서 즐겁게 뛰어놀며 배울 수 있도록 숲체험 시설, 대피소 등을 갖춘 산림교육시설로 기존의 자연자원을 최대한 활용해 모험놀이대, 곤충호텔, 암벽오르기 등의 각종 숲 체험·놀이시설물이 마련돼 있다.관악구에는 산림청에 등록된 유아숲체험원이 청룡산유아숲체험원을 비롯 7개소로 서울시 자치구에서 가장 많이 위치해 있다.구는 코로나19로 인해 실내에서 주로 생활하던 아이들과 집콕 육아로 지친 부모들이 자연 속에서 힐링할 수 있는 가족프로그램을 마련했다.23일부터 11월14일까지 청룡산 등 5개소(낙성대, 당곡, 삼성동, 선우공원) 유아숲체험원에서 유아숲지도사의 진행 하에 각기 특색 있는 주말 프로그램을 운영할 예정이다.먼저 청룡산 유아숲체험원에서는 10월23일 숲과 관련한 직업을 체험하는 ‘숲자니아’, 숲속 곤충을 찾아보는 ‘곤충의 숲’, 자연물을 놀이감으로 이용하는 ‘청룡산 숲게임’ 총 3가지 프로그램을 진행한다. 프로그램 중간 쉬는 시간에는 현악 사중주와 가야금 연주 공연도 준비했다.10월30일 낙성대 유아숲에서는 낙성대의 역사 및 주변텃밭을 탐방하는 ‘낙성대 유아숲 이모저모’, 11월6일 당곡 유아숲에서는 그림책과 연계한 숲체험 ‘숲으로 풍덩’, 11월7일 삼성동 유아숲에서는 액자 및 에코가방 만들기 ’숲이 좋아‘, 11월13일 선우공원 유아숲에서는 거미줄놀이터 등 숲놀이 ’선우숲에서 놀아요‘를 진행, 각 장소별 1개 프로그램을 순차적으로 추진한다.프로그램은 안내서와 안내판을 따른 자율 체험활동 등 대부분 비대면으로 진행, 코로나19 감염위험을 줄이기 위해 행사 전후 놀이시설과 교구를 철저히 소독, 프로그램 참여 전 손소독과 열체크를 실시할 예정이다.행사 참여를 위하는 구민은 인터넷 포털사이트 서울특별시공공예약서비스(교육강좌→자연/과학→‘유아숲체험원’)로 신청하면 되고, 모든 프로그램은 무료로 진행한다.박준희 관악구청장은 “장기간 지속되는 사회적 거리두기로 유아들이 숲에서 즐겁게 뛰어노는 기회가 줄어들어 안타깝게 생각하고 있다”며 “아이들과 가족 모두에게 즐거운 가을기억을 선사하고자 하니 관심 있는 구민들의 적극적인 참여를 바란다”고 말했다.양천구(구청장 김수영)는 양천혁신교육지구 사업의 일환으로 22일부터 26일까지 5일간 ‘2021 해우리 마을교육 축제 오락실(五樂室)’을 개최한다.올해 5회째를 맞은 ‘2021 해우리 마을교육 축제 오락실(五樂室)’은 양천구의 청소년, 지역활동가와 구청, 교육지원청 그리고 학교, 마을기관 등 민 · 관 · 학의 다양한 주체들이 축제기획단(TF)를 구성해 기획부터 운영까지 함께하는 최대 규모의 교육 축제이다.이번 축제는 꿈, 상상, 놀이, 창의, 성장 5가지의 즐거움(五樂室)을 주제로 온라인 축제 홈페이지를 오픈한다. 청소년과 지역주민이 다같이 즐길 수 있는 각종 체험(직업체험, 미래기술 등)과 공연, 마을교육 콘텐츠, 명사특강 등 알찬 내용으로 구성돼 있다. 일부 소규모 오프라인 체험 프로그램도 병행하며 코로나19 방역수칙을 철저히 준수하여 진행될 예정이다.유튜브 생방송으로 진행되는 명사특강으로는 ▲10월 22일 학부모 특강(소통 잘하는 아이가 행복한 리더가 된다-김창옥), ▲10월 25일 혁신교육 특강(마을과 교육이 만나다, 마을교육공동체-김승수), ▲10월 26일 미래 특강(급변하는 미래사회에서 살아남는 법-황준원)이 있다. 청소년을 위한 토크콘서트 ‘재미난 인생, 뭐든지 도전해 봐’도 지역내 신청학교 학급을 대상으로 10월25일에 생방송으로 진행된다.10일23일에는 지역내 거점공간에서 소규모 오프라인 체험 프로그램이 진행된다. ▲약선고추장 만들기 ▲드론체험 ▲AI로봇 체험 ▲전통놀이 다섯마당 총 4개 체험활동이 운영될 예정이다. 코로나19 감염예방을 위해 참가자는 홈페이지를 통해 별도 모집을 완료했다. 다만 안양천 피크닉장에서 개최되는 전통놀이 다섯마당의 경우 당일 현장 참여도 가능하다.아울러 이번 축제에서는 양천혁신교육지구 마을방과후 대표 프로그램인 ‘송포유 어린이 합창단’이 부른 창작동요 ‘네가 있어 행복해’ 합창영상도 공개될 예정이다. 스튜디오에서 개별 녹음하는 방식으로 촬영된 이번 영상에는 코로나19가 얼른 종식되어 얼굴을 보며 합창하길 희망하는 단원들의 간절한 바람이 담겼다.‘2021 해우리 마을교육 축제 오락실(五樂室)’에 대한 자세한 사항은 양천구청 홈페이지를 참고하거나 교육지원과로 문의하면 된다.김수영 양천구청장은 “코로나19로 쌓인 스트레스를 건강하게 해소하면서 청소년과 지역주민이 다함께 즐길 수 있는 온 · 오프라인 마을교육 축제를 준비했다”면서 “앞으로도 지역 청소년들의 건전하고 바른 성장을 위해 모든 노력과 지원을 아끼지 않겠다”고 말했다.강남구(구청장 정순균)가 코로나19로 구인·취업활동이 더 어려워진 기업과 구직자의 매칭을 돕기 위해 25~27일 3차원 가상세계에서 개최되는 ‘2021 강남구 메타버스 취업박람회’ 참가신청을 24일까지 받는다.이번 취업박람회는 구인·구직 플랫폼 ‘인크루트’와의 협업으로 진행된다. 전국 지자체 최초로 ‘메타버스’ 플랫폼(게더타운)을 도입했다.30개 참여 기업은 각 기업에 이력서를 제출한 구직자 중 1차 합격자를 선발해 비대면 화상면접을 실시한다. 또 구직자 전원을 대상으로 ▲삼성전자 등 채용설명회 ▲취업특강 ▲토스·LF엘지패션·HP 등 현직자들의 1:1 멘토링 프로그램을 제공한다.참여 희망자는 ‘강남구 취업박람회 전용관’ 홈페이지를 통해 사전신청, 자세한 사항은 인크루트 운영사무국으로 문의하면 된다. 선착순 270명에 한해 ‘AI면접 이용권’이 제공된다.김미욱 일자리정책과장은 “민선 7기 강남구는 4차 산업혁명 시대를 대비해 스마트 전략산업 지원에 주력하고 있다”며 “앞으로도 일자리와 기업을 위한 다양한 지원정책과 시도로 ‘품격 강남’을 만들어가겠다”고 말했다.영등포구(구청장 채현일)가 영등포혁신교육지구 사업에 마을강사와 지역 주민의 목소리를 반영하고 민·관·학이 공감하는 교육정책의 운영과 질적 도약을 위해 21일 오후 4시 ‘우리마을 교육토론회’를 개최한다.그간 활발히 운영해 온 영등포혁신교육지구의 운영 성과를 되돌아보고, 학생과 학부모, 마을교육 활동가 각자가 구상하는 혁신교육의 청사진과 발전 방안을 공유함으로써 보다 실효성 높은 교육의제를 발굴하고 앞으로의 교육 정책에 담아내기 위한 취지다.토론회에는 조희연 서울시 교육감과 채현일 영등포구청장, 학생, 학부모, 교사, 지역주민 대표는 YDP미래평생학습관 대강당에서 현장 참석하고 마을강사를 포함한 혁신교육지구 사업 참여자 40여 명은 화상회의 프로그램 줌(zoom)을 통해 온라인으로 소통할 계획이다.토론은 ‘영등포혁신교육지구 5년, 우리가 걸어온 길과 나아갈 방향’이라는 주제로 진행되며, ▲지난 5년간의 활동 모습이 담긴 영상 시청 주체별 대표의 교육의제 발표에 이어 ▲참석자 전원이 함께 참여하는 정책토크 및 질의응답 ▲영등포의 미래교육을 응원하는 클립영상 시청을 끝으로 모든 일정이 마무리된다.토론 실황은 유튜브 채널 ‘영등포혁신교육지구’를 통해 온라인 생중계, 영등포 마을교육과 혁신교육지구에 관심 있는 누구나 시청할 수 있다.토론회에서 제안된 교육의제는 내용에 따라 지역의제와 중앙의제, 국가의제로 분류돼 지역의제는 영등포구와 교육지원청이 함께 수렴해 혁신교육지구 운영 사업에 반영하고 중앙의제는 서울형 혁신교육지구 3단계 정책 및 교육청 사업에, 국가의제는 교육부, 국가교육회의 등에 전달될 예정이다.구는 지난 7월부터 토론회 운영을 위한 준비모임을 구성, 토론회 참여자 사전 모집, 청소년자치·학부모·마을학교·지역특화문화·교육안전망 등 5개 분과별, 교사·학생 등 주체별로 인원을 나눠 토론의제를 공유하는 ‘별★별 작은 공론장’을 운영하기도 했다.구는 지난 2016년 서울형 혁신교육지구로 지정된 후 다양한 주체의 참여와 협력을 기반으로 하는 민·관·학 거버넌스의 실현과 ‘한 아이도 빠짐없이 모두가 함께 가는 마을과 학교’라는 비전 아래 학교-마을-가정을 잇는 통합교육지원 체계의 마련과 운영에 힘쓰고 있다.채현일 영등포구청장은 “이번 토론회를 통해 실제 교육주체들의 아이디어가 담긴 혁신교육지구 사업이 보다 활발히 운영되고 구민이 체감하는 교육정책의 질적 개선이 이루어지는 계기가 되길 바란다”며 “앞으로도 한 아이도 빠짐없이 온전한 성장을 도모하고 마을교육이 보다 활성화되도록 최선을 다하겠다”고 전했다.서초구(구청장 조은희)는 22일부터 24일까지 3일간 4곳의 서초구립도서관 연합인 ‘제3회 서리풀책문화축제-도서관이 ON(온)다’를 온·오프라인으로 연다.구는 코로나19로 인해 비대면으로 전환된 일상 속에서 책과 문화가 만나는 다양한 체험을 통해 구민들이 소통하고 위로와 위안을 받기를 바라는 취지로 이번 축제를 준비했다.축제는 ‘혼자라도 괜찮아’, ‘둘이라서 더 좋아’, ‘다같이 함께해’ 세 가지 테마로 진행되며, 4곳의 반포도서관, 양재도서관, 내곡도서관, 서초청소년도서관이 연합으로 총 14개의 다채로운 프로그램을 마련했다.먼저 구는 축제기간 3일 동안 화상회의를 통한 릴레이 명사특강을 오후 2시부터 진행한다. 특히, 23일에는 한국 만화계의 거장, 허영만 화백을 초청해 만화, 음식, 그리고 인생에 관한 다양한 이야기를 나눈다. 이외도 ‘2021 볼로냐 라가치상’에서 유아그림책 부분 대상을 수상한 이지은 작가, 서울대 홍성욱 과학사 교수의 특강도 준비돼 있다. 이번 특강은 서초구립도서관 유튜브 채널을 통해 실시간 중계로도 만날 수 있다.무엇보다도 이번 축제는 메타버스를 도입해 영상회의 서비스 ’게더타운‘에 양재도서관의 정경을 담은 ’서초메타월드: 축제도서관‘도 구축했다. 축제기간에 접속하면 서리풀책문화축제의 강연, 공연, 행사를 함께할 수 있으며 3일동안 곳곳에 숨겨진 보물을 찾으면 명사들의 사인본 도서를 증정하는 이벤트도 진행한다.또, 구는 책과 문화가 만나는 공연과 다채로운 행사와 특별 체험전도 준비했다. 22일에 비대면으로 진행되는 ’이형열의 비블리오테라피‘는 ’과학책 읽는 보통사람들‘ 이형열 대표와 소설가 강진이 책을 가까이 하고 싶지만 자신에게 맞는 책을 찾기 어려운 사람들의 고민을 풀어가는 시간을 가진다. 24일 반포도서관에서는 전보람(현대무용), 김세미(연극,영화) 예술가들이 참여해 일상의 삶에 예술적 개입을 통한 관계맺기를 시도하는 1:1 퍼포먼스 ‘도서관 산:책’이 진행된다.이밖에 ‘서리풀 e-책장터’, ‘서리풀책문화축제x인디서울 2021 단편영화특선’, 가족사진관, 음악앙상블, 가족 홈가드닝 등 다양한 부대 행사도 비대면으로 열린다.조은희 서초구청장은 “서리풀 책문화축제를 통하여 코로나 19로 지친 구민들의 마음을 위로하고 희망을 줄 수 있는 기회가 되길 바란다”며 “권역별로 설치되어 있는 도서관이 문화의 플랫폼의 역할로서 많은 주민들이 책과 문화를 즐길 수 있도록 힘쓰겠다”고 밝혔다.용산구(구청장 성장현)가 위기가정 통합지원센터 명칭을 ‘용산구 소나무센터’로 변경했다. 가정 내 폭력 위기가구의 센터 접근성을 높이기 위해서다.구는 서울시 계획에 따라 8월16일부터 용산구 소나무센터와 위기가정 통합지원센터 명칭을 두 달간 함께 사용하다 지난 20일부터 소나무센터로 완전히 바꾸고 홍보물도 제작했다.홍보물은 A4 크기, 양면 3단 접지, 리플렛 2천부로 ▲소나무센터 사업소개 ▲가정폭력 유형 ▲피해자 보호 및 지원제도 ▲연계기관 연락처 등이 수록됐다. 오는 22일까지 구청 민원실, 16개 동 주민센터, 용산경찰서, 관할 지구대 8개소 등에 배포할 계획이다.구 관계자는 “소나무 센터는 가정이 부부, 자녀 등 가족구성원 모두에게 소나무와 같이 든든한 버팀목이 되도록 지원활동을 펼치겠다는 의미를 담은 것”이라 소개했다.용산구 소나무센터(구 위기가정 통합지원센터)는 자치경찰제 시행 1년 앞선 지난해 7월 개소했다. 2021년 9월까지 용산구 112 가정폭력 피해 가구 신고건수 866건. 이 중 소나무센터로 연계 동의한 159가구를 대상으로 총 622건의 상담(전화, 방문 등)을 진행했다.▲초기상담 및 복지정보 안내를 받은 단순 연계 123건 ▲정신건강복지센터, 건강가정지원센터, 한국가정법률상담소 등 관련 기관 서비스 연계 26건 ▲통합사례관리 대상자 선정 10건이다.성장현 용산구청장은 “가정이란 함께 성장하며 서로를 보살피는 곳이어야 한다”며 “신체적인 폭력 뿐 아니라 정서적·경제적 폭력 등으로 어려움을 겪고 있다면 언제든지 112 신고를 통해 소나무센터로 도움을 요청하기 바란다”고 말했다.노원구(구청장 오승록)가 노원평생시민대학 협력 사업의 일환으로 노원구민을 대상으로 한 명사 특강 ‘지금, 바로, 행복하자’를 진행한다고 밝혔다.노원평생시민대학은 구민의 평생학습증진을 위해 지역내 7개 대학과 협력해 진행하는 사업이다. 이번 명사특강은 한국성서대학교 주관으로 진행된다. 주제는 ‘지금, 바로, 행복하자’이다.먼저, 김창옥아카데미 대표 김창옥씨가 11월6일 오전 10시30분에 ‘유쾌한 소통의 법칙’이라는 주제로 강연을 펼친다.김 대표는 CBS ‘세바시(세상을 바꾸는 시간)’, tvN ‘김창옥쇼’, ‘어쩌다 어른’ 등 다수의 프로그램을 출연한 소통전문가로, 불신과 갈등이 깊어지는 지금 이 시대에 무엇보다 필요한 것은 ‘소통’임을 특유의 재치 넘치는 입담과 진정성 있는 이야기를 통해 위로와 감동을 선사할 예정이다.이어 11월20일 오전 10시30분에는 김경일 아주대 심리학교 교수가 ‘적정한 삶’이라는 주제로 강연에 나선다. 최근 출간한 그의 저서 제목이기도 한 ‘적정한 삶’을 주제로 우울과 분노가 익숙한 이 시대에 진정한 행복을 위해서 우리가 가져야 할 바람직한 삶의 태도에 대한 인식의 전환을 함께 고민해 보는 시간을 갖는다.tvN ‘어쩌다 어른’, ‘책읽어드립니다’, CBS‘세바시’ 등 다수의 프로그램을 통해 얼굴을 알린 김 교수는 인지심리학을 비롯한 다양한 지식을 쉽고 명쾌하게 풀어내면서 큰 사랑을 받고 있다.강연은 한국성서대학교 로고스홀(노원구 동일로214길 32)에서 진행, 선착순으로 500명을 모집한다. 사회적 거리두기 단계에 따라 현장 인원은 온라인 줌 인원으로 변동 될 수 있다.접수방법은 한국성서대학교 평생교육원 홈페이지-노원평생시민대학 팝업창에서할 수 있다.자세한 사항은 한국성서대로 연락하면 안내받을 수 있다.오승록 구청장은 “코로나19로 인해 강연을 즐기지 못했던 주민들에게 반가운 소식이 될 것 같다”면서 “강사들의 삶의 지혜를 생생한 목소리로 현장에서 들어볼 수 있는 이번 강연에 많은 관심 바란다”고 말했다.광진구(구청장 김선갑)가 건강한 음식문화 조성을 위한 모범음식점 신청 접수 및 재심사를 오는 25일까지 실시한다.구는 지역 내 위생관리상태 및 서비스가 우수한 음식점을 발굴해 ‘모범음식점’으로, 이들 중 구를 대표할 수 있는 차별화된 모범음식점을 ‘광진구 맛집멋집’으로 지정해 운영하고 있다. 2021년10월 현재 지정된 모범음식점은 141개소, 맛집멋집은 46개소이다.모범음식점 지정 기준은 ▲시설 청결도 ▲종업원의 개인위생 및 친절도 ▲외국어 메뉴 안내 ▲남은 음식물 포장 여부 ▲1회용품 미사용 등이다. 지정을 원하는 업소는 오는 25일까지 신청서를 작성해 광진구 보건위생과(450-1909) 또는 한국음식업중앙회 광진구지회로 우편 또는 방문 접수하면 된다.모범음식점으로 지정되면 ▲물품 지원 ▲구 홈페이지 게재 ▲네이버 검색 키워드 광고 등의 인센티브를 적용받을 수 있다.구는 이와 더불어 기존에 지정된 모범음식점을 대상으로 재심사를 실시한다. 심사는 오는 25일까지 소비자식품위생감시원이 2인 1조로 현장을 조사해 평가하는 방식으로 진행된다.평가항목은 ▲음식문화 개선 ▲위생 ▲서비스 ▲맛 ▲정책 협조에 대한 기여도 등 5개, 조리사를 별도 고용한 경우 등에는 가점이 부여된다.구는 점검표에 따라 총점 B등급 이상인 경우 모범음식점으로 유지, 2회 연속 C등급 판정을 받은 업소에 대해서는 지정을 취소할 예정이다.김선갑 광진구청장은 “다수의 구민이 위험에 빠질 수 있는 식중독 등 외식 사고를 방지, 건강한 음식문화를 형성하기 위해 모범음식점의 신규지정과 재심사를 진행하고 있다” 며 “음식점의 위생 및 서비스를 높은 수준으로 관리해 지역경제 활성화를 도모해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>전세대출, 보증금 오른 만큼만 받을 수 있다</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002565466?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>은행권 전세대출 3원칙 본격 시행 대출 시점도 잔금일 전까지만으로 케이뱅크만 1주택자도 비대면 대출연합뉴스  앞으로 전세대출을 받으려는 사람은 은행에서 임차보증금(전셋값)이 오른 만큼만, 잔금 지급일 이전에 대출을 받을 수 있다. 1주택자들의 경우 온라인 비대면 대출은 어렵고 직접 은행 창구를 찾아가야 한다. 이달 중순 은행들이 금융당국과 가계대출 실무자 회의 등을 거쳐 합의한 ‘전세자금대출 관리 방안’이 27일부터 시행됐다. 앞으로 소비자들은 전세대출을 받을 때 실제 전셋값이 오른 만큼만 대출을 받을 수 있다. 예컨대, 전셋값이 기존 4억원에서 6억원으로 2억원 올랐을 때 여태까지 기존 전세대출이 없는 사람은 전셋값의 80%인 4억8000만원까지 대출을 받을 수 있었지만, 앞으로는 전셋값 증액분, 곧 2억원까지만 대출이 가능하다. 한편, 똑같이 전셋값이 4억원에서 6억원으로 올랐더라도 기존 대출금이 있다면 추가 대출 가능 금액은 더 적어질 수 있다. 기존에 3억원 대출을 받아 4억원짜리 전세를 살던 사람이라면 전셋값이 2억원 올랐다고 해도 전셋값(6억원) 80%인 4억8000만원에서 기존 대출금(3억원)을 뺀 나머지 1억8000만원까지만 대출이 된다.  이뿐 아니라 기존에는 잔금일이나 주민등록상 전입 신고일 가운데 더 빠른 날짜로부터 세 달 안에 전세대출을 받을 수 있었지만 앞으로는 잔금일 전까지만 대출이 된다. 마지막으로 무주택자가 아닌 1주택자의 전세대출은 철저한 심사를 위해 원칙적으로 대면 방식으로만 가능하다. 지난 15일 국내 5대 은행(KB국민·신한·하나·우리·NH농협)은 금융당국과 회의를 열어 이런 내용의 ‘3대 원칙’에 합의했다. 실수요자 보호를 위해 가계대출 총량 규제에서 전세대출은 제외하면서도 급격한 전세대출 증가세는 막기 위해 세부 규정을 강화한 것이다. 이미 케이비국민은행은 지난 9월 말부터, 하나은행은 지난 15일부터 이러한 방식으로 전세대출을 진행하고 있고, 나머지 은행들의 경우 27일부터 3대 원칙을 현장에 적용하기 시작했다. 5대 은행 뿐 아니라 지방은행, 외국계 은행, 인터넷은행 등에서 취급하는 전세대출도 같은 원칙이 적용된다. 다만 인터넷은행의 경우 오프라인 점포가 없어 ‘대면 대출’이 불가능한 상황이다. 이에 따라 인터넷전문은행인 카카오뱅크는 1주택자의 비대면 전세 대출을 아예 중단했고, 현재 무주택자의 전세대출만 운영하고 있다. 다만, 1호 인터넷전문은행인 케이뱅크의 경우 1주택자의 전세대출을 기존과 같이 비대면으로 운영한다. 케이뱅크 관계자는 “금융 당국이 대면 창구가 없는 인터넷은행이라는 점을 고려해 1주택자 대면 대출 원칙에서 케이뱅크를 제외해주기로 한 것으로 알고 있다”며 “물론 대면 창구에서 전세대출을 받는 것과 같은 수준으로 여러 증빙 서류 등을 통해 철저히 심사할 예정이다”고 밝혔다. 지난 5일 출범한 토스뱅크는 ‘전세대출’을 별도로 운영하고 있지 않으며 현재 올해 대출 한도(5000억원)가 초과해 대출 상품 판매를 연말까지 중단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>하나은행 '글로벌 결제 플랫폼' 영토확장 시동</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004618018?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>자회사 'GLN' 독립…5대 금융지주 손잡고 세계로세계 8개국서 외화 환전 없이스마트폰만으로 결제·송금 가능수수료 낮고 거래 과정도 간편'글로벌 금융허브' 확장 시동"내년 20개국 서비스 제공 목표대만·일본서 투자유치 추진도"하나은행이 설립한 글로벌 지급결제 플랫폼 ‘GLN(Global Loyalty Network)’이 별도 회사로 독립 분사했다. 비자·마스터카드를 대체할 수 있는 차세대 글로벌 결제 플랫폼으로 거듭나겠다는 구상이다. 이를 위해 KB·신한·우리·농협금융 등 국내 5대 지주와도 협업의 물꼬를 텄다.GLN은 소비자가 세계 어디서나 국경의 제한 없이 모바일로 온·오프라인 결제와 송금, 현금 인출 등을 할 수 있는 서비스다. 신용카드나 외화 환전 없이 스마트폰만 있으면 GLN을 통해 어디서나 간편결제가 가능해지는 셈이다. 국내에선 아직 하나은행, 토스 등 몇몇 GLN 파트너사의 앱에서만 이용할 수 있지만 이번 분사를 계기로 5대 금융지주를 포함해 국내외 네트워크가 확대되면 서비스 접근성이 대폭 높아질 전망이다. 분사 마무리, 투자 유치도 추진19일 금융계에 따르면 하나은행은 지난달 29일 금융위원회의 영업 양도 인가 승인을 받아 은행 내부에서 추진하던 GLN 사업을 ‘지엘엔인터내셔널’에 넘길 예정이다. 지엘엔인터내셔널은 지난 7월 GLN 사업을 전문적으로 추진하기 위해 하나은행의 핀테크 자회사로 출범했다. 대표는 GLN을 이끌어온 한준성 전 하나금융 그룹디지털총괄 부사장이 맡았다. 초기 자본금은 100억원이며 하나은행이 400억원을 추가 출자할 예정이다. 지엘엔인터내셔널이 이달 전자금융업 등 GLN 사업을 위한 각종 라이선스 등록을 마치면 추가 출자와 영업 양수 절차도 마무리될 것으로 보인다. 외부 투자 유치도 추진한다. 파트너사인 대만·일본계 은행이 유력한 투자자로 거론되고 있다. 현재 GLN은 대만, 태국, 베트남, 일본, 홍콩 등 8개국에서 이용할 수 있다. 내년에는 중국, 호주, 인도 등 해외 서비스 지역을 20여 개국으로 넓힌다는 계획이다.비자 브랜드가 붙은 카드가 있으면 세계 비자 가맹점에서 결제할 수 있는 것처럼 GLN 이용자들은 세계 GLN 파트너사에서 현금은 물론 금융사 포인트나 마일리지 등 다양한 디지털 자산으로 결제·송금·출금할 수 있다. 특히 소비자는 별도로 환전할 필요 없이 파트너사의 앱을 통해 GLN머니를 충전해 두기만 하면 가맹점에서 QR코드나 바코드를 스캔하는 방식으로 결제하고 현지 자동화기기에서 출금도 할 수 있다. 한 관계자는 “거래 때마다 카드사를 거치는 과정이 사라지기 때문에 소비자와 가맹점 모두 수수료가 훨씬 저렴하고 정산도 빠르다”며 “신용카드가 저무는 시대에 새 결제 표준이 될 수 있을 것”이라고 했다. 5대 금융지주 “협업 열려 있다”관건은 확장성이다. GLN 플랫폼에는 중국 알리페이, 베트남 BIDV은행, VN페이, 일본 NTT도코모 등 해외 유수 금융사와 간편결제 사업자, 통신사 등이 참여하고 있지만 국내에선 모회사인 하나은행을 제외하면 토스, 쓱페이, SK페이, 제로페이가 전부다. 하나은행 고위 관계자는 “진정한 글로벌 허브가 되려면 여러 이해당사자가 참여해야 한다”며 “국내 5대 은행이 힘을 모을 수 있도록 협업을 적극 추진하고 있다”고 말했다.5대 금융지주는 지난해 12월 GLN 분사 이후 서비스 협력 가능성에 합의하는 양해각서(MOU)를 맺었다. 이렇게 되면 가령 신한은행의 앱 ‘쏠’이나 국민은행의 ‘KB스타뱅킹’에서도 각 은행 계좌를 연동해 GLN 서비스를 이용할 수 있다. 한 금융지주 관계자는 “코로나19 사태로 해외여행이 막히면서 후속 논의가 지지부진했으나 차후 협업 방안을 논의하기로 했다”며 “서비스 참여부터 지분 투자까지 가능성은 모두 열려 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>한국인, 9월에만 유튜브 701억분 봤다…카카오톡, 279억분 사용</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005665294?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>토스·넷플릭스·틱톡 사용시간, 전년比 급증한국인이 가장 오래 사용하는 앱 (와이즈앱 제공) © 뉴스1(서울=뉴스1) 김근욱 기자 = 지난 9월 한국인이 가장 오래 사용한 앱은 '유튜브'인 것으로 나타났다. 전년 동기 대비 사용시간 증가율이 가장 높은 앱은 '넷플릭스'와 '틱톡'이었다.10일 앱 분석업체 와이즈앱이 발표한 자료에 따르면 지난 9월 한국인이 가장 오래 사용한 앱은 '유튜브'로 사용시간은 701억분이었다. 그 뒤는 Δ카카오톡 279억분 Δ네이버 197억분 Δ인스타그램 71억분 Δ틱톡 46억분 Δ넷플릭스 42억분 Δ티맵 40억분 Δ페이스북 40억분 Δ다음 37억분 Δ네이버 웹툰 34억분 순이었다.전년 동기 대비 사용시간 증가율이 가장 높은 앱은 온라인 동영상 서비스(OTT) '넷플릭스'와 숏폼 플랫폼 '틱톡'이었다. 넷플릭스는 26억분에서 42억분으로, 틱톡은 28억분에서 46억 분으로 두 앱 모두 1년 전보다 사용시간이 61% 증가했다. 가장 많은 사람이 사용한 앱은 '카카오톡'으로 사용자는 4385만명으로 조사됐다. 그 뒤로 Δ유튜브 4203만명 Δ네이버 3925만명 Δ쿠팡 2403만명 Δ밴드 2008만명 Δ네이버 지도 1752만명 Δ인스타그램 1744만명 Δ배달의민족 1707만명 Δ당근마켓 1601만명 Δ토스 1304만 명 순이었다.전년 동기 대비 사용자 증가율이 가장 높은 앱은 '토스'였다. 토스 사용자 수는 855만명에서 1304만 명으로 1년 전보다 사용자가 53% 늘어났다. 위 조사는한국인 만 10세 이상 개인 안드로이드 사용자 3867만명과 iOS 사용자 855명을 대상으로 조사했다. 유튜브를 제외한 구글·애플 앱과 이동통신사, 단말제조사 앱은 조사대상에서 제외했다고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2021.10.26.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>[기업공시 10월 25일]이미지스, 100% 무상증자 결정 등</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003977347?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>[서울경제] &lt;유가증권&gt;▲금양(001570)=지식산업센터 165억 원 규모 투자 결정 ▲태영건설(009410)=포항 장성동 주택 재개발 정비 사업 2,487억 원 규모 공사 계약 해지 및 울산 중구 반구동 1,474억 원 규모 공동주택 신축 공사 수주 ▲호전실업=제13회 무기명식 이권부 무보증 사모 225억 원 규모 전환사채 발행 ▲한화투자증권(003530)=증권업 본업과의 시너지 효과 및 수익 다각화 목적으로 주주배정 유상증자 참여로 300억 원 규모 토스뱅크 주식 취득 결정 ▲우성=자회사 우성사료의 174억 원 규모 채무보증 결정 ▲대교(019680)=주주가치 제고 위해 100억 원 규모 자사주 취득 신탁계약 체결 결정 ▲포스코인터내셔널=심인숙 사외이사 자진 사임 ▲롯데리츠(330590)=임대 수익 위해 롯데마트 경기양평점 346억 원에 취득 ▲SK(034730)=자회사 에스케이온과 에이디티캡스 등 각각 202억 원, 64억 원 규모 SK 브랜드 사용 계약 ▲한샘(009240)=조창걸 외 특수관계인 7인, 최대주주 변경을 수반하는 발행주식 대비 27.7% 주식 아엠엠로즈골드4 사모투자 합작 회사에 양도 결정 ▲삼성중공업(010140)=버뮤다 지역 선사로부터 총 9,713억 원 규모 액화천연가스(LNG) 운반선 4척 수주 ▲쌍용자동차=서울회생법원이 에디슨모터스 컨소시엄 우선협상 대상자 선정 허가 결정 ▲DL건설(001880)=지얼에스비씨와 2,818억 원 규모 안성 당왕지구 5BL 공동주택 신축 사업 수주 ▲한국조선해양(009540)=중동 소재 선사로부터 총 3,826억 원 규모 11만 4,000톤급 대형 PC선 4척 수주 ▲에스케이바이오팜=당사 미국 현지법인과 113억 원 규모 뇌전증 치료 신약 공급계약 ▲대창=시흥매화센트럴M플렉스 지식산업센터 분양 계약자의 480억 원 규모 중도금대출 채무보증 ▲엔에스쇼핑(138250)=하림과 40억 원 규모 라면 등 납품 계약 ▲자이에스앤디(317400)=서울 동대문구 신설동 주거 복합 시설 신축 사업 382억 원 규모 공사 도급 약정 체결 ▲상신브레이크(041650)=자회사 상신제동계통유한공사에 대한 98억 원 규모 채무보증 결정&lt;코스닥&gt;▲액트로(290740)=스마트폰 카메라 부품 공급 확대를 위한 생산 설비 확충을 위해 베트남 법인 자회사 주식 47억 원 취득 결정 ▲멜파스(096640)=파산 신청 사유 해소로 26일 거래정지 해제 ▲메디콕스=허성훈, KIM JOON YOMG, 김길영 사외이사 신규 선임 ▲나노캠텍(091970)=제천·여행의품격 흡수합병 ▲신흥에스이씨(243840)=발행주식 총수 대비 1.09% 규모 전환청구권 행사 ▲KD(044180)=세종스카이와 147억 원 규모 세종 주상복합 신축 공사 계약 체결 ▲쌍용정보통신(010280)=운영자금 등을 위해 160만주 주주배정 유상증자 결정 ▲녹십자셀=주식의 병합 등 서유로 28일 거래정지 ▲지엔코(065060)=운영자금 마련을 위해 200억 원 규모 전환사채권 발행 결정 ▲디지캡(197140)=운영자금 마련을 위해 140억 원 규모 전환사채권 발행 결정 ▲디이엔티=2차전지 제조 장비 61억 원 규모 공급계약 해지 ▲휴맥스=독일 법인에 대한 686억 원 규모 채무보증 결정 ▲서부T&amp;D(006730)=종속사인 신한서부티엔디위탁관리부동산투자회사가 일반 공모 방식의 1,249억 원 규모 유상증자 결정 ▲KH E&amp;T=발행주식 총수 대비 2.34% 규모 전환청구권 행사 ▲엠투엔(033310)=씨드나인파트너스가 서울회생법원에 엠투엔에 대한 파산신청서 제출 ▲위메이드(112040)=위메이드트리 흡수합병 ▲좋은사람들(033340)=서울회생법원 회생절차개시 신청 기각 ▲라온피플(300120)=브이씨와 25억 원 규모 스크린골프센서 공급 ▲에이스토리(241840)=넷플릭스와 드라마 ‘이상한 변호사 우영우’ 방영권 라이선스 계약 ▲티케이케미칼(104480)=대구 상수도사업본부와 32억 원 규모 가창 배수지 설치 공사 계약 ▲LX세미콘(108320)=친환경 전기차 부품 시장 진출 위해 LG화학이 보유 중인 일본 방열 소재 업체 FJ머티리얼 지분 70억 원에 인수 ▲CJ ENM(035760)=SM엔터 인수 관련 “검토 중” 답변 ▲원티드랩(376980)=강시현 사외이사 신규 선임 ▲쎄미시스코(136510)=쌍용자동차 M&amp;A 우선협상 대상자 선정 ▲더네이쳐홀딩스(298540)=골프공 제조사 볼빅 인수 추진 관련 “결정된 사항 없음” 해명 ▲이미지스(115610)=보통주 1주당 신주 1주를 배정하는 100% 무상증자 결정 ▲비츠로시스(054220)=국가철도공단과 12억 원 규모 경부고속철도 고장점표정장치 제조 설치 계약 ▲아비코전자(036010)=자회사 아비코테크의 반도체 패키지 기판 설비 증설 위해 70억 원 규모 아비코테크 주식 취득 결정 ▲엑시콘(092870)=반도체 디바이스 테스트 시스템 국내 특허 취득 ▲덕산테코피아(317330)=주주가치 제고를 위해 전체 발행주식의 0.69% 규모 자사주 매입 결정</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>토스, 금요일 조기퇴근하고 연말엔 '10일 겨울방학'</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0000991173?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>금융 플랫폼 기업 토스는 포괄임금제를 폐지하고 '주 4.5일 근무제'와 '겨울방학' 제도를 정식으로 도입한다고 19일 밝혔다.토스는 현재 포괄임금제를 시행하고 있으나 내년 초 이를 비포괄임금제로 전환한다. 이에 따라 법정 표준 근무시간인 주 40시간을 초과한 근무시간에 대해서는 연봉 외에 별도 수당을 직원들에게 지급하게 된다.토스는 또 지난 4개월간 시범 운영한 금요일 조기 퇴근제를 다음 달부터 정식으로 운영해 사실상 '주 4.5일 근무제'로 전환키로 했다.성탄절을 전후해 약 10일간 회사가 모두 쉬는 '겨울방학'도 정례화한다. 고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 것을 원칙으로 하며, 사내 메신저도 서로 답변을 요구하지 않는 휴식 상태로 전환된다.토스는 아울러 그동안 운영해온 동료 간 단기 평가 시스템인 '3개월 리뷰 과정'과 '스트라이크' 제도를 다음 달부터 폐지하기로 했다.토스 측은 "입사 지원자와 재직자 모두에게 충분한 심리적 안정감을 제공하는 것이 장기적으로 팀의 성공에 더 효과적이라고 판단했다"고 설명했다.이런 인사 제도는 토스와 토스뱅크, 토스증권, 토스페이먼츠 등 주요 계열사에 동일하게 적용된다.다만 고객 상담업무를 하는 토스CX와 보험 상담사 중심 조직 토스인슈어런스는 기존 인사 제도를 유지할 예정이다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>‘공공의적’ 카카오모빌리티, 국감 끝나도 수난 계속</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002112179?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>[디지털데일리 최민지기자] 소상공인‧골목상권 침탈 논란으로 촉발된 ‘플랫폼 때리기’ 정중앙에 선 카카오와 함께 자회사 카카오모빌리티도 채찍질을 맞고 있다. 특히, 카카오모빌리티는 국회뿐 아니라 서울시, 택시‧대리업계 등에서 정조준하고 있어 국감은 끝났지만 수난은 계속되고 있다.    서울특별시의회 교통위원회는 제303회 정례회 기간 중 도시교통실 등에 대한 행정사무감사 증인으로 카카오모빌리티를 채택했다. 플랫폼 기반 택시의 목적지 표기에 따른 콜 거부 등 운영과정 문제점을 짚겠다는 설명이다. 이에 앞서, 서울시는 카카오T만을 대상으로 이용자 불편 실태조사에 착수했다.    국감에서도 뭇매를 맞았다. 카카오모빌리티 류긍선 대표는 올해 국감에 ▲과학기술정보방송통신위원회(과방위) ▲산업통상자원중소벤처기업위원회(산자위) ▲국토교통위원회 총 3번 출석했다. 국회 체면살리기에 국감에 3번이나 출석하며 이례적인 기록을 세운 김범수 카카오 의장과 출석 수는 동일하다.  국감 증인으로 출석한 류긍선 대표는 가입기사에게 배차 혜택을 주는 요금제 ‘프로멤버십’ 폐지 검토와 함께 한 달 내 추가 상생안을 제출하겠다고 밝히기도 했다.    ◆카카오모빌리티, 대체 무슨 문제 겪고 있나?=전혜숙 의원(더불어민주당) 국정감사 정책자료집 ‘플랫폼 사업자 갑질 사례를 통한 온라인 플랫폼 이용자 보호법 연구’에 따르면 카카오모빌리티는 택시사업자와 제휴해 약 16.7% 광고료와 정보이용료 지급 계약을 맺고 있다. 동시에, 카카오모빌리티 자회사 KM솔루션은 택시사업자 가맹계약을 통해 20% 수수료를 5년 동안 받는 계약을 각각 체결한다.    택시사업자가 광고료 등 명목으로 받는 수수료는 3개월 단위로 갱신 가능해 언제 수수료가 오를 지 불확실하며, 가맹‧제휴 모두 계약 주체와 기간을 동일하게 설정해야 한다는 주장이 제기된다.    가장 큰 쟁점은 수수료다. 카카오T는 택시기사 90% 이상이 사용할 정도로 택시 호출 시장을 독점하고 있어, 수수료 갑질 문제가 더 부각됐다.    카카오 측은 지난 2015년 3월 카카오T 앱 출시 후 2019년 9월 ‘블루’가 나올 때까지 별도 수수료를 받지 않았다. 택시 수수료를 받을 계획이 없다고 밝힌 6년전 발언과 달리 현재 가맹택시에 20% 수수료를 부과하고 있다. 서울 개인택시사업자 매출 통계를 보면 코로나19 전후로 월평균 매출액 평균 66만원 운행건수 76건 감소했다. 이러한 상황에서도 카카오모빌리티는 과도한 수수료 정책을 채택하고 있다는 지적이다. 카카오모빌리티는 가맹택시를 제외한 일반택시의 경우, 기사와 승객 대상 수수료를 무료로 운영하고 있다고 반박했다.    더군다나, 카카오모빌리티가 카카오T 택시 기사 대상으로 월 9만9000원 프로멤버십을 출시하고, 배차율을 높이는 스마트호출 이용자 요금을 기존 1000원에서 5000원까지 올리자 여론을 들끓었다. 정치권까지 공세하자, 카카오모빌리티는 이를 모두 중단하고 상생안을 제출했으나 힘을 받지 못했다. 오히려 가맹 택시 콜 몰아주기, 대리운전 진출 불가 등 논란이 확산됐다. 한국대리운전총연합회는 카카오모빌리티가 전화콜 대리운전 시장에서 철수해야 한다며, 플랫폼 청문회를 촉구했다.   카카오모빌리티는 난감한 기색이다. 당장 다음달 1일 티맵모빌리티와 우버 합작 ‘UT(우티)’ 통합 앱이 출범하고, 12월엔 토스와 손을 잡은 타다가 재시동을 건다. 택시 플랫폼 시장 변화에도 규제 리스크로 몸을 사릴 수밖에 없는 형국이다. 더군다나, 대선을 앞두고 택시‧대리업계 표심을 잡기 위한 정치권 공세가 계속될 전망이다. 결국, 카카오모빌리티가 이번달 어떠한 내용을 담은 추가 상생안을 내놓는냐가 관전 포인트다.전혜숙 의원실은 “상생방안을 마련했지만, 카카오모빌리티가 가맹기사를 평가하고 관리하고 있어 솔직하고 실효성 있는 의견 개진이 가능할지 의심스럽다”며 “5년간 3000억원 규모 파트너 상생기금 마련보다 현재 수수료를 낮추는 것이 더 바람직하고, 공정한 배차를 위해 가맹택시와 중개택시 차이를 없애야 한다”고 제언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2021.10.31.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>자산 불리기, 맛집 찾아 배달까지…너 '은행 앱' 맞니?</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004663958?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>은행권 모바일뱅킹 이용 추이/그래픽=이승현 디자인기자금융당국이 애플리케이션(앱) 규제를 일부 풀어주기로 하면서 은행들의 디지털 전환 작업에 속도가 붙을 전망이다. 은행들이 금융상품 판매를 비대면으로 전환하는 과정에서 성과가 있었지만 인터넷전문은행, 빅테크 등 플랫폼 강자와 맞서 경쟁력을 키우려면 풀어야 할 과제가 많다. 31일 금융권에 따르면 고승범 금융위원장은 전날 주요 은행장들과 만나 '수퍼 앱 지원' 등을 약속했다. 하나의 앱에 은행, 보험, 증권 등 종합적인 금융 서비스가 가능하도록 제도적 여건을 만들어주겠다는 것이다. 투자자문업 개방, 신탁업 제도 개선 등을 예로 들었다. 은행이 디지털 신사업에 투자할 수 있도록 겸영·부수 업무 확대도 제도적으로 지원하겠다고 했다. 신한은행이 배달 앱 출시를 예고한 것처럼 은행 사업 허가 범위를 넓혀주겠다는 뜻이다. 플랫폼 경쟁력 강화에 사활을 걸고 있는 은행들은 근심을 일부 덜게 됐다. 빅테크, 인터넷은행의 진입으로 금융산업 지형도가 완전히 달라지면서 기존 은행들 사이에선 플랫폼 경쟁력을 갖추지 못하면 도태될 수 있다는 위기감이 팽배하다. 금융 앱 MAU(월간 실사용자 수) 1위는 2017년 금융시장에 입성한 인터넷전문은행 카카오뱅크다. 기존 은행들이 '플랫폼 기업 전환', '생활금융 플랫폼 변신' 등을 화두로 내 건 이유다.  지금까지는 은행의 디지털 전환이 대면 중심 금융 서비스를 비대면화하는 데 집중됐다. 어느 정도 성과를 거두기도 했다. 한국은행에 따르면 지난 상반기 은행권 모바일뱅킹 이용금액과 건수는 작년 말에 비해 각각 19.8%, 13.3% 늘었다. 지난 3분기 우리은행의 비대면 상품 가입고객 수는 지난해 말보다 11.28% 증가했다. 적립식예금의 89.6%는 비대면 판매다. 하나은행도 신용대출의 92.2%를 비대면으로 취급했다. 펀드의 비대면 판매 비중도 92.9%에 달한다. 문제는 비대면 중심의 디지털 전환 만으론 빅테크와 인터넷전문은행과의 경쟁에서 우위를 점할 수 없다는 점이다. 플랫폼 경쟁력이 떨어지기 때문이다. 손병환 농협금융지주 회장이 지난 28일 계열사 디지털 최고책임자가 참여하는 회의를 주재하면서 "고객 불편 사항 해소를 위한 토스·카카오의 노력과 사업 추진 자세를 벤치마킹해야 한다"고 주문한 것도 같은 맥락에서 읽힌다. 하나금융경영연구소는 최근 펴낸 '2022년 금융산업 전망' 보고서에서 "은행과 비금융회사간 시장 경쟁이 심화할 것"이라며 "언택트(비대면)가 고착화하고 마이데이터 사업이 본격 시행되는 내년은 생존을 위한 경쟁력 확보가 무엇보다 중요한 시기"라고 규정하기도 했다.  시중은행들이 하나둘씩 복잡하고 무거운 모바일 앱을 뜯어 고치는 이유도 여기에 있다. KB국민은행은 지난 27일 새 KB스타뱅킹 앱을 출시했다.  모바일 전용 인프라를 깔고 고객들이 스스로 홈화면 메뉴를 구성할 수 있도록 개인화 서비스를 내놨다. 앱을 실행하면 별도의 인증 없이 자동 로그인되는 기능도 새로 생겼다. 은행, 증권, 보험 상품 외에 부동산·자동차 등 비금융 자산을 맞춤형으로 관리해 주는 '마이자산관리' 메뉴도 만들었다. 비금융 콘텐츠도 경쟁적으로 늘리고 있다. 은행 상품과 서비스만으론 고객을 유인하기 어렵다는 판단에서다.  신한은행은 12월 금융권에선 처음으로 배달 앱을 출시한다. 가맹점 입점 수수료나 광고비용을 받지 않고 공공 배달앱 수준으로 저렴한 중개 수수료를 매겨 가격 경쟁력을 확보할 계획이다. 금융당국이 은행 업무를 확대해 주기로 약속하면서 은행이 진출하는 사업 영역은 앞으로 더 다양해질 전망이다. 한동환 KB금융지주 디지털플랫폼총괄 부사장은 최근 실적발표 콘퍼런스콜에서 "개편된 스타뱅킹은 은행의 디지털 핵심채널에서 금융그룹의 디지털 핵심채널이 됐다"며 "기술을 접목하고 기존 은행의 강점인 금융 전문성을 살리면 빅테크와 플랫폼 경쟁을 해 볼만 하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2021.10.31.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>자고나면 치솟는 주택담보대출 금리… 최고 5%대 속속 등장 [마이머니]</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003633506?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>상승폭 커지는 대출금리 ‘가계빚 주의보’한 달 동안 0.13%P↑… 4년여 만에 최대폭신용대출 금리도 0.18%P 올라 4.15% 기록시중은행 우대금리 축소 탓 상승세 지속토스뱅크 등 인터넷은행도 신용대출 중단   금융당국의 가계대출 총량규제로 은행 대출금리가 상승세를 이어가고 있다. 시중은행에서 더 이상 2% 미만 대출 금리는 찾아볼 수 없게 됐고, 5%대 주택담보대출 금리도 속속 등장하고 있다. 지난 29일까지 취급된 혼합형 주담대 금리를 보면 4대 시중은행(KB국민·신한·우리·하나) 모두 상단이 5%를 넘어섰다. 국민은행이 연 3.88~5.08%, 신한은행 3.88~5.08%, 우리은행 4.24~5.04%, 하나은행 3.946~5.246%를 기록했다.   ◆2%대 금리는 사라지고 5%대 금리는 늘어나고   주담대 금리는 지난 9월에도 2년6개월 만에 최고치를 기록했다. 31일 한국은행에 따르면 지난 9월 기준 은행권 주택담보대출 평균금리(신규취급액 기준)는 3.01%로 집계됐다. 2019년 3월 기록한 3.04% 이후 최고 수준이다. 한 달 동안에만 0.13%포인트가 훌쩍 뛰었는데, 이는 4년10개월 이내 가장 큰 상승폭이다. 지난해 말과 비교하면 0.42%포인트나 올랐다.   신용대출 금리도 한 달 만에 0.18% 올라 4.15%를 기록했다. 2019년 6월 기록한 4.23% 이후 2년3개월 만에 최고치다. 지난해 말 대비로는 0.65%포인트 올랐다. 이에 따라 전체 가계대출 평균금리는 3.18%로, 전월 대비 0.08%포인트 올랐다. 이 같은 상승세는 지난 8월26일 기준금리가 0.5%에서 0.75%로 인상되며 지표금리(코픽스·CD·은행채 등)가 오른 데다 은행들이 우대금리를 축소한 영향이라는 게 한은의 분석이다. 전체 가계대출 중 2% 미만 금리 비중은 5.5%로 줄어든 것으로 나타났다. 지난해 12월에는 10%를 차지했는데 절반 수준으로 감소한 셈이다. 2%대 금리 비중도 71.2%에서 48.6%로 크게 줄었다.    반면 같은 기간 3%대 금리 비율은 13.4%에서 37.5%로, 4%대 금리는 2.4%에서 3.4%, 5% 이상 금리는 3%에서 5%로 각각 늘어났다.   ◆가계대출 총량규제로 대출금리 상승세 지속   NH농협은행의 대출 중단도 대출금리를 끌어올리는 역할을 했다. 농협은행은 지난 8월 가계대출 증가율이 금융당국이 제시한 목표치의 상단인 6%를 넘기자 주담대와 전세대출 등 부동산 관련 신규대출을 전면 중단했다. 이후 가계대출 수요가 타행으로 옮겨가는 풍선효과가 발생함에 따라 고객들이 우대금리 혜택을 받지 못하거나 은행들이 우대금리를 줄여 대출금리를 올리고 있다.   은행연합회가 공시한 5대 시중은행의 분할상환방식 주담대(만기 10년 이상) 평균금리를 보면 지난 9월 국민은행은 2.97%, 농협은행 3.16%, 신한은행 3.37%, 우리은행 2.87%, 하나은행 3.33%를 기록했다. 한 달 전인 8월에는 국민은행이 2.76%, 농협은행 3.04%, 신한은행 3.08%, 우리은행 2.82%, 하나은행 3.15%를 기록했다. 신한은행이 한 달 동안만 0.29%포인트 오르며 가장 큰 폭으로 상승했다. 가계대출 증가율이 낮았던 신한은행으로 타 은행 고객이 새롭게 넘어오면서 우대금리 혜택을 받지 못해 대출금리가 올랐다는 게 신한은행 설명이다.   이후로도 은행들이 줄줄이 우대금리를 축소하며 대출금리 상승세는 지속되는 모습이다. 대출금리는 은행별로 기준금리에 가산금리는 더하고 우대금리는 빼서 산출하기 때문에 우대금리를 줄이면 대출금리가 오르는 효과를 낳는다.   농협은행은 1일부터 ‘NH직장인대출V’의 총 우대금리를 최대 0.30%포인트, ‘올원직장인대출’과 ‘올원마이너스대출’은 0.20%포인트 인하한다. 우리은행은 지난 27일부터 아파트담보대출 우대금리를 최대 0.20%포인트 낮추고, 주거용오피스텔과 월상환액고정대출의 우대금리를 폐지했다.   ◆한도 축소와 대출 중단도 이어져   가계대출 수요가 꺾이지 않으며 ‘대출 중단’까지 선언한 은행만 세 곳이다. 농협은행에 이어 하나은행과 SC제일은행도 지난달 주담대 신규 접수를 전면 중단했다.   주담대뿐 아니라 신용대출 문도 좁아지고 있다. 이미 5대 시중은행은 신용대출 한도를 연소득 이내로, 마이너스통장 대출 한도는 5000만원으로 축소했었는데, 농협은행은 오는 1일부터 마이너스통장 대출을 포함한 신용대출 한도를 2000만원으로 축소하기로 했다. 하나은행은 지난 20일부터 주담대와 함께 신용대출도 전면 중단한 바 있다. 인터넷은행도 예외는 아니다. 지난 8일 카카오뱅크는 일반 고신용자 대상 신용대출을 중단했고, 토스뱅크는 출범한 지 한 달도 되지 않아 신용대출 판매를 중단했다.   대출심사를 강화하기 위해 비대면 대출도 축소하는 추세다. 지난 7월 우리은행이 일부 비대면 신용대출에 중도상환수수료를 부과하기 시작한 데 이어 신한은행도 10월 들어 비대면 신용대출에 중도상환 수수료를 부과했다. 국민은행은 지난 8월 비대면 대출상품인 ‘KB스타신용대출’ 판매를 중단했다.   다만 금융당국이 대출 총량 규제에서 전세대출은 예외로 두며 농협은행, 하나은행, 카카오뱅크 등이 전세대출 판매를 재개하기도 했다. 은행권은 전세대출 실수요자를 구분하기 위해 △전세대출 갱신 한도를 전셋값 상승분 내로 제한하고 △전세대출 신청은 임대차계약서상 잔금 지급일 이전까지만 허용하며 △1주택자는 인터넷 비대면이 아니라 은행 창구에서만 신청 가능하게 하는 전세대출 가이드라인을 준수하며 전세대출을 취급하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>[단독] 카카오모빌리티, TPG 입김에 중단됐던 상장 절차 다시 시작한다</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000767895?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>지분 29.6% TPG컨소시엄, 내년 중 엑시트 추진해야RFP 받은 증권사들, 입찰 제안서 다시 작성중“적정 시총 10조원 미만으로 조정 불가피”        정치권의 집중 포화를 받고 있는 ‘카카오T’ 운영사 카카오모빌리티가 결국 상장 일정을 강행하기로 결정했다. 카카오모빌리티는 지난달 상장 주관사 선정을 위한 입찰을 미루겠다고 증권사들에 통보했으나, 초기 투자사인 글로벌 사모펀드(PEF) 텍사스퍼시픽그룹(TPG)의 요구 때문에 상장 일정 연기 결정을 뒤집고 다시 상장 절차를 속개하기로 한 것이다.지난 달 14일 서울 시내에서 카카오택시가 운행하고 있다. /연합뉴스        20일 투자은행(IB) 업계에 따르면, 카카오모빌리티는 최근 내부적으로 이 같은 결정을 내리고 조만간 증권사들로부터 입찰제안서를 받기로 했다. 입찰 연기를 통보 받았던 증권사들은 제안서를 다시 작성 중인 것으로 알려졌다.앞서 카카오모빌리티는 8월 23일 NH투자증권·KB증권·한국투자증권·대신증권 등 국내외 주요 증권사 10여 곳에 상장 주관사 선정을 위한 입찰제안요청서(RFP)를 발송했으나, 지난 달 중순 돌연 입찰 잠정 연기를 통보한 바 있다. ‘골목상권 침해’를 이유로 정책당국의 질타를 받자 카카오택시 스마트호출(돈을 더 지불하면 빨리 배차해주는 서비스)을 폐지했는데, 이 같은 사업 영역 축소에 따라 기업가치 하향 조정이 불가피해졌기 때문이다.그러나 최근 카카오모빌리티의 초기 투자사인 TPG가 이에 대해 문제를 제기했고, 카카오모빌리티는 울며 겨자먹기로 어쩔 수 없이 상장을 다시 강행하기로 결정했다. TPG컨소시엄(TPG·한국투자증권·오릭스)은 지난 2017년 카카오모빌리티에 5000억원을 투자한 데 이어 올해 6월에는 1307억원을 추가 투자했다. 누적 투자금은 총 6307억원이며, 지분율은 29.6%에 달한다.TPG가 카카오모빌리티에 처음 투자한 지 4년이 지난 만큼, 내년에는 엑시트(투자금 회수) 시기가 도래한다는 것이 IB 업계 관계자들의 중론이다. 통상 PEF의 운용 기간은 10년인데, 초기 5년 동안은 투자에 집중하고 후기 5년은 회수에 주로 할애한다. 이 때문에 TPG 입장에서는 첫 투자 후 5년이 지난 2022년 중 엑시트 추진이 불가피하다.더욱이 내년에는 모빌리티 시장에 중대한 영향을 미칠 만한 변수가 많아, 조금이라도 빨리 상장 작업에 착수하는 것이 유리한 상황이다. IB 관계자는 “‘타다 금지법’도 작년 3월 총선을 앞두고 통과한 만큼, 내년 대선 전 카카오모빌리티에 무슨 일이 벌어질 지 알 수 없다”며 “또 최근에는 토스가 쏘카 운영사 VCNC를 인수해, 시장 경쟁이 과열될 수도 있는 상황”이라고 설명했다.IB 업계에서는 카카오모빌리티의 적정 시가총액을 10조원 미만으로 보고 있다. 당초 상장 주관사 RFP를 받았던 증권사들은 10조원이 넘는 기업가치를 제안하려 했으나, 정책 리스크를 고려해 기업가치를 대폭 하향 조정하는 방안을 검토하고 있다.카카오모빌리티가 조만간 상장 주관사를 선정하고 IPO 절차에 돌입하게 되면, 내년 상반기 실적을 확인한 뒤 하반기 중 유가증권시장에 입성할 수 있을 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>한국인 가장 많이 사용하는 앱 '카톡'…오래 사용한 앱 '유튜브'</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000726526?sid=102</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>지난달 기준 카톡 이용자 4천385만명…유튜브, 네이버, 쿠팡 뒤이어토스는 1년 새 사용자 53% 증가한국인이 가장 많이 사용하는 스마트폰 앱은 '카카오톡'인 것으로 나타났다. 가장 오래 사용하는 앱은 유튜브가 압도적으로 1위를 기록했다. 사진은 15일 서울 서초구 삼성딜라이트샵에 전시된 갤럭시 Z플립3 제품으로 기사 내용과는 무관. 연합뉴스한국인이 가장 많이 사용하는 스마트폰 앱은 '카카오톡'인 것으로 나타났다. 가장 오래 사용하는 앱은 유튜브가 압도적으로 1위를 기록했다.앱·리테일 분석서비스 업체 와이즈앱은 만 10세 이상 국내 스마트폰 사용자 4천722만명(안드로이드 3천867만명, iOS 855만명)을 표본 조사한 결과 지난 9월 기준 가장 많은 사람이 사용한 앱은 4천385만명이 사용한 카카오톡으로 조사됐다.카카오톡에 이어 유튜브(4천203만명), 네이버(3천925만명), 쿠팡(2천403만명), 밴드(2천8만명), 네이버 지도(1천752만명), 인스타그램(1천744만명), 배달의민족(1천707만명), 당근마켓(1천601만명), 토스(1천304만명) 등이 이용자가 많은 앱으로 꼽혔다.1년 새 사용자가 가장 큰 폭으로 늘어난 앱은 토스였다. 작년 9월만 해도 855만명이 이용하던 토스는 지난 9월 1천304명으로 1년 새 사용자가 53% 늘었다.가장 사용 시간이 긴 앱은 701억분의 유튜브였다. 그 뒤는 카카오톡(279억분), 네이버(197억분), 인스타그램(71억분), 틱톡(46억분), 넷플릭스(42억분), 티맵(40억분), 페이스북(40억분), 다음(37억분), 네이버 웹툰(34억분) 순이었다.작년 동월대비 사용시간 증가율이 가장 높은 앱은 넷플릭스와 틱톡이다. 넷플릭스는 지난해 9월 26억분에서 올해 9월 24억분, 틱톡은 28억분에서 46억분으로 두 앱 모두 1년 전보다 사용시간이 61% 늘었다.가장 자주 사용한 앱은 실행횟수 961억회의 카카오톡이었고, 네이버(207억회), 트위터(124억회), 유튜브(122억회), 인스타그램(88억회), 당근마켓(74억회), 네이버 카페(74억회), 쿠팡(59억회), 밴드(46억회), 네이버 웹툰(45억회) 등이 뒤를 이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2021.10.26.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>새싹 기업 지원으로 미래를 그리다, 성북구 1인 창조기업 지원센터 (1)</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003389680?sid=105</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>1980년대는 급격한 기술 혁신과 자본주의의 확산세가 맞물려 대기업은 물론 중견, 중소기업까지 눈부시게 성장한 시기다. 우리나라 역시 저유가·저금리·저달러가 겹친 3저 호황이 호재로 작용하면서 많은 기업들이 괄목할만한 성장을 이뤄냈지만, 1970~80년대 설립된 대기업 집단에 여력이 집중돼 중소기업의 신규 진입이 어려운 상황이었다. 이를 타파하기 위해 1986년, 우리 정부는 중소기업의 설립을 촉진하고 건실한 산업 구조를 구축할 목적으로 ‘중소기업창업 지원법’을 제정했다.성북구 1인 창조기업 지원센터(성북스마트앱창작터). 출처=IT동아중소기업창업 지원법은 지난 30년간 빠르게 변화한 기업 및 산업 생태계에 빠르게 대응하기 위한 기반이 되었으며, 정부와 소수의 대기업이 주도하던 경제 체계의 주체를 다원화하는 데 성공했다. 체감할만한 사례로는 2000년대 초 벤처기업으로 시작된 ‘제1차 벤처 붐’이 있는데, 이때 설립된 법인만 해도 연 6만 개, 매년 2조 원가량의 신규 벤처 투자가 이뤄졌다. 당시 설립된 기업으로는 네이버, 엔씨소프트, 넥슨 등의 기업은 오늘날 대한민국의 중추를 담당하는 정보기술(ICT) 기업으로 당당하게 성장한 상태다.창업 지원, ‘왜’보다는 ‘어떻게’가 중요하다오늘날 정부 주도의 창업 지원은 더 이상 ‘왜’ 해야 하는가가 아닌, ‘어떻게’ 해야 하는가에 초점이 맞춰지고 있다. 1차 벤처 붐에서 시작된 기업들이 10~20년에 걸쳐 대기업으로 거듭나는 과정도 보아왔고, 새싹 기업(혁신적 기술과 아이디어를 보유한 신생 창업 기업, 이하 스타트업)에 대한 지원이 배달의민족, 쿠팡, 토스처럼 급격하게 성장할 수 있음도 보았다. 이제는 적정 금액만 투자하면 된다는 근시안적인 시선에서 벗어나 어떻게 도울 수 있을까를 고민해야 할 시점이다. 그러면서도 한정된 예산이 많은 창업가에게 돌아갈 수 있도록 효율적으로 운용하는 것도 과제로 떠오르고 있다.성북구 1인 창조기업 지원센터 사무실 전경. 제공=성북구 1인 창조기업 지원센터지난 2011년 7월 개원한 서울 성북구 1인 창조기업 지원센터(성북스마트앱창작터, 센터장 최승철)의 사례를 보면 ‘어떻게’ 지원해야 하는 가에 대한 해답을 엿볼 수 있다. 지난 10년간의 주요 실적을 보면 총 입주회원은 279명, 졸업회원 311명, 신규창업자는 134개사였으며 전체 매출 275억 원의 실적을 이끌어냈다. 131회에 걸친 창업교육은 3050명이 수료하였고, 201회에 걸친 세미나 개최와 네트워크 활동에 5490명이 참여하는 성과를 거둔 상태다.센터에서 진행하고 있는 도전숙 사업, 내년 말까지 16개소까지 확장될 예정이다. 제공=성북구 1인 창조기업 지원센터또한 2013년에는 성북구와 서울지방중소벤처기업청, SH서울주택도시공사와 함께 방 1.5개의 원룸형과 방 2~3개의 가족형 등 다양한 공공임대주택을 연계한 ‘도전숙’ 사업을 추진해오고 있다. 도전숙 사업은 창업자들의 사무공간 문제와 거주 문제를 동시에 해결하는 방안을 제시한 방법이다. ‘직주혼합형 공공주택’이라 할 수 있는 이 사업은 현재 15개소(1인실 180세대, 가족형 34세대, 커뮤니티실 12개실)가 운영되고 있으며, 내년 말까지는 1개소(1인실 15세대)가 추가로 준공될 예정이다.성북구 1인 창조기업 지원센터의 사례는 단순히 사업을 평가하고, 투자하는 과정을 넘어, 현실적인 주거 및 사무 문제를 돕고 성장을 견인하는 모델로 볼 수 있다. 이를 토대로 성장하고 있는 기업들도 함께 보자.빠르게 성장하는 ‘1인 스타트업’을 들여다보다현재 성북구 1인 창조기업 지원센터에는 다양한 분야의 스타트업들이 입주해있다. 이중 주목할만한 기업 10개를 선정하고, 유통·인공지능 및 ICT, 라이프스타일의 세 분야로 나뉘어 소개할 예정이다. 먼저 유통 분야에서는 티에스컴패니언과 홀섬코리아, 그리고 디앤지트레이딩 세 개 기업을 꼽았다.티에스컴패니언. 제공=티에스컴패니언티에스컴패니언(대표 한지훈)은 국내 의류 기업 및 판매자와 해외 생산·제조사를 연결해주는 플랫폼을 준비하고 있다. 좋은 제품을 가진 생산자에게는 효율적인 유통 방안을 소개하면서, 구매자에게는 다양한 제품과 합리적인 가격을 선택할 기회를 제공하는 것을 목표로 하고 있다. 이와 함께 사진이나 동영상만으로 신체 사이즈를 측정하는 ‘인공지능 사이징(AI Sizing)’기술이나 한국의 온라인 쇼핑몰을 전 세계로 홍보해서 판매하도록 돕는 ‘K-온라인 쇼핑’, 생산성과 가격 경쟁력을 가질 수 있는 스마트 공장에 대한 장기적인 계획 등 4차 산업 혁명과 기존 의류 제조 업계를 엮는 다양한 시도도 함께 준비하고 있다.티에스컴패니언은 현재 성북구 1인 창조기업 지원센터를 통해 사무 공간이나 국가 지원 사업 등의 도움을 받고 있다. 좋은 기술을 갖고 있더라도 제조 공장을 찾지 못하고 있는 국내 기업들, 채널을 확보하지 못해 발주처를 찾지 못하고 있는 공장들을 중계하는 플랫폼을 만들어 코로나 19로 어려움을 겪고 있는 국내외 기업들을 돕는 게 목표라고 한다.홀섬코리아 인스타그램 페이지. 출처=홀섬코리아홀섬코리아(대표 이재민)는 국내외 수출 관련 사업을 진행하고 있는 1인 기업이다. 기업 대 기업(B2B)의 수출입을 진행하는 기업이지만, 네이버 스토어를 통해 다양한 식품들을 유통하는 식으로도 접할 수 있다. 홀섬코리아가 성북구 1인 창조기업 지원 센터에 합류하게 된 계기는 1인 기업을 운영하는 데 있어서 도움을 받기 위함이었다. 이에 센터 측은 사무 공간부터 비품 등에 대한 지원부터, 지원 사업이나 마케팅 등의 도움을 제공하고 있다. 덕분에 올해 사업 성과는 전년 동일 분기 대비 큰 성장을 이루고 있다고 한다.현재 홀섬코리아는 매출의 대부분이 동남아, 특히 베트남 시장에서 발생하고 있다. 관련 시장에서 우리나라 상품에 대한 수요가 갈수록 커질 것으로 예측되는 만큼, 앞으로 동남아 지역에서 우리나라 중소기업의 생활 가전이나 상품 등을 유통하는 대표 기업으로 거듭나는 게 목표라고 한다.디앤지트레이딩의  바이어스  홈페이지. 출처=디앤지트레이딩환경과 관련된 분야에서 활약하고 있는 기업도 있다. 친환경 브랜드 ‘에코엔드(ecoand)’를 취급하고 있는 디앤지트레이딩(대표 홍원영)이다. 디앤지트레이딩은 폐기물이 없는 제로-웨이스트 세상을 위해 폐기물이 적은 스테인리스 빨대, 발포 세척제, 대나무 칫솔, 규조토 용품 등 친환경 소재의 에코엔드 제품과 함께, 친환경 포장재 관련 사업도 동시에 진행하고 있다. 성북구 1인 창조기업 지원센터와는 작년부터 인연을 맺고 있으며, 멘토링이나 사업 지원 등의 도움을 받고 있다. 또한 1인 기업의 손이 잘 닿지 않는 카탈로그나 홍보 영상 등의 지원도 함께 받으며 사업 확장에 집중하고 있다.그 덕에 디앤지트레이딩은 친환경 라이프스타일 플랫폼 ‘바이어스(BYUS)’를 올해 안으로 론칭해 사세를 확장한다. 이를 통해 디앤지트레이딩은 친환경에 관심이 많은 소비자와 콘텐츠 크리에이터를 커뮤니티 활동으로 묶고, 매출과 상품을 다각화할 예정에 있다.확장된 국내 창업 생태계, ‘잘 지원한다’는 목표 이뤄야1998년, 정부가 처음으로 82억 원의 창업 지원 예산을 편성했다. 그로부터 20여 년이 지난 지금 우리나라의 창업 지원 예산은 약 8500억 원에 육박한다. 또한 창업 실패의 부담을 완화하기 위해 연대 보증을 전면 폐지하고, 창업자들이 함께 성장할 수 있는 다양한 제도적 방안도 지원하고 있다. 이제 우리나라에서 스타트업에 대한 인상은 무모한 모험에서 누구나 시도할 수 있는 기회로 바뀌고 있으며, 이에 맞게 많은 이들이 자신의 역량을 시도하고 있다. 성북구 1인 창조기업 지원센터 역시 작게는 성북구 소재의 기업을 지원하고, 넓게는 국민 모두가 체감할 수 있는 족적을 남기고 있다는 점에서 주목할만한 사례다. 지금 우리 기업에 뿌린 낱알이, 우리 사회 모두를 위한 곡식으로 돌아오기를 희망해본다.동아닷컴 IT전문 남시현 기자 (shnam@donga.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>“카페 선불충전금 2000억원 육박...공정위 관리감독 필요”</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002257346?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>스타벅스(1801억) 커피빈(83억) 이디야(33억) 할리스(28억) 투썸플레이스(25억) 탐앤탐스(17억) 홍성국 의원 “공정위, 위법약관·선불충전금 관련 시정명령 조치 전무” ◆…사진=클립아트코리아     국내 카페 브랜드 6곳의 스마트오더 선불충전금이 2000억원에 달하는 것으로 나타났다. 일부 업체가 위법약관을 제시함에도 공정거래위원회의 관리 감독이 소홀하다는 지적이 나온다.   20일 홍성국 더불어민주당 의원 자료에 따르면, 지난해 감사보고서 기준 유명 커피 프랜차이즈 6개 업체(스타벅스·투썸플레이스·탐앤탐스·이디야커피·할리스커피·커피빈)의 스마트오더 선불충전금은 2000억원으로 네이버파이낸셜(1264억원), 토스(1301억원) 등 대형 전자금융업자 예치금을 넘어섰다.    ◆…자료=홍성국의원실     업체별로 보면, 스타벅스가 1801억원으로 가장 많았다. 커피빈(83억원), 이디야커피(33억원), 할리스커피(28억원), 투썸플레이스(25억원), 탐앤탐스(17억원) 순으로 뒤를 이었다.   그러나 카페 스마트오더는 전자금융거래법이 아닌 전자상거래법에 따르기 때문에 충전금 외부예치·운용내역 공개의 의무가 없다.   홍성국 의원은 “이들이 파산하거나 충전금으로 대출상환, 위험자산 투자를 해도 규제할 방안이 없다”며 “전자상거래법상 소비자피해보상보험계약이 유일한 의무지만, 다수 업체가 이마저도 체결하지 않고 있다”고 지적했다.   실제로 다수의 카페 프랜차이즈(이디야, 커피빈, 폴바셋, 할리스, 공차 등)가 선불충전금 지급보증보험 및 계약을 하지 않고 이를 약관에 명시하고 있는 것으로 확인됐다.   그럼에도 공정거래위원회가 이들 업체의 위법약관과 선불충전금 관련 시정명령 조치를 취한 적이 없는 것으로 나타났다.   홍 의원은 “공정거래위원회의 직무유기로 5개 이상의 대형 카페 프랜차이즈들이 위법한 약관을 소비자에게 강요 중”이라며 “외부예치·운용내역 공개를 의무화하고, 관리 감독을 강화해야 소비자를 보호할 수 있다”고 촉구했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2021.10.17.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>"워드·노션보다 3배 빠르다"…구글 SaaS 힘싣는 '타입드(Typed)'</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000036627?sid=105</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>타입드(Typed) 소개 이미지(사진=비즈니스캔버스)클라우드를 통해 소프트웨어를 제공하는 '서비스형 소프트웨어(SaaS)' 시장에서 국내 토종 스타트업이 글로벌 기업의 아성에 도전하고 있다. 지식관리 SaaS인 타입드(Typed)의 개발사 비즈니스캔버스 얘기다.17일 업계에 따르면 비즈니스캔버스는 타입드의 CBT(Closed Beta Test) 7개월차인 지난달 132개국에서 사전 가입자 1만명을 유치했다. 지난해 7월 창업해 1년 남짓한 업력으로 B2C(기업 대 소비자) 시장은 물론 B2B(기업 대 기업) 시장까지 협업이 가속화하고 있다. 플랜트 전문기업 스페코와 이 회사의 계열사인 종합악기기업 삼익악기가 타입드 도입을 위한 기술실증(PoC: Proof of Concept) 프로젝트에 착수했다.비즈니스캔버스는 타입드를 활용한 문서 작업속도가 마이크로소프트(MS)의 워드보다 3배 빠르다고 강조한다. 폴더 관리의 필요성이 없고, 문서 작성과 동시에 별도 애플리케이션 없이 원스톱으로 자료 조회가 가능하다는 점에서다.타입드는 구글의 '워크스페이스'를 연동해 구글 독스·슬라이드·시트를 작업도구로 제공한다. 사용자의 행동을 분석해 지식의 관계성을 정의하고 분류함으로써 문서 작성 시 필요한 연관 자료를 찾아 헤매는데 필요한 시간을 줄여준다. 구글 크롬의 웹 확장 프로그램을 이용하면 웹에서 원하는 URL을 곧바로 타입드 라이브러리 안에 저장하는 방식으로 간편하게 자료를 수집할 수 있다.이 같은 기능성에 주목해 비즈니스캔버스와 손잡고 사업 기회를 모색하는 파트너들도 점증하고 있다. 네이버 클라우드와 SaaS 솔루션 글로벌 시장 진출 사업에 참여하고 있으며 구글 클라우드와도 협업을 진행해 사업적 시너지를 계획 중이다. 폴라리스오피스와는 웹 오피스 사업 확대를 위한 업무협약(MOU)을 맺었다.구글과 커플링한 '타입드'…한국에서 '슬랙' 사례 만들까다양한 협력사례 중에서도 구글과의 관계가 주목된다. 타입드가 직접적인 비교상대로 워드를 겨냥한 점, 그리고 구글도 타입드의 성장을 바람직하게 본다는 측면에서다. 라이언 박 구글 포 스타트업 매니저는 "백링크(역참조)와 리소스 추천 기능은 분산된 정보를 처리할 때 필수적"이라며 "타입드의 지식 네트워크는 수고를 최소화하면서 지식의 결합을 최적화해 많은 시간을 절약할 수 있다"고 추천사를 전하기도 했다.비즈니스캔버스가 겨냥한 협업용 SW 시장은 빅테크들의 전쟁터다. 코로나19로 비대면 협업이 보편화하면서 언제 어디서나 문서 작업을 할 수 있는 클라우드 기반의 SaaS가 해결책이 되고 있다. 시장조사업체 마켓워치는 2018년 87억9000만 달러(약 10조4000억원) 수준이었던 세계 협업 SW 시장이 연평균 10.35% 성장해 2028년 230억5000만 달러(약 27조3000억원)에 달할 것으로 전망했다.슬랙을 277억 달러(약 32조8000억원)에 인수한 세일즈포스, 오피스와 팀즈를 세트로 결합한 MS에 비해 구글은 SaaS 시장에서 열위에 있다. 업무용 구글 클라우드인 지스위트(G Suite)를 구글 워크스페이스로 개편하면서 협업성을 강조했지만 슬랙, 팀즈보다 인정받지 못하는 결과라는 평가다. 시장조사업체 IDC 자료를 보면 지난해 SaaS 시장 점유율은 세일즈포스(9.3%), MS(8.7%), SAP(4.7%), 오라클(4.0%), 구글(3.8%) 순으로 나타났다.특히 MS는 협업의 범위를 확장하며 공세에 나서고 있다. 학생 및 가정용 설치형 오피스 앱인 '오피스 홈앤스튜던트2021'에도 구독형 오피스 서비스 '마이크로소프트 365'에서만 가능했던 클라우드 기반의 공동 작업을 지원하기 시작했다. 기업뿐 아니라 일반 소비자들의 협업 수요까지 겨냥한 전략이다.이런 상황에서 타입드가 구글 SaaS에 협업성을 더해줄 수 있는 파트너가 될 수 있다는 분석이다. 타입드를 채택하는 소비자들이 많아질수록 워크스페이스를 제공하는 구글도 커플링(동반 상승) 효과를 기대할 수 있다. 만약 타입드가 시장에서 안착할 경우 슬랙이 피인수됐듯 구글에 의한 엑시트(투자금 회수) 가능성도 생긴다.다양한 사업 가능성이 있는 만큼 사람과 투자가 함께 몰리고 있다. 비즈니스캔버스는 센드버드의 이상희 한국법인 대표가 전략 고문을, 황성현 퀀텀 인사이트 대표(전 카카오 부사장)가 인사·조직 고문, 토스의 공동창업자인 이태양 블루포인트 수석심사역이 기술 자문을 각각 담당하고 있다. 지난해 창업 당시 블루포인트파트너스, 소풍벤처스, 신한캐피탈로부터 2억5000만원 규모 시드투자, 올 5월 20억원의 후속투자를 유치한 데 이어 내달 중 수십억 규모의 투자를 클로징할 예정이다. 국내 톱3 투자사 중 한 곳으로 전해졌다.김우진 비즈니스캔버스 대표는 "저희는 미시 영역이면서도 확장성이 있는, 스타트업만이 할 수 있는 영역을 겨냥하고 있다"며 "다음 라운드는 내년 말께 미국에서 투자를 받는 것을 목표로 하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>대출규제에 인뱅도 유탄…주담대 등 신상품 출시도 차질 전망(종합)</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004989833?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>총량규제에 성장세 제약 불가피신규 대출상품 출시 계획도 차질 전망서울 강남구 토스뱅크 본사 모습.정부의 전방위적 가계대출 총량규제 여파로 인터넷전문은행의 속내가 복잡해진 모습이다. 기업대출을 취급하지 못하고, 가계대출만 취급하는 터라 성장세에 제약이 불가피해졌기 때문이다. 특히 내년에는 대출규제가 더 강화될 것으로 보여 신규 대출상품 출시 계획에도 일부 차질이 빚어질 것이란 우려도 나온다.27일 금융권에 따르면 가계대출 총량규제 여파로 카카오뱅크와 케이뱅크, 최근 출범한 토스뱅크까지 일부 대출을 중단하거나 대폭 축소한 상태다.카카오뱅크는 지난 8일부터 연말까지 고신용 신용대출과 직장인 사잇돌대출 등을 중단한 상태다. 전월세보증금대출은 금융당국의 총량규제 예외 방침에 최근 재개를 결정했지만 속도조절을 위해 1일 신청 접수량을 제한해 운영하고 있다. 부부합산 보유주택이 1주택 이상인 경우에는 아예 신청조차 불가하다.올해부터 본격 영업에 들어간 케이뱅크의 경우 아직 여력이 있어 대출을 중단하지는 않지만 한도 등을 축소한 상태다. 케이뱅크는 신용대출 한도를 금융당국 권고에 따라 연 소득 이내로 제한해 운영하고 있다.토스뱅크의 경우 출범 한 달도 채 안돼 대출 취급을 연말까지 중단한 상황이다. 금융당국으로부터 부여받은 대출한도 5000억원이 출범 9일 만에 소진됐다. 이에 토스뱅크는 3000억원의 추가 한도 증액을 요청했지만 금융당국은 이를 거부했다. 총량규제 원칙에 있어 예외는 없다는 것이 원인이었다.문제는 총량규제에 따른 여파가 시중은행에 비해 인터넷은행에 절대적으로 크다는 점이다. 시중은행의 경우 그간 대출 누적액이 인터넷은행에 비할 바 없이 크고 기업대출 등은 규제를 적용받지 않아 수익성 확보에 큰 무리가 없는 상황이다.반면 가계대출만 취급하는 인터넷은행은 그야말로 울상이다. 대부분 출범 5년도 안 됐는데 시중은행과 같은 총량규제를 적용받아 성장성에 큰 타격을 받고 있기 때문이다. 실제 국제신용평가사 피치 레이팅스도 최근 가계대출 총량규제로 인터넷은행의 성장세가 단기적으로 제약될 수 있다고 전망했다.수백조 여신을 보유한 시중은행에 비해 인터넷은행의 여신 규모는 대부분도 수조에서 수십조원에 불과하다. 총량규제로 매년 5% 정도 성장이 가능하다고 볼 경우 시중은행은 매년 수조원 규모의 여신영업이 가능하지만 인터넷은행의 여유는 수천억 수준에 그칠 수밖에 없는 구조다.주택담보대출 등 신규 여신상품 출시도 부담스러운 현실이다. 성장세를 이어가기 위해선 규모가 큰 여신상품 취급이 필수적인데 내년의 경우 총량규제가 더 강화될 것으로 예고됐기 때문이다. 이에 인터넷은행들은 주요 신상품의 출시 시기 등을 놓고 장고를 이어가는 것으로 전해졌다.금융권 관계자는 "이제 막 자라기 시작한 인터넷은행에 시중은행과 같은 총량규제를 적용하는 것은 가혹하게 느껴질 수 있는 부분"이라며 "올 들어 중금리대출 활성화에 적극 기여하고 있는 상황을 감안할 때 각 인터넷은행의 여신 규모를 감안한 총량규제를 적용하는 것이 바람직할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>너, 은행 앱 맞니? 핀테크 뺨치네</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003649106?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>KB국민 등 골리앗 은행들 ‘앱 다이어트’ 열풍							“3호 인터넷전문은행 토스뱅크 앱을 다운받아서 써보려고 검색을 했는데 없었어요. 기존 송금서비스 앱에 다 녹여 넣었다고 해서 충격을 받았어요.”(대형 은행 임원 A씨)지난 5일 문을 연 토스뱅크는 별도의 앱을 만들지 않았다. 간편 송금 서비스를 하던 기존 앱으로 은행·결제·보험·증권 등을 다 처리할 수 있게 했다. 카카오뱅크도 앱은 하나뿐이다. 대형 금융그룹들이 앱을 세분화해 많게는 수십 개씩 운영하고 있는 것과 정반대 전략을 쓰고 있다.위기감을 느낀 대형 은행 등 기존 금융회사들은 모바일 고객 확보를 위해 수십 개의 앱을 출시했던 전략을 수정하고 있다. 불필요하게 흩어지고, 세분화된 앱을 정리해서 통합하는 ‘앱 다이어트’에 돌입하는 중이다.KB국민은행이 27일 금융거래 애플리케이션인 'KB스타뱅킹'을 대대적으로 개편했다. 'KB스타뱅킹'은 이번 개편을 통해 6개 계열사의 핵심 서비스를 하나로 모아 기존 은행 업무뿐만 아니라 자산 관리 서비스까지 제공하는 새로운 앱으로 재탄생했다. /KB국민은행 인터넷뱅크 앱의 가벼움을 배우자							KB국민은행은 대표 앱인 ‘KB스타뱅킹’ 앱을 대대적으로 개편해 27일 공개했다. 이번 개편의 핵심은 증권·손해보험·카드 등 6개 계열사의 주요 서비스를 한 곳에 모은 것이다. KB증권 앱에 있던 주식 매매, KB국민카드의 간편 결제, KB손해보험의 스마트 보험금 청구 등은 원래 별도 앱을 깔아야 쓸 수 있는데 이를 ‘KB스타뱅킹’ 앱 한 곳으로 합쳤다.이런 ‘앱 다이어트’는 KB국민은행만이 아니다. 주요 은행과 금융사들이 비슷한 움직임을 보이고 있다. ‘핀테크’로 불리는 IT 기술에 뿌리를 두고 있는 금융 기업들이 늘어나고, 인터넷뱅크를 통해 은행권으로까지 진입하면서 ‘다다익선’식 앱 전략보다 ‘딱 하나의 앱’으로 승부해야 한다는 분위기가 퍼지고 있기 때문이다.인터넷전문은행은 1~2개의 앱으로 운영된다. 카카오뱅크와 토스뱅크는 단 한 개의 앱으로 모든 업무를 볼 수 있다. 케이뱅크도 기업뱅킹과 개인뱅킹을 나눈 앱 2개뿐이다. 지난 5일 출범한 토스뱅크는 원 앱(하나의 앱만으로 모든 기능을 제공한다는 의미) 전략을 내세우며 아예 2000만명이 사용하던 송금 기능 위주의 기존 토스 앱에 은행 서비스를 얹었다. 토스뱅크 앱이 따로 없는 것이다.카카오뱅크가 앱 사용자(올해 2분기 기준 1671만명) 기준 압도적인 1등을 차지할 정도로 시장을 선점하자 기존 은행들도 변하기 시작했다. 농협은행은 현재 운영 중인 7개 앱을 2024년까지 ‘NH스마트뱅킹’, ‘NH기업스마트뱅킹’, ‘올원뱅크’ 등 3개로 통합할 예정이다. 하나은행은 지난해 8월 대대적 개편 작업을 통해 카드·증권 등 계열사 주요 기능과 자동차·교통 등 제휴 서비스를 담은 ‘하나원큐’ 앱을 출시했다. 우리은행은 2019년 8월 개인 고객을 위한 뱅킹앱 ‘우리WON뱅킹’을 출시한 데 이어 지난해에는 기업 금융 기능을 모은 ‘우리WON뱅킹 기업’을 출시했다. 앞서 2018년 2월 신한은행은 가장 먼저 기존 모바일뱅킹 앱인 ‘신한S뱅크’와 ‘써니뱅크’ 등 6개 앱을 하나로 합쳐 모바일뱅킹 앱 ‘쏠(SOL)’을 만들었다. KB국민은행은 ‘KB스타뱅킹’과 MZ 세대를 위한 ‘리브’ 앱 두 개를 중심으로 10개가 넘는 앱을 통폐합해 나갈 예정이다.공룡 금융사들의 앱이 가벼워질까?							기존 은행들의 ‘원 앱’ 전략이 쉽게 달성되기 어렵다는 지적이 나온다. 개인 소비자를 대상으로 예·적금과 송금 등 비교적 단순한 업무에 특화된 인터넷은행과 달리 기존 은행들은 펀드·보험·연금 등 다루는 금융의 영역이 훨씬 넓고 복잡하기 때문이다.앱이 만들어진 방식이나 금융 당국의 규제도 인터넷은행의 ‘원 앱’과 기존 금융권을 가르는 차이다. 카카오뱅크의 경우 모바일 기기에 최적화된 언어로 개발된 이른바 ‘네이티브 앱’ 전략을 쓰고 있다. 실행 속도가 빠르고, 모바일에서 안정적이라는 장점이 있다. 반면 시중은행들의 앱은 ‘하이브리드 앱’이다. 모바일 웹페이지를 앱으로 옮겨 놓은 형식에 가깝다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>토스, 과거 '타다 베이직' 서비스 공격적으로 재개</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000636057?sid=105</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>타다를 인수한 토스가 12월부터 과거 문제가 된 차량 공유 서비스 '타다 베이직'을 대형 택시 영업으로 바꿔서 재개한다. 이를 위해 최대 4,100만 원까지 지원하며 개인 택시 기사를 공격적으로 모집한다.'타다' 운영업체 브이씨앤씨는 과거 타다 베이직 서비스를 대형 택시 영업으로 바꾼 '타다 넥스트'를 12월부터 시작한다고 20일 밝혔다. 브이씨앤씨는 최근 인터넷 은행 등 모바일 금융 서비스 '토스'를 제공하는 비바리퍼블리카에 인수됐다.새로 시작하는 타다 넥스트는 택시 면허를 가진 기사가 7, 9인승  승합 차량을 이용해 호출을 받으면 목적지까지 승객을 실어 나르는 택시 영업이다. 다만 길거리에서 손을 들어 탈 수 있는 일반 택시와 달리 앱을 통해서만 호출할 수 있다.타다의 '타다 베이직' 서비스가 대형 택시 서비스인 '타다 넥스트'로 부활한다. 토스 제공이를 위해 이 업체는 최대 4,100만 원을 주는 파격적 조건을 내걸고 타다 넥스트에 참여할 택시 기사를 모집한다. 지원 자격은 서울지역 개인택시 면허를 갖고 있으며 행정처분 이력이 없고 5년 무사고 경력이어야 한다.선정된 기사에게는 홍보비 명목으로 차량 구입비 1,500만 원을 준다. 토스 관계자는 "차량을 보유하지 않은 기사들에게 회사에서 선정한 현대자동차의 '스타리아' 승합차를 구입할 수 있도록 비용 일부를 지원하는 것"이라며 "7, 9인승 승합차 가운데 오래되지 않은 카니발이나 스타리아를 갖고 있는 기사는 이를 이용해 서비스에 참여할 수 있어서 해당 비용을 그냥 가질 수 있다"고 말했다. 이를 위해 브이씨앤씨는 별도 주문을 통해 스타리아를 서비스 차량으로 확보했다.또 기사들에게 일정 운행 조건을 충족하면 12개월간 매달 기본 월급처럼 200만 원의 활동비를 지급한다. 토스 관계자는 "200만 원 외에 운행 수수료가  별도로 나온다”며 “최초 12개월만 200만 원을 지원하고 이후에는 운행 수수료가 기사들의 수입이 된다"고 설명했다.여기에 현재 '타다 라이트'나 '타다 플러스'에 참여 중인 기사가 타다 넥스트 기사로 전환하면 타다 서비스 참여 경력에 따라 최대 200만 원까지 제공한다. 이정행 브이씨앤씨 대표는 "타다 넥스트는 이용자와 기사 모두 만족할 수 있는 서비스가 될 것"이라고 말했다.관건은 택시업계와 갈등이다. 과거 타다 베이직은 택시 면허가 아닌 일반 운전면허를 가진 사람들이 승합차를 이용해 승객을 실어 날라 택시업계와 첨예한 갈등을 빚은 끝에 지난해 여객자동차운송사업법 개정으로 금지됐다.이에 대해 토스 측은 문제될 것이 없다는 입장이다. 토스 관계자는 "합법적 테두리 안에서 택시 영업을 하는 것이어서 문제없다"며 "사전 개인택시 기사 모집 설명회를 진행하면서 택시업계에서도 내용을 모두 알고 있는데 전혀 불만이 없다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>카카오T vs SKT-우버 '우티' vs 토스 '타다' 모빌리티 삼파전 본격화</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010778995?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>기사내용 요약모빌리티 1위 카카오T, 정치권 압박에 몸사리기 전망SKT-우버, 통합 호출앱 '우티' 연내 출시 계획VCNC-토스, 핀테크-모빌리티 결합해 시너지 도모[서울=뉴시스] 이진영 기자 = 택시 호출 시장에서 독주하던 카카오모빌리티의 '카카오T'가 잇따른 논란으로 주춤한 사이 금융 플랫폼 '토스'가 최근 '타다'를 인수해 모빌리티 쪽으로 전선을 넓혔다. 여기에 세계적인 차량 공유업체 우버가 SK텔레콤과 손잡고 만든 '우티'(UT)도 연내 통합을 완료해 서비스를 본격화 할 것으로 예상되는 등 모빌리티 플랫폼 시장의 3자 경쟁 구도가 본격화할 것으로 전망된다. 19일 IT · 모빌리티 업계에 따르면 택시호출 시장의 압도적 1위 카카오모빌리티는 최근 일방적인 요금 인상과 과도한 수수료 논란, 콜 몰아주기, 골목상권 침해 비판 등으로 국정감사와 여론으로부터 집중 포화를 당하고 있다. 이에 따라 카카오모빌리티는 당분간 사업을 확장하기보다는 상생에 힘쓰고 사업이 위축될 것으로 전망된다. 올해 상장 목표에도 빨간불이 켜진 상황이다. 실제 카카오모빌리티는 공격적으로 확장한 대리운전시장에서 대리운전사 2곳 추가 인수 계획을 철회한다고  지난 5일 국감장에서 발표했다. 앞서 내놓은 상생안을 통해서는 유료 택시 호출 서비스인 스마트호출 서비스를 전면 폐지하고 택시 기사 대상 프로멤버십 요금을 월 9만9000원에서 월 3만9000원으로 인하한다고 알리기도 했다. 이런 가운데 비바리퍼블리카는 지난 8일 쏘카가 보유한 타다 운영업체 VCNC의 지분 60%를 확보했다고 발표했다. 타다는 2018년 승합차 호출 서비스를 시작하면서 사업을 공격적으로 확장해왔으나 작년 4월 이른바 '타다 금지법'으로 불리는 여격자동차운송사업법 개정을 계기로 기존 서비스를 접어야만 했다. 그후 개인·법인 택시 플랫폼 가맹사업 '타다 라이트'를 운영 중이지만 치열한 모빌리티 시장에서 존재감을 보여주기엔 역부족이었다. 하지만 이번 인수를 통해 재기를 도모할 수 있을지 관심이 집중된다. 비바리퍼블리카와 VCNC는 금융플랫폼 '토스'와 모빌리티 서비스 쏘카·타다가 동남의 대표 모빌리티 서비스 '그랩'처럼 시너지를 낼 수 있을 것으로 기대하고 있다. 그랩은 차량호출 서비스로 시작해 동남아 주요국에서 결제·금융사업으로 확장하고 있다. 이용자와 운전자 모두에게 필요한 모빌리티와 금융서비스를 제공하는 전략이 성공 비결로 꼽힌다. 세계적인 차량 공유업체 우버가 SK텔레콤 자회사 티맵모빌리티와 손을 잡고 설립한 우티도 본격 시장 확장에 나설 것으로 관측된다. 우티는 연내 우티 앱(티맵택시)와 우버 앱을 통합할 계획이다. 최근에는 우티 앱으로 택시를 호출할 경우 횟수에 관계 없이 요금 30%를 할인하는 공격적인 마케팅을 하고 있다. 이달 말까지 호출 1회당 최대 3만원까지 할인받을 수 있다. 우티는 글로벌 차량 공유 기업 우버와 국내 최대 통신사이자 1위 내비게이션 서비스를 보유한 SK텔레콤 간의 연합임에 따라 기대를 모으고 있다. 특히 우티는 이용자들이 국내외에서 동일한 앱으로 편리하게 모빌리티 서비스를 이용할 수 있음을 강점으로 내세우고 있다. 모빌리티업계 관계자는 "모빌리티 1위 카카오가 주춤한 기회를 이용해 우군을 확보한 타다와 우티가 반격에 나설 것으로 관측된다"며 "급성장하고 있는 모빌리티 시장에서 택시 호출 분야 외에도 경쟁이 전방위적으로 확대될 것"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2021.10.28.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>케이뱅크, '파킹통장' 금리 0.3%포인트 인상</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004621690?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>케이뱅크가 다음달부터 파킹통장인 '플러스박스'의 예금금리를 0.3%포인트 인상해 연 0.8%를 적용하기로 했다고 28일 발표했다. 파킹통장은 하루만 맡겨도 조건 없이 금리를 받을 수 있는 수시입출금식 예금통장이다. 총 3억원까지 플러스박스에 돈을 맡길 수 있다.플러스박스는 여유자금 보관, 비상금 모으기 등 목적에 따라 최대 10개까지 '통장 쪼개기'가 가능하다. 연결된 입출금 통장에서 자동이체를 할 수 있으며, 매주 같은 요일이나 매월 같은 날짜에 정해진 금액을 이체하는 기능도 갖고 있다. .케이뱅크 관계자는 "투자에 관심이 많은 2030과 안정적인 자금 관리를 원하는 4050에 인기가 많아 플러스박스의 금리를 인상하게 됐다"고 말했다.비슷한 상품으로 토스뱅크의 수시입출금식통장이 있다. 케이뱅크와 달리 입금한도가 없이 연 2.0% 예금이자를 준다. 카카오뱅크의 세이프박스도 있다. 케이뱅크 플러스박스와 같은 연 0.8% 이자가 지급되는 파킹통장이다. 입금한도는 1억원이다. 박진우 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2021.10.17.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>간편결제부터 모빌리티까지…카카오 vs 토스 전면 경쟁</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005062306?sid=105</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>'생활 플랫폼→금융' 카카오 vs '금융→생활' 토스토스, 공공 부문 서비스 강화…타다 인수로 모빌리티까지트래픽 끌어올리기 총력…`원 앱` 유입경로 다양화카카오, 각 계열사가 시장지배력 강화…시너지 창출 기대마이데이터 시장도 경쟁…대대적 마케팅 예상[이데일리 이후섭 기자] [이데일리 김일환 기자]간편결제, 인터넷전문은행, 보험, 증권, 모빌리티까지 카카오와 토스의 격전지가 늘고 있다. 추구하는 방향성은 같지만 추진하는 전략은 결이 다르다.생활 플랫폼에서 시작한 카카오는 카카오뱅크(323410)·카카오페이 등을 통해 금융 서비스를 장악하려 한다. 반대로 토스는 금융 플랫폼에서 출발해 공공서비스·인증·모빌리티 등으로 사업을 확장하는 추세다.카카오는 카카오톡이라는 강력한 메신저를 기반으로 계열사들이 각각의 시장에서 1위 사업자로 올라 시너지를 내려는 반면, 토스는 모회사인 비바리퍼블리카의 주도 아래 `원 앱` 전략을 내세운다.토스, 공공부문 서비스 강화…타다 인수로 모빌리티까지17일 비바리퍼블리카에 따르면 회사는 최근 요금 납부, 전자고지서 확인, 각종 증명서 발급과 제출 등 공공 부문 서비스를 강화 중이다. 지난 8월 코로나19 예방접종증명서, 주민등록증 같은 공공문서를 발급·열람·제출할 수 있는 `전자증명서 발급` 서비스를 시작했다. 긴급복지 생계지원, 가정양육수당 등 900여 개의 혜택을 확인할 수 있는 숨은 정부지원금 찾기 서비스는 출시된 지 2주만에 200만명 넘는 사용자가 방문했다. 연말까지 6000여 개의 혜택을 확인할 수 있도록 서비스를 확대한다.이는 토스 앱으로의 유입을 늘리기 위한 전략이다. 투자, 보험, 대출 등은 이용 빈도수가 한계여서 트래픽을 올리는 데 한계다. 타다 인수 역시 토스 앱의 유입 경로를 늘리는 또 다른 수단이 될 것으로 보인다. 토스 앱에서 타다 서비스를 호출하고, 토스의 간편결제로 요금을 지불하는 방식을 통해서다. 토스는 동남아 차량공유시장에서 75%의 압도적인 점유율을 바탕으로 금융 영역에 진출한 `그랩`을 벤치마킹 대상으로 삼았다.카카오, 각 계열사가 시장지배력 강화…시너지 창출 기대카카오는 트래픽을 최대한으로 끌어올려 시장 경쟁력을 강화하고 난 뒤 사용자 수요에 맞춰 사업 모델을 만들어 가는 방식을 모든 계열사에 적용하고 있다. 카카오톡의 성공에서 얻은 경험이 작용한 것이다.카카오페이는 결제·송금 서비스를 통해 거래를 일으켜 플랫폼의 규모를 만든 후 카카오페이증권, KP보험서비스 등의 자회사를 설립했다. 카카오페이의 지난해 기준 결제서비스 거래액은 12조5000억원으로 약 80여개의 핀테크 업체가 난립하는 시장에서 16.6%의 점유율을 차지했다.카카오뱅크도 파격적인 금리와 한도의 마이너스통장 대출을 내세워 고객들을 끌어모은 뒤 일반 신용대출, 전세자금 대출 등으로 상품을 확대했다. 카카오뱅크의 지난 4년간 누적 대출액은 25조원에 달하며 고객 수는 1700만명을 넘어섰다. 카카오는 플랫폼 금융을 담당하는 카카오페이와 카카오뱅크라는 은행 플랫폼이 각각 1위 사업자가 되고 난 뒤 시너지를 일으킬 수 있을 것으로 기대했다. 카카오페이 관계자는 “우리는 트래픽 빌더를 먼저 이용해 규모를 키워서 서비스를 확장하는 방식”이라며 “카톡이라는 큰 강점이 있고, 이를 기반으로 공동체(계열사) 서비스들을 유기적으로 연결해 생활 전반을 아우르는 확장성에서 장점이 있다”고 설명했다.마이데이터 사업을 위한 포석…“대대적 마케팅 예상”양사는 12월부터 서비스가 본격화되는 본인신용정보관리업(마이데이터) 시장에서도 치열한 경쟁이 예상된다. 토스는 어떤 금융기관 상품을 사용하던 상관없이 모든 금융 현황을 조회하고 모든 상품을 비교할 수 있는 플랫폼을 만들겠다는 목표로 마이데이터 사업을 준비 중이다.카카오는 카카오페이가 일단 마이데이터 본허가를 획득했고, 카카오뱅크도 별도로 라이선스를 따기 위해 예비허가 신청서를 제출한 것으로 알려졌다. 카카오페이는 `버킷리스트` 등의 서비스를 고도화해 분석 기반의 서비스를 넘어 개인 맞춤형 자산관리 서비스를 선보일 방침이다.업계 관계자는 “금융소비자보호법으로 일부 서비스를 중단하는 변수가 생겼지만, 마이데이터 사업을 위한 기본 전략은 변함 없을 것”이라며 “우선 각자 앱으로 묶어두기 위한 대대적인 마케팅이 예상된다”고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>25일 장 마감 후 주요 종목 뉴스</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005069788?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>[이데일리 김성훈 기자] 다음은 25일 장 마감 이후 주요 종목 뉴스다.◇코스피△우리금융지주(316140)=연결기준 3분기 당기순이익이 8247억원으로 전년 동기 대비 58.08% 증가했다고 공시. 3분기 지배기업 소유주지분 순이익은△ 7786억원으로 전년 동기 대비 62.13% 증가. 같은 기간 영업이익은 1조921억원으로 전년 동기 대비 61.76% 증가했고 매출액은 8조6859억원으로 102.28% 증가. 3분기 누계 순이익은 2조3620억원으로 전년 동기보다 82.29% 증가했으며 영업이익은 3조760억원으로 전년 동기보다 66.47% 증가. △한화투자증권(003530)=토스뱅크 주주배정 유상증자에 참여해 주식 600만주 추가 취득 결정했다고 공시. 취득금액은 300억원. 이는 자기자본대비 2.4% 규모. 취득 후 지분율은 8.86%. △태영건설(009410)=1475억원 규모의 울산 중구 반구동 공동주택 신축공사를 수주했다고 공시. 최근 매출액 대비 6.26% 규모. △우리종금(010050)=연결기준 3분기 당기순이익이 225억원으로 전년 동기보다 20.02% 증가했다고 공시. 같은 기간 영업이익은 294억원으로 전년 동기 보다 39.09% 증가했고 매출액은 830억원으로 전년 동기보다 39.14% 증가. △LG화학(051910)=연결 기준 올해 3분기 영업이익이 7266억원으로 전년 동기 대비 19.6% 감소한 것으로 잠정 집계됐다고 공시. 같은 기간 매출은 10조6102억원으로 41.4% 증가했으며 당기순이익은 6799억원으로 19.2% 증가. △현대에너지솔루션(322000)=올해 3분기 연결 기준 영업손실이 5억8500만원으로 적자 전환했다고 공시. 같은 기간 매출액은 1496억6400만원으로 전년 동기 대비 90.7% 늘었고 당기순손실은 78억1700만원으로 전년 동기 대비 26.1% 감소. △한샘(009240)=최대주주 조창걸 외 특수관계인 7인이 보유하고 있는 당사의 기명식 보통주식 전부 및 당사 경영권 양도에 관한 주식매매계약 체결했다고 공시. 매수인은 아이엠엠로즈골드4 사모투자 합자회사. 매각 주식은 전체 주식수 27.7%에 해당하는 보통주 652만주이며 매매대금은 1조4500억원. 거래 종결일은 2021년 12월 31일. △삼성중공업(010140)=유상증자 신주발행가액이 주당(보통주) 5130원으로 확정됐다고 공시.◇코스닥△에스제이그룹(306040)=올 3분기 연결기준 영업이익이 전년 동기 대비 48.0% 증가한 50억7000만원으로 잠정 집계됐다고 공시. 같은 기간 매출액은 34.1% 증가한 327억7300만원. △중앙백신(072020)=올 3분기 연결기준 영업이익이 전년 동기 대비 44.0% 증가한 12억4700만원으로 잠정 집계됐다고 공시. 같은 기간 매출액은 95억6100만원으로 21.0% 증가. △액트로(290740)=47억1360만원 규모의 계열사 ARP VINA의 지분 취득 결정했다고 공시. 취득 금액은 자기자본 대비 6.31%. 취득 후 지분비율은 100%. 취득 예정일자는 2021년 10월27일. 회사 측은 취득목적에 대해 “기존 하이엔드 스마트폰 외에 중저가 모델까지 고사양 카메라부품 채용이 확대됨에 따라 공급확대를 위한 생산설비 확충”이라고 설명. △솔트룩스(304100)=무상증자 따른 행사가액 조정을 위해 2회차 미행사신주인수권부사채 전환가액을 3만4628원에서 1만7314원으로 조정한다고 공시. 이에 따라 조정 후 행사 가능 주식 수는 28만8783주에서 57만7567주로 증가.△RFHIC(218410)=올 3분기 연결기준 영업손실이 1억3600만원으로 전년 동기 대비 적자가 축소됐다고 공시. 같은 기간 매출액은 190억5200만원으로 95.96% 증가. △신흥에스이씨(243840)=32억원 규모 제2회 무기명식 무보증 사모 전환사채(CB)에 대한 전환청구권 행사된다고 공시. 전환청구권 행사 주식수는 8만2312주로 발행주식 총수 대비 1.09%에 해당. 전환가액은 3만8875원으로 상장일 또는 예정일은 2021년 11월12일. △KD(044180)=세종스카이와 147억원 규모 세종 주상복합 신축공사 계약 체결했다고 공시. 계약금은 지난해 매출액 대비 68.59%. 계약기간은 2021년 11월30일부터 2022년 11월30일까지.△한국거래소 코스닥시장본부는 녹십자셀(031390)에 대해 주식의 병합, 분할 등 전자등록 변경, 말소로 오는 10월28일 주권매매거래가 정지된다고 공시. 거래소 측은 “녹십자셀은 녹십자랩셀에 흡수합병되는 소멸회사이므로 동사 주권은 합병신주로 발행되는 녹십자랩셀 주권으로 오는 11월17일 상장될 예정”이라고 설명. △나무가(190510)=시가 하락에 따른 신주인수권 행사가액 조정으로 4회차 미행사신주인수권부사채 전환가액을 8901원에서 8378원으로 조정한다고 공시. 이에 따라 조정 후 행사 가능 주식 수는 224만6938주에서 238만7204주로 증가. △쌍용정보통신(010280)=종속회사인 콤텍정보통신이 운영자금, 채무상환자금을 위해 80억원 규모의 주주배정 유상증자를 결정했다고 공시. 이번 유상증자를 통해 총 160만주가 발행되며 신주 발행가액은 5000원. 1주당 2.3주가 배정. 구주주 대상 청약예정일은 2021년 11월29일이며 납입일은 2021년 11월29일. △디이엔티(079810)=LG Chem Nanjing Energy Solution과 약 61억원 규모의 2차전지 제조장비 공급계약이 해지됐다고 공시. 해지금액은 2019년도 매출액 대비 20.67%. 회사 측은 “계약상대방의 계약해지 통보로 해지됐다”고 설명.△한국거래소 코스닥시장본부는 멜파스(096640)에 대해 파산신청 사유 해소로 주권매매거래 정지가 오는 26일 해제된다고 공시.△한국거래소 코스닥시장본부는 엠투엔(033310)에 대해 풍문 등 조회결과 공시에 따라 주권매매거래 정지가 오는 26일 해제된다고 공시.△위메이드(112040)=위메이드트리를 흡수합병하기로 했다고 결정했다고 공시. 합병 후 존속회사는 위메이드, 소멸회사는 위메이드트리. 합병비율은 위메이드와 위메이드트리가 1대 3.1107206이다. 이번 합병에 따른 최대주주 변경은 발생하지 않으며 합병기일은 2022년 2월1일.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2021.10.28.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>[단독] "테슬라 만원어치 팝니다"…증권사 20곳 '소수점거래' 판 깐다</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004871257?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>금융위 '쪼개서 거래' 허용하자미래에셋 등 20곳 앞다퉈 신청이르면 내달 말부터 거래 가능테슬라 등 황제주 문턱 낮출듯MZ세대 해외투자고객 확보전한투證 출시 1년새 백만명 이용소수점 거래 고객 75%가 2030 테슬라 주가가 1000달러를 돌파하고 S&amp;P500지수가 연중 57번 최고치를 갈아치우면서 미국 주식에 투자하는 이른바 '서학개미' 열풍이 거세다. 젊은 서학개미가 급격히 증가하자 국내 주요 증권사들이 '소수 단위 주식 거래(소수점 거래)'를 하겠다며 앞다퉈 금융당국에 신청하고 있는 것으로 확인됐다. 금융당국은 소수점 거래를 전면 허용하기로 했기 때문에 신청 증권사에 특별한 결격 사유만 없다면 혁신금융서비스로 지정해 길을 열어준다는 방침이다.  28일 금융투자 업계 등에 따르면 미래에셋증권, 삼성증권, NH투자증권 등 국내 주요 증권사 20곳이 해외 주식 소수점 거래 중개를 하겠다며 금융당국에 허가 신청서를 제출했다. 토스증권, 카카오페이증권 등 온라인 기반 증권사도 신청서를 제출한 것으로 알려졌다. 미국 주식에 투자하기 위해서는 심야 시간에 증권사 홈트레이딩시스템(HTS)이나 모바일트레이딩시스템(MTS)을 이용해야 하는 등 제약이 있어 고령층보다 젊은 층 선호도가 높다. 특히 20·30대, 이른바 MZ세대는 구글, 애플, 마이크로소프트, 아마존, 테슬라 등에 대한 지식이 풍부하지만 큰돈이 없어 주식을 조각내 소액 투자가 가능한 소수점 거래에 관심이 많다.  업계 관계자는 "주요 증권사는 대부분 소수점 거래를 신청한 것으로 안다"며 "하지 않으면 기존 고객을 놓치고, 신규 고객 유치까지 어려울 수 있기 때문"이라고 설명했다. 이 관계자는 "신청서를 낸 곳은 대부분 허가를 받을 수 있을 것"이라며 "시스템과 인력이 준비된 곳부터 이르면 11월 말부터 서비스를 제공할 것으로 보인다"고 말했다.국내든 해외든 주식 소수점 거래는 1주를 최소 단위로 하는 현행 법률·매매·결제 시스템 등에 따라 허용되지 않았다. 하지만 100만원이 넘는 황제주가 속속 등장하고 소액으로 좋은 주식을 사는 게 점점 어려워지자 금융당국은 2019년 한국투자증권과 신한금융투자에 대해 해외 주식에 한해 소수점 거래 서비스 제공을 허용했다.신한금융투자는 국내 최초로 2018년 10월 미국 주식 소수점 거래 서비스를 시작했다. 올해 상반기까지 누적 거래대금은 2억7000만달러(약 3100억원) 수준이다. 한국투자증권의 경우 지난해 8월 미국 주식 소수점 거래 전용 애플리케이션인 '미니스탁'을 출시했다. 현재 미국 주식과 상장지수펀드(ETF) 540여 개 종목에 대해 소수점 거래 서비스를 제공하고 있다. 불과 1년 만인 지난 8월 앱 누적 다운로드 수가 100만건을 돌파했다. 출시 이후 올 상반기까지 누적 거래대금은 7억5000만달러에 달한다. 한국투자증권에 따르면 앱 이용자의 75%가 20·30대일 정도로 소수점 거래는 젊은 층에게 호응을 얻고 있다.미국 주식 소수점 거래는 초대형주에 대한 젊은 서학개미들의 접근성을 대폭 개선할 것으로 보인다. 예를 들어 알파벳(구글)의 1주당 가격은 3000달러(약 351만원)에 육박해 현재 시스템으로는 3000달러 이상 자금이 있어야 구글 주식 1주를 살 수 있다. 하지만 소수점 거래가 풀리면 30달러만 있어도 구글 주식 0.01주를 매수할 수 있다. 1000달러를 돌파한 테슬라 주식도 10달러만 있으면 매수할 수 있게 된다.  금융투자협회 관계자는 "소수점 거래는 소액 투자자들에게 고가의 우량주식에 대한 투자 기회를 넓혀주는 효과가 크다"고 말했다. 새로 소수점 거래에 뛰어드는 증권사들은 현재 하루에 한 번밖에 안 되는 거래를 대폭 개선할 것으로 보인다. 일부 증권사는 한두 시간마다 거래가 가능할 수 있도록 시스템을 구축하고 있는 것으로 알려졌다.소수점 거래는 가상자산 거래에서도 활발하게 이뤄지고 있다. 최근에는 비상장주식도 소수점 단위로 투자할 수 있는 플랫폼이 인기를 끌고 있다. 엔젤리그는 지난 6월 고가의 비상장주식도 1만원 단위로 거래할 수 있는 서비스를 시작했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>은행앱만 10여개앱 하나로 모은 국민은행, "주식거래도 가능"</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004619807?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>KB금융의 앱은 40여개에 달한다. 국민은행의 앱만 모아도 10개가 훌쩍 넘는다. '알림' 마저 별도 앱으로 존재하는 등 이렇게 많은 은행권의 앱은 '불편함'의 상징처럼 여겨졌다. 단기간에 토스나 카카오페이를 비롯한 핀테크가 성장할 수 있었던 이유다.국민은행은 24일 KB스타뱅킹을 전면 개편했다. 개편된 KB스타뱅킹은 국민은행 내 흩어진 앱 뿐 아니라 KB금융 계열사 앱도 하나로 모았다는 게 특징이다. 예컨대 토스에 들어가면 토스증권과 토스뱅크, 토스보험파트너 등의 서비스를 이용할 수 있는 것과 같다. KB스타뱅킹에서는 KB금융 계열사인 KB증권의 '이지(Easy) 주식 매매'와 KB국민카드의 'KB페이', KB손해보험의 '스마트 보험금 청구' 등 KB금융 6개 계열사의 서비스를 이용할 수 있게 됐다.'이지 주식 매매'는 코스피와 코스닥 종목의 시세와 함께 매출액증가율이나 주가수익률(PER) 등의 지표를 통해 분석한 재무분석점수, 기술적 분석결과를 담은 차트분석점수를 토대로 투자 매력도도 제시한다. 외국인·기관·개인투자자 등 투자동향과 뉴스·공시 등 투자에 활용할 수 있는 간략한 정보를 제공한다. 주식매매도 별도 인증서 없이 계좌비밀번호 입력으로 가능하다. 이외에도 스타뱅킹에서 바코드나 QR코드를 가져다 결제를 하거나(KB페이), 일부 보험상품의 보험금을 자동청구하는 '스마트 보험금 청구'가 가능해졌다. 한 번에 여러 계좌로 돈을 보내는 '다건 이체' 기능도 추가됐다. 별도 인증 단계 없이 바로 로그인이 가능해졌다. 홈 화면은 앱사용자가 자주 쓰는 기능 위주로 직접 구성할 수 있게 됐다. 그간 'KB마이머니'라는 이름으로 앱이 따로 있던 자산관리기능이 '마이자산관리'라는 이름으로 들어온 것도 달라진 점이다. 마이자산관리에서는 증권·보험 등 다른 금융업권 거래 정보와 함께 부동산·자동차 등 비금융 자산 정보를 볼 수 있다. 앱 사용자의 연령·투자성향 8개 단위로 분석해 금융상품을 추천하는 기능도 갖췄다. 연령별로 MZ세대(1020세대), '뉴어덜트(3040세대)', '하이엔드(5060세대)', '골든시니어(65세 이상)' 등으로 나누는 식이다. 거래성향으로는 '동서학개미(투자상품 보유 고객)', '하이엔드(고액자산가·전문직·대기업 종사자 등)', '히든리치(오픈뱅킹 동의고객)', 'Chic코노미(실리 중심 재테크 추구 성향)' 등으로 분류된다. 자산관리 특성을 분류해 유형에 맞는 자산관리기능을 받을 수 있도록 하겠다는 게 국민은행의 설명이다. 예컨대 고위험상품을 선호하면 해외주식 종목이나 상장지수펀드(ETF) 등을 추천받을 수 있다. 거래성향에 따라 세(稅)테크, 부동산 상담, 상속·은퇴 준비 등 은행 영업점의 자산관리(WM) 부서에서나 이용할 수 있는 서비스도 받을 수 있게 됐다.연금 분석 기능이 추가된 점은 다른 은행앱이나 핀테크앱과 다른 점이다. 연금자산 정보만 따로 모아 연금자산 비율과 수익률 정보를 제공하면서 한 달에 받을 수 있는 총 연금이 얼마나 되는지, 얼마나 무엇이 부족한지를 집어주는 기능이다. 박진우 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>토스뱅크, '원앱전략' 강자…로딩없는 서비스 만들것</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004869037?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>박준하 최고기술책임자◆ 디지털을 이끄는 금융인 ◆  스마트폰으로 모바일 뱅킹이나 페이 서비스를 이용하다 보면 애플리케이션(앱)을 줄줄이 깔게 된다. ○○페이, ○○뱅크, ○○카드 등으로 앱이 따로 있기 때문이다. 하지만 토스는 하나다. 토스 앱에서 토스뱅크, 토스증권 모두 쓸 수 있다. 토스를 이용하던 고객은 토스뱅크를 이용하기 위해 새로운 앱을 내려받을 필요가 없다.박준하 토스뱅크 최고기술책임자(CTO)는 "토스뱅크의 일원이자 개발자의 입장에서 이 '원앱(one-app)' 방식이 고객에게 가장 직관적으로 서비스를 제공하며, 고객 입장에서 편리하게 서비스를 이용할 수 있는 방향이라고 생각했다"며 "토스뱅크의 디지털 혁신은 '고객이 가장 편리하게 느끼는 서비스를 만드는 것'에서 시작한다"고 했다.이 관점에서 토스뱅크는 고객이 앱을 부드럽고 매끈하게 느낄 수 있도록 'No More Loading' 캠페인도 진행했다. 고객이 은행 앱을 사용해 서비스를 이용하는 과정에서 로딩은 발생할 수밖에 없고, 그 과정에서 고객이 겪는 기다림은 늘 당연한 일로 치부돼 왔는데 이 '지루한 로딩'을 제거한 것이다. 기술적으로 실제 로딩이 발생하는 건 어쩔 수 없지만, 고객이 보는 화면에서 로딩을 없앤 뒤 내부에서 별도 처리하는 방식을 통해 해결했다고 한다. 박 CTO는 "일반 금융사는 시스템 유지보수를 위해 상용 솔루션을 굉장히 많이 사용하고 있지만 토스뱅크는 정보기술(IT) 서비스 회사와 같이 오픈소스를 굉장히 적극적으로 활용하고 있다"며 "자체 개발 비중도 월등히 높아 내부에서 필요한 개선작업을 직접 빠르고 유연하게 진행할 수 있다"고 설명했다. ▶▶ 박준하 CTO는…△KAIST 전산학 학사 제적 △2002~2017년 NHN·열두시·플레이독소프트 등 개발자 △2017년 비바리퍼블리카(토스) 개발자 △2021년 토스뱅크 최고기술책임자</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>진에어, 티머니페이 간편 결제 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005065386?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>티머니페이를 통해 국내외 항공권도 손쉽게 결제 가능[이데일리 송승현 기자] 진에어(272450)가 항공업계 최초로 티머니의 간편 결제 서비스를 제공한다고 21일 밝혔다.진에어가 이번에 도입한 ‘티머니페이’는 전국 대중교통, 고속버스 등 교통카드 기능 중심으로 해외 42개국에서 사용이 가능한 글로벌 모바일 QR결제 등 이용 범용성과 실용성을 두루 갖춘 티머니의 간편 결제 플랫폼이다.티머니페이 이용 고객은 기존 간편 결제 서비스 이용방법과 동일하게 진에어 홈페이지 모바일 웹·애플리케이션(앱)에서 원하는 여정 선택 후 항공권 예매 단계에서 티머니페이를 결제 수단으로 선택하면 된다. 이후 별도의 인증서 설치 없이 간단한 결제 인증 과정만으로 항공권 예매가 완료된다. 이와 더불어 사전좌석지정서비스, 번들서비스 등 다양한 부가서비스도 함께 결제 가능하다.또한 기업 회원 대상으로 운영되는 ‘티머니 비즈페이’도 함께 운영한다. 티머니 비즈페이는 기업 임직원들이 업무 목적의 교통 비용을 법인카드, 전표없이 간편하게 처리할 수 있는 업무용 모바일 교통 결제 서비스다. 앞으로 티머니 비즈페이 가입 기업 임직원은 외근, 출장 등으로 이동 시 지하철, 택시, 공항버스, 고속도로 통행료 등과 함께 진에어 국내선, 국제선 항공편도 손쉽게 결제가 가능해졌다.티머니페이 간편 결제 서비스 도입은 지난 3월 진에어와 티머니가 체결한 전략적 업무협약의 첫 결과물이다. 향후에도 진에어와 티머니는 티머니의 통합 모빌리티 플랫폼인 ‘티머니GO’ 내에서도 타 교통수단과 함께 국내외 항공편 스케줄 및 운임 조회 정보 등을 연동해 제공하는 서비스도 선보일 계획이다.진에어 관계자는 “앞으로도 다양한 항공 네트워크와 대중 교통 및 모빌리티 결제 서비스를 보유하고 있는 양사간의 협업을 통해 고객 이용 편의성을 강화해 나가겠다”고 설명했다.한편 진에어는 이번에 새로 도입한 티머니페이를 비롯해 네이버페이, 카카오페이, 스마일페이, 페이코, 페이북, 토스 등 고객 결제 편의성 확대를 위해 다양한 간편 결제 서비스도 함께 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>토스에 인수된 타다, '대형차 호출 서비스' 본격 재개키로</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012733735?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>개인택시 면허 있는 '타다 넥스트' 드라이버 모집 토스에 인수된 타다, '대형차 호출 서비스' 본격 재개키로[연합뉴스TV 제공]    (서울=연합뉴스) 한혜원 기자 = 모바일 금융 플랫폼 기업 토스에 인수된 이동서비스 기업 타다가 대형차량 기반 차량 호출 서비스에 다시 뛰어든다.     타다 운영사 브이씨엔씨(VCNC)는 12월 출범을 앞둔 신규 서비스 '타다 넥스트'에 참여할 기사(드라이버)를 사전 모집한다고 20일 밝혔다.     '타다 넥스트'는 택시 면허를 가진 드라이버가 7인승 이상 대형차량을 운전하는 호출 중개 서비스(타입 3)로 운영된다.    타다가 한때 운영했다가 여객자동차운송사업법 개정으로 중단했던 승합차 호출 서비스를 합법 테두리 안에서 다시 시작하는 것이다.     드라이버 지원 자격은 ▲ 서울 개인택시 면허가 있고 ▲ 행정처분 이력이 없으며 ▲ 5년 무사고 경력의 개인 택시 사업자다. 타다 홈페이지에서 지원할 수 있다.    1기 드라이버에게는 최대 4천100만원을 지급한다. 타다 서비스 홍보비 1천500만원에, 일정 운행 조건을 충족하면 12개월간 최대 월 200만원씩 활동비를 제공한다.     여기에 현재 '타다 라이트'나 '타다 플러스'를 운행하는 드라이버가 '타다 넥스트' 드라이버로 전환하면 서비스 경력 기간에 따라 최대 200만원을 준다.     이정행 타다 대표는 "'타다 넥스트'는 이용 고객과 드라이버 모두 만족할 수 있는 서비스가 될 수 있도록 면밀히 준비 중"이라고 밝혔다.     앞서 토스 운영사 비바리퍼블리카는 쏘카가 보유한 타다 운영사 VCNC 지분 60%를 인수했다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[차세대리더-경제] 국내 최초 금융 유니콘을 키워내다</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000030075?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>이승건(40) 비바리퍼블리카 대표ⓒ시사저널 최준필이승건 비바리퍼블리카 대표는 간편결제 플랫폼 '토스'를 한국의 첫 금융 유니콘으로 키워냈다. 치과의사라는 안정된 길을 뒤로하고 스타트업 시장에 뛰어든 결과였다. 과정은 순탄치 않았다. 토스를 창업하기 전 모두 여덟 번의 프로젝트가 실패로 끝났다. 그러던 2015년 선보인 토스가 '대박'을 터뜨렸다. 출시 1년 만에 애플리케이션(앱) 다운로드 수가 100만 회를 넘어섰고 2017년에는 1000만 회를 돌파했다.토스는 한자리에 머물지 않았다. 간편송금 서비스 외에 계좌·카드·보험 등 조회 서비스, 예금·적금·대출 등 뱅킹 서비스, 개인 간 거래(P2P)·펀드·해외주식 등 투자 서비스까지 40종 이상의 금융 서비스를 선보였다. 그 결과 지난해 5월 토스는 누적 가입자 수 1700만 명과 누적 송금액 90조원을 달성했다.이 대표의 영토 확장은 현재진행형이다. 이 대표는 지난해 11월 증권사인 토스증권을 설립해 증권업에 진출했다. 국내에서 새로운 증권사가 탄생한 건 2008년 IBK투자증권·KTB투자증권 이후 12년 만의 일이다. 또 10월5일에는 토스뱅크를 출범시키면서 인터넷전문은행업까지 사업영역을 확장했다. 토스 플랫폼에서 모든 금융 서비스를 제공하겠다는 이 대표의 '금융 슈퍼앱' 전략을 착실히 수행해 나가고 있는 것이다.시사저널은 매년 창간 기획으로 '차세대 리더 100'을 선정하고 있다. 향후 대한민국을 움직일 리더를 발굴하기 위함이다. 올해도 정치·경제·사회·문화 등 각 분야에서 기대받는 100명을 엄선했다. 우선 여론조사 전문기관 '칸타퍼블릭'에 의뢰해 전문가 1000명을 대상으로 설문조사를 실시했다. 이를 바탕으로 시사저널 기자들이 각 분야 전문가들의 자문을 받아 후보군을 압축했다. 최종적으로 시사저널 편집국에서 올 한 해 미디어에 나온 여러 자료들을 검토하고 검증하는 과정을 거쳐 '차세대 리더' 100명을 선정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>카카오페이, 상장 이후 넘어야 할 과제는 [홍길용의 화식열전]</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001903452?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>카카오페이 상장이 본궤도에 올랐다. 일반청약 100% 균등배정 첫 사례라는 점에서 그 어느 때보다 많은 이들이 카카오페이 주주가 될 수 있을 전망이다. 상장 초 주가가 공모가를 웃돈다면 일단 팔고 나올지, 아니면 좀 더 두고 보거나 추가 매입할 지 판단을 내려야 할 이들이 그만큼 많을 것이란 뜻이다. 기업가치와 향후 주가 변수에 대한 이해가 필요해 보인다.증권사들이 제시하는 목표주가는 11만원 선에서 형성되고 있다. 공모가 9만원 보다 높지만 애초 상장주관사들이 평가한 수준에는 못 미친다. 주관사들은 비교기업과의 분석을 거쳐 기업가치를 13만976원으로 산정했다. 여기에 상장을 감안해 31.28%의 할인률이 적용된 것이 이번 공모가다. 증권사들은 주관사가 기대한 만큼 기업가치가 오르지는 못할 것이라고 진단한 셈이다.카카오페이는 국내 최로로 상장되는 금융플랫폼이다. 은행인 카카오뱅크와 업의 성격이 꽤 다르다. 현행법에는 아직 금융플랫폼 개념이 없다. 현재 국회에서 논의 중인 전자금융법 개정안(윤관석 의원안)이 통과되어야 법적 실체를 갖게 된다. 전금법은 금융결제원 통제권을 둘러싼 금융위와 한국은행의 갈등으로 표류하고 있다. 하지만 이 보다 더 치열한 논란은 빅테크·핀테크와 기존 금융업 사이에 벌어지고 있다.전금법 개정안에는 종합지급결제사업자(이하 종지사) 개념이 새로 도입됐다. 은행처럼 이용자에게 계좌 개설을 해줄 수 있고 자금이체업과 대금결제업과 결제대행업도 가능한 사업이다. 전자금융으로 가능한 모든 금융서비스를 할 수 있는 금융플랫폼이다. 은행 기능 일부까지 포괄하지만, 은행 수준의 규제를 적용되지 않는다. 카카오페이와 같은 전자금융사업자는 종지사가 될 수 있지만, 은행 등 등 금융회사는 전자금융사업자가 아니어서 종지사가 될 수 없다. 금융권이 개정안에 반발하는 이유다.최근 금융위원회는 가맹점의 부담을 줄이기 위하여 카드사 수수료 뿐 아니라 간편결제 서비스 업체들에게도 수수료 인하 압력을 행사하기 시작했다. 앞서 보험중개와 대출비교 서비스가 중단됐지만, 현재 매출 비중이 크지 않다. 주력 분야인 간편결제에서 매출감소가 이뤄진다면 얘기는 달라진다.카카오페이 기관수요예측을 보면 경쟁률은 1714대 1로, 카카오뱅크의 1732배와 비슷하지만, 의무확약비율은 70.44%로 카카오뱅크의 55%보다 크게 높다. 2대 주주인 알리페이 지분의 매물 부담(overhang)도 제한적이다. 카카오페이 정도 덩치면 코스피200 편입은 시간 문제다. 설령 상장 초기 매물이 쏟아진다고 해도 기관 포트폴리오 편입 과정에서 상당부분 소화될 것으로 보인다.한편 역시 금융플랫폼을 지향하는 토스와의 경쟁도 주목할 대목이다. 토스는 토스뱅크를 자회사로 둔 슈퍼앱 전략을 택했다. 카카오페이 역시 비슷한 전략이다. 플랫폼이 독점지향적 성격을 띈다는 점에서 양사의 승부는 중장기적으로 중요한 변수다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.10.23.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>묻지도 따지지도 않고 연 2% 이자…토뱅發 수신전쟁</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003566297?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>핵심요약토스뱅크 연 2% 수시입출금 통장 출시해 고객몰이카카오·케이뱅크, 파킹통장 한도 늘려 고객지키기금리 2% 넘는 파킹통장도…정기예금 금리도 오름새한은 기준금리 인상에 향후 수신금리도 상승 전망토스뱅크. 연합뉴스제3 인터넷전문은행인 토스뱅크가 연 2%의 이자를 지급하는 수시입출금 통장을 내놓자 다른 은행들도 잇따라 수신 상품 경쟁력 강화에 나서면서 은행권 수신경쟁에 불이 붙었다.지난 5일 출범한 토스뱅크는 급여이체나 카드사용 등 다른 조건 없이 연 2%의 이자를 지급하는 수시입출금 통장을 내놓으며 고객 유치에 나섰다. 만기와 한도 제한도 없고 일할로 계산된 이자를 매월 지급한다.통상 은행의 수시입출금 통장 이자율이 0.1% 수준에 그치는 점을 감안하면 파격 그 자체다. 한 시중은행 관계자는 "아무런 조건없이 수시입출금 통장에 연 2%의 이자를 지급하는 것이 지속가능한지 의문이 들 정도"라고 평가했다.토스뱅크가 수시입출금 통장에 파격적인 금리를 제공하며 흥행몰이에 나서자 다른 은행들도 고객을 뺏기지 않기 위해 수시입출금 통장인 '파킹통장' 한도를 늘리고 예적금 금리를 올리는 모양새다.연합뉴스우선, 토스뱅크와 직접 경쟁하는 인터넷은행들이 발빠르게 움직였다. 카카오뱅크는 연 0.8% 금리를 주는 '세이프박스' 한도를 기존 1천만 원에서 1억 원으로 올렸고, 케이뱅크도 0.5%의 금리를 제공하는 '플러스박스' 한도를 기존 1억 원에서 3억 원으로 상향했다.저축은행 가운데는 상상인플러스저축은행이 연 이자율이 2%가 넘는 파킹통장을 내놨다. 다만, 1개월 미만 유지시 금리는 1%이고 유지기간이 길수록 적용 금리가 높아져 9개월 이상 유지시 연 2.31% 이자를 지급한다.올초까지만 해도 1%도 안됐던 제1 금융권의 정기예금 금리도 꾸준히 오름새다. 전국은행연합회에 따르면 22일 기준 제1 금융권 가운데 가장 높은 정기예금(1년 만기, 단리) 금리를 제공하는 곳은 IBK기업은행으로 연 1.59~1.63%다. 이어 KB국민은행과 NH농협은행이 연 1.55%, SH수협은행·카카오뱅크·케이뱅크가 연 1.50%의 금리를 제공하는 등 최근들어 금리 인상폭이 커지고 있다.저축은행은 금융당국의 대출 총량 규제에 따라 최근 수신금리 경쟁이 다소 주춤해지기는 했지만 제1 금융권에 비해 여전히 높은 정기예금 금리를 제공하며 고객 유치에 나서고 있다. 저축은행중앙회에 따르면 22일 기준 1년 만기 정기예금 평균금리는 2.24%다. 가장 높은 금리를 제공하는 곳은 상상인플러스저축은행으로 금리가 2.56%에 달한다.정기적금 금리도 오름새를 유지하면서 일부 은행의 경우 각종 우대금리를 적용해 7%에 달하는 고금리를 제공하기도 한다. 다만 최고 금리를 받을 수 있는 조건이 까다롭고 한도도 월 10~50만원 정도에 그치고 있다.한 은행 관계자는 "토스뱅크가 아니더라도 향후 한국은행이 지속적으로 기준금리를 올릴 가능성이 높아 수신금리 역시 따라 오를 것으로 전망된다"면서 "다만 금융당국의 대출 규제가 강화돼 신규 여신 규모가 줄수 밖에 없어 은행들이 수신을 늘릴 유인이 크지 않다는 점은 변수"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>[단독] 토스뱅크, 1주일에 1.7조 수신…대출중단에도 계속</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001903336?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>파격적 연 2% 금리로매달 30억씩 적자 감수이달 중 중단될 가능성추가여력 위해 증자추진[헤럴드경제=박자연·정경수 기자] 토스뱅크가 정부 규제에 따른 대출영업 중단에도 예금가입을 계속 받으면서 수신이 급증한 것으로 나타났다. 수시입출금 통장에 일괄 2% 금리를 적용한 파격 상품이 인기를 끌면서다. 토스뱅크 입장에서는 수신을 받으면 받을 수록 손해지만, 출범 초 고객과의 신뢰를 위해 최대 100억원대의 비용 부담을 감수하고 있다.25일 국회 정무위원회 소속 민형배 더불어민주당 의원실이 토스뱅크에서 받은 자료에 따르면, 토스뱅크에는 1만명 대상 가입이 열린 5일부터 24만여명이 계좌를 개설한 11일까지 일주일 간 총 1조6995억원의 수신 자금이 들어왔다. 11일 기준 1인당 평균 예금액은 700만원으로 집계됐다.카카오뱅크는 출범 후 일주일 간 6500억원 상당의 수신을 일으켰다. 토스뱅크의 첫 일주일 수신액은 카카오뱅크 9월 한달 수신액(1조3059억원)보다도 3000억원이 더 많다.토스뱅크 자본금은 2500억원이다. 자기자본비율 8%를 기준으로 예수부채 한도는 최대 3조원을 넘을 수 없다. 하루 약 2000~2500억원의 수신이 이뤄진다면 보름 정도면 수신도 한도가 꽉 차는 셈이다. 토스뱅크가 18일부터 170만명이 넘는 사전신청자 전원에게 가입을 열어둔 점을 고려하면, 14일 대출 중단에 이어 이달 중 수신도 중단될 가능성을 배제할 수 없다.여신상품의 91%를 차지하는 신용대출의 영업 일주일 평균 금리는 4.83%다. 토스뱅크 대출한도 5000억원을 기준으로 하면 월로 환산하면 20억원 수준이다. 예수부채가 3조원이면 연 2%만 적용하면 월 50억원이다. 10~12월 매월 30억원 이상 적자가 나는 셈이다.한 금융권 전문가는 “요구불예금 성격인 수시입출금 상품에 2% 금리를 적용해 은행 자체 자금운용이 쉽지 않을 것”이라며 “만기, 유동성불일치에 직면할 수 있어 정기예금 등 일정 기간 돈을 묶어둘 수 있는 상품의 비중을 높일 필요가 있다”고 지적했다.토스뱅크는 이번주 이사회를 열고 유상증자를 논의한다. 비용증가로 자금 경색이 심화되는 상황에서, 신속한 증자가 필요하다. 규모는 3000억원 내외로 알려졌으며 주주배정방식이 유력하다. 현재 토스뱅크의 자본금은 2500억원으로, 향후 5년간 1조원의 증자를 목표로 하고 있다.앞서 홍민택 토스뱅크 대표는 기자간담회에서 “서비스를 중단 없이 제공하는 것이 중요하기 때문에 더 빠르게, 더 큰 금액을 증자할 수 있도록 하는 사전 협의가 돼 있다”고 언급했었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>진에어, 티머니페이 결제 서비스 도입…비행기도 지하철처럼</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012737281?sid=102</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>진에어 티머니페이 도입[진에어 제공. 재판매 및 DB 금지](서울=연합뉴스) 최평천 기자 = 진에어는 항공업계 최초로 티머니 간편 결제 서비스인 '티머니페이'를 도입했다고 21일 밝혔다.    티머니페이는 교통카드 기능을 중심으로 해외 42개국에서 사용이 가능한 글로벌 간편 결제 플랫폼이다. 지상 대중교통은 물론 항공편에도 사용할 수 있는 연계 서비스다.    티머니 이용 고객은 진에어 홈페이지나 모바일 애플리케이션에서 항공권을 예매할 때 결제 수단으로 티머니페이를 선택하면 된다.    기업 회원 대상으로 운영되는 티머니 비즈페이도 함께 도입했다. 티머니 비즈페이는 기업 임직원이 업무 목적의 교통 비용을 처리하는 결제 서비스다.    티머니페이 간편 결제 서비스 도입은 올해 3월 진에어와 티머니가 체결한 전략적 업무협약의 첫 결과물이다.    진에어는 티머니의 통합 모빌리티 플랫폼인 '티머니GO'에서 다른 교통수단과 국내외 항공편 일정·운임 정보 등을 연동하는 서비스도 선보일 계획이다.    진에어는 티머니페이를 비롯해 네이버페이, 카카오페이, 스마일페이, 페이코, 토스 등 다양한 결제 서비스를 제공하고 있다.    pc@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.10.26.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>플랫폼 태풍에 휘말린 은행권… 씨티銀 결국 소매금융 포기</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001479515?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>점포 중심 영업 탈피 디지털 강화  인터넷은행 거센 협공에 설상가상  시중銀 5년간 점포 450여곳 폐지플랫폼 전성시대다. 쇼핑, 배달 등 모든 것이 온라인 플랫폼으로 판매자와 소비자를 연결한다. 전통적인 오프라인 업종이던 은행권도 예외는 아니다. 시중은행들은 점포 중심 영업에서 앱 등 디지털플랫폼 강화에 나서고 있다. 급기야 한국씨티은행은 소비자금융 사업 철수를 선언했다.이에비해 카카오뱅크 등 인터넷은행은 공격적인 마케팅으로 시장 점유율을 확대하고 있다.씨티은행은 지난 22일 이사회를 열어 소비자금융 사업 부문을 단계적으로 폐지하기로 결정했다고 25일 밝혔다.앞서 씨티은행은 지난 4월 한국을 포함한 13개 국가에서 소비자금융사업 출구 전략을 발표한 이후 사업 청산을 위한 절차를 진행해왔다.소비자금융 청산의 최대 난관이었던 고용 승계 문제는 사측과 노동조합의 합의로 일단락됐다.씨티은행 관계자는 “지난달 사측이 제시했던 ‘특별퇴직금 최대 7억원 지급·자녀 학비 제공’ 등 조항이 들어간 희망퇴직안에서 크게 다르지 않을 것”이라고 말했다.씨티은행 노사는 소비자금융 부문 임직원 939명의 고용 승계 문제를 두고 첨예한 갈등을 빚어왔다. 노조는 사측이 안정적인 인수 대상을 찾아 인수합병(M&amp;A)을 진행해 직원의 고용안정을 보장해야 한다고 주장했다. 하지만 사측은 소매금융 사업부문의 전체 매각을 추진해왔지만, 결국 적절한 매각 상대를 찾지 못했다.씨티은행이 은행으로서는 이례적으로 소비자금융 사업 철수라는 고육책을 꺼냈지만, 기성 은행권의 몸집 줄이기는 최근 일이 아니다. 금융감독원에 따르면 2015년부터 지난해 말까지 5년간 5대 시중은행에서만 점포 450여곳을 폐쇄했다. 지난해 말부터 올해 상반기까지 이들 은행에서 희망퇴직 등으로 퇴직한 임직원도 2600명에 달한다.반면 인터넷은행은 시장 파이를 늘리기 위해 공격적인 마케팅을 펼치고 있다. 카카오뱅크는 이달에만 ‘카카오뱅크 체크카드’ ‘mini 26일 적금’ 등 신상품을 출시하고 중·저신용 차주에 대한 첫 달 이자 이벤트를 열었다.지난 5일 출범한 토스뱅크는 모든 고객에게 조건 없는 연 2% 금리의 수시입출금통장, 실적 조건·한도 없는 체크카드 상품 등을 판매하며 시장 안착을 노리고 있다. 특히 토스뱅크는 주요 은행이 대출상품 한도를 줄이거나 금리를 높이는 상황에서도 최대한도 2억7000만원, 최저금리 2.76%의 신용대출 상품을 선보여 소비자들의 호응을 얻었다.인터넷은행이 재래은행과 비교해 적극적으로 영업에 나설 수 있는 데에는 오프라인 점포 없이 온라인으로만 운영된다는 점이 크게 작용한다. 인터넷은행 관계자는 “기존 은행은 예대마진이나 수수료 정도로만 이윤을 낼 수 있지만, 인터넷은행은 점포 임대료, 관리비용, 인건비 등 고정비용도 추가로 아낄 수 있다”고 말했다.그러면서 “대출이나 예·적금 등 상품 간 금리 비교 플랫폼이 발달하면 상대적으로 혜택이 우수한 인터넷은행으로의 쏠림현상이 가속화될 것”이라고 기대했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>[권헌영의 데이터혁신] 플랫폼 기업과 혁신, 그리고 사명</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004986880?sid=102</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>미래가치 인정받는 시장이지만 독점과 규제 논란 끊이지 않아소상공인 라이더 생명 위협받는 혁신의 그늘 더 이상 커져선 안돼 사회적 책임에 대한 논의 지속해 세계에 자랑할 협력 모델 만들어야‘네카라쿠배당토’. 신조어다. 요즘 젊은이들이 가장 가고 싶은 직장이란다. 네이버, 카카오, 라인플러스, 쿠팡, 배달의 민족, 당근마켓, 토스라는 회사 이름의 앞 글자를 딴 말이다. 여기에 직방, 야놀자를 추가하는 유사어도 있다. 모두 정보기술기업이고 현재보다는 미래가치가 훨씬 높은 기업이다.이 회사들은 모두 플랫폼 기업이라는 특징이 있다. 더 많은 이용자가 있어야 이용자 서로가 좋은, 네트워크 효과를 기반으로 한다. 그러니 플랫폼 독점에 실패하면 사업에 성공했다고 할 수가 없다. 당연히 독점규제, 이용자 보호 정책과 부딪힐 수밖에 없다. 글로벌 플랫폼 기업을 규제하는 데 앞장 서 온 유럽에 이어 미국도 플랫폼 기업에 대한 규제 움직임에 나서고 있다. 한국은 토종 플랫폼 기업이 없는 유럽하고는 차원이 다르고, 그렇다고 미국 따라 나섰다가 그나마 선전하고 있는 국산 브랜드 플랫폼이 고사할까봐 난처한 입장에 있다. 이 와중에 골목시장까지 진출하는 플랫폼 기업의 독점 전쟁에 국민들 시선이 곱지 않으니 규제 당국에서는 더욱 난감한 상황이다.‘GAFA’. 구글, 애플, 페이스북, 아마존을 일컫는 말이다. 이들 글로벌 빅테크 기업과 한국의 플랫폼 기업은 규제 이슈에 있어서 비슷한 점이 많다. 그 공통점은 인터넷과 데이터다. 미국은 네트워크 플랫폼인 통신사업에서는, 한국으로 치면 1980년대 한국통신 같은 독점 사업자 AT&amp;T를 7개 회사로 강제 분할할 정도로 강력한 규제를 가하는 나라다. 하지만 인터넷에 대해서는 혁신이라는 명분으로 관대한 제도를 운영해왔다. 물론 이런 제도에 대한 불만도 있다. 통신회사의 음성전화나 문자 메시지는 강력한 규제를 받는데 인터넷 전화나 인터넷메시지서비스는 뭐가 달라서 규제를 안 하냐는 것이다. 논란이 있음에도 불구하고 여전히 인터넷 혁신 서비스는 통신법상 규제 대상이 아니다.한국도 마찬가지다. SKT, KT, LGU+ 같은 통신회사는 허가도 받고 요금규제도 받는다. 그렇지만 플랫폼 기업은 부가통신사업자라서 예외다. 규제제도를 설계하던 때와 달리 이제는 상황이 역전되었다. 플랫폼 기업이 돈도 더 벌고 미래도 밝다. 낡은 제도를 두고 여기저기서 다툼이 생겨난다. 유튜브와 넷플릭스가 들어와서 세계 최고 통신 네트워크를 통해 돈을 벌어 가는 마당에 네이버 같은 한국 기업과 똑 같이 망 이용료를 부과해야 한다는 논의는 출발에 불과하다.데이터는 더 큰 문제다. 유럽이 개인정보보호법을 강화하여 미국 발 빅테크 기업을 규제하는 것을 보면서 중국도, 일본도 따라 나섰다. 자국 국민의 개인정보를 그 나라에서만 처리하라고 하면 빅테크 기업은 엄청난 비용 투자를 감수해야 한다. 개인정보 처리를 잘 못하면 전 세계 매출액을 기준으로 상상을 초월하는 과징금이나 벌금을 물어야 한다. 인공지능 서비스나 빅데이터 분석 기술로 개인 맞춤형 서비스를 제공하는 회사가 경쟁 사업자에게 해당 데이터를 넘겨주라는 명령을 받는다면 플랫폼 기업은 더 이상 혁신의 열매를 혼자만 즐길 수는 없게 된다. 이것이 데이터 이동권이고 마이데이터 서비스다. 이제 시작에 불과하고 세계 각 국에서 데이터 플랫폼에 대한 규제 정책을 경쟁적으로 개발해 내고 있다.그 동안 인터넷과 데이터는 미래를 여는 열쇠로 여겨졌다. 모두가 행복한 디지털 경제가 이 열쇠로 열리는 것으로 믿었다. 그런데 써보고 둘러보니 걱정이 생겨난다. 혁신 서비스가 택시기사 일자리를, 배달 서비스가 시장 골목 소상공인의 생계를 위협하고 플랫폼 기업이 노동자인 개발자의 삶의 질이나 라이더의 안전을 보장하지 못하는 모습이 자주 뉴스에 등장한다. 우리가 그렇게 취업하고 싶은 직장이고 또 우리가 그렇게 열광하던 혁신 서비스에 절망하고 나아가 배신감을 느낀다면 이제는 차근히 돌아 봐야 할 때이다.한국은 더 이상 다른 나라의 사례에서 답을 얻기 어렵다. 어느 나라보다 빠른 통신망과 데이터 축적, 능력 있는 기술 기업과 이용자가 최단 시간에 디지털 경제를 구현한 첫 번째 나라이기 때문이다. 다행히 발 빠른 움직임이 감지되고 있다. 뱅크샐러드, 배달의 민족, 쿠팡, 당근마켓, 네이버, 카카오 같은 대표 주자들이 플랫폼 기업의 사회적 책임을 논하기 시작한 것이다. 정부가 판을 깔아 주고 플랫폼 기업이 스스로 협력하는 모습은 출발로서는 칭찬할 만하다. 세계에 내 놓을 만한 협력형 규제 모델을 새롭게 창조할 수도 있다.이런 노력을 성공 모델로 만들려면 더 많은 도움이 필요하다. 우선은 정치권의 설익은 규제 입법 경쟁을 새로운 협력 모델과 연결해야 한다. 참여를 바탕으로 진정한 공론이 진행되고 그 결과가 입법으로 탄탄하게 뒷받침되어야 한다. 다음으로 정부의 일관된 지원과 협력이 필요하다. 경쟁 규제 당국, 개인정보 및 데이터 규제 당국, 금융 규제 당국, 일반 규제 당국 모두가 이 협력 모델에 참여하여 일관되고 조율된 규제 정책을 집행해야 한다.그러나 무엇보다 중요한 것은 플랫폼 기업의 진정한 주인이 이용자라는 사실을 기업가, 관료, 정치인, 이용자 스스로가 깨달아야 한다. 이걸 깨닫는다면 모처럼 모인 플랫폼 기업가들이 스스로가 ‘진정한 혁신’을 추구하고 있는지 아니면 규제 사각 지대에서 ‘모두의 열매’를 혼자만 누리며 그 혜택을 잊은 것은 아닌지 알게 된다. 더 나아가 이제는 국가 경제를 이끌어가는 책임 있는 기업가의 사명도 감당할 용기를 가져야 한다.플랫폼 기업의 혁신 서비스는 예외 없이 이용자의 작지만 위대한 삶의 흔적에 빚진 결과물이다. 매일 매 순간마다 사소하게 일어나는 검색, 온라인 수다나 대화 또는 회의, 매 끼니의 주문, 생활 용품 쇼핑이나 필요 없어진 물건의 거래, 심지어는 용돈이나 사소한 선물 보내기도 모두 우리가 플랫폼 기업을 먹여 살리는 활동이다. 이런 핵심 경쟁력을 잊고 탁상공론을 하는 일이 없기를 함께 나선 플랫폼 기업과 정부에 간곡히 바란다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>ICT업계, 통신망 다원화 분주…"망 장애 피해 대비하자"</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003794096?sid=105</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>정보통신기술(ICT) 업체들이 최근 고객 서비스용과 업무용 통신망 다원화에 힘쓰고 있다. 지난 25일 발생한 KT 망 장애와 같이 한 통신사에 문제가 생긴다 하더라도 다른 통신사 망으로 즉각 전환해 고객 서비스와 업무를 지속할 수 있게끔 하려는 노력이다.27일 ICT업계에 따르면 모바일 금융 플랫폼 기업 토스는 다음 주부터 사내 업무용 데이터통신망을 이중화할 계획이다. 25일 KT 망 장애로 사내 메신저 등 업무에 일시적인 차질이 빚어진 것에 주목, 재발 방지를 위해 데이터통신망 제공 통신사 한 곳을 추가한 것이다.토스는 고객 서비스용 데이터통신망의 경우 2개 통신사로 이미 이중화한 상태다. 하지만 업무용 망은 KT 한 곳만을 사용해 왔다.카카오페이의 고객 서비스용 데이터통신망은 3개 통신사로부터 공급받고 있어 '삼중화' 조치가 완료된 상태다. 통신사별로도 2개 망을 사용해 통신망 장애에 따른 피해 가능성을 최소화했다.네이버 역시 망 삼중화로 고객 서비스를 하고 있으며, 업무용 망 역시 3개 통신사를 이용하고 있다. 카카오와 넷마블 등은 백업 망을 보유하고 있다고 밝혔으나, 영업 기밀과 해커 공격에 대한 우려 등을 이유로 다른 구체적인 사항은 공개하지 않았다.일부 게임업체는 망 다원화 외에 클라우드 서버 등을 통해 서비스 차질을 줄이기 위해 노력하고 있다.업계 관계자는 "유통업체에서 결제 편의가 중요한 만큼 ICT 기업들에게 있어서 고객 정보 보안, 서비스 안정성은 가장 중요하다"고 말했다.조민정 기자 mj.cho@sportschosun.com▶재테크 잘하려면? 무료로 보는 금전 사주- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.10.22.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>스타벅스 선불충전금 금감원 조사 받는다</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003105404?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>[경향신문] 연합뉴스 자료사진금융당국이 미등록 선불전자지급수단 발행업체 58곳의 재무 상태를 검사하고 있는 것으로 확인됐다. 22일 금융권에 따르면 금융감독원은 최근 전자식 상품권을 발행하는 미등록 선불업체 58곳에게 사업 현황 자료를 받아 전자식 상품권 발행 잔액과 사용 가맹점수 등에 대해 조사를 벌이고 있다.조사 대상에는 스타벅스도 포함된 것으로 확인됐다. 홍성국 더불어민주당 의원이 공정거래위원회에서 받은 자료를 보면 지난해 스타벅스 선불 충전금은 1801억원에 달했다. 이는 기존 선불업체인 네이버파이낸셜(1264억원)과 토스(1301억원) 등을 넘어서는 수준이다. 전자금융거래법은 자사 가맹점 내에서만 선불기능을 사용하는 업체에 대해서는 등록 의무를 부여하지 않아, 관리의 ‘사각지대’가 발생한다는 지적이 제기돼 왔다.앞서 할인 결제 플랫폼 머지포인트 운영사 머지플러스가 전자금융거래법에 따라 등록하지 않고 선불업을 이어오다가 서비스를 기습중단해 대규모 환불 사태를 일으킨 바 있다. 금감원은 이런 사태의 재발을 막기 위해 미등록 업체들에 대한 조사를 통해 충전금 운영의 적정성 등을 판단할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.10.28.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>전자금융거래 보안, 강화 및 지원법 발의…업계도 "환영"</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004990422?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>지원책도 함께 담겨향후 국회 논의 주목김한정 더불어민주당 의원 / 윤동주 기자 doso7@국회가 전자금융거래 보안성을 강화하는 전자금융거래법 일부개정법률안 개정을 추진한다. 이 법안에는 전자금융거래에 있어 보안의 기준을 제시하고, 금융당국이 보안 강화를 위해 지원하는 내용이 담겼다. 관련 업계에서도 환영하고 있어 향후 국회 논의과정이 주목받고 있다.28일 정치권에 따르면 김한정 더불어민주당 의원은 최근 이 같은 내용을 담은 전금법 일부개정법률안을 대표발의했다. 이 법안에는 금융회사 등이 새로운 전자금융거래수단을 개발하거나 자신이 사용하는 전자금융거래수단을 변경하고자 하는 경우, 전자금융개발보안을 위해 필요한 것으로서 금융위원회가 정하여 고시하는 사항을 준수해야 한다는 내용이 담겼다. 일종의 전자금융거래 보안 기준을 마련하는 셈이다.이와 함께 금융위는 전자금융개발보안 분야를 지원하기 위해 ▲전자금융개발보안 기술 연구, 인력 양성 등 기반 조성  ▲금융회사 등의 전자금융개발보안 활성화를 위한 지원 ▲그 밖에 전자금융개발보안 분야의 발전을 위하여 대통령령으로 정하는 사업 등에 나설 수 있도록 명시했다.김 의원실 관계자는 "수준 높은 전자금융거래 보안을 금융사의 규모와 관계없이 구축하는 것이 목적"이라며 "다만 새로운 규제로 받아들여질 수 있기 때문에 금융당국이 관련 기준을 도달하기 위한 적극적인 지원에 나설 수 있는 내용도 함께 담았다"고 설명했다.관련 업계에서는 관련된 법안 발의에 환영하는 분위기다. 특히 보안을 강화하기 위한 비용을 크게 줄이면서 일정 수준 이상의 체계를 마련할 수 있을 것으로 기대하고 있다. 민형배 민주당 의원이 금융감독원으로부터 제출받은 자료에 따르면 올 7월말 카카오페이, 네이버파이낸셜, 토스, NHN페이코 등 4개 플랫폼의 매출액 대비 보안투자액 비율은 2.41%로 은행평균인 0.84%보다 8.6배 많은 것으로 나타났다.핀테크 업계 관계자는 "이 법안이 통과되면 전자금융거래 보안 강화와 함께 개발 단계에서의 보안 준수 의무가 강화되고 보안리스크가 줄어들 것"이라며 "금융기관 및 전자금융업자들의 보안에 대한 책임성과 전문성을 높여야 하기 때문에 지속적인 지원이 확대돼야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.10.17.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>[기업기상도] 막힌 길 뚫어 맑은 기업 vs 안팎 우환에 흐린 기업</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000509478?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[앵커] 다음달이면 이른바 단계적 일상회복이 시작된다는 좋은 소식이 있었던 한 주였습니다. 소상인부터 글로벌 기업까지 2년 가까이 막혔던 기회가 다시 열리는 셈인데요. 모처럼 좋은 소식 전해진 한 주 기업 소식, 기업기상도로 되짚어보시죠. 김종수 기자입니다. [기자] 한 주 기업뉴스 리뷰 주간 기업기상도입니다.잔치가 끝난 걸까요? 금융시장이 요동쳤습니다. 코로나 사태는 기회라며 호황 이어오다 어두운 전망이 좀 더 힘을 얻었던 한주, 맑고 흐린 기업 소식 살펴보러 기업기상도 출발합니다.먼저 토스입니다. 토스뱅크 출범 이어 '타다' 인수해 확장 나섭니다. 승합차 호출 서비스로 인기 끌다 사업 접은 타다, 지금은 가맹 택시만 하죠. 이 타다를 토스가 샀습니다. 연말까지 새 서비스 내놓겠다는데, 토스 간편결제 연계 택시 호출로 새 성장동력 삼으려 한다는 전망 나옵니다. 터줏대감 카카오T와의 격차 너무 커 택시 아닌 간편결제 확장이 더 큰 목적이란 관측도 있습니다.다만, 은행 등 금융으로 발 뻗다 이런 사업도 하면 카카오, 네이버 이어 또다른 문어발 소리 듣거나 금융, 산업자본 분리 문제 대두할 수 있는 점은 잠재 위험요인입니다. 다음은 삼성디스플레이입니다. 애플이 태블릿컴퓨터에 OLED 탑재하기로 하면서 전망 밝아졌습니다.삼성과 애플은 참 모순된 관계입니다. 제품에선 숙적인데, 부품은 최대 협력자죠? 애플이 내후년 아이패드 신제품에 OLED화면 쓰기로 하면서 협력점 더 늘 듯 합니다. 물론, 삼성 것 쓸지는 선택이지만 태블릿용 OLED 60%는 삼성이 쥐고 있습니다.삼성을 '따라쟁이'라고 비웃던 스티브 잡스 사후 갤럭시 따라 OLED 스마트폰 내놓고 갤럭시 노트 크기로 아이폰 커졌습니다. 싸우면서 닮는 셈이죠.이제 흐린 기업입니다.첫 흐린 기업 하나은행입니다. '대장동' 바람이 잦아들지 않고 있습니다.문제의 화천대유가 든 컨소시엄을 하나은행 컨소시엄이라 합니다. 그만큼 역할 맡은 건데요. 경쟁사 제치고 하루만에 선정된 것도 대단하지만 무엇보다 컨소시엄 이름까지 쓴 은행이 추가 수익 나도 배당 못받는 지분 출자한 이유가 뭐냐는 의문이 제기됩니다.돈 장사가 큰 잠재적 이익 가능성 놓쳤다면 누군가 책임져야 할 큰 실패거나 이유가 있다는 게 그 배경입니다.다음은 SK하이닉스입니다. 중국의 몽니일까요? 인텔 낸드메모리 인수 심사가 1년 넘도록 감감무소식입니다.딱 1년 전 SK하이닉스가 10조원 주고 미국 인텔의 낸드플래시 메모리 반도체 사업 인수 계약했습니다. 한국은 물론, 미국, 유럽 포함해 세계 8곳 경쟁당국 인수 승인 필요한데 최대수요처 중국만 안나왔습니다. 반도체 둘러싼 미중 갈등 영향이 있는 게 아니냐는 관측 나오는 이유입니다.인텔 낸드플래시 공장은 중국에 있습니다. SK하이닉스가 걱정 덜 하는 이유긴 한데, 변수가 많아 뚜껑은 열어봐야만 압니다. 비슷한 고민하는 곳 또 있습니다. 현대중공업입니다. 여기는 대우조선해양 인수 최대 난관 유럽연합 심사가 지연되고 있습니다.조선 한국의 빅3는 세계적으로도 최대급인데 그 중 두 회사가 하나 되니 독점 우려 없다곤 못합니다. 합병시 비싼 고기술선 대표 액화 천연가스, LNG선은 60% 차지하죠. 그런데 EU당국이 심사 시작 2년이 되도록 네 차례나 연기하고 여전히 심사 중단 상태란 소식입니다.그냥 지연이 아니라 EU의 독점 우려 해소안 요구에 현대가 제시한 방안이 미흡하단 관측 있습니다. 심사 통과 못하면 인수도 없던 일 되는데 결단이 불가피합니다.마지막은 신세계입니다. 신체, 소지품 검사 같은 구식 취업규칙이 국정감사에서 제기됐습니다.22개 계열사가 신체검사 조항, 23개사가 소지품 검사조항 있답니다. 허가없는 유인물·문서 게시, 배포 금지, 허가 없는 정치운동 참여 금지 조항도 있다네요. 모두 헌법상 기본권 침해 소지 있다는 지적입니다. 헌법 위배 넘어 21세기 MZ세대 감성과는 거리 멉니다.오래 전 백화점 소재 드라마에서 개점 전 회사가 판매직원 검사해 반지 뻇고 손톱 트집잡던 장면 기억나는데요. 트렌드에 가장 앞서 가야할 유통업에 좀 안 맞는 일 아닐까요? 용진이 형!청년들이 일자리로 고통받는데, 통계상 고용은 늘고 정부는 코로나 이전의 99.8% 회복을 말합니다. 재정으로 만든 일자리가 필요할 때 있고 인턴이 취업으로 이어지기도 하지만 11월 예정된 일상회복은 고용의 질을 더 보는 계기도 돼야합니다. 지금까지 주간 기업기상도였습니다.연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>김윤이 OK금융 HR 담당 "OK금융의 인재 확보 경쟁사, 1금융권 아닌 카카오·토스"</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003974678?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>스타트업보다 인재육성 강화···다양한 업무 경험 가능[서울경제] OK금융그룹은 오는 24일까지 100여명 규모의 신입·경력사원 공채를 진행하고 있다. 최근 금융권에서 이례적인 대규모 채용으로, OK저축은행·OK캐피탈·OK홀딩스·아프로파이낸셜·OK인베스트먼트파트너스·OK데이터시스템 등 계열사에서 다양한 인재를 채용한다는 계획이다. 이번 채용은 OK금융의 두 번째 여성 임원이자 유일한 글로벌 기업 출신인 김윤이(사진) HR 담당 상무가 합류한 후 처음으로 진행하는 채용으로, 김 상무가 강조하는 OK금융에 맞는 인재 채용에 집중할 전망이다.최근 서울시 중구 OK금융그룹 본사에서 만난 김윤이 상무는 “자칭 금융계의 스타트업 되겠다는 목표를 내세우고 1금융권보다는 카카오나 토스 등으로 향하는 인재를 확보하고자 한다”며 “도전정신 갖고 새로운 아이디어나 비즈니스를 제안할 수 있는 인재들에 대해 관심이 높다”고 설명했다. 그는 이어 “스타트업들은 멋지고 즐거워보일 수 있지만 인재육성이라는 측면에서는 약한데, OK금융에서는 회사 안에서 다양한 업무를 경험하고 성장할 수 있다는 장점이 있다”고 강조했다.김 상무는 컨설팅펌을 거쳐 GE 등 글로벌 기업을 거친 OK금융의 유일한 글로벌 기업 출신 임원으로, 지난 6월 합류했다. 그는 OK금융 8개의 계열사의 채용·교육·평가·복리후생 등 HR관련 전 부분 담당 임원으로 자리하면서 OK금융에 새로운 바람을 불러일으킨다는 계획이다. 김 상무가 OK금융으로 합류하게 된 이유로는 급성장하고 있는 회사 자체에 대한 장점도 있었지만 최 회장의 면접 질문도 인상깊게 다가왔기 때문이다. 최 회장은 김 상무에게 “대부분의 여성들이 출산과 육아로 커리어가 단절되는 경우를 직원들을 통해서도 많이 봤는데 어떻게 커리어를 이어갈 수 있었냐”고 물었다. 김 상무는 “워킹맘으로서의 커리어를 인정받는 것 같았고, 가정에 대한 배려가 큰 회사라는 것이 느껴졌다”고 설명했다. 현재 OK금융그룹은 최윤 OK금융그룹 회장이 럭비에서 모티브를 얻은 ‘원팀8스피릿’이라는 사내 경영철학과 인재론을 중심으로 하고 있다. 김 상무는 원팀8스피릿 정신에 공감하며 이를 바탕으로 조직문화 개선에 힘쓴다는 계획이다. 김 상무가 우선적으로 집중하고 있는 부분은 특히 중간관리자들의 변화다. 그는 “그동안 회사의 외향적인 성장은 있었지만 그만큼 내부적 시스템은 속도를 따라가지 못하고 있는 상황”이라며 “중간 관리자들이 부하직원들은 물론 위에도 긍정적인 영향을 끼칠 수 있는 만큼 이들을 육성하고 이들이 변화할 수 있도록 돕는 체계를 만들고자 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>'겨울방학' 주는 회사가 있다?…금요일엔 조기 퇴근</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004658464?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>토스가 '겨울방학', '주 4.5일제'를 도입하면서 워라밸(워크 앤드 라이프 밸런스, 일과 삶의 균형)을 한층 강화했다.토스는 다음달부터 바뀐 인사제도를 도입한다고 19일 밝혔다. 토스는 물론 토스뱅크, 토스증권, 토스페이먼츠 등 모든 계열사에 동일하게 적용된다.겨울방학은 성탄절을 전후로 약 10일간 전사 휴무를 실시하는 것이 내용이다. 고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 게 원칙이다.주 4.5일제는 금요일에 조기 퇴근하는 제도다. 4개월간 시범 운영한 것을 정례화하기로 했다. 근태를 스스로 관리하는 기본 원칙은 유지한다. 휴가 사용, 재택 근무 여부, 출퇴근 시간 선택 등을 구성원의 자율에 맡기는 것이다. 토스는 "그동안 몰입을 지향하는 문화를 바탕으로 상호 신뢰가 구축됐다"고 했다.임금제도는 바뀐다. 현재는 포괄임금제인데 내년 초 비포괄임금제로 전환된다. 법정 표준 근무시간인 주 40시간을 초과한 근무시간에 대해서는 별도 수당을 지급한다. 이렇게 되면 연봉 상승 효과가 있다는 게 토스의 설명이다.평가 제도도 개선된다. 토스는 그동안 신규 입사자의 성과를 높이고 도덕적 해이를 방지하기 위해 '3개월 리뷰' 등 제도를 운영했다. 토스는 "입사자에게 심리적 안정감을 제공하는 것이 장기적으로 팀의 성공에 더 효과적"이라고 했다.박토니 피플앤컬쳐팀 리더는 "인력 규모가 늘고 다양성이 커지면서 인사제도가 계속 변화하겠지만 신뢰에 기반한 자율과 책임, 높은 퍼포먼스를 지향하는 문화는 변하지 않을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>순이익 14조 新기록 5대 금융 인건비 부담도 ‘11.7조’ 눈덩이</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001904757?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>인건비 전년비 10.4% 증가전체 판관비도 64.3% 차지기업가치 할인 요인으로 작용5대 금융그룹(KB·신한·하나·우리·NH농협 금융)의 인건비 상승이 가파르게 이뤄지고 있다. 빅테크과 핀테크의 금융시장 진출이 가속화되는 상황에서 5대 금융지주의 기업가치 개선을 제한하는 압박 요인이다.5대 금융그룹의 올 9월까지 순이익은 14조352억원을 벌었다. 지난 해 연간(12조5504억원)보다 많다. 대출자산 증가세가 이어지는 가운데 저원가성 예금이 넘쳐나면서 조달비용은 감소했고, 정부 규제와 시장금리 상승으로 대출이자율은 높아지고 있어서다.주댁담보대출과 신용대출의 기준금리 역할을 하는 금융채의 지표금리인 국채 5년물 금리와 국채 1년물 금리는 1년 전에 비해 각각 약 1%p, 0.5%p 정도 올랐다. 정부의 가계대출 규제에 보조를 맞추기 위해 우대금리도 축소하거나 폐지했다. 5대 금융그룹의 올해 3분기 누적 이자이익은 31조3138억원으로 전년동기(27조9078억원) 대비 12.2% 늘었다.하지만 이자이익 만큼이나 인건비 부담도 커졌다. 5대 금융그룹 인건비는 올해 3분기 누적 11조7280억원으로 전년동기(10조6230억원)보다 10.4% 늘었다. 올해 6월 기준 5대 은행의 총 임직원은 7만5082명으로 작년 6월보다 오히려 1934명 줄었다. 은행권 임금상승률은 평균 2%가량이다.반면 인건비를 제외하면 감가상각비, 기타일반관리비 등을 합친 판관비는 올해 3분기 누적 6조5160억원으로 전년동기(6조4300억원)으로 1.3% 증가하는데 그쳤다. 영업 과정에서 쓰는 비용에는 물가상승률(최근 5년 평균 1.1%) 등이 반영된다. 전체 판관비에서 인건비가 차지하는 비율은 64.3%로 전년동기보다 2%포인트가 높아졌다.순이익 규모와 맞먹는 인건비 지출이 계속된다면 빅테크·핀테크의 금융진출이 확장되는 상황에서 상당한 부담이 될 수 밖에 없다. 금리비교 서비스가 보편화되는 상황에서 인건비 부담이 적은 카카오뱅크와 토스뱅크 등이 파격적 금리로 대출시장을 공략할 경우 ‘대규모 자금이동(money move)’이 나타날 가능성도 배제하기 어렵다.사상 최대실적에도 불구하고 KB금융와 신한지주 시가총액은 24조원, 20조원 수준으로 카카오뱅크의 29조원에 한참 못미친다. 이승환 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>금리 오르고 증시 흔들리자…예·적금 등 '안전자산' 선호 뚜렷</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004987984?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>5대 은행 정기예금 잔액 최근 급증토스뱅크, 조건 없이 2% 금리…경쟁 신호탄인뱅·시중은행도 고금리 특판 잇따라 선봬직장인 김태균씨(35·가명)는 최근 목돈 마련을 위해 토스뱅크의 예금과 신한은행의 첫급여 드림 적금 상품에 잇따라 가입했다. 사회생활 6년 차인 김씨는 그간 주식과 가상화폐 등 자산시장 중심의 적극적 투자에 나섰지만, 최근 불안한 시장 상황에 큰 손해를 입고 안전자산에 투자하기로 생각을 바꿨다. 주식 등에 비하면 수익률은 적지만 원금을 보장받을 수 있고 금리도 예전보다 높아져 목돈을 마련하기 위한 목적에 부합한다는 판단에서다.장기간 지속된 저금리 기조에서 투자처로 외면받던 은행들의 예·적금에 대한 소비자들의 관심이 되살아나는 분위기다. 한국은행의 통화정책 정상화에 따라 수신금리가 높아지는 데다 증시 불안 등으로 안전자산을 선호하는 심리가 확산하고 있기 때문이다.24일 금융권에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 지난 15일 기준 정기예금 잔액은 640조2670억원으로 9월 말(632조4234억원) 대비 7조8436억원 급증했다. 이는 지난 5월(9조5564억원 증가) 이후 최대 증가치다.주요 시중은행과 인터넷은행들이 기준금리 인상에 따라 예·적금 관련 금리를 높인 것도 영향을 끼쳤다. 특히 최근 출범한 토스뱅크가 조건 없는 고금리 상품을 선보인 것도 금리 경쟁을 쏘아올린 실마리가 됐다는 분석이다.토스뱅크의 수신상품은 아무 조건 없이 2% 금리를 제공하는 것이 특징이다. 단 하루를 맡겨도 맡긴 날짜만큼 이자가 제공되고 중간에 해지해도 혜택을 누릴 수 있다.파격적 혜택을 제공하는 탓에 소비자들의 반응도 뜨겁다. 토스뱅크의 사전예약 고객은 약 160만명에 달한다. 현재 약 40만~50만명이 신규 가입한 상태로 토스뱅크는 나머지 약 100만명의 예약 가입자의 통장 개설도 이달 내 완료한다는 방침이다.카카오뱅크와 케이뱅크 등 앞서 출범한 인터넷은행도 시중은행에 비해 비교적 높은 금리를 제공하고 있다. 케이뱅크는 지난 1일부터 ‘코드K 정기예금’의 금리를 1.5%로 인상했다. 지난 8월 기준금리 인상 발표 직후에는 수신금리를 0.2%포인트 올린 바 있다. 카카오뱅크는 지난 달 예·적금 금리를 0.3~0.4%포인트 인상했다. 예금의 경우 1.5%, 적금의 경우 자동이체 시 1.8% 금리를 제공한다.시중은행도 최근 들어 고금리 수신 상품을 잇따라 선보이고 있다. IBK기업은행은 ‘IBK 알토스 적금’을 출시했다. 알토스배구단의 ‘도드람 2021~2022 V-리그’ 성적에 따라 우대금리를 제공하는 자유적립식 상품이다. 계약기간은 1년이며 월 최대 50만원까지 납입이 가능하고 연말까지 5만좌 한정으로 판매된다. 상품의 기본금리는 연 1.00%로 우대금리 최대 연 2.00%포인트를 포함한 최고금리는 연 3.00%다.신한은행은 직장인을 겨냥해 ‘첫급여 드림’ 적금을 판매하고 있다. 급여이체 고객을 대상으로 우대금리를 제공하는 상품으로 최고 연 4.40%의 고금리를 제공하는 것이 특징이다. 새내기 직장인은 물론, 급여계좌를 옮기는 고객 모두 우대금리 혜택을 받을 수 있어 인기가 높다. 하나은행은 만 35세 이하 신규 입사자가 ‘급여하나 월복리 적금’에 가입하면 카드 이용 실적 등에 따라 최대 연 3.5%의 ‘복리’ 이자를 적용한다.다소 까다롭긴 하지만 조건만 맞다면 최고 연 7%의 금리를 제공하는 상품도 주목할 만하다. 우리은행의 ‘우리매직적금 바이 롯데카드’는 우리은행 거래 실적과 롯데카드 사용 실적에 따라 최고 7%의 금리를 보장한다. 케이뱅크도 우리카드와 손잡고 기본금리 1.8%에 우대금리 최고 8.2%를 더해 10%의 고금리를 제공하는 '핫딜적금 x 우리카드' 상품을 판매 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>'토스' 대표가 혁신 외치며 직원들에게 당부하는 말…"번트 말고 풀스윙하라"</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004868894?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>이승건 비바리퍼블리카 대표치과의사에서 토스 창업자로타다 인수로 모빌리티도 도전한국 최고 서비스 제공해시장 변화 이끄는게 기본 철학'포니정 영리더상'도 수상제2 로빈후드·페이팔 꿈꾸며세계 핀테크 시장 진출 계획도[매경DB] 국내 최초 핀테크 유니콘(기업가치 1조원 이상 비상장 기업). '최초'라는 이름이 언제나 익숙한 기업이 바로 비바리퍼블리카(토스)다. 국내에서 처음 간편송금 서비스를 시작한 토스는 이제 보험, 증권, 인터넷전문은행으로 보폭을 넓혔다. 최근에는 국내 최초로 '승차 호출' 서비스를 선보였던 타다를 인수하며 모빌리티 시장에 도전장을 던졌다. 최근 서울 강남구 본사에서 만난 이승건 비바리퍼블리카 대표(39)는 타다 인수에 대해 "토스는 시장에서 이미 하고 있거나 할 수 있는 상품을 내놓기보다 고객 삶에 큰 변화를 만들어내는 확신이 들 때 일을 진행한다"며 "모빌리티 분야에서도 같은 전략으로 고객에게 차별적인 혜택을 주기 위한 것"이라고 말했다. 연말 대형 택시 호출 서비스인 '타다 넥스트'가 시작되고, 타다 앱에서 토스로 간편 결제가 가능해질 전망이다.치과의사 출신인 이 대표는 세상을 바꾸고 싶어 창업을 했다. '살면서 자주하는 건데 불편한 게 무엇일까'라고 고민하던 그는 금융업에 발을 들였다. 그만큼 이 대표가 본 금융은 너무 불편하고 복잡했다. 금융당국과 금융사 설득을 거쳐 간편송금 서비스가 2014년 2월 처음 출시됐고, 이후 도전은 지금까지 이어져 왔다. 지난 5일 출범한 제3인터넷전문은행인 토스뱅크도 도전의 일환이다. 이 대표는 "토스뱅크는 사기업이지만 금융시장을 혁신하고 건강하게 만드는 게 목표인 조직"이라며 "주주가치 실현이나 매출 증대보다 필요한 건 시장을 긍정적으로 변화시키는 것"이라고 말했다. 토스뱅크의 '연 2% 입출금통장'도 이 같은 생각에서 나왔다. 이 대표는 "한국에서 가장 좋은 상품을 만드는 게 토스의 철학"이라며 "앞으로도 금리 혜택은 축소되거나 없어지지 않도록 최선을 다할 것"이라고 강조했다. 다만 정부 규제로 토스뱅크 대출 영업을 접은 것과 관련해서는 이 대표도 아쉬움을 표했다. 그는 "정부의 우려와 규제 취지에 공감한다"면서도 "토스의 혁신적인 여신 상품이 더 많은 고객에게 노출되지 못해 안타깝다"고 덧붙였다. 토스는 업무 강도가 세기로 유명하지만 수많은 '능력자'가 몰려든다. "번트를 치지 말고 풀스윙하라." 이 대표가 직원들에게 자주 하는 말이다. 그는 "경력이 3년도 안 된 직원이 사업비 400억원을 6개월 만에 쓸 수 있는 곳이 토스"라며 "개별 직원에게 높은 자율성을 부여하는 것도 우수한 인재들이 토스를 선택하는 이유"라고 했다. 엄청난 인재 밀도도 토스의 강점이다. 이 대표는 "어디서도 느낄 수 없는 인재 밀도가 토스에 있다"며 "매일 자극받고 배우는 동료들과 일할 수 있다"고 말했다. 토스는 이제 글로벌 기업을 꿈꾼다. 베트남에서는 이미 월 활성사용자(MAU)만 300만명을 모았다. 토스는 베트남을 시작으로 말레이시아와 인도네시아, 태국 등에도 진출했다. 해외 시장이 목표인 만큼 토스의 경쟁자는 전 세계 모든 기업이다. 휴대전화 제조사지만 결제 서비스에 진출한 애플처럼 모든 기업이 금융업에 진출해 서로 맞붙을 수 있기 때문이다. 이 대표는 "로빈후드·차임·페이팔 등 세계적인 기업들을 연구해 토스 고객들의 문제를 해결하는 데 활용할 수 있는 부분이 무엇인지 생각한다"고 설명했다. 금융 서비스를 생각하면 가장 먼저 '토스'를 떠올릴 수 있게 하는 것이 이 대표의 목표다. 이 대표는 배구선수 김연경과 함께 최근 만 40세 이하 젊은 혁신가에게 주는 '제2회 포니정 영리더상' 수상자로 선정됐다. 이 상은 현대자동차 설립자인 '포니정(PONY鄭)' 고(故) 정세영 HDC그룹 명예회장의 혁신과 도전 정신을 이어가기 위해 만들어졌다. 이 대표는 "도전 정신과 창업가 정신으로 유명한 고인의 뜻이 내 인생과 맞닿아 있어 매우 기쁘다"고 수상 소감을 밝혔다. 시상식은 다음달 5일 서울 강남구 삼성동 아이파크타워 포니정홀에서 개최된다.  ▶▶ 이 대표는…△1982년 출생 △2007년 서울대 치의학과 △2008년 삼성의료원 전공의 △2011년 비바리퍼블리카 창업 △2015년 2월 간편송금 서비스 토스 출시 △2016년 4월~2018년 3월 한국핀테크산업협회장</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>센스톤, 토스뱅크에 카드접촉식 OTP 기술 국내 최초 적용</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002111911?sid=105</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 인증보안 기술 스타트업 센스톤(대표 유창훈)은 인터넷전문은행 토스뱅크에 국내 최초로 아이폰에서도 이용할 수 있는 카드 접촉식 OTP 인증 기술 ‘스위치 OTP(switch OTP)’를 공급한다고 20일 밝혔다. 센스톤이 선보인 스위치 OTP는 휴대폰 뒷면에 태깅하는 것만으로도 OTP 코드를 실시간으로 생성하는 기술이다. 사용자 편의성과 강력한 보안 기능을 동시에 갖췄으며, 현재 가장 진화된 형태의 OTP 솔루션으로 평가받는다. 이번에 토스뱅크 체크카드에 탑재되었으며, 이를 통해 토스뱅크 앱 사용자는 체크카드를 휴대폰에 태깅하는 것만으로 고액 송금 서비스를 이용할 수 있다. 스위치 OTP에는 센스톤의 원천기술인 OTAC(One-Time Authentication Code)가 적용됐다. 근거리무선통신(NFC) 기술을 활용해 사용자가 본인의 휴대폰 뒷면에 카드를 태깅하면 금융 서비스를 이용하는 과정에서 본인 인증은 물론, 고액 송금 및 이체를 위한 2차 인증까지도 한 번에 가능하다. 국내 금융기관에서 많이 사용하는 모바일 OTP와 달리 핀(PIN) 번호 입력도 필요하지 않다. 기존 OTP가 ID/PW 또는 생체인식 로그인 이후 2차 인증 용도로만 사용되는 반면, 스위치 OTP에 적용된 OTAC는 고유 사용자 식별이 가능하고 타 사용자와 코드 중복 가능성이 없어 곧바로 1차 인증만으로도 금융 서비스를 제한 없이 이용할 수 있다. 게다가 기존 스마트 OTP 사용이 불가능한 아이폰에서도 이용할 수 있도록 문제를 개선했다. 이는 센스톤이 업계 최초로 풀어낸 것이며, 그동안 스마트OTP 활용에 있어 어려움을 겪던 아이폰 이용자들도 더욱 안전하고 간편하게 인터넷 뱅킹 서비스를 이용할 수 있게 됐다. 유창훈 센스톤 대표는 “디지털 금융 혁신을 선도하고 있는 토스뱅크에서 센스톤의 세계 최초 단방향 다이내믹 인증 기술인 OTAC 기반의 스위치 OTP가 적용된 금융 서비스를 선보이게 되어 매우 기쁘다”며 “앞으로 토스뱅크와의 보다 긴밀한 파트너십을 바탕으로 다양한 금융 서비스 인증은 물론, 새로운 비즈니스 개발에 기여할 수 있기를 기대한다”고 덧붙였다. 토스뱅크는 10월 5일 국내 세번째 인터넷전문은행으로 정식 출범했다. 포용과 혁신의 인터넷은행을 표방하며 고객 중심의 상품 및 서비스 개발, 중저신용자 포용, 시대적 흐름에 따른 기술적・정책적 진화를 추구한다. ‘완전히 새로운 은행’을 선언하며 사전 신청에 약 170만명이 몰리는 등 사용자들의 기대를 한 몸에 받고 있기도 하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>말 많은 빅테크 보험시장 진출…車보험 금지 등 제약 많을 듯</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001901654?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>보험업계 유통종속 우려방카·GA수준 규제 적용수수료·판매비중 제한도금융위원회가 카카오페이·토스 등 빅테크의 보험 중개를 허용하기로 가닥을 잡으면서 기존 보험사들의 유통시장 종속 우려도 다시 커지게 됐다. 이 때문에 금융위가 빅테크 에 적용할 각종 판매 규제에 관심이 모아지고 있다.20일 금융당국에 따르면 금융위원회는 온라인·모바일 플랫폼을 통한 보험판매 가이드라인에 사전, 사후적 판매 규율을 담을 계획이다. 보험대리점(GA)으로 등록할 수 있게 진입규제를 개선하는 만큼 소비자 보호 책임도 강화한다는 취지다. 기존 보험사나 보험대리점과 공정경쟁을 보장하기 위한 목적도 있다.먼저 모집상품 범위다. 온라인플랫폼 보험대리점은 CM(사이버마케팅) 상품만 팔도록 제한하는 방안이 검토되고 있다. 오프라인 전용인 GA 상품이나 TM(텔레마케팅) 상품은 팔지 못한다. CM 보험상품은 특약이 많지 않아 비교적 상품 구조가 단순하다. 또 수수료도 가장 저렴하게 설계돼 있다.자동차보험도 취급하지 못할 가능성이 크다. 금융소비자보호법 이슈와 별개로 금융당국은 플랫폼의 자동차보험 비교·추천 서비스에 대해 부정적인 입장을 업계에 전달한 바 있다. 자동차보험은 의무보험인 데다가 상품 간 차별도가 낮아 플랫폼 의존도가 높아질 수 있다는 이유에서다. 이미 자동차보험 가입자의 약 50%가 비대면 채널을 통해 가입하고 있다.또 보험료가 인상될 우려도 금지 이유가 된다. 현재 다이렉트 자동차보험은 오프라인보다 18%가량 보험료가 저렴하다. 그런데 플랫폼이 중개를 하면 ‘원수사→고객’의 직거래 구조가 ‘원수사-유통업자(빅테크)-고객’의 옛 구조로 돌아가 소비자에게 돌아가는 할인 혜택이 줄 수 있다.방카슈랑스(은행서 보험 판매)가 일반보장성보험과 자동차보험을 팔지 못하는 것과 유사한 규제다.플랫폼 업체들의 반발이 예상된다. 한 핀테크 업체 관계자는 “미니보험과 같은 간단 보험만 취급해선 생존하기 어렵다. 장기보험까지 열어줘야 한다”며 “또 CM상품의 경우 보험사들이 다양하게 만들지 않아 고객들에게 제공할 수 있는 리스트가 제한적”이라고 말했다. 아울러 ‘방카슈랑스 25% 룰’처럼 특정 보험사 상품 판매 비중을 25%를 넘지 않게 제한하는 규제도 담을 계획이다. 특정 보험사 밀어주기를 막기 위한 조치다. 카카오페이가 카카오페이손해보험의 상품만 팔아 줄 우려가 있다.수수료 규제도 포함된다. 오프라인 GA는 과당경쟁을 방지하기 위해 세밀한 수수료 규제를 받고 있다. 1200% 룰이 대표적이다. 보험사가 GA에 지급하는 첫해 모집수수료를 월 납입보험료의 12배로 제한하는 내용이다. 반면 플랫폼은 ‘광고비’ 명목으로 각 보험사들한테 받는 실질적 수수료는 그러한 제한이 없다.이 밖에 대출모집인도 GA로 등록할 수 있게 허용할 계획이다. 다만 GA의 마이데이터 사업자 등록은 포함되지 않을 가능성이 있다.보험업계는 초긴장 상태다. 빅테크가 자신들의 데이터베이스(DB)를 바탕으로 보험영업을 시작하면 기존 중소형 보험사의 영업 실적을 뛰어넘는 영향력을 미칠 것이라고 우려하고 있다.지난달 보험협회는 금융당국에 플랫폼의 보험 중개 시장 진출과 관련한 의견을 전달했다. 보험업계 관계자는 “동일업무 동일규제 기조에 맞게 플랫폼에도 똑같은 판매 규제들이 동등하게 적용돼야 한다”고 지적했다.금융위 관계자는 “아직 결정된 내용이 없다”고 전했다. 정경수 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스, 연말 휴무 정례화… 내년 비포괄임금제로 전환</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000767457?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>금융 플랫폼 기업 토스는 내달부터 새로운 인사 제도를 도입한다고 19일 밝혔다. 주 4.5일 근무와 연말 휴무를 정례화하는 등 소위 ‘워라밸(일과 삶의 균형)’과 보상을 강화하고, 단기 평가를 폐지하는 게 주요 골자다.회사 로고        이 회사에 따르면, 지난 4개월 간 시범 도입한 금요일 조기 퇴근제도 (Early Friday)를 정례화한다. 사실상 주 4.5일제를 실시하는 것이다.지난 연말 휴가 제도인 ‘겨울방학’도 정례화한다. 이는 12월 성탄절 전후로 약 10일 간 전사 휴무를 갖는 제도다. 고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 것이 원칙이다. 사내 메신저도 업무 종료 후 상호 답변을 요구하지 않는 휴식모드에 들어간다.선택적근로시간제 도입과 함께 휴가 사용과 재택 근무, 출퇴근 시간 등 근태를 별도 승인 없이 구성원 자율에 맡기는 원칙은 변함없이 유지된다. 토스 관계자는 “그동안 업무수행(퍼포먼스)와 몰입을 지향하는 문화를 바탕으로 상호 신뢰가 구축됐다고 판단됐기 때문”이라고 말했다.현재 포괄임금제는 내년 초 비포괄임금제로 전환한다. 새 임금제도에서는 법정 표준 근무시간인 주 40시간을 초과한 근무시간은 연봉 외에 별도 수당이 지급된다. 이로 인해 신규 입사자 뿐 아니라 기존 입사자들에게도 기존 연봉이 크게 상승하는 효과가 있다는 게 회사 측 설명이다. 단 총 근무시간은 주 52시간을 넘지 못한다.평가 제도도 대폭 바뀐다. 이 회사가 초창기부터 전통적 인사 고과의 대안으로 운영해온 ‘3개월 리뷰 과정’과 ‘스트라이크’ 제도를 폐지한다. 신규 입사자의 성과 수준을 높이고, 구성원들의 도덕적 해이를 방지한다는 취지 하에 이를 운영해왔으나, 입사자와 재직자에게 충분한 심리적 안정감을 제공하는 것이 팀의 성공에 더 효과적이라는 판단 하에 평가 제도를 개선하기로 한 것이다. 대신 이 회사는 채용 절차를 고도화하고, 동료 간 자유로운 업무 피드백 문화를 활성화해 조직의 인재 밀도와 역량을 관리해 나갈 방침이다.이번 인사제도는 토스(법인명 비바리퍼블리카)는 물론, 토스뱅크, 토스증권, 토스페이먼츠 등 주요 계열사에 모두 동일하게 적용된다. 단, 고객 상담업무를 하는 토스CX 와 보험 컨설턴트 중심 조직인 토스인슈어런스는 업무 특성을 감안해 수습기간 유지 등 자체 인사제도를 운영할 예정이다.박토니 피플앤컬쳐팀 리더는 “인사 제도 변화는 계속 되겠지만, 신뢰에 기반한 자율과 책임, 높은 수행능력을 지향하는 문화와 핵심원칙은 변하지 않을 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.10.29.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>손병환 농협금융 회장 “카카오·토스서 배워라”</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000770314?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>농협금융 DT추진최고협의회서 언급  “불합리한 업무 방식·관행·문화 타파해야” “고객의 불편 사항 해소를 위해 토스나 카카오의 노력과 사업 추진 자세를 벤치마킹해야 한다.손병환 NH농협금융 회장”손병환 NH농협금융 회장은 지난 28일 전 계열사 디지털 최고책임자들이 참석하는 제4차 농협금융 DT(디저털 전환) 추진 최고협의회에서 이렇게 말했다. 이날 손 회장은 화상으로 진행된 회의에서 계열사의 DT 추진 상황을 점검하고 ‘2022년 농협금융 DT 추진 방향과 중점 추진 과제’에 대해 참석자들과 심도 있는 논의를 진행했다.손 회장은 ”우리도 지난 몇 년간 DT 추진에 많은 노력을 기울여 왔지만, 아직 부족하다”며 ”불합리한 업무 방식과 관행, 기업 문화까지 모두 고객 눈높이에 맞춰달라”고 했다.서울 중구 소재 NH농협금융지주 본사 회의실에서 지난 28일 개최된 2021년 제4차 ‘농협금융 DT추진최고협의회’에서 손병환 농협금융 회장이 화상회의를 주재하고 있다. /NH농협금융지주        특히 인터넷전문은행에서 제공 중인 상품이나 서비스 중 농협이 놓치고 있는 것은 없는지 세밀하게 분석해 대응 방안을 마련하라고 지시했다. 전통 금융기관이 인터넷전문은행과 경쟁해 살아남기 위해서는 적어도 인터넷은행과 동일한 수준의 상품·서비스를 제공할 수 있어야 한다는 이유에서다. 내부 규정이나 업무 관행 등의 이유로 고객 불편이 있지는 않은지 살펴보라는 것이다.일례로 농협은행은 금융사고 취약 계층인 고령 고객이 많은 특성을 감안해, 다른 고객이 다소 불편하더라도 엄격한 규정 등을 적용해 사고를 예방해 왔다. 그 덕에 농협은행의 대포 통장 발생 건수는 시중은행 중 가장 낮은 수준으로 관리되고 있다. 하지만 디지털 환경 하에서는 변화하는 고객경험(CX)에 맞춰 고객이 원하는 서비스를 제때 제공하고, 불가피하게 발생하는 고객 불편까지도 세세히 살펴서 해결할 수 있는 묘수를 찾아내야 한다는 것이 손 회장 생각이다.농협금융은 손 회장의 디지털 철학을 담은 ‘고객 관점 종합금융플랫폼’ 구축 전략 컨설팅을 마무리하고, 내년 6월 1차 오픈을 목표로 IT 개발에 착수한다. 손 회장은 “출범 10주년을 맞는 2022년은 농협금융 DT 인프라가 완성되고 비즈니스 성과로 연결되는 원년이 될 것”이라며 “디지털 금융을 통해 농협금융의 다음 10년을 대비해 나갈 수 있도록 계열사와 전 임직원들이 역량을 모아 달라”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.10.18.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>본격 금리인상기…예·적금 등 '안전자산'에 눈돌리는 소비자(종합)</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004984835?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>기준금리 인상·자산시장 불안으로 '안전자산' 선호토스뱅크, 조건 없이 2% 금리…경쟁 신호탄인뱅·시중은행도 고금리 특판 잇따라 선봬직장인 김태균씨(35·가명)는 최근 목돈 마련을 위해 토스뱅크의 예금과 신한은행의 첫급여 드림 적금 상품에 잇따라 가입했다. 사회생활 6년 차인 김씨는 그간 주식과 가상화폐 등 자산시장 중심의 적극적 투자에 나섰지만, 최근 불안한 시장 상황에 큰 손해를 입고 안전자산에 투자하기로 생각을 바꿨다. 주식 등에 비하면 수익률은 적지만 원금을 보장받을 수 있고 금리도 예전보다 높아져 목돈을 마련하기 위한 목적에 부합한다는 판단에서다.장기간 지속된 저금리 기조에서 투자처로 외면받던 은행들의 예·적금에 대한 소비자들의 관심이 되살아나는 분위기다. 한국은행의 통화정책 정상화에 따라 수신금리가 높아지는 데다 증시 불안 등으로 안전자산을 선호하는 심리가 확산하고 있기 때문이다. 최근 출범한 토스뱅크가 조건 없는 고금리 상품을 선보인 것도 금리 경쟁을 쏘아올린 실마리가 됐다는 분석이다.18일 금융권에 따르면 주요 시중은행과 인터넷은행 가운데 가장 매력적인 예금금리를 제공하는 곳은 토스뱅크다. 토스뱅크의 수신상품은 아무 조건 없이 2% 금리를 제공하는 것이 특징이다. 단 하루를 맡겨도 맡긴 날짜만큼 이자가 제공되고 중간에 해지해도 혜택을 누릴 수 있다.파격적 혜택을 제공하는 탓에 소비자들의 반응도 뜨겁다. 토스뱅크의 사전예약 고객은 약 160만명에 달한다. 현재 약 40만~50만명이 신규 가입한 상태로 토스뱅크는 나머지 약 100만명의 예약 가입자의 통장 개설도 이달 내 완료한다는 방침이다.카카오뱅크와 케이뱅크 등 앞서 출범한 인터넷은행도 시중은행에 비해 비교적 높은 금리를 제공하고 있다. 케이뱅크는 지난 1일부터 ‘코드K 정기예금’의 금리를 1.5%로 인상했다. 지난 8월 기준금리 인상 발표 직후에는 수신금리를 0.2%포인트 올린 바 있다. 카카오뱅크는 지난 달 예·적금 금리를 0.3~0.4%포인트 인상했다. 예금의 경우 1.5%, 적금의 경우 자동이체 시 1.8% 금리를 제공한다.시중은행도 최근 들어 고금리 수신 상품을 잇따라 선보이고 있다. IBK기업은행은 ‘IBK 알토스 적금’을 출시했다. 알토스배구단의 ‘도드람 2021~2022 V-리그’ 성적에 따라 우대금리를 제공하는 자유적립식 상품이다. 계약기간은 1년이며 월 최대 50만원까지 납입이 가능하고 연말까지 5만좌 한정으로 판매된다. 상품의 기본금리는 연 1.00%로 우대금리 최대 연 2.00%포인트를 포함한 최고금리는 연 3.00%다.신한은행은 직장인을 겨냥해 ‘첫급여 드림’ 적금을 판매하고 있다. 급여이체 고객을 대상으로 우대금리를 제공하는 상품으로 최고 연 4.40%의 고금리를 제공하는 것이 특징이다. 새내기 직장인은 물론, 급여계좌를 옮기는 고객 모두 우대금리 혜택을 받을 수 있어 인기가 높다. 하나은행은 만 35세 이하 신규 입사자가 ‘급여하나 월복리 적금’에 가입하면 카드 이용 실적 등에 따라 최대 연 3.5%의 ‘복리’ 이자를 적용한다.다소 까다롭긴 하지만 조건만 맞다면 최고 연 7%의 금리를 제공하는 상품도 주목할 만하다. 우리은행의 ‘우리매직적금 바이 롯데카드’는 우리은행 거래 실적과 롯데카드 사용 실적에 따라 최고 7%의 금리를 보장한다. 롯데카드를 주로 사용하는 고객이라면 해당 상품이 충분히 매력적일 수밖에 없다. 케이뱅크도 우리카드와 손잡고 기본금리 1.8%에 우대금리 최고 8.2%를 더해 10%의 고금리를 제공하는 '핫딜적금 x 우리카드' 상품을 판매 중이다.은행 관계자는 "통화정책 정상화로 기준금리가 앞으로도 더 상승할 여지가 큰 만큼 장기 수신상품보다는 1년 단위 예·적금에 가입하는 것이 좋다"며 "저금리 상황에서 외면받던 수신상품의 소비자들 수요가 늘어날 것으로 기대된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>ICT업계 "통신망 장애시에 대비하자"…망 다원화 노력</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012749236?sid=105</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>KT망 장애 "카드 결제 안 됩니다"(구례=연합뉴스) 장아름 기자 = 지난 25일 오전 KT 인터넷망이 전국적으로 한 시간 넘게 장애를 일으키면서 전남 구례군 마산면 한 식당 입구에 '전산망 오류로 인해 카드 결제 불가' 안내문이 붙어 있다. [연합뉴스 자료사진]    (서울=연합뉴스) 최현석 기자 = 정보통신기술(ICT) 업체들이 최근 고객 서비스용과 업무용 통신망 다원화에 힘쓰고 있다.     25일 발생한 KT 망 장애처럼 한 통신사에 문제가 생기더라도 다른 통신사 망으로 즉각 전환해 고객 서비스와 업무를 지속할 수 있도록 하려는 노력이다.     27일 ICT업계에 따르면 모바일 금융 플랫폼 기업 토스는 다음 주부터 사내 업무용 데이터통신망을 '이중화'할 계획이다.    25일 KT 망 장애로 사내 메신저 등 업무에 일시적이나마 차질이 빚어지자 재발 방지를 위해 데이터통신망 제공 통신사 한 곳을 추가한 것이다.    토스는 고객 서비스용 데이터통신망은 2개 통신사로 이미 이중화한 상태지만, 업무용 망은 KT 한 곳만 사용해왔다.    토스는 사내 전화기를 설치하지 않아 업무용 음성통신망은 이용하지 않고 있다.     카카오페이는 고객 서비스용 데이터통신망을 3개 통신사로부터 공급받아 '삼중화' 조치를 한 상태다.    통신사별로도 2개 망을 사용함으로써 통신망 장애에 따른 피해 가능성을 최소화했다.     업무용 통신망으로는 단일 통신사의 2개 망을 사용하고 있다.     네이버도 망 삼중화로 고객 서비스를 하고 있으며, 업무용 망도 3개 통신사를 이용하고 있다.     카카오와 넷마블 등은 백업 망을 보유하고 있다면서도 영업 기밀과 해커 공격에 대한 우려 등을 이유로 다른 구체적인 사항은 공개하지 않았다.    일부 게임업체는 망 다원화 외에 클라우드 서버 등을 통해 서비스 차질을 줄이려고 노력하고 있다.     넥슨 관계자는 "유통업체에서 결제 편의가 중요한 만큼 ICT 기업들에는 고객 정보 보안, 서비스 안정성이 가장 중요하다"며 "물리 서버와 클라우드 서버를 동시에 운영하고 있어 전날과 같은 장애가 발생했을 경우에도 서비스 운영에 차질이 최소화되도록 노력하고 있다"고 말했다. 반복되는 KT 통신장애…사과•보상은 '나몰라라?' (CG)[연합뉴스TV 제공]    harrison@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>전방위 대출규제에…대출비교 핀테크도 울상</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001901543?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>대출규제 여파로 상품 중단수요자 금리, 한도조회 줄어18일 서울 시내의 한 은행 앞에 걸린 대출 안내문 모습. [연합][헤럴드경제=박자연 기자]지난달부터 시중은행들이 신용대출 연봉제한, 일부 상품 판매 중단 등 전방위 대출 규제에 들어가면서 대출비교를 주 업무로하는 핀테크들도 영업에 어려움을 겪고 있다. 은행권에서 이용할 수 있는 상품이 줄자 대출 수요자들도 플랫폼을 통해 금리·한도를 비교할 필요성 또한 낮아졌다는 분석이다.20일 빅데이터 분석 플랫폼 모바일인덱스에 따르면 지난달 대출비교 핀테크 플랫폼 앱 이용자수가 급감했다. 대출비교를 주 업무로 하는 핀셋N과 알다 앱의 경우 7월 대비 54.6%, 30.2%씩 이용자 수가 줄었다. 농협은행이 처음으로 주택담보대출 신규 취급을 중단하면서 가계대출 관리에 대한 관심이 높아지던 8월에는 이용자 수가 미미하게 감소했으나 대다수 시중은행이 대출 규제에 동참하던 지난달부터는 대출 수요자들이 핀테크 앱 방문을 본격적으로 줄인 것이다.대출비교 외 다른 금융서비스를 제공하는 토스와 카카오페이, 핀크 등은 앱 이용자수에 있어 큰 변화는 없었지만, 업계에서는 대출비교 서비스 이용량이 대출 규제 이후 낮아진 것으로 파악하고 있다.업계에서는 일부 금융사들이 핀테크를 통한 대출 신청을 중단한 상황도 영향을 미쳤다고 판단한다. 지난달 금융당국이 전 은행권과 2금융권에 대출 총량 관리에 유의할 것을 주문하면서 몇몇 저축은행과 지방은행들은 대출비교 플랫폼을 통한 대출 조회와 신청을 막았기 때문이다.대출비교 플랫폼들은 금융소비자보호법 ‘중개’ 판단 이슈로 영업이 중단될 상황에 놓였다가 대다수 업체들이 대출판매·중개대리 라이선스를 취득하면서 대출 비교 업무를 지속할 수 있었다. 그런데 난관을 극복 하자마자 대출규제로 인해 또 다른 암초를 만난 셈이다. 한 업계 관계자는 “금리가 오르는 상황에서 규제로 대출이 막혀있으니 이용자가 줄 수밖에 없다”고 토로했다.금융위가 이달 출범을 목표로 추진하던 대환대출플랫폼이 중단된 것도 이들의 어려움을 가중시키는 요인 중 하나다. 금융위는 은행권과 핀테크 합의가 안됐다는 이유로 사업을 전면중단했다. 금융위는 관련 인프라 구축을 내년으로 연기하는 것을 논의 중이다.이러한 상황에서 일부 핀테크는 자체 마케팅으로 상황을 타개하고 있다. 지난달부터 TV·옥외 광고를 시작한 핀다의 경우 해당 마케팅으로 인해 이용자 유입이 늘고 있는 것으로 전해진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.10.31.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>가족관계증명서·건강검진내역서 등 모바일 전자증명서 156종 추가</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005691966?sid=102</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>국가전문자격증·면허증 등 연말까지 306종으로 확대전자증명서 안내 및 이용 방법.(행정안전부 제공)© 뉴스1(서울=뉴스1) 허고운 기자 = 연말부터 국가전문자격증과 면허증을 모바일 전자증명서로 발급받고 제출까지 가능해진다.행정안전부는 올해 말까지 가족관계증명서, 기업확인서, 생활자격·면허증 등 200종을 추가해 총 300종 이상으로 모바일 전자증명서 발급을 확대한다고 31일 밝혔다.행안부가 2019년부터 시행하고 있는 모바일 전자증명서는 국민이 민원 신청에 필요한 구비서류를 발급기관을 방문하지 않고 24시간 스마트폰으로 발급받아 원하는 기관에 제출까지 가능한 서비스다.현재 기존의 100종 증명서에 더해 어선원부, 공인중개사자격증 등을 포함한 50종의 전자증명서를 제공하고 있다.11월부터는 건강검진내역서 등 34종과 국민과 금융기관 등 수요가 많은 대법원의 가족관계증명서 등 22종이 추가돼 총 56종이 전자증명서로 발급 및 확인이 가능하다.12월에는 중소기업·벤처기업 확인서, 청소년지도사자격증 등 100종의 전자증명서를 추가로 발급할 계획이다.전자증명서는 현재까지 공공·민간분야 등 93개 기관에서 업무에 활용하고 있다. 정부24 외에 페이코, 토스, NH스마트뱅킹 등 민간 앱에서도 전자증명서를 발급받아 제출할 수 있다.이달 25일부터는 교보생명 모바일창구 앱을 통해 보험·금융업무 등에 필요한 주민등록표등본 등 13종의 전자증명서를 발급받아 제출이 가능해졌다.11월 17일부터는 우리은행 원(won)뱅킹 앱에서도 건강보험료 납부확인서 등 11종의 전자증명서 발급이 가능하다. 한창섭 행안부 정부혁신조직실장은 "올해 말까지 전자증명서를 300종 이상 확대해 각종 생활자격·면허증과 대학교 증명서도 전자증명서로 발급받을 수 있을 것"이라며 "앞으로도 다양한 분야에서 전자증명서가 발급되고 활용될 수 있도록 관계기관과 협력하겠다"고 말했다.전자증명서 확대 발급 대상 주요 목록.(행정안전부 제공)© 뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>"호성님" "민택님" 행장 이름 부르는 인터넷銀 '수직문화 해체' 실험</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002976968?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>호칭 파괴로 '격식보다 혁신' 강조케이뱅크 '콤파스 미팅' 소통 강화토스뱅크, 위계 없는 조직문화 설립카카오뱅크, 대표실·임원실도 없어서호성 케이뱅크 행장홍민택 토스뱅크 대표윤호영 카카오뱅크 대표인터넷전문은행 조직문화에 새바람이 불고 있다. 호칭을 없애는 '호칭파괴'에 이어 막내 직원이 직접 행장과 소통하는 수직문화 해체 실험도 시작한다.21일 케이뱅크는 내부 소통 강화를 위한 '콤파스 미팅(Compass Meeting)' 제도를 신설했다. 콤파스 미팅은 연 4회 분기별로 전 직원이 서호성 행장과 소통하는 자리다. 새로 입사한 막내도 행장과 직접 대면해 의견을 개진하고 아이디어를 공유한다. 은행 내부 궁금증을 풀어주기 위해 행장이 직접 마련했다. 모든 임직원이 상호직책, 직급 없이 'OO님'으로 호칭하는 방식을 도입했다. 케이뱅크 임직원은 서 행장을 '호성님'으로 부른다. 서 행장이 케이뱅크에 강조하는 것은 격식이 아니라 소통이다. 그는 거창한 양식의 보고서보단 캐주얼 미팅을 선호한다. 사옥 내 복도에 마련된 아이디어 월을 배치하고 스탠딩 회의를 자주 갖는다.이달 공식 출범한 토스뱅크도 위계 없는 조직문화 설립에 주안점을 뒀다. 사내에서 직급을 부르지 않는다. 임직원은 홍민택 대표를 '민택님'으로 부른다. 홍 대표는 비서가 없고, 업무용 메신저 '슬랙'을 활용해 임직원과 의견을 실시간으로 주고받는다. 보고 문화를 없애고 업무 경계 없이 현안에 대해 임직원과 직접 소통한다.토스뱅크 전 직원이 함께 모이는 '위클리'도 도입했다. 영상회의로 모든 직원이 참석해 다양한 의견을 자유롭게 말한다. 기존 은행에서 행장에게 의견을 말하기 위해 수차례 대면 보고하는 체계를 밟는 것과 대조적이다. 카카오뱅크는 모든 구성원을 영어 이름으로 부른다. 윤호영 카카오뱅크 대표는 '대니얼'로 불린다. 대표실과 임원실이 따로 없다. 대표도 일반 직원과 함께 같은 공간에서 근무하며 이야기를 나누고 싶을 때는 직접 직원의 자리로 찾아와 선 채로 이야기를 나눈다.특정 아이디어가 채택되면 상품 기획과 개발, 디자인, 마케팅 등을 맡는 태스크포스(TF)가 꾸려지는 등 카카오 애자일 문화를 카카오뱅크에도 가져왔다. 카카오뱅크는 조직문화 핵심가치로 수평, 공유, 존중, 혁신 등 네 가지를 꼽는다. 또 조직개편을 통해 모든 조직을 '그룹-파트'에서 '팀' 단위로 쪼갰다. 카카오뱅크 관계자는 “누구나 의견을 낼 수 있고, 내 의견이 실제로 반영된 상품과 서비스를 출시할 수 있다”면서 “기존 은행에선 볼 수 없는 속도로 의견 공유가 가능하고 그만큼 혁신 시계도 빨라지고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.10.29.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>[디지털혁신대상 손해보험협회장상-NH농협손해보험] 반복업무 자동화 시스템 구축...직원 효율화 업</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001905835?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>NH보험  NH농협손해보험(대표 최창수)은 RPA 시스템 구축을 통해 업무 효율화를 추진하고 소액단기 레저보험, 밀레니얼 고객대상 3대 진단비 보험 등 고객 편의성을 높인 상품을 출시해 제26회 헤럴드보험대상 디지털혁신 대상을 받았다.우선 NH농협손해보험은 사람이 수행하던 규칙·반복적인 업무를 자동화 하는 디지털 기술인 RPA(Robotic Process Automation) 시스템을 구축해 업무 효율화를 추진했다.RPA도입으로 전사적 업무가치 제고, 업무 프로세스 혁신, 영업현장 업무경감, 업무 생산성 향상이 이뤄지고 연간 약 1만 시간의 업무 시간을 절감할 수 있었다. 이는 디지털신기술 활용 업무효율화를 통해 조직 혁신을 추구한 것으로 단순·반복 업무의 자동화가 가능해지면서 직원 업무 몰입도와 만족도가 높아졌다. 또 24시간·365일 무중단 업무 처리로 운영 생산성 제고와 소비자 편익이 증대다. 농협손보는 올 7월부터 전직원 아이디어 공모를 통해 RPA업무 확대를 통한 연간 2만시간 업무 절감 추진 중이다.또 농협손보는 지난해 11월 비대면 트렌드를 반영한 소액 단기 레저보험인 ‘하루보장레저보험’을 출시했다. 이 상품은 레저활동 및 단체활동의 특성을 반영한 보험사 최초 미니 레저보험이다. 동반인(최대 8인) 추가 프로세스를 구축해 고객 편의성을 제공한다.‘하루보장레저보험’은 비대면전용 상품으로 고객들이 언제 어디서나 가입 가능하게 했고, 민간인증서 3종(카카오페이, 토스, PASS)을 동시 적용해 편의를 개선했다. 보험료도 NH포인트와 모바일 보험상품권을 활용해 납부할 수 있게 했다.이와 함께 같은 달 가성비, 실용성, 편리함을 강조하는 밀레니얼 고객 대상 ‘NH3대진단비보험’을 출시했다. 이 상품은 한국인의 주요 사망 원인인 3대 질병(암·뇌·심장) 진단비를 집중 보장한다. 이 역시 공인인증서 없이 카카오페이, 휴대전화, 신용카드로 가입이 가능하며, 가입 후 3개월 유지시 초회 보험료에 상응하는 금액(최대 3만원)을 NH포인트로 적립해준다.박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>폼랩, 폼 워시 L 및 폼 큐어 L 출시</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002977781?sid=105</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>대형 3D 프린팅 제품 라인업 완성새로 출시된 폼 워시 L(왼쪽)와 폼 큐어 L3D 프린팅 기업 폼랩은 대형 프린터 자동화 후처리 시스템 '폼 워시 L(Form Wash L)'과 '폼 큐어 L(Form Cure L)'을 출시한다고 27일 밝혔다.다비드 라카토스 폼랩 최고제품책임자(CPO)는 “폼랩은 앞서 산업용 고객 대상으로 대형 프린터인 폼 3L과 폼 3BL을 출시했다”며 “폼 워시 L과 폼 큐어 L이 SLA 3D 프린팅 솔루션에 추가되면서 고객을 위한 사용 편의성과 자동화 수준을 비약적으로 향상시킬 것”이라고 설명했다.폼 워시 L은 SLA 3D 출력물을 세척하고 폼 큐어 L은 경화 프로세스를 마무리해서 출력된 부품이 최고의 기계적 속성과 정확한 규격을 갖추도록 해준다. 두 장비는 폼랩의 전체 SLA 프린터 라인과 호환되며 대형 부품 제작이나 소형 부품의 대량 제작에도 사용될 수 있다.폼 워시 L과 폼 큐어 L을 이용한 후처리 과정은 각각의 폼랩 레진에 맞게 튜닝된 세팅을 사전 프로그래밍으로 제공, 사용자의 워크플로우를 자동·간소화한다. 특히 이들 대형 솔루션은 자사 ISO 13485 설비에서 생산된 생체적합성, 살균 가능 재료를 포함한 폼랩의 주요 SLA 재료와도 호환된다.폼랩 대형 3D 프린팅 전체 제품라인의 완성으로 고객들은 시간과 비용 측면에서 효율적인 대량 생산이 가능하게 됐다. 또 사용자 편의성을 고려해 설계된 폼랩 3D 프린팅 솔루션은 전체 작업 프로세스에서 발생하는 번거로움을 줄여준다.김진욱 폼랩코리아 지사장은 “기존 폼 3L을 사용하던 고객이 폼 워시 L과 폼 큐어 L에 대한 요구가 높았다”며 “제품 출시로 폼랩이 산업용 대량생산에 필요한 전체 솔루션을 제공하게 돼 향후 폼 3L에 대한 고객 요구가 더욱 높아질 것”이라고 밝혔다.폼 워시 L과 폼 큐어 L은 10월말부터 본사 홈페이지와 국내 파트너사를 통해 사전 주문이 가능하며 2022년 1분기 고객에게 전달될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>‘전세대출로 빚투’ 막는다···내달부터 “잔금일 전 상승분만”</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003977923?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>17개 모든 은행서 실시전세대출 받아 빚투 나서는 행위 차단/연합뉴스[서울경제] 앞으로 소비자는 모든 은행에서 전세대출을 받을 때 최대 전셋값 상승분까지, 잔금 지급일 이전에만 받을 수 있다. 1주택자가 전세대출을 받을 때도 은행을 직접 찾아가야 한다. 27일 은행권에 따르면 17개 은행은 전세 계약 갱신에 따른 전세대출 한도를 전셋값 증액 범위 내로 축소하기로 했다. 또 은행은 임대차계약서상 잔금 지급일 이전까지만 전세자금 대출을 내줄 방침이다. 현지금은 신규 전세의 경우 입주일과 주민등록전입일 중 이른 날로부터 3개월 이내까지 전세자금 대출 신청을 받았다. 은행은 1주택 보유자의 비대면 전세대출 신청도 막는다. 이 세 가지 종류의 전세대출 규제는 지난 15일 KB·신한·하나·우리·NH농협 5대 은행이 27일부터 도입하기로 합의한 내용이다. 18일에는 지방은행과 인터넷은행, 외국계은행 등을 포함한 소매금융 취급 17개 전체 은행이 온라인 화상 회의를 통해 해당 규제의 수용 여부를 논의했고, 지금까지 각 은행은 내부적으로 타당성 등을 검토해왔다. 결국 나머지 은행들도 모두 5대 은행과 같은 전세 대출 규제에 동참하기로 의견을 모았고, 늦어도 이달 안에 규제를 도입하기로 했다.다만 대면 창구가 없는 케이뱅크의 1주택자 비대면 전세대출의 경우 당국이나 업계가 무리하게 막지 않는 상황이다. 케이뱅크는 창구에서 전세대출을 받는 것과 같은 수준으로 여러 증빙 서류를 통해 철저히 심사하겠다는 입장이다. 다만 같은 인터넷 은행이라도 카카오뱅크의 경우 1주택자 비대면 전세대출을 중단하기로 했다. 토스뱅크는 아직 전세대출 상품을 취급하지 않고 있다.은행들의 이 같은 조치는 전세대출이 부동산·주식 등 자산 투자에 흘러드는 것을 최대한 막기 위해서다. 가령 전셋값이 최초 4억원에서 6억원으로 2억원 오른 경우, 지금까지 기존 전세대출이 없는 세입자는 임차보증금(6억원)의 80%인 4억 8,000만원까지 전세자금대출을 받을 수 있었다. 대출을 최대한으로 받으면 오른 전셋값 2억원을 내고도 2억 8,000만원이 남는 셈으로, 이 여윳돈을 투자 등에 활용할 여지가 생긴다. 하지만 대출 한도를 최대 '전셋값 증액분까지'로 묶으면 해당 세입자는 오른 2억원만 빌릴 수 있다.전세계약이나 입주가 끝난 뒤 받는 전세자금 대출을 막는 것도 같은 이유다. 본인 자금이나 가족·친척 등으로부터 빌린 돈으로 전셋값을 이미 해결하고도 입주나 주민등록상 전입 후 3개월 안에 전세자금을 또 은행에서 대출받아 다른 곳에 쓸 가능성을 차단하자는 취지다. 1주택자 전세자금 대출의 경우 실수요도 섞여 있는 만큼 은행들은 완전히 막지는 않더라도 대면 창구에서만 신청을 받고 면밀히 심사할 방침이다. 지난 14일 기준으로 KB국민·신한·하나·우리·NH농협 5대 시중은행의 전세자금대출 잔액만 121조 9,789억원에 이른다. 작년 말(105조 2,127억 원)과 비교해 올해 들어서만 15.94%나 불었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>KB금융, 자산관리 해주는 통합 앱 출격···인터넷銀과 정면승부</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003976668?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>국민은행 '스타뱅킹' 27일 선봬주식매매 등 계열사 서비스 도입별도 인증 없이 자동 로그인도[서울경제] KB금융그룹이 증권·카드·손해보험 등 계열사의 핵심 서비스를 하나로 통합해 카카오·케이·토스뱅크 등 인터넷전문은행과 정면 대결을 벌인다. 자산 관리 기능과 맞춤형 서비스를 제공한 ‘원앱 전략’을 통해 인터넷은행의 금융시장 잠식을 막아내겠다는 것이다.KB국민은행은 개인 자산 관리를 제공하는 ‘KB스타뱅킹’ 애플리케이션을 오는 27일 선보인다고 24일 밝혔다. KB스타뱅킹은 지난 2010년 4월 출시해 현재 1,760만 명의 고객을 보유하고 있다. 이번 개편은 ‘나를 찾아오고, 나를 알아주고, 나를 챙겨주는 나만을 위한 나의 KB스타뱅킹’을 콘셉트로 맞춤형 서비스를 제공하는 데 초점을 맞췄다. 복잡하고 불편하다는 은행 앱의 단점을 극복하고 그룹을 대표하는 종합 금융 플랫폼으로 키우겠다는 것이다.개편된 앱은 자동 로그인 기능을 탑재한 게 특징이다. 별동의 인증 단계 없이 아이콘 터치만으로 조회, 200만 원 이하 소액 이체 등의 서비스를 이용할 수 있다. 홈 화면에서는 KB국민은행 상품뿐 아니라 다른 은행·증권·저축은행 계좌 등 대표 계좌를 5개까지 설정할 수 있다.특히 고객 맞춤형 자산 관리 서비스인 ‘마이자산관리’ 메뉴를 신설됐다. 이 메뉴에서는 이용자는 은행 외에 증권·보험 등 다른 금융업권의 거래 정보뿐만 아니라 부동산·자동차 등 비금융 자산 정보까지 자신의 모든 자산을 더 정확하게 파악하고 진단받을 수 있다. 은행은 고객별 자산 관리 특성을 여덟 가지로 분류해 유형에 맞는 자산 관리 서비스를 제공한다. 가령 고위험 상품을 선호하는 사람에게는 해외 주식 종목이나 상장지수펀드(ETF) 상품 등을 추천해준다. 상품 추천뿐 아니라 상속 또는 증여 시 절세 상담도 제공한다. 부동산 투자에 관심 있는 고객에게는 부동산 투자 관련 정보를 제공한다. 고객이 보유한 연금 자산을 진단하고 예상 월 수령액과 부족한 노후 생활비를 계산해 추가 자금을 마련할 수 있도록 은퇴 준비를 지원한다.아울러 새 KB스타뱅킹에는 KB증권의 ‘이지(Easy) 주식 매매’, KB국민카드의 ‘KB 페이(Pay) 간편 결제’, KB손해보험의 ‘스마트 보험금 청구’ 등 KB금융그룹 6개 계열사의 핵심 서비스를 도입했다. 새로운 KB스타뱅킹이 KB금융그룹의 허브 역할을 수행하는 확장형 종합 금융 플랫폼으로의 역할을 하겠다는 취지다. 이 외에도 매일매일의 시황을 안내하는 ‘한끼 금융 뉴스’, 부동산 투자를 재미있게 풀어 해설하는 ‘리브부동산 TV’, 최신 금융 이슈 및 트렌드 정보를 얻을 수 있는 ‘여의도 5번출구’ 등 고객이 즐길 수 있는 유용한 금융 콘텐츠 등이 신설됐다.KB국민은행 관계자는 “새 KB스타뱅킹은 속도와 편의성 개선에 고객 맞춤 서비스 제공에 초점을 맞춰 개선됐다”며 “아울러 KB스타뱅킹은 은행을 넘어 계열사, 외부 제휴 서비스까지 확장할 수 있는 기반도 갖췄다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>강남구, 취업박람회도 메타버스로~</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001902091?sid=102</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>‘2021 강남구 메타버스 취업박람회’ 24일 참가 신청 접수[헤럴드경제=한지숙 기자] 서울 강남구(구청장 정순균)는 코로나19로 구인·취업활동이 더 어려워진 기업과 구직자의 매칭을 돕기 위해 오는 25~27일 3차원 가상세계에서 ‘2021 강남구 메타버스 취업박람회’를 연다고 21일 밝혔다.구인구직 플랫폼 ‘인크루트’와의 협업한다. 구는 전국 지자체 최초로 ‘메타버스’ 플랫폼(게더타운)을 도입했다.30개 참여 기업은 각 기업에 이력서를 제출한 구직자 중 1차 합격자를 선발해 비대면 화상면접을 실시한다. 또 구직자 전원을 대상으로 ▷삼성 SDS 등 채용설명회 ▷취업특강 ▷토스·LF엘지패션·HP 등 현직자들의 1:1 멘토링 프로그램을 제공한다.참여 희망자는 오는 24일까지 ‘강남구 취업박람회 전용관’ 홈페이지에서 사전신청하면 된다. 자세한 사항은 인크루트 운영사무국으로 문의하면 된다. 선착순 270명에 한해 ‘AI면접 이용권’이 제공된다.김미욱 강남구 일자리정책과장은 “민선 7기 강남구는 4차 산업혁명 시대를 대비해 스마트 전략산업 지원에 주력하고 있다”며 “앞으로도 일자리와 기업을 위한 다양한 지원정책과 시도로 ‘품격 강남’을 만들어가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.10.29.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>손병환 농협금융 회장 “인터넷은행 불편사항 개선 노력 배워야”</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005688940?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>“DT 추진에 많은 노력 기울여왔지만 아직 부족”제4회 DT 추진 최고협의회 개최손병환 NH농협금융 회장이 28일 서울 중구 NH농협금융지주 본사 회의실에서 열린 2021년 제4차 농협금융 DT추진최고협의회에서 화상회의를 주재하고 있다. (사진제공 = NH농협금융지주) © 뉴스1(서울=뉴스1) 박기호 기자 = 손병환 NH농협금융지주 회장이 “인터넷전문은행의 고객 불편사항 개선 노력을 배워야 한다”고 밝혔다.29일 농협금융에 따르면 손 회장은 전날(28일) 전 계열사 디지털 최고책임자들이 참여한 제4차 농협금융 DT(디지털 전환) 추진 최고협의회에서 “고객의 불편사항 해소를 위한 토스나 카카오의 노력과 사업추진 자세를 벤치마킹해야 한다”고 주문했다.손 회장은 이날 회의에서 계열사의 DT 추진 상황을 점검하고 내년도 농협금융의 DT 추진 방향과 중점 추진과제를 논의했다.손 회장은 “우리도 지난 몇 년간 DT 추진에 많은 노력을 기울여왔지만 아직 부족하다”며 “불합리한 업무방식과 관행, 기업문화까지 모두 고객의 눈높이에 맞춰달라”고 강조했다.또 “인터넷전문은행은 가능한데 농협은 놓치고 있는 상품이나 서비스는 없는지 세밀하게 분석해 대응 방안을 마련하라”고 지시했다.인터넷전문은행과 경쟁해 살아남기 위해선 적어도 이들과 동일한 수준의 상품과 서비스를 제공할 수 있어야 한다는 것이 손 회장의 지론이라고 농협금융은 설명했다. 또한 내부 규정이나 업무 관행 등의 이유로 고객 불편사항을 해소하지 못하고 있는 것은 아닌지 따져보고 해결방안을 찾아보자는 것이라고 전했다.손 회장은 “고객이 체감할 수 있어야 비로소 DT 추진이 성공하는 것”이라며 “기존에 당연하다고 생각했던 것도 고객 입장에서 한 번 더 살펴보고 해결 방안을 함께 찾아 나가자”고 말했다.한편 농협금융은 고객 관점 종합금융 플랫폼 구축 전략 컨설팅을 마무리하고 내년 6월 1차 출시를 목표로 IT 개발에 착수한다. 손 회장은 “출범 10주년을 맞는 2022년은 농협금융 DT 인프라가 완성되고 비즈니스 성과로 연결되는 원년이 될 것”이라며 “계열사와 전 임직원들이 역량을 모아달라”고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>KB국민은행, "AI·블록체인 기술 활용, 격차있는 디지털 리딩뱅크 만들것"</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004869032?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>박기은 최고기술책임자◆ 디지털을 이끄는 금융인 ◆  KB국민은행은 디지털 혁신을 위해 지난 4월 네이버 출신인 박기은 최고기술책임자(CTO)를 데려왔다. 박 CTO는 대우통신, 한국컴퓨터통신, 네이버 등을 거쳐 국민은행에 와서 디지털 혁신을 "빠른 실패를 위한 혁신적 시도와 이를 수행하는 기술 감수성"이라고 정의했다. 그는 빠른 실패야말로 혁신으로 가는 길이라고 보며 변화하는 외부 기술에 자극을 받아 변화하는 것을 디지털 생존 경쟁의 키워드로 보고 있다. 그는 10월 말 새롭게 변신해 출시되는 국민은행의 모바일뱅킹 '스타뱅킹'과 '리브' 혁신을 주도하고 있다. 고객들이 체감할 수 있을 정도로 화면이 바뀌었으며 콘텐츠에서도 진일보했다고 자부하고 있다. 다음은 그와의 일문일답. ―고객이 체감하는 국민은행의 디지털 변화는 무엇인가.▷은행뿐만 아니라 기업의 디지털화, 디지털 변화(DT)는 크게 세 가지 부문으로 나눠볼 수 있다. 첫 번째는 비즈니스 자체를 디지털·온라인 서비스화하는 것으로, 은행을 예로 들면 디지털 뱅킹이라고 할 수 있다. 요즘은 모바일 앱이 대표적이다. 두 번째는 기업의 업무 프로세스와 업무 환경을 디지털화하는 것이다. 데이터 기반의 의사 결정을 위한 시스템이나 온라인 협업 도구 도입 등을 포함한다. 일하는 방식의 디지털화라고 할 수 있는 변화, 예를 들어 애자일(전체 목표를 위해 회사 내 경계를 허물고 민첩하게 일하는 방식) 방식 적용 등도 중요하다. 마지막으로 세 번째는 기업의 내부 정보기술(IT) 시스템을 최신 기술과 방식으로 변화시켜 비즈니스 디지털화를 지원하는 IT 시스템 현대화다. 은행으로 치면 뱅킹 시스템 현대화라고 할 수 있다. 이 중 고객들이 체험할 수 있는 디지털 변화는 두말할 것 없이 모바일 뱅킹 앱의 변화다. 사용자 관점에서 앱의 사용성을 좀 더 중시하고, 세대별 사용자층에 맞는 고객의 총체적 경험과 콘텐츠를 반영하는 새로운 버전의 스타뱅킹과 리브 앱이 곧 출시된다. 스타뱅킹 모바일 앱 내에서 마이데이터 서비스도 제공된다. 커다란 변화가 있는 것은 분명하지만 '혁신적인가'라는 물음에는 그렇다고 하기 어려운 것도 사실이다. 혁신이 기존 틀과 질서를 벗어나면서 새로운 이득을 얻거나 제공할 때를 의미한다고 하면, 국민은행의 디지털 혁신은 오히려 오프라인 지점들에서 일어나고 있다고 할 수 있다. 대면 영업 채널의 혁신인 'PG(파트너십그룹) 2.0' 전략이 한참 진행 중이다. PG 2.0 전략에는 다양한 디지털 기술이 병행되고 있으니 주목해 달라. ―국민은행에서만 벌어지는 변화는 무엇이고, 고객들은 이 은행을 통해 어떤 만족감을 갖게 되나. ▷국민은행의 디지털 혁신 '방향'에 대해서는 '격차 있는 디지털 리딩 뱅크' '최고의 디지털 금융 플랫폼' 등 두 가지로 표현할 수 있다. 인공지능(AI) 기술, 응용프로그램인터페이스(API) 기술, 클라우드 기술, 데이터 기술, 블록체인 기술, 소프트웨어 개발 기술 등에서 쉽게 따라올 수 없는 격차를 벌이는 방향이다. 예를 들어 초거대 AI 기술을 고객 서비스에 적용하는 방법을 연구하고, 메타버스 내에서 가상의 금융생활이 어떻게 전개되는지를 블록체인 기술을 결합해 실험하고 있다. 심지어 가장 어렵다는 코어 뱅킹 시스템도 최신 소프트웨어 기법들을 적용해 새로운 아키텍처로 변화시키는 프로젝트 등을 들 수 있다. 이러한 시도들은 국내 금융권에서 최초이며 내재화된 기술 역량이 없으면 쉽게 구현할 수 없는 영역이다. 진정한 디지털 리딩 뱅크를 의미한다고 할 수 있겠다. 이러한 내부 디지털 기술과 소프트웨어 기술들을 밑바탕으로 새로운 디지털 금융 플랫폼을 만들고 이를 고객들에게 제공하는 방향성을 갖고 있다. 고객들은 앞으로 국민은행의 디지털 금융 플랫폼에서 단지 은행 거래나 상품 정보뿐만 아닌 다양한 디지털 라이프를 즐길 수 있게 될 것이다. 하나의 플랫폼에서 편리한 금융생활을 접할 수 있으며 격차 있는 디지털 기술들로 구현된 서비스를 받게 된다. 예를 들어 FAQ(자주 하는 질문) 기반으로 입력된 단어 위주로 답을 주는 현재의 챗봇이 아닌 자연스러운 대화와 전문 지식을 통해 나를 도와주는 전담 비서가 모바일 뱅킹 앱에 탑재돼 있는 서비스로 고객들은 새로운 디지털 뱅킹 경험을 하게 될 것이다. ―이런 혁신을 위해 국민은행 조직개편은 이뤄졌나. ▷새로운 모바일 앱 출시의 또 다른 성과는 개발 방식을 전혀 새롭게 바꾸었다는 점이다. 애자일팀을 구성하고 애자일 개발 방법론을 적용했다. 영업 인력과 기술 인력이 한 조직에서 일하는 플랫폼 조직 구조를 바탕으로 소규모 애자일팀 방식으로 변화하는 과정을 겪고 있다. 국민은행은 모바일 앱을 다루는 개발팀뿐만 아니라 내부 IT 시스템, 후선 조직들에서도 애자일 팀들을 구성하고 다양한 애자일 프로젝트를 진행하고 있다. 최근 은행 전체에 애자일 방법론 적용을 지원하는 애자일 센터 조직도 신설했으며 새로운 인프라스트럭처 운영 모델에 대해서도 뚜렷한 진보를 보이고 있다. ―경쟁자 카카오뱅크와 토스를 이길 방법은. ▷인터넷전문은행, 모바일전문은행은 두 가지 특징을 갖고 있다. 하나는 은행으로서 대규모 투자와 오랜 시간이 필요한 오프라인 영업 체계를 갖추기 어렵기 때문에 은행업 전체가 아닌 온라인 개인금융에 집중하는 특징이다. 그리고 사용자의 경험 여정을 잘 분석하고 사용자 언어로 표현해주는 관점의 이동을 잘 살리고 있다는 점이다. 대규모 투자 유치를 통해 영업이익보다는 고객 확보에 집중하고 특정 영역에서 독점적 지위를 통해 최종적으로 이익을 창출하는 플랫폼 비즈니스 전략이다. 이러한 전략이 현대 플랫폼 경제 상황에서 의미가 있는 것은 사실이다. 그러나 국민은행은 인터넷전문은행이 갖지 못한 오프라인 영업 채널과 기업금융, 투자금융 등에 대한 여러 전략이 수립돼 있다. 한 가지 더 부연해야 할 사항은 인터넷전문은행 혹은 빅테크의 금융 서비스도 중요한 경쟁 상대이고 대응 전략을 가져야 하지만, 기존 금융권에서의 경쟁도 좌시할 수는 없다는 점이다. 격차 있는 디지털 기술을 가져가고자 하는 이유이기도 하다.  ▶▶ 박기은 CTO는…△1970년생 △1995년 중앙대 컴퓨터공학과 석사 △2000년 한국컴퓨터통신 R&amp;D센터 개발팀장 △2003년 이루온 기술기획 담당 △2006~2021년 네이버클라우드 CTO △2021년~ KB국민은행 CTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.10.28.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>"무조건 연2%" 토뱅에 카뱅·케뱅 맞불…파킹통장 금리 경쟁</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004662893?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>직장인 A씨는 한 인터넷전문은행 예·적금 통장에 넣어 뒀던 여유 자금을 최근 토스뱅크 수시입출금 통장으로 모두 옮겼다. 최근 시중금리 상승으로 예금과 적금 금리가 1% 후반대까지 올라왔지만 가입기간과 금액에 상관없이 연 2% 이자를 주는 수신 상품이 유리하다는 판단에서다. A씨는 "예금과 적금은 일정 기간 자금이 묶이는데 반해 수시입출금 통장은 언제든 돈을 꺼낼 수 있다"며 "금리도 더 높아 자금을 이체했다"고 했다. 토스뱅크 출범 이후 국내 3곳의 인터넷전문은행 사이에서 '파킹통장' 수신 경쟁이 치열하다. 케이뱅크는 다음달부터 '플러스박스' 기본금리를 연 0.5%에서 연 0.8%로 0.3%포인트 인상한다고 28일 밝혔다. 플러스박스는 하루만 맡겨도 이자를 주는 수신상품으로 입출금에 제한이 없는 파킹통장이다. 케이뱅크는 지난 4월 플러스박스를 용도에 따라 최대 10개로 쪼개서 쓸 수 있도록 활용도를 높였다. 이어 7월엔 한도를 1억원에서 은행권 최고 수준인 3억원으로 늘린 데 이어 금리까지 상향 조정한 것이다. 카카오뱅크도 지난달 파킹통장인 세이프박스 기본금리를 0.3%포인트 오른 연 0.8%로 상향 조정했다. 지난 12일에는 세이프박스 한도를 1000만원에서 1억원으로 늘렸다.  카카오뱅크와 케이뱅크의 파킹통장 금리·한도 상향은 최근 시장금리 상승세를 반영한 것이지만 후발주자인 토스뱅크에 맞서 수신 경쟁력을 높이기 위한 전략으로 풀이된다. 이달 초 출범한 토스뱅크는 가입금액과 기간에 상관없이 무조건 연 2%의 파격 금리를 주는 수시입출금식 통장을 선보였다. 다른 예·적금 상품 없이 은행권 최고 수준의 금리를 주는 파킹통장 하나로 승부를 건 것이다.  출범일인 지난 5일부터 일주일간 토스뱅크에 1조7000억원 가량의 예금이 몰릴 정도로 인기를 끌었다. 인터넷은행의 수신 경쟁은 앞으로 더 치열해 질 전망이다. 시중은행의 경우 수시입출금통장의 기본 이율이 연 0.1%에 그치는 경우가 대부분이다. 급여 통장으로 사용하거나 급여를 이체하면 최대 연 1.5% 우대금리를 적용하는 시중은행도 있지만 최고 한도가 100~200만원에 그치는 등 조건이 까다롭다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>토스뱅크 중금리대출 ‘금융권 신기록’ 썼다</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001903543?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>평균금리 7%…전체대출의 28%자체 신용평가모델 효과 발휘 평영업 1주일만에 여신액 3970억1인당 평균 2000만원 대출한 격정부 대출규제 강화에 중단 돼토스뱅크가 단 10일간의 여신 영업 기간 동안 무려 3분의 1 이상을 중금리 대출로 실행했다. 금융권을 통틀어 가장 높은 중금리대출 비율이다. 평균금리도 7%로 은행권 한도인 10% 이하보다 유의미하게 낮은 수준이다.25일 헤럴드경제가 입수한 자료에 따르면 토스뱅크는 지난 5일 출범한 이후 영업 일주일 만에 여신금액이 3970억원에 이르렀다. 영업 첫 날 대출액은 143억원에 그쳤지만 8일에는 하루에만 1218억원이 실행됐다. 9일부터 대출 중단 사태를 우려해 신규 가입을 중단하면서 일일 대출금액이 200억원대로 급감했다. 14일 오후 1시께 올해 한도 5000억원을 모두 소진하면서 대출을 중단했다.영업 10일 간 실행된 대출 건수는 총 2만3930건에 달했다. 1인당 평균 약 2000만원씩 대출을 받아간 셈이다. 전체 여신액의 68.6%가 출범 4일 만에 실행됐다.특히 중저신용자(CB사 신용등급 기준 4~8등급) 대출액은 약 1400억원으로 전체의 28.2%를 차지했다. 만약 토스의 요구대로 중저신용자 대출을 가계부채 총량관리에서 제외했다면 1000억원대의 추가 대출 여력이 생길 수도 있었다. 일별로 보면 영업 10일 중 6일은 30%대를 웃돌았다. 12일 하루에는 중저신용자 대출 비중이 33.3%에 달하기도 했다.대출을 받은 고객의 소득 수준을 살펴보면 연소득 5000만원 이하 고객이 전체 대출 잔액의 38.6%를 차지했다. 이 중 3000만원 이하 고객도 15.4%에 달했다. 나머지 연소득 5000~7000만원이 18.7%, 7000만원~1억원이 16.2%, 1억원 초과가 26.5%를 구성했다.현재 대출이 중단된 만큼 올 연말까지 중저신용자 대출비중을 34.9%로 만들겠다는 목표는 달성이 불가능하다. 다만 금융당국은 중저신용자 대출 평가에 있어 토스뱅크가 영업에 제약을 받았다는 점을 고려할 예정이다.금융위원회 관계자는 “대출 제한이 있다는 점을 충분히 고려할 것”이라며 “3년 내 30%를 넘기는 상황을 목표로 하고 유연하게 적용할 방침”이라고 설명했다.토스뱅크의 자체 신용평가모델(CSS)가 효과를 발휘했다는 평가다. 토스뱅크를 통한 중저신용자의 신용등급 상향율은 약 53%로 분석됐다. 비금융 대안 데이터 등을 활용해 직장이 없어 4대 보험에서 제외된 프리랜서 작가, 신용카드 사용 이력이 없는 사회 초년생 등에게 대출을 해줄 수 있었다.신용대출 평균 금리는 4.83%(5~11일 기준)를 기록했다. 고신용자 3.84%, 중저신용자 7.48%였다. 지난 8월 케이뱅크와 카카오뱅크의 신용대출 평균금리가 각각 4.11%, 3.85%였다는 점, 토스뱅크의 중신용대출 비중이 높다는 점을 고려하면 다른 인터넷은행과 유사한 수준으로 분석된다.여신상품을 금액 기준으로 보면 신용대출이 91%를 차지했다. 이어 마이너스통장대출이 8.2%였다. 정책금융 상품인 사잇돌 대출, 비상금 대출 비중은 각각 3.6%, 1.4% 수준이다.차주를 연령대별로 보면 30대와 40대가 각각 대출잔액의 38%, 40%으로 집계됐다. 50대는 13%, 20대는 8%, 60대 이상은 1% 순이었다.민형배 더불어민주당 의원은 “대출절벽에 놓인 소비자들의 자금 수요를 일부 보완하고 있다는 점은 긍정적”이라며 “앞으로 신파일러나 청년층에 대한 중금리대 대출을 더 폭넓게 지원해 시중은행과는 다른 영업행태를 보여야 한다”고 말했다.정경수·박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>글로벌 공룡 잠식 위기…韓 가장 많이본 '유튜브' 증가율 최고 '넷플릭스'</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000629492?sid=105</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>넷플릭스와 틱톡은 전년 대비 사용 시간 크게 늘어지난 9월 한국인이 가장 오래 사용한 앱은 유튜브인 것으로 나타났다. 넷플릭스와 틱톡은 전년 동월 대비 사용 시간 증가율이 가장 높았다.앱·리테일 분석서비스 와이즈앱·리테일·굿즈가 한국인이 가장 많이, 가장 오래, 가장 자주 사용하는 스마트폰 앱을 조사해 발표한 결과 9월 가장 오랜 시간 쓰인 앱으로 유튜브가 꼽혔다. 유튜브의 총 사용 시간은 701억분에 달했다.[사진=와이즈앱]이어 카카오톡 279억분, 네이버 197억분, 인스타그램 71억분, 틱톡 46억분, 넷플릭스 42억분, 티맵 40억분, 페이스북 40억분, 다음 37억분, 네이버 웹툰 34억분 순이었다.지난해 동월 대비 사용 시간 증가율이 가장 높은 앱은 넷플릭스와 틱톡으로 조사됐다. 넷플릭스와 틱톡 모두 전년 대비 사용 시간이 61% 늘었다. 넷플릭스는 26억분에서 42억분으로, 틱톡은 28억분에서 46억분으로 증가했다.가장 많은 사람이 사용한 앱은 4천385만명이 사용한 카카오톡이 꼽혔다. 이어 유튜브 4천203만명, 네이버 3천925만명, 쿠팡 2천403만명, 네이버 밴드 2천8만명, 네이버 지도 1천752만명, 인스타그램 1천744만명 등이 많은 사람들이 활용한 앱으로 나타났다.지난해 동월 대비 사용자 증가율이 가장 높은 앱은 토스로 2020년 9월 855만명에서 올해 9월 1천304만명으로 늘었다. 1년 전보다 53% 늘어난 셈이다.위 조사는 와이즈앱·리테일·굿즈가 만 10세 이상의 안드로이드와 iOS 스마트폰 한국인 이용자를 대상으로 실시했다. 유튜브를 제외한 구글·애플 앱과 이동통신사, 단말제조사 앱은 조사 대상에서 제외했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>SC제일은행, 주담대 전면 중단</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004621386?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>29일부터 신규 접수 안 받아"가계대출 증가율 목표치 관리"농협銀, 내달 신용대출한도 축소SC제일은행이 29일부터 주택담보대출 신규 접수를 잠정 중단한다. 농협은행과 하나은행에 이어 은행권 전반으로 주담대 중단이 확산되는 양상이다. 농협은행은 다음달부터 가계 신용대출 한도를 2000만원으로 대폭 낮추기로 했다.SC제일은행은 29일부터 주담대 상품인 ‘퍼스트홈론’ 가운데 금융채 5년물 금리와 연동되는 변동금리 상품 판매를 중단한다고 27일 발표했다. 앞서 금융채 1년물과 3년물을 지표금리로 삼는 퍼스트홈론 상품은 지난 7일부터 중단됐다. SC제일은행의 주력 주담대 상품인 퍼스트홈론이 당분간 전면 중단되는 셈이다. SC제일은행 측은 “가계대출 리스크 관리와 가계대출 증가율 목표치 관리를 위한 조치”라고 설명했다. 주택금융공사의 ‘T-보금자리론’과 전세대출 상품은 계속 공급될 예정이다.주담대가 전면 중단된 것은 농협은행과 하나은행에 이어 SC제일은행이 세 번째다. 농협은행은 8월부터 주담대와 전세대출, 집단대출 등 부동산 관련 신규 대출을 중단했다. 하나은행도 지난 20일부터 비대면 주담대 상품인 하나원큐 아파트론과 가계 주택·상가·오피스텔·토지 등 부동산담보(구입자금)대출을 취급하지 않고 있다. 아직 주담대가 가능한 국민은행과 신한은행, 우리은행도 지점별·월별 한도를 부여하거나 일부 상품의 한도를 줄이는 등 대출 증가세를 조절하고 있다.가계대출 총량 규제에 따라 신용대출 문턱도 계속 높아지고 있다. 농협은행은 11월 1일부터 신용대출과 마이너스통장 대출 한도를 최대 2000만원으로 일괄 하향한다. 이제까지는 농협은행의 신용대출은 최대 1억원, 마이너스통장은 5000만원까지 가능했다.금융사들은 금융당국 방침에 따라 신용대출은 ‘가수요’의 성격이 크다고 보고 속속 신용대출 문을 걸어 잠그고 있다. 앞서 지난 9월부터 대부분의 금융사가 신용대출 한도를 연소득 100%, 마이너스통장 5000만원으로 줄였고 카카오뱅크와 하나은행, 토스뱅크는 신용대출 취급을 연말까지 아예 중단했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2021.10.16~2021.10.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.10.16~2021.10.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.10.16.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>[NOW] 사냥감에서 사냥꾼으로, 스타트업 ‘거침없이 M&amp;A’</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003646642?sid=105</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>대기업들의 M&amp;A(인수합병) 사냥감으로 통하던 토종 스타트업들이 국내 산업 생태계에서 포식자로 거듭나고 있다. 스타트업들이 투자받은 자금을 기반으로 대기업 자회사나 업계 터줏대감 격인 기업을 인수하며 덩치를 키우는 사례들이 잇따르고 있다.직방과 야놀자 로고										부동산 중개 앱 직방은 삼성SDS의 홈 사물 인터넷(Internet of Things) 사업부 인수를 추진하고 있다고 15일 밝혔다. 전 직원 300명 정도에 불과한 스타트업이 직원만 250여 명에 달하는 대기업 사업 부문을 통째 인수하려는 것이다. 직방은 “홈IoT 국내 1위인 삼성SDS의 사업 부문을 인수해 프롭테크(부동산+테크) 역량을 강화하고 해외 스마트홈 시장에도 진출하겠다”고 했다. 직방은 지난 1월 카카오페이의 자회사인 아파트 관리 앱 모빌을 인수했다.숙박 앱 야놀자는 지난 14일 국내 종합 온라인 쇼핑몰 원조인 인터파크를 2940억원에 인수한다고 밝혔다. 인터파크 지분 70%를 확보하면서 여행·공연·쇼핑·도서 같은 인터파크의 전자상거래 부문을 흡수하게 된다. 야놀자는 지난 7월 손정의 소프트뱅크 회장의 비전펀드로부터 2조원 투자를 유치한 뒤 두 달여 만에 대형 인수에 나선 것이다. 야놀자는 인터파크를 인수해 코로나 이후 해외여행 시장을 공략한다는 계획이다.재계에서는 앞으로도 비슷한 인수합병 사례가 줄을 이을 것이라는 전망이 나온다. 특히 유니콘(기업 가치 1조원 이상 스타트업) 반열에 오른 10여 개 스타트업들은 대규모 투자 유치를 통해 막강한 자금력까지 확보하고 있다.스타트업들의 공격적인 인수 행보는 미 뉴욕 증시에 상장한 쿠팡의 사례가 크게 영향을 미쳤다는 분석이다. 전자상거래 업체 쿠팡은 창업 후 10년 동안 누적 적자 4조5500원을 기록하면서도 비전펀드를 포함한 해외발 투자로 버티며 사업 규모를 확장했다. 그러다 지난 3월 상장해 단번에 46억달러(약 5조4400억원)를 조달했다.쿠팡이 11일(현지 시각) 뉴욕증권거래소 상장을 기념해 뉴욕 맨해튼 타임스스퀘어의 한 전광판에 자사 광고를 내보냈다. /쿠팡										2025년 기업공개를 목표로 하는 금융 앱 토스도 일찌감치 대기업의 사업 부문을 인수해 규모를 키웠다. 토스는 2019년 LG유플러스의 전자결제 사업부를 3650억원에 사들였고, 548억원(2018년) 수준이던 매출이 2020년 3898억원으로 급성장했다. 토스는 이번 달 모빌리티 스타트업 타다도 인수했다. 타다 택시에 토스 간편 결제를 도입해 매출 규모를 성장시키겠다는 것이 토스의 청사진이다.이들 스타들업들은 기술력과 활발한 투자 유치를 바탕으로 유니콘 문턱을 넘어서면서 M&amp;A 포식자로 거듭나고 있다. 2010년 창업한 직방은 올해 유니콘이 됐다. 토스는 지난 8월 기업 가치 8조2000억원을 평가받았다. 야놀자는 비전펀드 투자 과정에서 기업 가치 10조원을 인정받아 유니콘을 넘어 데카콘(기업 가치 10조원 이상 스타트업) 자리에 올랐다.대기업들도 기업 매각 상대로 유니콘을 선호한다. 영업이익이 나지 않거나, 회사 미래 전략과 맞지 않은 사업 부문을 정리할 경우 신사업 확장과 검증된 인재 확보에 목마른 유니콘이 제격이기 때문이다. 삼성SDS의 경우도 기업 간 거래 사업에 집중하기 위해 홈IoT 사업 부문을 매물로 내놓은 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>신한은행, "신기술 기반 혁신적 고객경험 제공, 데이터 흐르는 디지털 컴퍼니 노려"</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004869038?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>전필환 부행장(디지털그룹장)◆ 디지털을 이끄는 금융인 ◆  "미래에는 '금융'이 별도 산업군이 아닌 생활밀착 서비스의 하나로 자리 잡게 될 것입니다" 전필환 신한은행 부행장(디지털그룹장)은 매일경제와 만나 "고객이 원하는 것을 찾기 전에 제시하고, 고객이 알기 전에 최적의 금융솔루션을 제공하며, 언제 어디서든 고객이 원하는 상담을 편하게 받을 수 있게 할 것"이라고 비전을 밝혔다. 이를 위해 신한은행은 비금융 이업종과의 '피를 섞는 수준의 자본 동맹'을 통해 전통적인 금융영역을 넘어 '생활금융플랫폼'으로 역할을 확장하고 있다. 올해 12월 론칭할 예정인 O2O 음식주문중개 플랫폼을 통해 프로토콜 경제를 구현하고, 기업 전사적자원관리(ERP)와 금융솔루션을 결합해 새로운 중소상공인(SME) 플랫폼과 사업 기회를 모색하고 있다. 또 인공지능(AI) 빅데이터 역량 강화를 통해 '초개인화된 Everywhere Any time 서비스'를 마련하고 블록체인·커뮤니티·클라우드 등 신기술을 바탕으로 혁신적 고객경험을 제공하는 등 궁극적으로는 데이터가 흐르는 디지털 컴퍼니로 도약하겠다는 계획이다. 다음은 전필환 부행장과의 일문일답.―고객이 체감할 수 있는 신한은행의 디지털 변화는 무엇인가.▷내년 하반기 론칭을 목표로 개인·기업 금융 플랫폼 전면 개편을 추진하고 있다. 고객 관점의 비대면 중심 재설계, 서비스통합과 모듈화를 통한 UI(사용자 인터페이스)·UX(사용자 경험) 간소화, 고객 니즈를 해결하는 대화형 챗봇, 데이터 기반 초개인화 마케팅 등 고객이 스스로 찾아와 머무르며 쉽고 편리하게 이용할 수 있는 플랫폼을 구축할 계획이다. 기업 금융 부문은 '빅플랫폼 구축, 상품·서비스 중심 기업 디지털뱅크 진화, 고객 맞춤 언택트 기업채널 완성' 등 3대 전략 목표 아래 종합 플랫폼 구축을 통해 디지털 대전환을 추진하고 있다. 이번 플랫폼 개편은 은행 코어뱅킹 시스템을 개편하는 'THE NEXT 프로젝트'와 함께 추진해 보다 빠르고 편리해진 금융서비스를 제공하게 될 것으로 보인다.―카카오뱅크, 토스뱅크 등 인터넷 전문은행들이 선전하고 있는데.▷인터넷 전문은행은 출시 초기 저금리 여신상품과 고금리 수신상품, '조회·이체·결제' 중심의 심플하고 편리한 서비스를 기반으로 빠르게 성장했으나 자산 규모가 커지면서 여수신 상품 가격경쟁력이 약화되고 있다. 정부 규제가 강화되는 가운데 토스뱅크 출범으로 경쟁이 심화되는 등 성장 변곡점을 맞이하고 있다. 인터넷 전문은행과 대비되는 전통 금융의 강점으로 풀 뱅킹(Full Banking) 제공, 리스크 관리 노하우, 오프라인 채널과 인적 자원 구성 등 3가지를 꼽을 수 있다. 인터넷 전문은행의 업무영역은 금융의 아주 작은 일부분으로 다변화된 고객 니즈를 해소하기에 무리가 따른다. 반면 전통 금융은 다양한 종류의 상품·서비스를 폭넓게 제공함으로써 고객에게 맞춤 솔루션을 제시할 수 있다. 금융당국 권고에도 인터넷 전문은행들이 중금리대출 확대에 소극적인 이유는 리스크 이슈 때문이다. 인터넷 전문은행들이 자체 대안신용평가 개발, 신용평가사 설립 등을 추진 중이지만 기존 은행이 보유한 리스크 역량을 따라잡는 데는 상당한 시간이 소요될 것으로 전망된다. 또 전통금융은 오프라인 네트워크 강점을 바탕으로 온·오프라인 채널을 유기적으로 연계하고 고객 경험을 향상시킬 수 있다. 뛰어난 인적 인프라를 기반으로 전문화된 상담을 제공하는 등 고객과의 심도 있는 하이터치가 가능하다. ―디지털 혁신을 위해 어떤 투자와 조직개편이 이뤄지고 있는지.▷'고객과 미래를 신뢰로 이어주는 디지털컴퍼니'를 미래 지향점으로 정하고 미래준비·금융 확장·비금융 확장이라는 3대 디지털 전략을 추진 중이다. 인공지능(AI) 기반 초개인화, 빅데이터 활성화, 디지털 자산 보관 및 관리를 위한 전자지갑, 개인·기업 플랫폼 전면개편 등 선제적으로 미래 준비 과제를 선정해 추진하고 있다. 또 영상상담채널(디지털 데스크), 인공지능 은행원·컨시어지 등을 도입·활성화하고, 디지털 테스트베드 영업점인 디지로그 브랜치를 확대 운영하고 있다. 신한은행은 모든 그룹에 디지털전환(DT) 추진 조직인 'DI LAB'을 도입해 디지털 매트릭스 체계를 구축했다. 다수 부서가 연계된 현장 중심 DT 과제를 발굴해 빠르고 효율적으로 추진하기 위해서다. 변화하는 경쟁 환경과 다양해진 고객 니즈에 신속하게 대응하고자 S.A.Q 조직 운영체계(Speed.Agility.Quickness)도 도입했다. 조직별 자기전결을 강화해 민첩성(Agility)을 극대화하고 조직 구성원의 자발적 동기부여를 강화하며 조직 간 공유와 협업을 통해 시너지 효과가 발생할 것으로 기대하고 있다.  ▶▶ 전필환 부행장은…△1965년생 △1988년 성균관대학교 행정학과 △2009년 신한은행 글로벌사업본부 조사역 △2011년 신한은행 오사카 지점장 △2017년 SBJ은행 부사장 △2021년~ 신한은행 부행장</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>카카오뱅크 성공 이어 토스뱅크도 출범…금융권 빅테크 전쟁</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004618658?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>요즘 금융권의 화두는 빅테크가 일으키는 혁신의 물결이다. 2017년 케이뱅크와 카카오뱅크에 이어 지난 5일 토스뱅크가 출범했다. 토스뱅크는 스타트업 출신 유니콘기업(기업가치 1조원 이상 비상장사)으로는 처음으로 은행 라이선스를 획득, 국내 3호 인터넷전문은행이 됐다.기존 은행들은 토스뱅크의 움직임을 주시하고 있다. 카카오뱅크처럼 전통 은행 시스템에 ‘제2의 충격파’를 줄 가능성이 높다고 보기 때문이다. 토스뱅크는 ‘포용과 혁신의 스타트업 은행’을 캐치프레이즈로 내걸었다. 주요 상품은 △조건 없이 연 2%의 이자를 주는 예·적금 통장 △은행권에서 가장 낮은 연 2.76%짜리 신용대출 △월 최대 4만6500원을 돌려주는 체크카드 등이다.홍민택 토스뱅크 대표는 출범 기자간담회에서 “조금 더 나은 은행이 아니라 ‘완전히 새로운 은행’이 되기 위해 수많은 고정관념에 대해 새로운 관점으로 접근했다”고 말했다.토스뱅크는 지난 14일부터 신용대출, 마이너스통장, 비상금 대출 등 대출 서비스를 일시 중단한 상태다. 정부의 가계부채 안정화 대책으로 인한 조치다. 토스뱅크는 내년 1월께 정상 운영이 가능할 것으로 보고 있다. 금융권 관계자는 “토스뱅크가 출범 9일 만에 주요 서비스를 중단하는 위기를 맞았지만 ‘대출 옥죄기’는 정부 방침이어서 모든 금융사에 적용되는 것”이라며 “각 은행에선 여전히 토스뱅크가 어떤 변화를 일으킬지 주시하는 분위기”라고 전했다.은행들이 이처럼 토스뱅크를 눈여겨보는 것은 카카오뱅크의 파장을 경험했기 때문이다. 카카오뱅크도 출범 때부터 ‘같지만 다른 은행’이라는 슬로건을 앞세웠다. 오프라인 점포가 없어 출범 당시엔 ‘낯선 은행’이었지만 ‘탈(脫)공인인증서’를 무기로 고객을 끌어모았다.금융권 안팎에선 토스가 카카오뱅크처럼 주목할 만한 성장세를 보일 것이란 관측이 나오고 있다. 토스 운영사인 비바리퍼블리카는 간편 송금앱(토스)을 시작으로 보험(토스인슈어런스), 전자결제대행(토스페이먼츠), 증권(토스증권) 등 여러 분야에서 사업을 키우고 있다. 투자업계에선 토스의 몸값을 최대 11조원 안팎으로 평가한다. 우리은행(8조원)보다 37.5% 높은 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.10.18.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>지키려는 카카오, 뺏으려는 우티·타다…연말 ‘플랫폼 택시’ 삼파전</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000767275?sid=105</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>우티, 티맵 내비 역량에 우버 기술력으로 무장 타다, 토스 업고 널찍한 이동경험 재현해 승부  “이미 카카오에 락인… 큰 균열 없을 것” 전망도서울 시내를 운행 중인 카카오택시. /연합뉴스        매달 1000만명 이상이 쓰는 택시호출 애플리케이션(앱) 카카오T가 최근 택시기사와 이를 이용하는 승객을 대상으로 과도하게 수수료 장사를 하고 있다는 비판이 거세지면서 우티 등 경쟁 앱으로 넘어갔다는 사례가 속속 나오고 있다. 연말 우티·타다 등 택시호출 앱 후발주자의 본격적인 행보가 예고되고 있어 카카오가 장악하고 있는 현재 시장에 균열이 생길지 주목된다.18일 모바일인덱스에 따르면, 현재 택시호출 앱의 월간 활성 사용자 수는 카카오T가 1016만명(2021년 8월 기준)으로 가장 많다. 우티(86만명), 타다(9만명)가 그 뒤를 잇고 있으나 격차가 큰 상황이다. ‘우버’ 색깔 입는 우티… ‘옛 영광 재현’ 타다        지난 4월 SK텔레콤의 자회사 티맵모빌리티와 글로벌 모빌리티 회사 우버가 합작법인으로 만든 우티는 오는 11월 1일 신규 서비스 출시를 목표로 현재 베타 테스트 중이다. 현재 운행 중인 티맵택시, 내비게이션 데이터에 우버의 글로벌 기술력, 노하우를 응집하겠다는 계산이다.그래픽=손민균        최근 간편 송금 등 금융 플랫폼 ‘토스’를 운영하는 비바리퍼블리카에 전격 인수된 타다는 지난해 3월 이른바 ‘타다 금지법(개정 여객자동차법)’ 통과로 사라진 ‘타다 베이직’을 오는 12월 부활시키겠다는 계획을 세웠다. 현재 서비스 중인 가맹택시 ‘타다 라이트’, 준고급 택시 ‘타다 플러스’의 존재감이 미미한 만큼 이전에 소비자들의 좋은 반응을 얻었던 대형 택시 모델을 재현해내겠다는 것이다. 이를 위해 타다는 스타리아 9인승, 4세대 카니발 등 대형 차량 1000대 정도 운행하는 것을 목표로 기사를 모집하고 있다.토스 관계자는 “타다 베이직과의 차이는 법적 문제가 없도록 렌터카가 아닌 택시 면허를 기반으로 하고 있는 것”이라면서 “승객들이 과거 타다 베이직에서 이동경험이 좋다고 느꼈던 이유 중 하나였던 공간적 여유를 다시 제공하겠다”라고 했다. “카카오 독점 계속” vs “균열 가능성”        전문가들은 이미 ‘카카오T’에 익숙해진 소비자들이 타 서비스로 넘어가기가 쉽지 않을 것이라고 내다봤다.안기정 서울연구원 연구위원은 “연말 회식 등으로 택시를 잡기 힘들어지거나 호출비 무료, 택시비 할인쿠폰 등의 마케팅이 있을 경우 우티, 타다 등으로 일부 사용자가 넘어갈 가능성은 있다”라면서도 “플랫폼은 한 번 쓰면 옮기기 힘든 락인(lock in·고객 가두기) 효과가 있기 때문에 전체적인 시장 상황은 큰 변동이 없을 것”이라고 했다.신민수 한양대 경영학부 교수는 “사용자들이 카카오T를 쓰는 이유는 카카오페이 등 카카오의 다른 서비스와 결합돼 있는 것도 큰 영향을 미치고 있다”라면서 “후발주자가 존재감을 발휘하기 위해서는 얼마나 다양한 서비스와 결합해 소비자들에게 편익을 주고 인지도를 끌어올리느냐에 달려있다”라고 했다.또 다른 관전 포인트는 정부·정치권에서 이어지고 있는 ‘카카오 때리기’가 어떤 강도로, 얼마만큼 이어질 것인가다. 플랫폼 독점 폐해에 대한 사회 우려가 커지면서 최근 소상공인연합회가 산하에 ‘온라인 플랫폼 공정화위원회’를 가동했고, 정치권에서 이와 관련한 규제 움직임이 이어질 것으로 예상된다. 후발주자로선 자연스레 경쟁에 유리한 환경이 조성될 수 있다.모빌리티 업계 관계자는 다만 “카카오모빌리티는 상생에 대한 정치권의 요구를 받고 있는데, 단순히 기금으로 해결될 수 있는 것이라면 택시호출 앱 시장은 카카오 독주라는 큰 틀이 흔들리지 않을 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>[영상]결승선 코 앞에 두고 '쾅'…휴대폰 보며 걷다 난입한 '민폐 관중'</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001617086?sid=104</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>아쉽게 1등 놓친 선수…자전거에서 떨어져 머리에 중상스페인에서 열린 한 사이클 대회에서 결승선을 코 앞에 둔 선수가 어이없는 사고로 1등을 놓치는 안타까운 일이 발생했습니다.이 선수가 1등을 놓친 이유는 휴대폰을 보며 걷다 레이스에 난입한 관중 때문이었습니다.스페인 언론 20미누토스에 따르면 현지 시간 23일 오후 스페인 카나리아제도 엘 히에로 섬에서 열린 '시클로투리스타 콘다카 살모르' 사이클 대회에서 참가자와 관중 간 충돌 사고가 발생했습니다.치열한 레이스가 한창이던 도중 하늘색 옷을 입은 선수가 결승선을 향해 전력질주로 달려옵니다. 많은 관중들이 해당 선수가 결승선을 넘어 1등을 거머쥐는 역사적 순간을 눈에 담기 위해 지켜보고 있었습니다.그런데 그 순간, 선수 앞으로 한 여성 한 명이 뛰어들어 '쿵'소리를 내며 부딪혔습니다. 이 선수는 자전거에서 떨어지며 그대로 한 바퀴를 굴렀습니다. 경쟁의 열기로 뜨거웠던 현장은 순식간에 아수라장이 되었고 결국 선수와 해당 여성 둘 다 병원에 실려가게 됐습니다.선수는 머리에 중상을 입고 입원한 상태입니다.해당 여성은 왜 선수 앞에 뛰어들었냐는 질문에 "반대편으로 자리를 옮기기 위해 건널 생각 밖에 없었다"고 답했습니다. 그러나 현장에 있던 관중 중 한 명이 인터넷에 올린 영상 속에는 그녀가 핸드폰을 하며 걷느라 자전거를 의식하지 못한 모습이 고스란히 담겼습니다. '전방주시 태만'이 부른 참사인 것입니다.이 영상을 본 현지 누리꾼들은 이 여성의 돌발 행동을 비난하면서도 주최 측이 펜스를 제대로 설치하지 않았다는 것도 함께 지적했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>크래프톤 장병규, ‘주100시간’ 발언 해명...“스스로 선택하란 뜻”</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000036665?sid=105</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>△코리아스타트업포럼 출범 5주년 기념 ‘THE창업가 컨퍼런스’가 온라인으로 개최됐다. 이날 크래프톤 장병규 의장(사진)과 비바리퍼블리카 이승건 대표가 무대에 올라 ‘창업가정신’을 주제로 대담을 진행했다.“많은 분들이 ‘주당 100시간’ 일하는 것을 남이 강요해서 착취하는 것으로 곡해했는데, 스스로의 선택에 맡기자는 뜻이었습니다.” 장병규 크래프톤 이사회 의장이 논란이 됐던 ‘주당 100시간 근로’ 발언에 대해 해명했다.20일 유튜브 실시간 생중계로 진행된 코리아스타트업포럼 ‘THE창업가 콘퍼런스’에 참석한 장 의장은 토스 운영사 비바리퍼블리카 이승건 대표와의 대담에서 “주당 100시간 근로 발언에 대한 오해를 바로잡고 싶다”며 이같이 밝혔다.앞서 장 의장은 지난 2019년 4차산업혁명위원회 위원장 재임 당시 코리아스타트업포럼 3주년 행사장에서 “과거 스타트업을 운영할 때 주100시간, 주7일 일했다. 몰입과 혁신을 위해서는 당연한 얘기”라며 “주당 100시간의 힘이 중요하다”고 거듭 강조한 바 있다. 당시는 300인 이하 사업장에 주52시간제가 전면 도입되기 직전이었다. 이 때문에 ‘기계적인 주52시간제’에 대해 우회적으로 반대 의사를 피력했던 것으로 풀이됐다. 일각에서는 ‘꼰대 발언’이라는 비판도 있었다.장 의장은 각자의 선택을 존중해달라는 당부였다고 설명했다. “인생에서 주당 100시간 집중하고 싶은 순간이 온다면 스스로 선택하라는 뜻”이었다며, “주당 100시간 인생도 있을 수 있는 것 아니냐. 이들도 우리 사회의 멋진 구성원으로 양해해달라는 얘기”라고도 덧붙였다.이에 이승건 대표도 “빼앗고 싶은 게 아니라 (직원들로부터) 선물 받고 싶은 것”이라며 동의했다. 이 대표는 “어제 인사제도를 개편했는데 실제로 (몰입을) 경험해볼 수 있게 하려 한다. 쓸데없는 일 안 하고 나만 잘하면 되는 일에 집중하도록 변화시키고자 한다”고 말했다. 전날 토스는 주 4.5일 근무제·겨울방학·비포괄임금제 도입 등 인사제도 개편안을 발표했다.△대담에서 이승건 대표는 “(5년 전에는) 대기업의 다음 목적지로 스타트업에 간다고 하면 집안에서 부모님이 짐을 싸들고 올라와 말렸다. 우리 자식은 안 된다는 거였다. 지금도 아주 주류는 아니지만 (스타트업이) 대안이자 선택지의 하나가 된 거 같다”고 말했다.장 의장은 크래프톤이 매입한 서울 성수동 이마트 사옥을 통해 업무공간·문화의 변화를 고민 중이라고도 밝혔다. 그는 “조직이 협업할 때 모이는 게 좋을 수도 있고, 재택근무도 많이 하니까 노마드처럼 일하는 것도 좋다”며 “건물들이 전통적인 업무방식에 맞게 만들어져 있는데 (이마트 사옥은) 게임·크리에이티브업에 맞게 풀어내려 한다. 새로운 방식으로 일하는 것에 대해서는 계속 고민하고 있다”고 말했다.스타트업 창업가들에게는 각자의 방식으로 성공할 것을 조언했다. 장 의장은 “장병규, 이승건은 여러분의 롤모델이 아니다. 자기만의 스타일로 승부해라”고 말했다. 또 “국제정세부터, 4차산업혁명, 딥러닝, 기후변화 등 인류가 맞닥뜨린 현재가 불확실하다”며 “창업가 정신은 불확실성이 가득한 시대의 나침반 역할을 하는 것”이라고도 강조했다.한편 내년 스타트업 생태계에 대해서는 보수적인 전망을 내놨다. 장 의장은 “세계 경제 흐름이 수축되면 유동성 면에서 스타트업도 영향을 받을 것”이라며 “올해나 작년처럼 ‘버블이 아닐까’라는 질문이 나오지 않을 거다. 내년, 내후년은 보수적으로 봐야 한다”고 말했다. 이 대표도 “미국 연방준비제도(Fed·연준)도 ‘테이퍼링’을 언급했기 때문에 상황이 달라질 것”이라며 공감했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.10.18.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>마켓컬리, ‘수퍼 플렉스 위크’ 시작</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002236355?sid=105</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>마켓컬리가 연말 쇼핑 성수기를 앞두고 ‘연중 최대 혜택을 드린다’는 컨셉으로 기획된 ‘수퍼 컬리 페스타'의 첫번째 기획전 ‘수퍼 플렉스 위크’를 18일부터 24일까지 1주일 간 진행한다고 밝혔다.마켓컬리 수퍼 플렉스 위크에는 삼성∙LG전자, 베르나르도, 설화수 등 총 60개 인기 브랜드가 참여한다. 가전, 뷰티, 주방, 생활 등 총 200여개의 상품을 최대 50% 할인가에 구매할 수 있다. 삼성전자 갤럭시워치4, LG전자 트롬 스타일러, 설화수 자음생 앰플과 에센스, 베르나르도 플레이트 세트, 르쿠르제 고메밥솥 등 평소 구매를 원했지만 가격 부담 때문에 망설였던 상품들을 한데 모아 할인을 제공한다.이번 수퍼 플렉스 위크에서는 ‘플렉스 찬스’ 진행을 통해 경품 행사와 이벤트 적립금 등이 제공된다. 경품 행사는 구매 금액에 따라 경품 응모권을 지급하는 이벤트로, 주문 1건 당 7만원 이상 구매 시 1장부터 100만원 이상 구매하면 최대 5장까지 경품 응모권을 지급한다. 경품은 마켓컬리 적립금 1천만원, 갤럭시 Z플립, 닌텐도 스위치, LG 로봇청소기, 발뮤다 가습기, 삼성 큐커 등으로 총 99명이 대상이며 19일부터 22일까지 매일 추첨을 통해 오후 3시 당첨자를 발표한다. 1천만원 적립금과 22일부터 24일까지의 경품 응모에 대한 추첨은 25일 일괄 진행 예정이다. 더불어 15만원 이상 구매부터 적립금 1만원을 시작으로 100만원 이상 결제 시 10만원의 적립금을 제공하는 이벤트 적립금도 함께 진행된다.마켓컬리_수퍼 플렉스 위크카드사와 결제사의 할인 쿠폰을 추가로 받을 수 있는 ‘플렉스 쿠폰’도 준비돼 있다. 카카오페이 7만원 이상 결제할 경우 12%(최대 1만5천원), 신한카드, 롯데카드, 토스로 7만원 이상 결제 시 10%(최대 1만5천원) 할인되는 쿠폰을 다운 받을 수 있다. 고객 ID당 매일 1회 선착순 발급되고 플렉스 쿠폰 스티커가 부착된 상품에 한해서만 할인이 적용된다.단 하루만 특별한 가격에 판매되는 ‘플렉스 프라이스’ 이벤트도 열린다. 18일부터 7일간 매일 오전 11시 2개씩의 상품이 공개될 예정이다. LG전자 스탠바이비, 오브제컬렉션 김치냉장고, 삼성전자 비스포크 큐브 냉장고, 갤럭시워치4 외에도 인기 브랜드의 주방과 뷰티 상품들을 특가에 선보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스, ‘타다 넥스트’ 12월 출시.. 드라이버 사전 모집</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004726035?sid=105</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>대형차량 기반 타다 넥스트..최대 4100만원 지급  [파이낸셜뉴스] 모빌리티 플랫폼 ‘타다’ 신규 서비스가 오는 12월 초 출시된다. 모바일 금융 플랫폼인 ‘토스’ 운영사 비바리퍼블리카가 타다를 인수한 후 첫 행보다. 양사는 모빌리티와 테크핀(기술+금융)을 융합한 생태계를 확장하기 위해 여러 방안을 다각도로 검토하고 있다.   타다 운영사 브이씨엔씨(VCNC)는 신규 서비스 ‘타다 넥스트’에 참여할 드라이버를 사전모집한다고 20일 밝혔다.   타다 넥스트는 택시 면허를 보유한 드라이버가 7인승 이상 대형 차량 기반으로 운영하는 호출 중개 서비스이다.   타다는 별도 주문을 통해 현대자동차 ‘스타리아’ 트림 중 모빌리티 서비스용 모델을 확보했다.   현재 모집 중인 1기 드라이버는 해당 차량을 통해 타다 넥스트 서비스에 참여하게 된다. 드라이버 지원 자격은 △서울 개인택시 면허를 보유하고 △행정처분 이력이 없으며 △5년 무사고 경력의 개인택시 사업자다. 해당 조건에 부합하는 누구나 지원할 수 있다.   1기로 선정된 드라이버에게는 최대 4100만원이 지급된다. 우선 타다 서비스 홍보비 1500만원이 일시 지급되며, 일정 운행조건을 충족하면 12개월 동안 매월 최대 200만원 활동비가 제공된다.   현재 ‘타다 라이트’나 ‘타다 플러스’를 운행 중인 운전자가 타다 넥스트 드라이버로 전환하면, 타다 서비스 경력 기간에 따라 최대 200만 원을 지급한다.  모빌리티 플랫폼 ‘타다’ 신규 서비스가 오는 12월 초 출시된다. VCNC 제공 이정행 타다 대표는 “타다 넥스트는 이용 고객과 드라이버 모두 만족할 수 있는 서비스가 될 수 있도록 면밀히 준비 중”이라며 “새로운 이동 기준을 제시할 타다 넥스트에 많은 드라이버의 지원을 부탁한다”고 전했다. #토스 #타다 #비바리퍼블리카 #쏘카 #VCNC</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>문 열자마자 대출조이기 유탄 맞은 '토스뱅크'…인터넷은행 '동병상련'</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000629857?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>케뱅·카뱅도 규제 타격 불가피출범 5년 만에 안착한 인터넷전문은행업계가 대출규제라는 암초를 만나면서 성장세에 급제동 우려가 나오고 있다. 대출을 중심으로 시장점유율을 높여왔지만 대출 조이기 규제에 위기감이 드리운 탓이다.20일 금융권에 따르면 토스뱅크는 지난 14일부터 대출을 전면 중단했다. 한도 5천억원이 모두 소진됐기 때문인데 토스뱅크는 금융당국 측에 한도 3천억 증액을 요구했지만 거절당했다.카카오뱅크·케이뱅크·토스뱅크 로고 [사진=아이뉴스24 DB]◆ 토스뱅크, 출범 9일 만에 대출중단토스뱅크가 지난 5일 야심찬 출범을 알렸지만 대출규제에 막혀 9일 만에 위기를 만난 셈이다.이 같은 위기는 출범 초장기인 토스뱅크에 큰 걸림돌로 작용할 것으로 예상된다. 카카오뱅크를 비롯한 인터넷전문은행들이 성공적으로 안착한 데는 대출을 통한 성장이 있었기 때문이다.실제 지난해 말 기준 카카오뱅크의 개인신용대출 점유율은 9.2%, 신규대출점유율은 13%를 기록했다. 국민·신한·하나·우리 등 4대 은행의 평균 점유율 24%에는 못 미치는 수준이나 증감 속도로 보면 가파르다.한국신용평가가 지난 2017년 9월부터 지난 3월까지 시중은행과 카카오뱅크의 가계대출 점유율 증감 속도를 비교한 결과 카카오뱅크는 5.8%를 보인 반면 하나은행은 4.1%가 감소하고 우리은행과 신한은행도 각각 1.3%, 1.5% 줄었다.카카오뱅크가 2016년 출범 이래 빠른 성장세를 보인 핵심 원동력도 신용·가계대출이다. 지난 3월 말 카카오뱅크의 대출비중은 가계신용대출 73.9%, 담보대출 26.1%다. 케이뱅크 또한 신용대출이 86.9%, 담보대출이 13.1%를 차지했다.시중은행의 경우 가계대출 38.7%, 기업대출 44.8% 공공 및 기타대출 15.4%의 고른 분포를 보인 데에 비하면 인터넷전문은행은 대출 위주의 성장세가 두드러진다.4대 은행의 9월말 평균 가계대출 순증규모는 6조5천억원을 기록했는데, 카카오뱅크와 케이뱅크는 상반기에만 총대출이 각각 2조9천억원, 4조3천억원 증가해 높은 대출 성장률을 보였다.그러나 토스뱅크는 9일 만에 대출을 전면 중단하면서 이 같은성장 수단을 잃은 셈이다.대출 규제에 막혀 토스뱅크의 중·저신용 대출 공급에도 지장이 생겼다. 대출이 전면 중단되며 당국에 제시한 연내 중·저신용 공급목표인 34.9% 달성이 어려워져서다.토스뱅크 관계자는 "올해까지 대출 중단인데 중·저신용자라고 예외가 있지는 않다"고 말했다.◆ 카뱅·케뱅도 대출 제한 "타격 불가피"다른 인터넷전문은행들도 상황은 별반 다르지 않다. 대출 중심의 성장세를 일궈온 카카오뱅크와 케이뱅크도 대출을 축소하거나 일부 중단하며 신규 영업에 제동이 걸렸다.카카오뱅크는 지난 8일부터 고신용 신용대출 및 직장인 사잇돌대출, 일반 전월세보증금 대출의 신규대출을 연말까지 중단했다. 이 중 전월세보증금 대출은 오는 22일부터 재개된다.케이뱅크의 경우 신용대출 한도를 1억5천억원으로, 마이너스통장 한도를 1억원으로 제한했다.전문가들도 대출규제로 인한 인터넷은행전문은행들의 타격이 불가피하다고 우려했다.전배승 이베스트투자증권 애널리스트는 "인터넷전문은행의 경우 시중은행과 달리 기업여신 취급이 제한되고 향후 중금리대출을 의존도가 높아질 수밖에 없어 가계대출 억제에 따른 부정적 영향이 불가피하다"고 말했다.이어 "금융플랫폼에 대한 금소법 적용과 마찬가지로 가계대출 규제조치가 인터넷전문은행에 대해서도 동일하게 적용될 경우 향후 외형성장에 상당한 제약요인으로 작용할 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2021.10.28.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>토스처럼…은행도 '원앱' 허용한다</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004621959?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>고승범 "은행권 디지털전환 지원"빅테크와 역차별 해소 나서은행 투자자문 대상 확대고승범 금융위원장이 28일 서울 명동 은행회관에서 은행장들과 간담회를 열었다. 왼쪽부터 권준학 농협은행장, 박성호 하나은행장, 진옥동 신한은행장, 고 위원장, 김광수 은행연합회장, 임성훈 대구은행장, 허인 국민은행장.  /신경훈  기자은행이 빅테크(대형 정보기술기업)처럼 하나의 앱에서 은행 증권 등 다양한 금융 서비스를 제공할 수 있는 길이 열린다. 부동산으로 한정됐던 투자자문 범위도 대폭 확대된다. 규제의 강도를 놓고 벌어진 빅테크와 전통 은행 간 ‘기울어진 운동장’ 논란이 해소되면서 두 업권의 플랫폼 주도권 싸움이 본격화될 전망이다.고승범 금융위원장은 28일 서울 명동 은행회관에서 열린 주요 은행장 간담회에서 “금융그룹이 하나의 ‘슈퍼 앱’을 통해 다양한 서비스를 제공하는 ‘디지털 유니버설 뱅크’가 가능하도록 제도적 기반을 조성하겠다”고 밝혔다. 고 위원장은 “경제·산업 전반에 디지털 전환이 이뤄짐에 따라 은행 등 금융산업도 커다란 변화를 경험하고 있다”며 “빅테크 플랫폼의 금융 진출 확대로 경쟁 구도가 변하고 있어 은행업의 미래와 경쟁력 확보 방안을 고민해야 할 시점”이라고 강조했다. 이를 위해 △은행의 겸영·부수업무 범위 확대 △신사업 출자 규제 완화 △은행권 망 분리 규제 합리화 △금융·비금융 정보 공유 활성화 등을 검토하겠다고 밝혔다.은행들의 숙원 사업이던 투자자문업 완전 진출도 가능해질 전망이다. 고 위원장은 “은행들이 빅테크와의 경쟁에서 불합리한 규제 차익이 발생하지 않도록 신탁업제도를 개선하고, 부동산에 제한돼 있던 투자자문업을 개방하는 방안을 검토하겠다”고 밝혔다.한 대형 은행 임원은 “원 앱 영업이 가능해지면 각 계열사의 자산관리 노하우를 합쳐 시너지를 낼 수 있다”고 말했다.은행에 슈퍼 앱이 허용되면 금융소비자는 앱 하나만 깔아도 증권·카드·보험 등 다양한 금융 서비스를 한 번에 이용할 수 있게 된다. 금융사도 그동안 앱 통합에 공들여 왔지만 진정한 의미의 ‘원 앱’은 불가능했다. 기껏해야 은행 앱에서 증권 앱으로 바로 넘어가는 식으로 그룹사의 앱을 서로 연결하고, 추가 로그인 과정을 없애는 정도였다. 소비자가 여러 개의 앱을 각각 깔아야 하는 불편은 그대로였다.그룹사 간 고객 정보 공유를 까다롭게 한 금융지주회사법과 자본시장통합법, 금융소비자보호법 등 법적인 리스크가 적지 않았기 때문이다. 카카오페이 등 빅테크 플랫폼이 다른 금융사 상품을 판매하는 게 금소법 위반 행위라는 당국 입장이 나오면서 은행의 ‘원 앱 영업’이 사실상 어려워진 게 아니냐는 해석도 나왔다.하지만 후발 주자인 토스가 증권과 은행 서비스를 기존 송금 앱에 그대로 적용하면서 원 앱 전략이 다시 주목받기 시작했다. 금융권의 한 관계자는 “토스는 전자금융업자로 출발해 지주회사법 적용을 받지 않았고, 추후 다른 금융업 라이선스를 받아 앱에 넣는 방식이어서 법적 문제에서 비교적 자유로웠다”고 말했다. 금융위 관계자는 “원 앱에서의 계열사 금융 상품 판매가 금소법 위반 행위 판단을 받지 않으려면, 상품 판매의 주체와 라이선스 여부를 앱에 명확히 표시하는 등의 노력이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2021.10.28.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>기울어진 운동장 바로 잡은 고승범…금융사vs빅테크, 자산관리·플랫폼 격돌 예고</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001905258?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>은행 숙원 투자자문 허용고객와 금융사 이해 일치금융사 플랫폼 확장 지지비금융 품은 수퍼앱 예고자산관리 기능이 새로 탑재된 KB국민은행 리뉴얼 앱.[헤럴드경제=서경원·이승환·정경수 기자] 은행과 빅테크가 수평 잡힌 운동장에서 플랫폼 전쟁을 벌이게 됐다. 그동안 빅테크 지원에 무게 중심을 두었던 금융위원회가 기존 은행권과의 균형잡기에 나서면서다. 고승범 위원장이 은행의 숙원이던 자문업 허용 방침과 함께 비금융 부수업부로의 사업영역 확장을 약속했다. 기존 대형 금융사들의 자산관리 사업확장 등 플랫폼 전략이 대폭 강화될 전망이다.▶은행권 숙원, 자산관리 유료서비스 길 열리다=그 동안 은행이 ‘자산관리’ 명분으로 얻을 수 있는 수익은 판매수수료 뿐이었다. 파는 행위에서만 수익이 발생하다보니 해당 상품의 성과에 대해서는 고객와 이해가 엇갈렸다. 포트폴리오 영업도 어려웠다. 사모펀드 불완전판매 사태도, 연금상품의 고질적인 수익률 부진 등도 근본적인 원인을 따지면 이해상충에 있다. 이 때문에 은행권에서는 판매 뿐 아니라 상담과 자문의 대가로도 수수료를 받을 수 있는 자문업 허용을 줄기차게 요구해왔다. 하지만 기존 시장 잠식을 우려한 증권업계의 반대로 번번히 좌절됐다. 그런데 증권사 총수를 인척으로 둔 고 위원장이 전격적으로 이를 수용했다.고 위원장은 28일 은행장들과의 간담회에서 “부동산에 제한되어 있던 은행의 투자자문업을 전상품으로 확대하여 다양한 투자자문 서비스 제공이 가능하도록 하겠다”며 “은행이 차별화된 투자자문과 투자자 보호를 제공할 수 있다면 투자자문의 수준을 한 단계 높일 것으로 생각한다”고 말했다.이에따라 기존 은행권의 소매금융 사업전략에 엄청난 변화가 예상된다. 예금과 대출 중심이던 영업전력이 자산관리로 이동하면서 전문성이 강화될 수 있다. 대규모 공채와 순환보직 관행도 사라지고 능력과 경력을 바탕으로 한 수시채용과 성과중심 인사체계가 새롭게 자리잡을 가능성이 크다.은행 이익 성장도 도모할 수 있다. 투자자문업 수수료는 당장 은행 비이자이익 개선으로 이어진다. 주요 은행의 경우 전체 영업이익 가운데 비이자이익이 차지하는 비중은 10% 수준에 불과하다. 아울러 은행이 제공하는 자문 서비스의 질도 향상될 가능성이 높다.한 시중은행 임원은 “외국 주요 은행과 다르게 국내 은행들은 자산관리(WM) 부문에서 사실상 자문 수수료를 받지 않았고, 고객들 역시 은행 자문 수수료는 무료라는 인식이 많다”며 “이는 결국 자문 서비스의 질을 떨어뜨리는 결과를 초래했는데 이번 당국의 방침으로 고객들에게 제공한 자문 서비스의 질이 상당히 향상될 것”이라고 말했다.▶은행도 보험도, 앱 하나로 다된다…슈퍼앱 전쟁=고 위원장은 이날 은행의 디지털 전환을 적극 지원하겠다면서 금융그룹이 하나의 슈퍼앱을 통해 은행, 보험, 증권 등 다양한 서비스를 제공하는 디지털 유니버셜 뱅크가 되도록 제도적 여건을 조성하겠다고도 밝혔다.거의 모든 금융서비스에 한번에 접근이 가능한 슈퍼앱은 금융권의 지향점이 됐다. 카카오뱅크, 카카오페이. 토스 등 빅테크 플랫폼들이 모두 슈퍼앱 전략을 취하고 있다. 전통 금융사들도 이에 맞춰 슈퍼앱을 속속 출시하기 시작했다.KB국민은행은 지난 27일 새 모바일뱅킹 앱(KB스타뱅킹)을 선보였다. 이를 통해 고객 맞춤형 자산관리 서비스(‘마이자산관리’)가 신설됐다. 이를 통해 증권, 보험 등 다른 금융업권의 거래 정보뿐 아니라 부동산·자동차 등 비금융 자산 정보까지 파악할 수 있고 진단까지 받을 수 있다.삼성화재 자체 메타버스 '썸'에서 열린 '삼성화재 다이렉트 착' 브랜드 런칭 컨퍼런스에서 최영무(무대 위) 삼성화재 사장의 아바타가 참석자들에게 신규 브랜드 도입 배경을 설명하고 있다.삼성화재도 플랫폼 기업으로의 변신에 본격 나서고 있다. 삼성화재는 최근 자체 메타버스 플랫폼 ‘썸’에서 새로운 다이렉트 브랜드 ‘착’을 출범시켰다. 기존 삼성화재 고객 1000만명뿐만 아니라 누구나 일상 속에서 이용할 수 있는 라이프 플랫폼을 만들겠단 취지다.초개인화된 상품을 제공하는 데 초점을 뒀다. 보장분석 서비스를 통해 개인 맞춤형 보험상품을 추천하는 식이다. 보험료 5만원을 선택하면 보장항목을 자동으로 맞춰주는 서비스도 개발했다. 다만 서비스 확장을 위해선 마이데이터(본인신용정보관리업) 인가가 필요한 상황이다. 현재 삼성화재는 삼성생명의 금융당국 제재 이슈 때문에 마이데이터 사업자로 신청을 하지 못하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>IT 대기업들, 인력난 속 근로여건 개선…포괄임금제 잇따라 폐지</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012742226?sid=105</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>자율근무·복지혜택 늘려…스타트업 등 중소업체들과 격차 심화'정부는 포괄임금제 규제 지침 즉각 발표하라'(서울=연합뉴스) 이재희 기자 = 10일 오전 서울 종로구 참여연대에서 열린 '포괄임금제 규제 지침 발표 촉구하는 노동시민사회단체 기자회견'에서 한 참석자가 손팻말을 들고 있다. 2021.8.10 scape@yna.co.kr(서울=연합뉴스) 최현석 한혜원 기자 = 최근 개발자 인력난이 심한 정보기술(IT)업계에서 포괄임금제 폐지 등 근로여건 개선 움직임이 활발해지고 있다.    게임과 플랫폼 사업의 호황 속에서 무한경쟁에 돌입한 주요 IT 대기업들은 경쟁사에 우수 인재를 뺏기지 않기 위해서라도 근로여건 개선 요구를 적극적으로 반영하는 분위기다.    그러나 대부분의 스타트업 등 신생·중소업체들은 여전히 포괄임금제 폐지 등에 소극적이고 대기업과 근무여건 격차가 더욱 크게 벌어지고 있어 정책적 대응이 필요하다는 지적도 나온다.   .      포괄임금제 폐지 흐름…복지제도·장시간근로 방지책 도입    24일 IT업계에 따르면 한글과컴퓨터 노사는 최근 포괄임금제 폐지와 연봉 문제 등 안건을 놓고 교섭을 진행중이다. 17년만인 올해 3월 재결성된 이 회사 노조는 '노동 가치 회복'을 겨냥한 요구사항을 내걸고 있다.    IT업계는 한컴 역시 즉각 포괄임금제를 폐지하기는 어렵더라도 점진적 개선책 마련에는 나설 것으로 관측하고 있다.     그간 포괄임금제를 적용해 온 금융 플랫폼 기업 토스는 내년 초 비포괄임금제로 전환하고, 법정 표준 근무시간인 주 40시간을 초과한 경우 별도 수당을 지급할 예정이다.    토스는 아울러 시범 운영하던 금요일 조기 퇴근제를 다음 달부터 정식 운영해 사실상 '주 4.5일 근무제'로 전환하고 크리스마스를 전후해 약 10일간 쉬는 '겨울방학'도 정례화하기로 했다.    앞서 카카오엔터테인먼트는 지난달에 포괄임금제를 폐지했으며, 시간·장소에 구애받지 않는 완전 자율근무 제도를 시행했다.    게임업체 게임빌과 그 지주사인 컴투스 등은 지난 5월 포괄임금제를 폐지하고 전문기관과 연계된 상담 서비스 '상담포유' 등을 도입했다.     2017년 게임업계 최초로 포괄임금제를 폐지한 펄어비스는 이달 들어 온라인 코딩 교육 지원, 자전거 정비 지원, 무인 세탁함 운영 등 새 복지 제도를 추가했다.     펄어비스에 이어 포괄임금제를 없앤 게임업계 '3N' 중 넥슨은 올 2월에 전 직원 연봉을 800만 원 인상한 데 이어 7월에는 사내 대출 한도를 기존 3천만 원에서 5천만 원으로 증액했다. 넷마블은 올 초에 신입 공채 초임을 상향하고 식대 지원금 월 10만 원을 추가했다.    지나친 장시간 근로를 방지하는 대책을 도입하는 업체들도 있다.     엔씨소프트는 올 4월 최대 근로 시간에 도달한 직원들의 사내 출입을 제한하는 게이트 오프(Gate Off) 제도를 도입했다.     네이버도 연장근로 한도 초과를 막기 위해 법정근로시간 최대치에 도달할 경우 시스템 접속을 제한하는 '셧다운'(shutdown)과 사옥 출입을 제한하는 '게이트오프' 도입을 검토하고 있다.게임·IT업계 '인재 지키기' 사활 (CG)[연합뉴스TV 제공] 노조설립·인력난 영향…"확산 위한 법적 지침 필요"    이런 IT 대기업들의 근무 여건 개선 움직임에는 '인력난'이 배경으로 깔려 있다. 신종 코로나바이러스 감염증(코로나19) 사태가 장기화하는 동안 각종 게임과 플랫폼 산업이 호황을 보이면서 고급 개발자 등 인력 부족이 심화됐기 때문이다.    모바일 금융플랫폼 토스 관계자는 "인재를 놓고 경쟁이 치열한 상황이 맞다"며 "이러한 경쟁 상황에서 조금 더 좋은 처우와 더 나은 '일과 생활의 균형'이 (인재 확보에) 좋게 작용할 것으로 기대하고 있다"고 말했다.    최근 수년간 실적 개선에 따른 수익의 공정한 배분과 복지 향상 등을 요구하며 노동조합이 잇따라 설립되는 분위기 역시 IT업계 전반의 근로 여건 개선을 압박하는 요인이다. 웹젠에서는 올 4월 노조가 만들어진 후 공정한 소통 등을 요구하며 최근 사측과 교섭을 시작했다.        하지만 스타트업 등 중소 IT업체들에서는 여전히 포괄임금제와 탄력근무제를 유지하는 경우가 많다. 노조 설립도 원활하지 않은 편이다.    직원이 몇십 명 수준인 회사들은 대부분 포괄임금제 폐지가 불가능하다고 스스로 판단하고 있으며, 일부 게임업체의 경우 신제품 출시 전 1개월간 직원들에게 휴일 없이 주 7일 근무를 시키는 '관행'을 유지하고 있다.    이런 근무 여건과 처우 차이 때문에 능력을 널리 인정받는 인재의 IT대기업 쏠림 현상이 더 심화할 것이라는 우려와 함께 제도적 보완을 요구하는 목소리도 나온다.    서승욱 화섬식품노조 IT위원장은 "과도한 근로 문제 등에 큰 영향을 미치는 포괄임금제가 폐지되는 흐름 자체는 좋다고 본다"면서도 "현재 대부분 업체가 포괄임금제를 폐지하는 상황은 아니기 때문에 고용노동부가 법적 가이드라인(규제 지침)을 마련할 필요가 있다"고 말했다.'포괄임금제 규제 지침 즉각 발표하라'(서울=연합뉴스) 이재희 기자 = 10일 오전 서울 종로구 참여연대에서 열린 '포괄임금제 규제 지침 발표 촉구하는 노동시민사회단체 기자회견'에서 서승욱 카카오지회장이 발언하고 있다. 2021.8.10 scape@yna.co.kr    harrison@yna.co.kr    hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2021.10.18.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>쏘카, 올 흑자전환 기대···내년 IPO '탄력'</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003974546?sid=105</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>대리·중고차 사업 잇달아 철수카셰어링 집중해 수익성 개선운영대수 1만8,000대로 확대[서울경제] 쏘카가 사업 구조 개편을 통해 수익성을 높여 올해 흑자전환에 성공한 후 내년 기업공개(IPO)에 나선다.18일 업계에 따르면 쏘카는 최근 적자 자회사 브이씨엔씨(VCNC) 지분을 대폭 정리하며 재무 성과를 크게 개선했다. 토스 운영사인 비바리퍼블리카에 VCNC 지분 60%를 팔아 VCNC가 기존 종속기업에서 관계기업으로 바뀐 덕분이다. 종속기업은 매출과 손익이 온전히 반영되지만 관계기업은 지분율에 비례해 실적을 반영하면 된다. ‘타다 택시’를 운영하는 VCNC의 지난해 매출은 60억 원, 당기순손실은 112억 원이었다. 쏘카의 지난해 매출이 2,637억 원, 당기순손실이 619억 원이었던 점을 감안하면 적지 않은 부담을 던 셈이다.쏘카는 또 지난 8월 사업성이 떨어진다고 판단한 중고차 거래 플랫폼 ‘캐스팅’ 서비스를 종료한 데 이어 지난 달 대리 사업에서도 철수했다. 투입하는 자원에 비해 효율이 떨어진다는 판단에서다. 쏘카 측은 “중고차 사업은 점검·수리 등 워낙 품이 많이 드는 데다 생계형 적합업종 지정 논란이 계속돼 사업 확장에 한계가 있다”면서 “대리운전 서비스는 여전히 (오프라인) 전화콜 점유율이 80%를 넘는 분야이며, 코로나19 장기화로 시장이 위축돼 사업을 지속할 실익이 없다고 판단했다”고 설명했다.쏘카는 실익이 없는 사업들을 빠르게 정리한 만큼 주력 사업인 카셰어링(차량 공유)에 집중할 방침이다. 쏘카에 따르면 올 2분기 카셰어링 매출은 지난해 같은 기간보다 34% 늘었다. 수요 증대에 힘입어 운영 대수도 지난해 1만2,000대에서 올 9월 말 기준 1만8,000대로 늘었다. 업계에서는 지금 추세대로라면 쏘카가 연내 충분히 흑자 전환할 것으로 보고 있다.일각에서는 최근 카카오모빌리티의 IPO가 규제 이슈로 제동이 걸린 것도 쏘카에는 호재라는 분석이 나온다. 업계 한 관계자는 “쏘카 입장에서는 동종 업계 두 대어(大魚)가 맞붙는 양상보다 단독으로 투자를 유치하는 게 유리하다”며 “과거 타다 금지법처럼 발목 잡는 리스크도 해소된 상태여서 증시 입성까지 순항할 가능성이 더 높아졌다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>IT 대기업들, 포괄임금제 잇따라 폐지…인력난 속 근로여건 개선 움직임 활발</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003792826?sid=105</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>개발자 인력난이 심한 IT업계에서 포괄임금제 폐지 등 근로여건 개선 움직임이 활발한 것으로 나타났다. 주요 IT 대기업들은 경쟁사에 우수 인재를 빼앗기지 않기 위해 근로여건 개선 요구를 적극적으로 반영하는 분위기다.하지만 대부분의 스타트업 등 신생·중소업체들은 여전히 포괄임금제 폐지 등에 소극적이라 대기업과 근무여건 격차가 더욱 크게 벌어지고 있어 정책적 대응이 필요하다는 목소리도 들린다.24일 IT업계에 따르면 한글과컴퓨터 노사는 최근 포괄임금제 폐지와 연봉 문제 등 안건을 놓고 교섭이 진행되고 있다. 17년만인 올해 3월 재결성된 한컴 노조는 '노동 가치 회복'을 겨냥한 요구사항을 내걸고 있다.IT업계는 한컴이 즉각 포괄임금제를 폐지하기는 어렵더라도 점진적 개선책 마련에는 나설 것으로 내다보고 있다.금융 플랫폼 기업 토스는 포괄임금제를 적용해 왔으나 내년 초 비포괄임금제로 전환을 예고하고 법정 표준 근무시간인 주 40시간을 초과한 경우 별도 수당을 지급할 예정이다.이와 함께 시범 운영하던 금요일 조기 퇴근제를 다음 달부터 정식 운영해 사실상 '주 4.5일 근무제'로 전환하고, 크리스마스를 전후해 약 10일간 쉬는 '겨울방학'도 정례화하기로 했다.앞서 카카오엔터테인먼트는 지난달 포괄임금제를 폐지했고, 시간과 장소에 구애받지 않는 완전 자율근무 제도를 시행했다.IT 대기업들의 근무 여건 개선 움직임 배경에는 '인력난'이 깔려 있다. 코로나19로 플랫폼 산업 등이 호황을 보이면서 고급 개발자 등 인력 부족이 심화했기 때문이다.수년간의 실적 개선에 따른 공정한 수익 배분과 복지 향상 등을 요구하며 설립된 노동조합도 IT업계 전반의 근로 여건 개선을 압박하는 또 다른 원인이다.하지만 스타트업과 같은 중소 IT업체들에서는 여전히 포괄임금제와 탄력근무제를 유지하는 경우가 많다. 노조 설립도 원활하지 못한 편이 대부분이다.이 같은 근무 여건과 처우 차이 때문에 능력을 널리 인정받는 인재의 IT 대기업 쏠림 현상이 심화할 것이라는 우려와 함께 제도적 보완을 요구하는 목소리도 나온다.업계 관계자는 "현재 대부분 업체가 포괄임근제를 폐지하는 상황은 아니기 때문에 고용노동부가 법적 가이드라인을 마련할 필요가 있다"고 말했다.조민정 기자 mj.cho@sportschosun.com▶재테크 잘하려면? 무료로 보는 금전 사주- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[기업] 토스, 포괄임금제 폐지하고 '주 4.5일제'로 전환</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001654358?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>금융 플랫폼 기업인 토스가 포괄임금제를 폐지하고 주 4.5일 근무제를 정식 도입했습니다.토스는 내년 초 비포괄임금제로 전환해, 법정 표준 근무시간인 주 40시간을 초과한 만큼은 별도 수당을 지급할 예정입니다.또, 지난 4개월 동안 시범 운영했던 금요일 조기 퇴근제를 정식으로 도입하고, 연말에는 회사 전체가 10일가량 모두 쉬는 '겨울방학' 제도도 정례화했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>IT기업 “인력 이탈 막아라” 특명… 초과근무 없애고 임금제 개선</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000769437?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>상반기 게임社 이어 인터넷社도 인재 모시기 사활네이버·한컴은 노사 협상, 카카오엔터·토스는 결정 “스타트업서 급성장…포괄임금제 버리고 체질 개선 중”그래픽=손민균        정보기술(IT)업계에서 근로자 처우 개선 바람이 다시 불고 있다. 올해 상반기 게임사를 중심으로 연봉 인상 행렬이 한차례 있었지만, 여전한 인력난에 상대적으로 연봉이 높은 인터넷 기업까지 나서서 인력 이탈을 막기 위해 포괄임금제 폐지 등 대책을 내놓고 있다.27일 IT업계에 따르면 현재 네이버와 한글과컴퓨터(한컴)는 각각 노사 단체협상으로 처우 개선을 추진 중이고, 토스와 카카오엔터테인먼트는 최근 회사 차원에서 처우 개선을 결정했다.네이버는 지난 5월 과도한 업무에 시달렸던 개발자의 극단적 선택 사건을 계기로, 법정근로시간을 초과할 경우 자동으로 전산 시스템을 차단하는 셧다운제와 사옥 출입을 제한하는 게이트오프제 도입을 검토 중이다. 직원이 초과근무하는 일이 벌어질 경우 조직장 등 책임자를 조사해 필요할 경우 징계까지 내리는 방안도 검토 중이다. 네이버는 지난 19일 시작된 노사 협상을 통해 이르면 다음 달까지 이 방안을 구체화하기로 했다. 사측이 먼저 마련한 방안들인 만큼 무리 없이 추진될 것으로 보인다.한컴은 17년 만인 지난 3월 노조가 재결성된 후 지금까지 진행되고 있는 노사 단체협상을 통해 포괄임금제 폐지와 연봉 인상이 논의되고 있다. 한컴 관계자는 “상반기부터 협상이 진행된 만큼 연말까진 결과가 나올 것으로 보인다”라고 말했다.네이버(왼쪽)와 한글과컴퓨터(오른쪽) 사옥. /각 사 제공        토스와 카카오엔터는 이미 노조의 요구를 받아들여 최근 처우 개선이 이뤄졌다. 지난 19일 토스는 내년 초 포괄임금제를 폐지하고 그에 따라 법정근로시간인 주 40시간을 초과하는 근무 시간에 대해 초과 수당을 지급하기로 했다. 금요일에 조기 퇴근하는 주 4.5일 제도, 크리스마스 전후로 약 10일 간 전사 휴무 기간을 갖는 ‘겨울방학’ 제도도 도입한다.카카오엔터도 멜론컴퍼니를 합병한 지난달 1일부터 포괄임금제를 폐지하고, 시간과 장소를 자유롭게 선택해 일할 수 있는 ‘완전자율근무제’를 시행했다. 근속 6개월 이상 정규직 직원들의 연봉을 500만원씩 일괄 인상하고 복지포인트·명절비 등 500만원 상당의 현금성 복지 혜택도 지급한다.경쟁적인 처우 개선 움직임의 원인으로, 신종 코로나 바이러스 감염증(코로나19) 여파로 IT 서비스 수요가 늘어나는데 이에 맞춰 새로 수급할 인력은 부족해지면서 기업이 인재 확보전을 벌이고 있다는 게 업계의 시각이다.업계 관계자는 “인터넷 기업들은 대부분 직원 10명 이내의 스타트업으로 시작해 포괄임금제를 채택하는 경우가 많았다”라며 “하지만 IT업계 호황으로 몸집이 커졌고 지난해부턴 코로나19로 성장이 가속화하면서 새로운 인재를 채용하고 기존 인재를 붙잡아두기 위한 경쟁을 기업이 벌이고 있는 것”이라고 말했다.이런 움직임은 크런치모드(신작 출시·업데이트를 앞두고 집중적으로 근무하는 체제) 등으로 상대적으로 업무량이 많은데도 연봉은 더 낮았던 게임사를 중심으로 한차례 이뤄졌던 게 인터넷 기업으로 번진 것이다. 지난 2017년 펄어비스를 시작으로 엔씨소프트·넥슨·넷마블 등 이른바 3N과 게임빌·컴투스·위메이드·스마일게이트 등이 올해 상반기까지 포괄임금제를 폐지한 바 있다. 게임사들은 올해 상반기 800만~2000만원의 연봉 인상까지 단행한 바 있다(하단 표 참조).포괄임금제는 연장근로 수당을 실제 근로시간과 무관하게 기본급에 포함시키거나 미리 정한 금액으로 지급하는 근로계약 형태다. IT업계처럼 업무량이 불규칙해 연장근로 시간을 정확히 집계하기 어려운 기업이나 스타트업처럼 규모가 작은 기업이 주로 채택하고 있다.조선비즈DB</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>토스, 포괄임금제 폐지하고 '주 4.5일제'로 전환</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012731204?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[토스 제공=연합뉴스]    (서울=연합뉴스) 한혜원 기자 = 금융 플랫폼 기업 토스는 포괄임금제를 폐지하고 '주 4.5일 근무제'와 '겨울방학' 제도를 정식으로 도입한다고 19일 밝혔다.    토스는 현재 포괄임금제를 시행하고 있으나 내년 초 이를 비포괄임금제로 전환한다. 이에 따라 법정 표준 근무시간인 주 40시간을 초과한 근무시간에 대해서는 연봉 외에 별도 수당을 직원들에게 지급하게 된다.     토스는 또 지난 4개월간 시범 운영한 금요일 조기 퇴근제를 다음 달부터 정식으로 운영해 사실상 '주 4.5일 근무제'로 전환키로 했다.    성탄절을 전후해 약 10일간 회사가 모두 쉬는 '겨울방학'도 정례화한다. 고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 것을 원칙으로 하며, 사내 메신저도 서로 답변을 요구하지 않는 휴식 상태로 전환된다.    토스는 아울러 그동안 운영해온 동료 간 단기 평가 시스템인 '3개월 리뷰 과정'과 '스트라이크' 제도를 다음 달부터 폐지하기로 했다.     토스 측은 "입사 지원자와 재직자 모두에게 충분한 심리적 안정감을 제공하는 것이 장기적으로 팀의 성공에 더 효과적이라고 판단했다"고 설명했다.     이런 인사 제도는 토스와 토스뱅크, 토스증권, 토스페이먼츠 등 주요 계열사에 동일하게 적용된다.    다만 고객 상담업무를 하는 토스CX와 보험 상담사 중심 조직 토스인슈어런스는 기존 인사 제도를 유지할 예정이다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>말 많고 탈 많았던 카카오페이…성장 이어질까</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004988368?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>‘테크핀(기술회사의 금융업 진출)’ 전성시대다. 2010년 금융과 테크의 결합을 의미하는 ‘핀테크’라는 신조어가 생겨난 후 수많은 핀테크 스타트업이 탄생했다. 10여년이 흐른 지금 주도권은 금융 업체에서 기술(테크) 업체로 옮겨가고 있다. 핀테크(FinTech)보다 테크핀(TechFin)이라는 표현이 널리 사용되는 이유다.기술이 결제 방식을 바꾸고 있다. 기존 현금이나 카드가 아닌 간편결제라는 새로운 지불 형태가 유행했다. 2010년 중반부터 나온 간편결제는 코로나19로 인해 더욱 빠르게 성장하면서 생활의 한 부분이 됐다. 올해 간편결제와 송금 사업자의 거래 총액은 400조원을 돌파하며 연간 카드 결제액 대비 40% 비중을 차지할 것으로 보인다.한국은행이 발간한 ‘2020 지급결제보고서’의 하루 평균 간편결제와 송금 서비스 이용액은 2016년 640억원에서 2020년 4490억원으로 5년 동안 7배 이상으로 커졌다. 시장 규모가 커지면서 테크핀 기업도 빠르게 성장했다. 카카오페이는 출범 4년 만에 유가증권시장 입성을 앞두고 있으며 토스를 운영하는 비바리퍼블리카의 기업 가치는 8년 만에 16조원까지 성장했다. 아시아경제는 테크핀 시대의 선두주자 격인 카카오페이와 비바리퍼블리카의 현황과 성장 가능성을 가늠해 본다.공모가 고평가와 규제 이슈 등으로 상장이 두 차례 연기된 카카오페이가 오는 11월 유가증권시장에 입성한다. 상장 후 예상 시가총액은 11조7000억원으로 시총 30위권에 이름을 올릴 예정이다.카카오페이는 카카오로부터 핀테크 사업과 관련한 자산·부채를 현물출자 받아 2017년 4월 설립됐다. 2014년 9월 국내 최초로 간편결제 서비스를 시작했다. 이후 송금, 청구서, 인증 등 다양한 서비스를 차례로 출시했다. 또 대출 비교 서비스 및 금융사 연계 플랫폼 서비스를 선보였다. 이와 함께 자회사가 수행하는 금융상품 등에 대한 중개 서비스 등 금융서비스로의 확장을 진행하고 있다. 사업 부문은 크게 결제와 금융서비스로 나뉜다.◆카카오 플랫폼 바탕으로 고성장= 카카오페이는 2018년 매출액 695억원에서 2019년 1411억원, 지난해 2844억원을 기록하는 등 가파르게 성장했다. 올해 상반기도 매출액 2163억원을 기록하며 전년 동기 대비 89.86% 증가했다.영업이익은 2018년 965억원의 영업손실을 기록한 후 2019년 653억원, 2020년 179억원으로 줄여나갔다. 올해 상반기는 영업이익 26억원을 기록하면서 지난해 동기 대비 흑자전환했다. 올해 반기 기준으로 결제 서비스가 전체 매출액의 62.7%를 차지하고 있다. 이어 금융서비스(32.15%), 기타서비스 등의 순이다.빠르게 흑자로 전환할 수 있었던 원동력은 카카오 플랫폼이다. 카카오의 메신저 서비스 카카오톡은 지난 2분기 기준 국내 월간이용자수(MAU) 4662만명을 보유하고 있다. 카카오 플랫폼을 바탕으로 카카오페이의 결제 서비스 금액은 2018년 3조5000억원에서 2019년 7조2000억원, 지난해 12조5000억원으로 증가했다. 해마다 거래대금이 2배씩 늘어났다.신규 사업으로 진행하고 있는 금융서비스 분야도 고성장하고 있다. 2018년 전체 매출액의 0.16%(1억1300만원)에 그쳤던 금융서비스는 2019년 33억4900만원(2.37%), 지난해 644억4900만원(22.66%)으로 증가했다. 앞으로도 빠르게 성장할 것으로 기대되고 있다. 카카오페이는 현재 기업공개(IPO)를 진행 중이며 조달한 자금을 카카오페이증권 리테일 사업 확장과 디지털 손해보험사에 투자할 계획이다.정광명 DB투자증권 연구원은 "카카오페이투자증권은 신규 금융상품으로 리테일 영업을 강화할 계획이며 디지털손보사는 내년 1분기 출범이 예정됐다"며 "지난 9월 대출성 상품 대리 중개업 라이선스 취득으로 정식 대출 서비스가 가능하고, 자회사를 통한 추가적인 금융 서비스 도입이 기대되고 있어 관련 부문의 성장은 지속될 수 있을 것"이라고 설명했다.◆말 많고 탈 많았던 IPO= 카카오페이의 최초 공모 희망가는 6만3000~9만6000원이었지만 고평가 논란으로 낮아졌다. 조정된 공모가는 6만~9만원이었다. 공모가는 낮췄지만 기업가치는 16조원에서 17조원으로 오히려 더 높아졌다.이유는 1분기 실적이 아닌 반기 실적까지 포함해서 오히려 기업가치가 커진 것이다. 카카오페이가 공모가를 선정할 때 활용한 방식은 성장률 조정(Growth-adjusted) EV/Sales 비교법이다. 성장률 조정 계수는 높은 성장을 보여주는 기업들의 가치를 인정해 주기 위해 사용되는 방법의 하나다. 이 성장률 조정계수에서는 매출액 성장률을 활용한다. 카카오페이가 처음 증권신고서를 제출할 때는 매출액 성장률을 83.4%로 제시했지만 수정 후 98.70%로 높였다.공모가가 낮아진 이유는 할인율을 더 적용해서다. 할인율은 기존 21.51~48.49%에서 31.28~54.19%로 높아졌다. 최근 5년간 유가증권시장 평균 공모가 할인율은 19.79~32.79%였다.이를 통한 예상 시가총액은 7조8000억~11조7000억원 수준이다. 지난 22일 카카오페이는 공모가가 9만원으로 결정됐다고 밝혔다. 이는 최상단으로 상장 후 예상 시가총액 11조7000억원이다. 국내 상장사 중 카드사인 삼성카드가 4조원 수준인 것을 비교하면 약 3배 정도 차이나는 것이다.다만 이 방식의 문제점은 향후 실제 실적이 현재의 기대값에 미치지 못할 위험이 있는 한계가 존재한다. 특히 카카오페이가 주력으로 하는 사업은 언제든지 규제에 대한 영향이 크기 때문에 불확실성이 존재한다. 실제 지난 9월 금융소비자보호법(금소법) 전면 시행으로 카카오페이의 일부 상품의 판매가 중단되기도 했는데 한 차례 더 IPO를 연기하게 된 이유가 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>센스톤, 토스뱅크에 OTP 기술 공급…아이폰도 지원</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002236647?sid=105</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>체크카드에 탑재…"2차 인증 필요 없어"인증보안 기술 스타트업 센스톤(대표 유창훈)은 인터넷전문은행 토스뱅크에 카드 접촉식 일회용패스워드(OTP) 인증 기술 ‘스위치 OTP’를 공급한다고 20일 밝혔다.센스톤이 선보인 스위치 OTP는 휴대폰 뒷면에 태깅하는 것만으로도 OTP 코드를 실시간 생성하는 기술이다. 센스톤의 원천 기술 일회용인증코드(OTAC)가 적용됐으며, 근거리무선통신(NFC) 기술을 활용한다.해당 기술은 토스뱅크 체크카드에 탑재됐다. 체크카드 사용자가 본인의 휴대폰 뒷면에 카드를 태깅하면 금융 서비스를 이용하는 과정에서 본인 인증은 물론, 고액 송금 및 이체를 위한 2차 인증까지도 한 번에 가능하다.토스뱅크 카드 OTP 등록 이미지센스톤은 국내 금융기관에서 많이 사용하는 모바일 OTP와 달리 PIN 번호 입력도 필요하지 않다고 강조했다. 기존 OTP가 계정정보 또는 생체인식 로그인 이후 2차 인증 용도로만 사용되는 반면, 스위치 OTP에 적용된 OTAC는 고유 사용자 식별이 가능하고 타 사용자와 코드 중복 가능성이 없기 때문이라고 덧붙였다.기존 스마트 OTP 사용이 불가능했던 아이폰에 호환되는 NFC데이터교환포맷(NDEF)이 사용되는 NFC 실물카드와 연계해 다이내믹 인증코드를 생성한다는 것도 강점으로 꼽았다.유창훈 센스톤 대표는 “디지털 금융 혁신을 선도하고 있는 토스뱅크에서 센스톤의 세계 최초 단방향 다이내믹 인증 기술인 OTAC 기반의 스위치 OTP가 적용된 금융 서비스를 선보이게 되어 매우 기쁘다”며 “앞으로 토스뱅크와의 보다 긴밀한 파트너십을 바탕으로 다양한 금융 서비스 인증은 물론, 새로운 비즈니스 개발에 기여할 수 있기를 기대한다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>[택시플랫폼④] 모빌리티+결제는 이제 시작, 향후 지능형 교통시장 놓고 각축</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002111876?sid=105</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>우버‧리프트 등 글로벌 차량공유 서비스 등장으로 전세계 모빌리티 패러다임이 변화하는 가운데, 한국은 택시 호출 앱 중심 모빌리티 플랫폼 경쟁이 불붙고 있다. 콜택시 대신 카카오택시(카카오T)를, 현금 대신 자동 결제를 이용하는 등 ‘택시 플랫폼’은 일상생활에 안착했다. 카카오뿐 아니라 SK텔레콤 등 기술기업이 택시 플랫폼 사업에 진출했으며, 데이터와 정보통신기술(ICT)을 통해 이동 혁신과 함께 택시시장 구조 변화까지 꾀했다. 이에 최근 변화하는 택시플랫폼 산업과 규제 및 과제 등을 짚어본다. &lt;편집자주&gt;[디지털데일리 이상일기자] ‘카카오택시-카카오페이(카카오뱅크)’, ‘타다-토스페이먼츠(토스뱅크)’, ‘우티-SK페이’, ‘온다택시-티머니(티머니onda)’. 모빌리티 플랫폼 기업과 연계되는 결제 기업이 다양해지고 있다. 최근 모빌리티 시장에서 인수합병 등 대격변의 시대를 맞이한 가운데 결제 인프라와 데이터를 중심으로 한 모빌리티 업계의 전략이 본격 가동되고 있어 주목된다. 이미 결제 인프라와 교통 등 모빌리티 시장의 결합은 점차 고도화될 것이라는 전망이 있었지만 토스가 타다를 최근 전격 인수하면서 모빌리티와 결제 인프라의 결합은 표면화되고 보다 구체화되고 있다. 토스 역시 타다의 인수 이유로 모빌리티 시장 진출을 통한 모바일 결제 시장의 확대를 꼽고 있는 만큼 결제 인프라에 있어 모빌리티는 중요한 변수로 떠오르고 있다. 특히 현재는 모바일 교통 플랫폼 기업을 중심으로 결제 인프라 혁신이 이어지고 있지만 향후에는 자율주행, 전기자동차, 지능형 교통망 등 다양한 교통 인프라에 디지털 전환과 더불어 결제 인프라 혁신이 수행될 것으로 보인다. 이러한 미래 시장에 대비하고자 다양한 IT기업, 플랫폼 기업 등이 움직이고 있는 가운데 대중적인 시장 선점과 인지도 제고를 위해서도 일상생활에서 가장 먼저 접할 수 있는 택시 등 모빌리티 플랫폼에서의 결제 경험은 중요한 화두 중 하나다. 이미 카카오택시는 카카오페이와 결합해 결제 서비스를 제공하고 있다. 단순히 결제 서비스만 제공하는 것이 아니라 고객의 결제 데이터 확보, 동선 이동 및 주요 지리적 정보 수집을 이용한 대안신용평가 활용 등 개인의 이동경로 데이터 확보는 데이터 경제에 있어 중요하다. 앞서 SK텔레콤이 지도 및 내비게이션 서비스인 ‘티맵’을 통해 고도화된 개인의 지리정보와 이를 연계한 소상공인 매출지도 등을 서비스하는 등 지리적 정보 데이터의 가능성은 증명된 바 있다. 토스 역시 토스 페이먼츠, 토스뱅크를 타다 서비스와 결합해 결제 매출 확대는 물론 개인의 이동 데이터 확보를 통해 지리적 DB확보에 적극적으로 나설 것으로 전망된다. 지리정보의 확보는 해당 지역의 경제 활동 산출은 물론 다양한 분야에 활용될 수 있다는 관측이다. 교통 결제시스템을 주력으로 하는 티머니 역시 서울 택시업계가 주도하는 택시호출서비스 온다택시와 협력하고 있다. 온다택시의 경우 티머니와 협력해 ‘택시비 할인 쿠폰’을 신규 도입해 ‘티머니onda’ 활성화에 힘을 실을 계획이다. ▲신규 회원 2만원 쿠폰팩 및 ▲기존회원 1만원 쿠폰팩 등 다양한 할인 쿠폰으로 더운 여름 고객들의 시원한 이동을 책임진다.온다택시와 마찬가지로 타다를 인수한 토스발 모빌리티 마케팅 전쟁이 본격화될 수도 있다. 인수 후 타다 택시 이용고객을 대상으로 한 ‘페이백’이나 ‘쿠폰’ 정책을 전략적으로 펼 경우 모빌리티 시장에 연쇄효과를 가져다 줄 수도 있다. 다만 현재 카카오모빌리티를 선두로 한 모빌리티 플랫폼 시장은 시장 순위가 아직은 공고하게 유지되고 있는 만큼 신규 마케팅으로 인한 효과는 제한적이라는 관측도 나오고 있다. 한편 모빌리티 시장과 결제 분야의 결합은 앞으로 더 많은 확산과 발전이 예고되고 있다. 특히 전기차 발전과 더불어 진행되는 자동차 자체의 디지털 혁신은 필연적으로 결제 인프라와 공동 보조가 불가피하다.  업계의 한 관계자는 “전기차 충전 인프라는 이미 결제시스템과 연동되고 있는데 충전 뿐만 아니라 하이패스 등 자동차 운행 시 결제가 이미 일어나고 있는 부분, 그리고 전기자동차의 경우 소모품 등 비용 결제를 차에 인앱(in-app)으로 구현해 결제 편의성 확보를 구현하려는 노력이 이미 진행되고 있다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>테크핀 ‘큰손’ 된 이승건 토스 대표… 스타트업 성장 지원</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004726473?sid=105</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>이 대표, 장병규 크래프톤 의장과 ‘더 창업가 페스티벌’서 대담약 5곳 스타트업 엔젤투자 시작국내 창업가에 해외투자자 연결 장병규 크래프톤 의장(왼쪽)과 테크핀(기술+금융) 플랫폼 '토스' 창업자 이승건 비바리퍼블리카 대표가 20일 열린 '더 창업가 페스티벌'에서 대담을 나누고 있다. 화면 갈무리 테크핀(기술+금융) 플랫폼 '토스' 창업자 이승건 비바리퍼블리카 대표가 엔젤투자자로 나섰다. 지난 2013년 8월 비바리퍼블리카 설립 이후, 약 8조2000억 원까지 기업 가치를 끌어올린 이 대표가 직접 스타트업 발굴 및 성장지원에 나서 주목된다.   또 최근 비바리퍼블리카는 쏘카 자회사인 VCNC(타다 운영사) 지분 60%를 전격 인수, 네이버와 카카오에 이어 테크 스타트업 생태계 '큰 손'으로 자리매김하고 있다. 이른바 미국 실리콘밸리 생태계에 자리 잡은 '창업-투자-성장-회수 및 재투자' 선순환 고리가 국내에도 안착되고 있다는 분석이다.   ■토스 이승건 "5개 스타트업에 엔젤투자"   이 대표는 20일 코리아스타트업포럼 5주년을 맞이해 열린 '더 창업가 페스티벌'에서 장병규 크래프톤 의장과 대담을 나누며 엔젤투자 현황을 처음 밝혔다. 이 대표는 "올해부터 엔젤투자(개인투자)를 시작했다"면서 "현재 약 5개 스타트업에 엔젤투자를 했다"고 전했다.   이 대표는 혁신산업 중 규제강도가 가장 높은 금융권에서 토스 서비스를 성장시킨 인물이다. 그는 "초기투자 한 5개 기업 중에는 규제로 고생하는 팀도 있다"면서 "여러 가지 규제를 뚫고 성장하는 모습을 보니 감회가 새로웠다"고 말했다.   특히 토스는 알토스벤처스를 비롯해 클라이너퍼킨스, 세콰이어차이나, 페이팔, 알키온, 그레이파운드 등 글로벌 벤처캐피털(VC)로부터 1조원 이상 투자를 유치한 기업이다. 이 대표는 해외 유력 VC로부터 투자를 유치한 경험도 창업자들과 공유하고 있다. 그는 "해외투자자가 필요한 국내 창업가들에게 글로벌 VC 네트워크를 연결, 1000억 원에 가까운 투자유치를 지원하기도 했다"고 전했다.   ■크래프톤 장병규 "각자 스토리로 창업"   국내 첫 엔젤투자전문 VC인 본엔젤스를 만들었던 장 의장도 창업자들을 향한 조언을 내놨다.   장 의장은 "장병규와 이승건은 창업가들 역할모델이 아니다"라며 "중,고등학교 때 대학입시를 위한 정답을 찾아다니는 것처럼 스타트업 성공사례만 찾아다녀서는 안 된다"고 지적했다. 그는 이어 "각자의 스토리로 창업에 성공하는 것이므로 각자 자기만의 스타일로 승부했으면 좋겠다"고 덧붙였다.   장 의장은 내년도 창업 생태계 전망도 내놨다. 그는 "창업자들은 내년과 내후년 경영계획을 굉장히 보수적으로 마련해야 한다"면서 "최근 스타트업 생태계가 커지고 사회 일원이 된다는 것은 거시경제 영향을 받는다는 의미이므로 자금흐름이나 유동성 문제에 더욱 철저하게 대응해야 한다"고 강조했다.  김준혁 수습기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2021.10.18.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>금융권 '대출 셧다운' 현실화되다</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000029992?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>시중은행, 연말까지 취급 제한 불가피...자금 필요한 서민들 불법 사금융 노크하나금융 당국의 고강도 규제로 인한 전 금융권 가계대출 중단 사태가 점차 현실화하고 있다. 3분기에 이미 금융 당국의 권고 수준에 근접한 가계대출 증가율을 기록한 은행권은 각종 대출 제한 조치를 시행 중이다. 최근 의욕적으로 출범한 토스뱅크 역시 정부의 총량 규제에 막혀 대출 영업을 정상적으로 수행하기 힘든 상황이다. 보험사와 상호금융 등 2금융권 역시 풍선효과 차단을 위해 하나둘 대출 문턱을 높이고 있어 실수요자들의 근심이 커지고 있다. 금융 당국이 추가 규제안까지 예고하고 있어 자금이 절실한 서민들이 불법 사금융 시장으로 빠질 것이라는 우려마저 나오고 있다.‘3호 인터넷전문은행’ 토스뱅크가 10월5일 공식 출범했지만 정부의 총량 규제에 막히면서 대출 업무가 중단될 위기에 처했다.ⓒ연합뉴스토스뱅크도 나흘 만에 한도액 60% 소진금융권에 따르면 지난 8월 NH농협은행의 가계대출 중단 결정으로 시작된 은행권 '대출 대란'은 올해 연말까지 이어질 것으로 전망된다. 지난달 말 기준 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출 잔액은 702조8878억원으로 전월 대비 4조729억원 증가한 것으로 나타났다. 지난해 말 대비 증가율은 4.88%로 금융 당국이 정한 연간 증가율 목표치 5~6%에 근접한 상태다.단순 계산상 5대 시중은행이 연말까지 취급할 수 있는 가계대출 한도는 약 13조원 수준에 불과하다. 7.29%로 가장 높은 증가율을 기록한 농협은행은 연말까지 대출 중단 조치 연장을 기정사실화하는 분위기다. 현재 농협은행은 주택담보대출과 전세대출의 신규 취급을 제한하고 있다. 하나은행(5.19%)과 국민은행(4.9%), 우리은행(4.05%) 등도 대출 증가율이 높기 때문에 지금의 대출 축소 정책을 이어나갈 것으로 예상된다. 실제로 국민은행은 9월29일부터 전세대출 한도를 임차보증금 증액 범위 내로 제한하고 있다. 집단대출 역시 시가가 아니라, 분양가를 기준으로 담보가치를 산정하기로 했으며 타행 상환조건부 신규대출(대환대출)도 중단했다.하나은행도 국민은행과 마찬가지로 임대차계약 갱신 시 전세대출 한도를 보증금 범위 내로 제한했다. 비대면 대출상품인 '하나원큐 신용대출'와 '하나원큐 아파트론' 등의 대환 신규대출을 중단했다. 우리은행은 지난 9월부터 지점별로 대출 한도를 적용하는 방식으로 총량 관리에 돌입했다. 가장 가계대출 증가율이 낮은 신한은행(3.02%)도 대출 모집인을 통한 전세대출 한도를 5000억원으로 제한하는 등 '대출 조이기' 행렬에 동참하고 있다. 심지어 지역민들의 자금 애로를 최소화하기 위해 노력했던 지방은행들조차 조금씩 가계대출 제한 움직임을 보이기 시작했다. 경남은행은 10월12일부터 전세자금대출과 주택담보대출, 일부 신용대출 등에 대한 신규 접수를 연말까지 중단한다고 밝혔다.은행권 대출 대란의 대안으로 기대됐던 인터넷전문은행 역시 넘치는 대출 수요를 감당하지 못하는 모습이다. 케이뱅크는 10월2일부터 신용대출, 마이너스통장 대출, 신용대출 플러스 등 3개 신용대출 상품의 최대 한도를 축소하기로 했다. 기존 최대 한도가 2억5000만원이었던 일반 신용대출 상품은 한도가 1억5000만원으로 줄었으며 마이너스통장과 신용대출 플러스 상품은 각각 최대 한도가 1억5000만원에서 1억원으로 축소됐다.또 케이뱅크는 10월8일 이들 상품의 개인 한도를 '연소득의 100% 이내'로 제한하는 조치를 추가적으로 시행했다. 카카오뱅크는 9월말 신규 마이너스통장 판매를 연말까지 중단하기로 했으며 10월8일부터는 고신용 신용대출, 직장인 사잇돌대출, 일반 전월세보증금 대출도 제한하기 시작했다.대출 수요자들의 마지막 희망으로 여겨졌던 '토스뱅크' 역시 대출 총량 규제의 칼날을 피하지 못하고 있다. 10월5일 국내 3호 인터넷전문은행으로 새롭게 출범한 토스뱅크는 사전 가입 신청에만 150만 명 이상의 고객이 몰리는 등 정식 서비스 전부터 많은 기대를 받아왔다. 출범 초기니만큼 금융 당국이 안정적인 시장 안착을 위해 대출 규제를 완화해줄 것이라는 분석들도 다수 제기됐다. 하지만 토스뱅크는 출범 일주일도 채 지나기 전에 대출 영업을 중단할 위기에 놓였다. 금융 당국이 정한 올해 대출 한도 5000억원 중 3000억원이 단 나흘 만에 소진됐기 때문이다.보험사나 상호금융 등 2금융권 역시 풍선효과를 사전에 차단하기 위해 대출 문턱을 높이고 있다. 생명보험협회에 따르면 지난 9월 한화생명의 주담대 평균금리는 3.09%로 전월(3.06%) 대비 0.03%포인트 상승한 것으로 나타났다. 삼성생명의 금리도 3.13%에서 3.27%로 0.14%포인트 높아졌다. 교보생명과 신한라이프 역시 주담대 금리를 각각 3.17%에서 3.27%로, 2.84%에서 3.28%로 올렸다.삼성생명의 경우 지난 9월 총부채원리금상환비율(DSR) 운영 기준을 자체적으로 하향 조정하기도 했다. DSR은 연소득 대비 원리금 상환액을 일정 비율 이내로 제한하는 대출 규제로 2금융권의 DSR 기준은 60%지만 삼성생명은 40%를 적용하기로 했다. 상호금융권에서는 수협이 10월1일부터 신규 전세자금대출, 주택담보대출, 중도금집단대출을 중단하기로 했으며 농협은 이보다 앞서 지난 7월 비·준조합원들의 전세대출과 주택담보대출을 전면 중단했다.금융 당국의 고강도 대출 규제로 시중은행의 가계대출 업무가 연말까지 중단될 것으로 예상된다. 사진은 서울 의 한 시중은행 창구ⓒ연합뉴스금융위 추가 규제 예고에 쏠리는 시선금융권의 대출 제한 조치는 시간이 지날수록 오히려 강화될 것으로 전망된다. 금융사들의 여러 조치에도 꺾이지 않는 가계대출 증가세를 잡기 위해 금융 당국이 추가 조치에 나설 예정이기 때문이다. 금융감독원에 따르면 지난 9월 은행권의 가계대출 증가액은 6조5000억원으로 8월(6조1000억원)보다 오히려 4000억원 늘어났으며 2금융권의 가계대출 증가액도 1조4000억원으로 높은 수준을 기록했다.현재 거론되는 추가 대책으로는 △전세대출 총부채원리금상환비율(DSR) 적용 △DSR 규제 2단계 조기 적용 등이 거론되고 있다. DSR 규제는 현재 규제지역 내 6억원 초과 주택을 구매하는 주택담보대출 1억원 초과 신용대출에 대해 선제 적용되고 있으며 내년 7월(총 대출액 2억원 초과)과 2023년 7월(총 대출액 1억원 초과)에 단계적으로 범위를 확대할 예정이다. 하지만 지난 7월 1단계 시행 이후에도 가계대출 증가세가 꺾이지 않고 있어 금융 당국이 단계 상향 시기를 앞당길 것이라는 전망들이 나오고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>이마트 사옥 사들인 크래프톤…장병규 "새 업무문화 과정"</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000004355?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>코리아스타트업포럼 5주년 기념 컨퍼런스이승건 비바리퍼블리카(토스) 대표와 대담주당 100시간 근로 "몰입하려면 스스로 선택""새로운 업무공간, 새로운 업무문화를 만들어가는 것을 고민하고 있고 그 일환으로 이마트 성수본사 매입이 진행되고 있다"장병규 크래프톤 의장은 전날(20일) 온라인으로 열린 코리아스타트업포럼 5주년 기념 컨퍼런스에서 이 같이 말했다. 대담에는 이승건 비바리퍼블리카(토스) 대표가 함께 자리했다.20일 장병규 크래프톤 의장(왼쪽)과 이승건 비바리퍼블리카 대표가 온라인으로 열린 코리아스타트업포럼 5주년 기념 컨퍼런스 '더 창업가 페스티벌'에서 대담을 하고 있다./사진=유튜브 갈무리이 대표는 근황 토크를 이어가다 크래프톤의 이마트 성수동 본사 매입에 대한 이야기를 돌연 꺼냈다. 이 대표는 "모든 스타트업들은 본인들의 문화와 일하는 방식을 녹인 물리적 공간을 만드는 것에 대한 꿈이 있다"며 건물 매입에 대한 배경이나 생각을 공유해달라고 요청했다.장 의장은 생각지도 못했던 질문에 "크래프톤 내에서도 보안 속에 진행된 일이라 디테일하게 얘기하긴 힘들 것 같다"고 말했다. 특히 "조직이란 것은 굉장히 많은 다양한 사람들이 함께 협업하는 것인데 협업할 때 함께 모여서 하는 게 좋을 수도 있고 리모트(원격)로 노마드처럼 일하는 게 좋을 수도 있다"고 말문을 열었다.이어 "전통적으로 일했던 방식이 아니라 새로운 방식으로 일하는 것에 대해 계속 고민해야 되는 것 같다"며 "이 문제를 어떻게 풀 수 있을까라는 고민을 오랜 기간 했고 그 과정 중 하나가 성수동 이마트 본사를 미래에셋이랑 컨소시엄으로 인수한 것"이라고 말했다.크래프톤과 미래에셋자산운용 컨소시엄은 최근 이마트 성수동 본사 건물 인수를 위한 우선협상대상자로 선정된 바 있다. 컨소시엄은 이마트 성수동 본사를 국내 정보통신기술(ICT) 산업의 랜드마크로 재개발할 계획이다. 매매계약은 내달 중 체결할 예정이며 소유권 이전은 내년 1월 예정이다.장 의장은 1996년 네오위즈, 2005년 검색업체 첫눈을 창업한 인물로 2007년 크래프톤(옛 블루홀)을 만들었다. 이후 2017년 출시한 배틀그라운드가 세계적인 성공을 거두며 크래프톤을 대형 게임사로 성장시켰다. 크래프톤은 지난 8월 코스피 시장에 상장하며 국내 주요 게임주 가운데 하나로 거듭났다.장 의장은 과거 논란이 됐던 '주당 100시간 근로'에 대한 해명도 내놨다. 장 의장은 '이것만은 바로잡고 싶은 오해가 있나'라는 질문에 "주당 100시간에 대한 오해를 바로잡고 싶다"며 "많은 분들이 주당 100시간을 얘기하면 남이 강요해서 착취하는 것으로 생각하는 것 같은데 제가 계속 얘기하는 것은 당신의 인생에 어떤 순간에 주당 100시간 정도 몰입할 수 있다면 스스로 선택하라는 것"이라고 강조했다.이 대표 또한 공감하며 "빼앗고 싶은 게 아니라 선물받고 싶은 것"이라며 "위대한 성취를 하려면 한번쯤은 남다른 몰입의 경험은 필요하다 생각한다. 자유가 전제되었을 때 한 이야기였음을 말하고 싶다"고 덧붙였다.장병규 "스타트업 기업, 5년 전보다 풍성해져"이날 대담회에선 5년 전과 지금 창업가의 현실을 비교해달라는 질문이 나왔다.장 의장은 최근 스타트업 기업들이 5년 전과 비교해 상당히 풍성해졌다고 평가했다. 그는 "창업가의 길은 5년 전에도, 10년 전에도, 지금도 외롭지만 적어도 그 외로움을 느끼는 사람들이 굉장히 많아졌다"며 "또 그런 외로움을 나누는 것도 자연스러워졌다"고 말했다.이 대표는 스타트업이 커리어 선택지 중 하나로 자리 잡았다고 했다. 이 대표는 "5년 전에는 대학을 졸업하거나 대기업에서 경력을 쌓는 분들이 다음 인생 목적지로 스타트업을 선택하면 집안에서 말렸었다"며 "지금은 메인스트림은 아니더라도 고경력직과 전문직들이 스타트업으로 많이 오게 됐다"고 언급했다.두 대담자는 스타트업 창업자들에게 향후 1~2년간 경영 계획을 보수적으로 마련해야 한다고 조언했다.장 의장은 "스타트업 생태계가 커지고 우리 사회의 일원이 된다는 건 반대로 말하면 거시경제 흐름에 영향을 받는다는 것"이라며 "결국 글로벌 경제 흐름 자체가 수축되면 스타트업도 자금 흐름이나 유동성 문제에서 영향을 받는다고 봐야 하고 스타트업에 있는 분들도 내년 내후년을 조금 보수적으로 바라볼 필요가 있다"고 말했다.이 대표 또한 이에 공감했다. 그는 "이미 미국 연준에서도 테이퍼링 얘기 나오고 2023년에는 퍼블릭 마켓이 많이 다운사이즈를 경험하지 않을까 싶다며 "그 때는 시장 유동성이 달라질 수 있다"고 덧붙였다.'이 시대의 창업자 정신이란?'이라는 질문에 장 의장은 불확실한 시대에 살기 때문에 창업가 정신이 더 조명받는 것 같다고 밝혔다. 그는 "불확실한 걸 확실하게 만드는 방법은 뭔가를 만들고, 혁신하고, 바꾸고, 시도하는 것"이라며 "창업가 정신이 불확실성 시대에 나침반 같은 역할 하고 있는 것 같다"고 답했다.이 대표는 "창업가에게 있어 업의 본질은 세상이 필요로 하는 풍요를 공급하는 게 아닌가 생각한다"며 "21·22세기 인류가 마주할 여러 어려움을 고려할 때 창업자 그룹이 100배는 많아져야 인류 문명이 직면한 문제들을 겨우 해결할 수 있을 것으로 판단한다"고 말했다.장 의장은 창업자들에게 누군가를 롤모델로 삼기보다는 각자의 스토리로 승부해야 한다고 조언했다.장 의장은 "요즘 스타트업이 많아지다 보니 마치 중고등학교 때 대학교 때 정답을 찾아다니는 것처럼 어떻게 해야 스타트업이 성공을 하느냐를 자꾸 찾는 분들이 늘어나는 것 같다"며 "남을 따라 하려고 한다든가 착하게 살자 시리즈, 이렇게 해야 성공한다 시리즈는 좀 무시할 필요가 있고 창업자들이 자기만의 스타일로 승부했으면 좋겠다"고 말했다.코리아스타트업포럼은 스타트업의 생태계 발전을 지원하고 공동의 이익을 대변하기 위해 스타트업으로 구성된 단체다. 컬리·직방·비바리퍼블리카 등 3개 의장사를 중심으로 9월 기준 총 1669여개의 스타트업 및 혁신 기업이 동참하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>[특징주]알체라, 이해진-손정의 AI동맹 수조원 투자 속 인공지능 영상인식 부각</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004728193?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]네이버가 일본 소프트뱅크와 손잡고 인공지능(AI) 전문회사 설립을 추진한다는 소식에 알체라가 강세다. 알체라는 최대 주주가 네이버로 향후 시너지를 발휘할 것으로 기대된다. 특히 알체라는 메타버스 플랫폼 제페토를 만든 네이버Z와 손잡고 플레이스에이를 설립해 3차원 전신 인식 기술 개발을 진행 중이다  25일 오전 9시 19분 현재 알체라는 전 거래일 대비 2600원(7.68%) 오른 3만7450원에 거래 중이다.   투자은행(IB)과 정보기술(IT) 업계에 따르면 네이버와 소프트뱅크는 AI 전문회사를 만들기 위한 협상을 진행하고 있다. 네이버는 소프트뱅크와 긴밀히 협력하기 위해 네이버 클로바CIC를 분사하거나 조인트벤처(합작회사)를 설립하는 등 여러 방안을 검토 중이다.   손정의 소프트뱅크그룹 회장도 AI 전문회사 설립에 강한 의지를 보인 것으로 전해졌다. AI 전문회사의 핵심인 클로바CIC는 네이버의 AI 연구부터 기획·개발·운영까지 AI 기술 경쟁력을 결집한 조직이다.   이해진 네이버 글로벌투자책임자(GIO)와 손 회장의 두 번째 의기투합이라는 점도 주목받고 있다. 첫 번째는 양사가 각자 자회사인 라인과 야후재팬 경영을 통합해 지난 3월 출범한 Z홀딩스다.   업계에서는 AI 개발에 엄청난 금액이 들어가는 만큼 클로바CIC가 소프트뱅크 등에서 얼마나 투자를 유치할지가 관건이라고 보고 있다.   알체라는 얼굴인식 AI 기술을 통해 보안 및 핀테크 사업을 다양하게 벌이고 있다. 인천공항을 비롯해 외교부, 법무부, 행정안전부 등 정부기관을 고객사로 확보했다. 또 신한은행과 전북은행, 광주은행, 토스뱅크 등 금융사들도 주요 고객이다. 알체라는 AI 기술을 기반으로 다양한 사업 포트폴리오를 구축하고 있다. 주력 사업 분야는 얼굴인식 AI, 이상상황 감지 AI, 데이터 사업 등이다.   얼굴인식 AI 기술을 증강현실(AR) 및 3D 기술과 결합해 다양한 사업도 전개한다. 대표적인 협력사는 네이버다. 네이버는 자회사 스노우를 통해 2016년 알체라에 투자해 현재 15.39%의 지분을 들고 있는 최대주주다. 지난해 12월엔 자회사 스노우를 통해 알체라와 조인트벤처(JV) '플레이스에이'를 설립하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2021.10.22.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>신용등급 받은 카카오뱅크, 첫 은행채 발행하나</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000004370?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>여수신 자금 조달선 확대…실제 발행은 미정 중금리 대출 확대·주담대 재원 활용 포석카카오뱅크가 신용평가사로부터 첫 신용등급을 획득했다. 인터넷전문은행으로서는 처음이다.향후 다른 시중은행들처럼 여수신 자금 조달을 위한 수단 중 하나인 은행채 발행 요건을 갖춘 것으로 당장은 넉넉한 자금 사정과 예대율로 실제 발행에는 내년 이후에나 나설 전망이다./그래픽=비즈니스워치21일 한국신용평가는 카카오뱅크의 신용등급을 'AA+'로 부여했다. 등급 전망은 '안정적'이다. 한신평은 지난달 13일 신용평가를 실시했고 기존 미공시에서 이날 공시로 전환됐다. 같은날 한국기업평가 역시 카카오뱅크의 신용등급 및 등급전망을 'AA'와 '긍정적'으로 각각 제시했다.이들은 카카오뱅크의 은행 및 플랫폼 비즈니스 사업 경쟁력, 수익성 개선 추세, 우수한 재무건전성을 높이 평가했다. 한신평은 "카카오뱅크가 4대 시중은행에 이어 5번째로 많은 고객수와 가계신용대출 규모를 확보했다"며 "리테일 뱅킹 시장에서 구축한 시장 지위와 경쟁력이 현 시점의 점유율(2.5%, 지난 3월 기준) 수준보다 더 높다"고 판단했다.한기평도 "최근 기업공개(IPO)를 통한 2조5000억원 규모의 유상증자로 자기자본 규모가 5조4000억원대로 지방은행 수준으로 커졌다"며 "영업기반 확대와 함께 수익성 개선세가 지속될 것"으로 봤다. 다만 중저신용자 대출 확대와 주택담보대출 출시 등 사업영역 확대 추이와 함께 정부의 가계부채 규제 영향 등은 리스크 요인으로 지목했다. 한신평도 기존 뱅킹 비즈니스 상품에서 이익창출력이 안정적이겠지만 중저신용 대출 확대 과정에서 대손비용이 수익성 개선을 제약할 수 있다고 봤다. 현재 준비 중인 비대면 주담대의 혁신성과 모방 난이도에 따른 성장 속도가 중금리 대출 대손 부담 경감과 장기 성장성에 중요한 변수로 작용할 것이란 전망이다.한편, 카카오뱅크가 신용등급을 받으면서 향후 실제로 은행채 발행에 나설지 주목된다. 카카오뱅크는 지난 3월 채권 발행이 가능하도록 표준정관 등을 변경한 바 있다.은행은 주로 예금을 통해 단기 자금을 조달하고 장기자금 조달 시에는 일반 기업들이 회사채를 발행하는 것처럼 은행채 발행을 병행한다. 정기예금이 줄어들면 수신 확대를 위한 은행채 수요가 늘어나게 되는데 최근 금리 인상 이후 은행 수신이 증가하고 있지만 2%의 파격적인 금리의 수시입출금 통장을 내놓은 토스뱅크 출범과 함께 수신 유치 경쟁이 격화하는 모습을 보이고 있다.그간 카카오뱅크의 경우 수신 중심의 자금 조달이 충분해 기존에는 채무증권을 발행하지 않았지만 중금리 대출 확대와 주택담보대출 진출을 위해 중장기적으로 추가 재원이 필요할 것으로 점쳐졌다. 다만 최근 대규모 IPO에 성공한 만큼 재원이 넉넉한 상황으로 내년 이후 자금 추이에 따라 첫 은행채 발행에 나설 가능성이 높아 보인다. 카카오뱅크 관계자는 "당장 은행차 발행 계획은 없으며 여수신 자금 조달선을 확대하기 위한 차원"이라고 설명했다.한신평은 보수적인 유동성 관리 정책과 충성도 높은 수신기반을 고려하면 고유동성 자산 규모를 유지할 것이라면서도 외형 확대로 은행채와 커버드본드 발행을 통해 자본시장 접근성을 개선할 필요성이 증대되고 있다고 말했다.금융당국은 은행들이 예금 범위 안에서 대출을 하도록 예대율을 100% 이내로 규제하고 있으며 은행채는 은행법에 근거해 자기자본의 5배 이내에서 발행 가능하다. 카카오뱅크의 경우 수신잔고가 여신잔고를 크게 앞서면서 예대율이 넉넉한 상황이지만 지난해 말 67%에서 올 2분기 87%선으로 높아지는 추세다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2021.10.26.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>[재송]25일 장 마감 후 주요 종목 뉴스</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005069880?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>[이데일리 김성훈 기자] 다음은 25일 장 마감 이후 주요 종목 뉴스다.◇코스피△우리금융지주(316140)=연결기준 3분기 당기순이익이 8247억원으로 전년 동기 대비 58.08% 증가했다고 공시. 3분기 지배기업 소유주지분 순이익은△ 7786억원으로 전년 동기 대비 62.13% 증가. 같은 기간 영업이익은 1조921억원으로 전년 동기 대비 61.76% 증가했고 매출액은 8조6859억원으로 102.28% 증가. 3분기 누계 순이익은 2조3620억원으로 전년 동기보다 82.29% 증가했으며 영업이익은 3조760억원으로 전년 동기보다 66.47% 증가. △한화투자증권(003530)=토스뱅크 주주배정 유상증자에 참여해 주식 600만주 추가 취득 결정했다고 공시. 취득금액은 300억원. 이는 자기자본대비 2.4% 규모. 취득 후 지분율은 8.86%. △태영건설(009410)=1475억원 규모의 울산 중구 반구동 공동주택 신축공사를 수주했다고 공시. 최근 매출액 대비 6.26% 규모. △우리종금(010050)=연결기준 3분기 당기순이익이 225억원으로 전년 동기보다 20.02% 증가했다고 공시. 같은 기간 영업이익은 294억원으로 전년 동기 보다 39.09% 증가했고 매출액은 830억원으로 전년 동기보다 39.14% 증가. △LG화학(051910)=연결 기준 올해 3분기 영업이익이 7266억원으로 전년 동기 대비 19.6% 감소한 것으로 잠정 집계됐다고 공시. 같은 기간 매출은 10조6102억원으로 41.4% 증가했으며 당기순이익은 6799억원으로 19.2% 증가. △현대에너지솔루션(322000)=올해 3분기 연결 기준 영업손실이 5억8500만원으로 적자 전환했다고 공시. 같은 기간 매출액은 1496억6400만원으로 전년 동기 대비 90.7% 늘었고 당기순손실은 78억1700만원으로 전년 동기 대비 26.1% 감소. △한샘(009240)=최대주주 조창걸 외 특수관계인 7인이 보유하고 있는 당사의 기명식 보통주식 전부 및 당사 경영권 양도에 관한 주식매매계약 체결했다고 공시. 매수인은 아이엠엠로즈골드4 사모투자 합자회사. 매각 주식은 전체 주식수 27.7%에 해당하는 보통주 652만주이며 매매대금은 1조4500억원. 거래 종결일은 2021년 12월 31일. △삼성중공업(010140)=유상증자 신주발행가액이 주당(보통주) 5130원으로 확정됐다고 공시.◇코스닥△에스제이그룹(306040)=올 3분기 연결기준 영업이익이 전년 동기 대비 48.0% 증가한 50억7000만원으로 잠정 집계됐다고 공시. 같은 기간 매출액은 34.1% 증가한 327억7300만원. △중앙백신(072020)=올 3분기 연결기준 영업이익이 전년 동기 대비 44.0% 증가한 12억4700만원으로 잠정 집계됐다고 공시. 같은 기간 매출액은 95억6100만원으로 21.0% 증가. △액트로(290740)=47억1360만원 규모의 계열사 ARP VINA의 지분 취득 결정했다고 공시. 취득 금액은 자기자본 대비 6.31%. 취득 후 지분비율은 100%. 취득 예정일자는 2021년 10월27일. 회사 측은 취득목적에 대해 “기존 하이엔드 스마트폰 외에 중저가 모델까지 고사양 카메라부품 채용이 확대됨에 따라 공급확대를 위한 생산설비 확충”이라고 설명. △솔트룩스(304100)=무상증자 따른 행사가액 조정을 위해 2회차 미행사신주인수권부사채 전환가액을 3만4628원에서 1만7314원으로 조정한다고 공시. 이에 따라 조정 후 행사 가능 주식 수는 28만8783주에서 57만7567주로 증가.△RFHIC(218410)=올 3분기 연결기준 영업손실이 1억3600만원으로 전년 동기 대비 적자가 축소됐다고 공시. 같은 기간 매출액은 190억5200만원으로 95.96% 증가. △신흥에스이씨(243840)=32억원 규모 제2회 무기명식 무보증 사모 전환사채(CB)에 대한 전환청구권 행사된다고 공시. 전환청구권 행사 주식수는 8만2312주로 발행주식 총수 대비 1.09%에 해당. 전환가액은 3만8875원으로 상장일 또는 예정일은 2021년 11월12일. △KD(044180)=세종스카이와 147억원 규모 세종 주상복합 신축공사 계약 체결했다고 공시. 계약금은 지난해 매출액 대비 68.59%. 계약기간은 2021년 11월30일부터 2022년 11월30일까지.△한국거래소 코스닥시장본부는 녹십자셀(031390)에 대해 주식의 병합, 분할 등 전자등록 변경, 말소로 오는 10월28일 주권매매거래가 정지된다고 공시. 거래소 측은 “녹십자셀은 녹십자랩셀에 흡수합병되는 소멸회사이므로 동사 주권은 합병신주로 발행되는 녹십자랩셀 주권으로 오는 11월17일 상장될 예정”이라고 설명. △나무가(190510)=시가 하락에 따른 신주인수권 행사가액 조정으로 4회차 미행사신주인수권부사채 전환가액을 8901원에서 8378원으로 조정한다고 공시. 이에 따라 조정 후 행사 가능 주식 수는 224만6938주에서 238만7204주로 증가. △쌍용정보통신(010280)=종속회사인 콤텍정보통신이 운영자금, 채무상환자금을 위해 80억원 규모의 주주배정 유상증자를 결정했다고 공시. 이번 유상증자를 통해 총 160만주가 발행되며 신주 발행가액은 5000원. 1주당 2.3주가 배정. 구주주 대상 청약예정일은 2021년 11월29일이며 납입일은 2021년 11월29일. △디이엔티(079810)=LG Chem Nanjing Energy Solution과 약 61억원 규모의 2차전지 제조장비 공급계약이 해지됐다고 공시. 해지금액은 2019년도 매출액 대비 20.67%. 회사 측은 “계약상대방의 계약해지 통보로 해지됐다”고 설명.△한국거래소 코스닥시장본부는 멜파스(096640)에 대해 파산신청 사유 해소로 주권매매거래 정지가 오는 26일 해제된다고 공시.△한국거래소 코스닥시장본부는 엠투엔(033310)에 대해 풍문 등 조회결과 공시에 따라 주권매매거래 정지가 오는 26일 해제된다고 공시.△위메이드(112040)=위메이드트리를 흡수합병하기로 했다고 결정했다고 공시. 합병 후 존속회사는 위메이드, 소멸회사는 위메이드트리. 합병비율은 위메이드와 위메이드트리가 1대 3.1107206이다. 이번 합병에 따른 최대주주 변경은 발생하지 않으며 합병기일은 2022년 2월1일.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>한국인이 가장 많이 사용한 앱은 '카톡'…"틱톡·넷플 이용시간 급증"</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003564575?sid=105</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>핵심요약지난 9월 기준 한국인이 가장 많이 사용한 앱은 '카카오톡'…4385만 사용가장 오래 사용한 앱은 '유튜브'…701억 분으로 압도적 1위"틱톡·넷플 이용시간 작년 동월 대비 60% 이상 급증"와이즈앱·리테일·굿즈 제공지난 9월 한국인이 가장 많이 사용하는 스마트폰 앱은 '카카오톡'인 것으로 드러났다. 사용 시간이 가장 긴 앱은 '유튜브'로 무려 701억 분을 사용했다.앱·리테일 분석서비스 업체 와이즈앱·리테일·굿즈는 한국인이 가장 많이, 가장 오래, 가장 자주 사용하는 스마트폰 앱을 조사해 19일 발표했다.조사결과 지난달 전 세대를 합쳐 가장 많은 사람이 사용한 앱은 카카오톡으로 4385만 명이 사용했다.카카오톡 뒤로는 유튜브(4203만 명), 네이버(3925만 명), 쿠팡(2403만 명), 밴드(2008만 명), 네이버 지도(1752만 명), 인스타그램(1744만 명), 배달의민족(1707만 명), 당근마켓(1601만 명), 토스(1304만 명) 순이었다.작년 동월 대비 사용자 증가율이 가장 높은 앱은 토스였다. 지난해 9월 855만 명에서 올해 9월엔 1304만 명으로 1년 사이 사용자가 52.5% 늘었다.와이즈앱·리테일·굿즈 제공한국인이 지난달 가장 오래 사용한 앱은 유튜브로, 사용 시간이 701억 분에 달했다. 그 뒤로는 카카오톡(279억 분), 네이버(197억 분), 인스타그램(71억 분), 틱톡(46억 분) 순이었다.작년 동월 대비 사용 시간이 눈에 띄게 늘어난 앱은 틱톡이었다. 틱톡은 지난해 9월 28억 분에서 46억 분으로 사용 시간이  64.3% 증가했다. 넷플릭스도 이 기간 26억 분이었던 사용 시간이 올해 9월 42억 분으로 61.5% 늘었다.와이즈앱·리테일·굿즈 제공가장 자주 사용한 앱은 카카오톡으로 961억 회였다. 네이버(207억 회), 트위터(124억 회), 유튜브(122억 회), 인스타그램(88억 회), 당근마켓(74억 회)이 뒤를 이었다.작년 동월 대비 실행 횟수 증가율이 가장 높은 앱은 인스타그램이었다. 작년 9월 61억 회에서 지난달 88억 회로 44% 높아졌다.이 조사는 안드로이드 사용자 3867만 명과 iOS 사용자 855만 명을 대상으로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>결승선 코 앞에서 '쾅'…1등 놓친 사이클 선수 어쩌나 [영상]</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004621176?sid=104</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>스페인 사이클 대회 아찔한 사고갑자기 튀어나온 관중선수도, 관중도 병원行/사진=트위터 영상 캡처스페인의 한 자전거 대회에서 선두로 달리던 선수가 관중으로 충돌하는 사고가 발생해 선두 자리를 뺏겼다. 24일(현지시간) 스페인 매체 20미누토스 등 현지 언론은 스페인 카나리아제도 인근 엘 히에로 섬에서 열린  '시클로투리스타 콘다카 살모르' 자전거 대회에서 참가자와 관중의 충돌 사고 소식을 보도했다. 이날 결승선에는 많은 관중이 자리했고, 대회 모습을 카메라로 담는 등 열기로 가득했다. 결승선 앞에 관중들이 지켜보는 가운데 하늘색 옷을 입은 1위 선수가 빠른 속도로 결승전을 향해 들어왔다. /사진=트위터 영상 캡처하지만 결승전을 앞두고 검은 옷을 입은 한 여성이 도로로 들어와 자전거와 충돌했다. 자전거를 타고 빠른 속도로 이동 중이었던 탓에 충돌 직후 선수와 여성 모두 공중으로 솟아오르는 모습이 고스란히 화면에 담겨 충격을 안겼다. 이를 본 사람들은 관중석의 펜스가 끝까지 쳐져 있지 않았다는 점을 지적했다. 여성 외에도 도로까지 나온 관중들이 적지 않았다. 충돌 후 부상을 당한 선수는 즉각 병원으로 이송됐다. 선수는 머리에 중상을 입어 의식을 잃고 입원한 것으로 알려졌다. 여성은 현장에서 치료를 받았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>타행 비밀번호를 ‘토스’해달라고?</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003105626?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>[경향신문] ‘3호 인터넷전문은행’ 토스뱅크가 10월 5일 공식 출범하고 여신과 수신 상품 판매를 시작했다. 사진은 서울 강남구 토스뱅크 본사. 연합뉴스지난 10월 5일 토스뱅크가 출범했다. 카카오뱅크, 케이뱅크에 이어 약 4년 만에 탄생한 인터넷전문은행이다. 토스뱅크는 조건없이 연 2%의 금리를 보장하는 통장으로 화제를 모았다. 자동이체나 급여이체 같은 조건을 부여하지 않아도 보통 적금 상품에서나 볼 수 있는 금리를 제공한다. 입출금이 자유롭고, 만기도 없다.“고객이 고민할 필요 없는 가장 단순한 상품을 통해 고객이 찾지 않아도 최고의 혜택을 먼저 제시하며, 기술 혁신을 통해 더 넓은 범위의 고객을 포용하는 은행을 추구한다.” 토스뱅크가 선언한 ‘완전히 새로운 은행’에 금융소비자도 호응했다. 무려 170만명이 토스뱅크 통장 사전신청을 했다. 10월 18일부터 누구나 토스뱅크를 이용할 수 있게 됐다. 토스 이용자가 통장 개설을 위해 가장 먼저 밟는 절차는 본인확인이다. 비대면 실명확인 수단으로 토스는 타 은행 계좌의 비밀번호 입력을 통한 본인인증이나 1원 송금을 통한 본인인증을 제시하고 있다. 두 방법 중 비밀번호 입력을 먼저 제안한다. 하지만 이용자 일부는 이런 방식의 본인인증을 불안하게 받아들이고 있다. 한 이용자는 지난 10월 14일 페이스북 페이지 ‘생활코딩’에 올린 글에서 “비밀번호를 모른다고 하면 다른 은행처럼 1원 송금을 통한 본인인증으로 넘어가는데, 이럴 거면 왜 처음에 비밀번호를 요구하는 본인인증 방식을 취한” 것인지 의문을 제기했다. 그는 “개인의 보안을 침해하는 행동이라 느껴져 매우 불쾌했다”고 밝혔다.■본인 확인 위한 타행 비밀번호 입력“이런 방식의 서비스를 쓰게 되면 비밀번호를 입력하는 것에 대한 장벽(거부감)이 낮아져 피싱사이트에 당했을 때 더 위험하지 않을까”라거나 “비밀번호를 통해 내역을 긁어오는 방식이라면 코드를 조금만 바꾸거나 수정하면 다른 행동들(이체 및 다른 내역 조회 등)이 가능한 굉장히 위험한 방식”이라며 우려를 표하는 이용자들도 있다.여기서 질문이 나온다. 타행 계좌 비밀번호를 입력하게 하는 것은 규정상 문제는 없을까, 그리고 안전할까? 금융회사는 비대면 실명확인 시 ‘비대면 실명확인 관련 구체적 적용방안’에 따른 5가지 방법 중 2개 이상을 중첩해 적용해야 한다. 첫 번째는 실명확인증표(신분증) 사본 제출이 있다. 고객이 신분증을 촬영 또는 스캔해 인터넷(모바일)으로 제출하면 금융회사가 신분증 발급기관에 진위여부를 확인한다. 두 번째는 영상통화로 금융회사 직원이 이용자와 영상통화를 하면서 육안 및 안면인식기술을 통해 신분증상 사진과 고객 얼굴을 대조한다. 세 번째는 현금카드나 OTP 발생기 등을 고객에게 우편 등으로 전달하면서 전달업체 직원이 신분증을 확인하는 방식이다.네 번째는 타 금융회사에 실명확인을 거쳐 이미 개설한 계좌로부터 소액이체 등으로 고객의 동 계좌 거래권한을 확인하는 방식이다. 마지막으로 생체인증 등 앞선 네 방식에 준하는 방식을 쓸 수 있다. 토스가 활용하는 타행 계좌 비밀번호 입력은 이 중 네 번째 방법이나 그에 준하는 방법으로 보인다. 전문가들 사이에서는 의견이 갈린다. 우선 본인인증 수단으로 가능하다는 의견이 있다. 은행연합회 관계자는 “일반적으로 많이 쓰는 건 1원 송금인데 비밀번호 인증 방식도 쓸 수 있고 오히려 고객이 송금할 수도 있다”면서 “정형화된 건 아니고 은행 판단 하에 안전한 방식을 자율적으로 선택해 쓸 수 있다”고 설명했다. 이 관계자는 “비대면 실명확인 가이드라인의 취지는 의무사항을 나열한 것이 아니라 나열되지 않은 것도 은행 판단 하에 안전한 방식을 사용할 수 있도록 유연하게 운영할 수 있다는 것”이라면서 “일단 토스 쪽은 비밀번호 인증을 안전하다고 판단한 것 같다”고 말했다.토스뱅크에서 통장 개설을 위한 본인인증 절차로 기존 계좌의 비밀번호 입력을 요청하고 있다. 토스앱 캡처■마이데이터 시행되면 논란 해소될까토스 측 설명에 따르면 비밀번호 인증은 1원 송금에 비해 이용자 입장에서 더 편하다. 1원 송금을 이용할 경우 송금된 타행 계좌에 들어가 인증번호를 확인하고 그 번호(또는 문자)를 입력해야 하는 번거로움이 추가된다. 비밀번호를 이용하면 입력한 비밀번호로 금융결제원에서 본인인증을 진행해 바로 다음 단계로 넘어갈 수 있다. 토스뱅크 관계자는 “해당 은행의 계좌 비밀번호를 입력하면 금융결제원에 암호화하여 전송 후 1원 수취내역의 성공여부를 받아 인증하는 방식이다”면서 “토스만 하는 건 아니고 신한은행과 전북은행도 이 방식을 사용한다”고 말했다. 이 관계자는 “은행 앱에서 공동인증서의 비밀번호를 요구하는 것과 같은 논리인데 은행에 대한 믿음이 있어서 거부감이 없듯 토스뱅크도 브랜드를 단단히 만들면 이런 선입견을 벗을 수 있을 것”이라고 밝혔다.하지만 비대면 본인확인 방식으로 부적절하거나 보안상 불안하다고 보는 전문가도 있다. 한 금융업계의 인증업무 전문가는 “비대면 실명확인 방법의 하나로 기존 계좌를 이용한 1원 이체가 있는데 기존 계좌의 비밀번호를 요구하는 건 없다”며 “(다른 은행 계좌를 한 번에 조회할 수 있는) 오픈뱅킹을 이용할 때도 타행 계좌의 비밀번호를 요구하진 않는다”고 말했다. 한 보안 관련 학계 전문가는 “사안을 더 자세히 검토할 필요가 있지만 보통 송금확인으로 본인 확인을 한다는 점에서 약간 상식적이진 않아 보인다”고 말했다. 그는 “토스가 직접 비밀번호를 가져가 타 은행에 전송하고 검증이 되는지 확인하는 방식이라면 보안상 위험성이 높아 비밀번호 암호화에 신경을 써야 한다”고 설명했다. 토스뱅크 측 설명에 따르면 사용자가 입력한 비밀번호는 토스 서버나 사용자 휴대전화에 저장되지 않는다. 일단 사용자가 자신의 다른 계좌 비밀번호를 입력하면, 금융결제원을 통해 해당 계좌와의 비밀번호 ‘동일성’ 여부만 확인이 이뤄진다. 토스뱅크 관계자는 “일부 고객들이 핀테크 기업에 대한 보안 우려를 갖고 있다보니, 은행으로서 편리하면서도 안전성을 함께 갖추기 위해 비밀번호를 저장하지 않는 방식을 택했다”고 설명했다.업계에서는 이르면 연말 마이데이터 사업이 시행되면 이 같은 논란이 잦아들 것으로 기대하고 있다. 마이데이터는 정보주체가 개인 데이터의 열람, 제공 범위, 접근 승인 등을 직접 결정하는 것이다. 마이데이터가 시행되면 스크래핑이 아닌 응용프로그램 인터페이스(API·별도 인터페이스를 통해 금융기관이 제3의 업체로 데이터를 전송하는 방식)를 활용해 본인인증과 정보 송수신이 이뤄진다. 금융보안원 관계자는 “예를 들어 내가 A앱에서 B은행의 정보를 가져오려 한다면, 내 신원을 인증서로 확인해 ‘주민번호 대체값(CI)’을 활용해 정보를 넘겨준다”면서 “A앱에서 계좌 비밀번호 같은 B은행의 인증정보를 알 수 없는 구조”라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>대출축소·DSR로 상환 독촉·전셋값 상승… ‘좌불안석’ 세입자</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002490201?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>시중은 ‘3개 대출규제’ 적용에가계대출 분할상환 확대 방침전세대출까지 DSR규제 시행땐취약층 ‘대출 4중고’ 빠질 수도무주택자·전세입자가 불안한 4중고 상황에 내몰리고 있다. 정부의 ‘10·25 가계대출관리 방안’ 여파로 당장 27일부터 시중은행에서 받을 수 있는 전세대출 한도가 축소됐다. 전세대출이 줄어 수요가 묶이면 장기적으로는 전세 가격이 상승할 수 있다. 총부채원리금상환비율(DSR) 규제 강화로 전세대출 초기부터 은행으로부터 원금상환 독촉을 받게 된다. 금융당국이 대책의 효과가 없을 때 시행하겠다고 공표한 ‘플랜 B’에 따르면, 이번 대책에 포함되지 않았던 전세대출 DSR 규제까지 더해진다.5대 시중은행인 KB국민·신한·하나·우리·NH농협은 27일부터 3개 전세대출 규제를 시행하기 시작했다. 3개 전세대출 규제는 △전세자금 대출 한도를 전셋값 증액 범위 내로 축소하고 △임대차계약서상 잔금 지급일 이전까지만 대출하며 △1주택 보유자의 비대면 전세대출 신청을 막는 내용이다. SC제일은행은 29일부터 주택담보대출 신규 접수를 잠정 중단한다. 소매금융을 취급하는 17개 은행은 사흘 안으로 전세계약 갱신에 따른 전세자금 대출 한도를 ‘전셋값이 오른 만큼’으로 축소하기로 했다.카카오뱅크는 1주택자 비대면 전세대출을 중단했고, 토스뱅크는 아직 전세대출 상품을 취급하지 않고 있다. 다만 인터넷 전문은행인 케이뱅크는 창구가 아예 없어 대면 심사가 불가능한 점을 고려해 1주택자의 비대면 전세대출을 유지한다. 대신 창구 심사에 준하는 깐깐한 심사를 한다는 방침이다.은행들의 3개 전세대출 규제안은 금융당국이 전세대출을 올해 총량규제에서 제외한 대신 내놓은 자구책이다. 당국이 일부 숨통을 틔워주는 듯 보였지만 현장에서는 전세자금 관련 대출이 당장 11월부터 큰 폭으로 줄어들 것으로 보고 있다. 시중은행의 규제에 따라 집값 상승세가 주춤할 수는 있지만 무주택 서민을 위한 주거비 상승 가능성은 우려되는 지점이다. 대출 규제로 주택거래가 더욱 묶이면서 전·월세 수요만 계속 증가하는 악순환이 심화할 수 있다는 이유에서다.한 부동산전문가는 “주택매수세가 억제된 것을 주택매수 수요가 바뀐 것으로 해석하면 안 된다”고 평가했다.내년부터는 실수요자 서민의 고충이 가중된다. 금융위원회가 2022년 1월부터 거치기간 없이 분할상환을 확대해 가계부채의 질적 건전성을 높이겠다고 밝혔기 때문이다. 주택담보대출뿐 아니라 전세자금대출과 신용대출도 분할상환이 사실상 확대된다. 대출을 받자마자 원금을 나눠 갚도록 은행들이 요구할 수도 있어 전세자금이 필요한 무주택자의 상환 압력은 그만큼 심화할 수밖에 없다. 금융당국은 ‘10·25대책’이 시장에 효과가 없다면 ‘플랜 B’의 극단처방까지 사전 예고했다. 전세대출에 대해서도 ‘상환능력 원칙’을 적용해 전세대출 보증한도 산정 시 소득 등의 상환능력 기준도 도입할 수 있다고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>이달 내 모든 은행 전세대출 '상승분만, 잔금일 전' 규제 시행</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012749245?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>27일 5대 은행 먼저…나머지 은행 월말까지 적용케뱅 1주택자 비대면 전세대출은 용인 분위기  (서울=연합뉴스) 신호경 오주현 김유아 기자 = 앞으로 금융소비자들은 모든 은행에서 전세대출을 최대 전셋값 상승분까지, 잔금 지급일 이전에만 받을 수 있다.    1주택자가 케이뱅크가 아닌 다른 은행에서 앱 등을 통해 비대면 전세대출을 받기도 어려워진다.모든 은행 전세대출 '상승분만, 잔금일 전' 규제 시행[연합뉴스 자료 사진] 17개 소매 은행 모두 이달 안에 규제 도입    27일 복수 은행에 따르면 소매금융을 취급하는 17개 은행은 모두 임대차(전세)계약 갱신에 따른 전세자금 대출의 한도를 '임차보증금(전셋값) 증액 금액 범위 내'로 축소하기로 했다.     아울러 이들 은행은 임대차계약서상 잔금 지급일 이전까지만 전세자금 대출을 내줄 방침이다. 현재 은행들은 신규 임차(전세)의 경우, 입주일과 주민등록전입일 가운데 이른 날로부터 3개월 이내까지 전세자금 대출 신청을 받았다. 하지만, 잔금 지급일 이전까지만 대출을 내주게 되면 대출 신청 가능 기간이 크게 줄어든다.     은행들은 1주택 보유자의 비대면 전세대출 신청도 막는다. 따라서 앞으로 1주택자는 꼭 은행 창구에서만 전세대출을 신청할 수 있다.    이 세 가지 종류의 전세대출 규제는 앞서 지난 15일 KB·신한·하나·우리·NH농협 5대 은행이 27일부터 도입하기로 합의한 내용이다.    18일에는 지방은행과 인터넷은행, 외국계은행 등을 포함한 소매금융 취급 17개 전체 은행이 온라인 화상 회의를 통해 해당 규제의 수용 여부를 논의했고, 지금까지 각 은행은 내부적으로 타당성 등을 검토해왔다.    결국 나머지 은행들도 모두 5대 은행과 같은 전세 대출 규제에 동참하기로 의견을 모았고, 늦어도 이달 안에 규제를 도입하기로 했다.     다만 케이뱅크의 1주택자 비대면 전세대출의 경우 당국이나 업계가 무리하게 막지 않는 분위기다. 케이뱅크는 지난 18일 회의에서 대면 창구가 없는 인터넷 은행으로서 1주택자 비대면 전세대출 금지에 따른 어려움을 호소한 것으로 알려졌다.    케이뱅크 관계자는 "대면 창구에서 전세대출을 받는 것과 같은 수준으로 여러 증빙 서류 등을 통해 철저히 심사할 것"이라고 밝혔다.    하지만 같은 인터넷 은행이라도 카카오뱅크의 경우 1주택자 비대면 전세대출을 중단하기로 했다. 토스뱅크의 경우 아직 전세대출 상품을 취급하지 않고 있다. 전세자금대출, 투자 등 유용 가능한 '구멍' 막기     이처럼 은행들이 명백한 '실수요'를 제외한 전세자금대출을 더 강하게 조이는 것은, 자칫 전세자금대출이 부동산·주식 등 자산 투자에 흘러드는 것을 최대한 막기 위한 조치다.    예를 들어 임차보증금(전셋값)이 최초 4억원에서 6억원으로 2억원 오른 경우, 지금까지 기존 전세자금대출이 없는 세입자는 임차보증금(6억원)의 80%인 4억8천만원까지 전세자금대출을 받을 수 있었다.    최대한 대출을 받으면 오른 전셋값 2억원을 내고도 2억8천만원이 남는 셈으로, 이 여윳돈을 투자 등에 활용할 여지가 생긴다.    하지만 대출 한도를 최대 '전셋값 증액분까지'로 묶으면 해당 세입자는 딱 오른 2억원만 빌릴 수 있다.     전세계약이나 입주가 끝난 뒤 받는 전세자금 대출을 막는 것도 마찬가지 이유다.    본인 자금이나 가족·친척 등으로부터 빌린 돈으로 전셋값을 이미 해결하고도 입주나 주민등록상 전입 후 3개월 안에 전세자금을 또 은행에서 대출받아 다른 곳에 쓸 가능성을 원천적으로 차단하자는 취지다.    무주택자가 아닌 1주택자 전세자금 대출의 경우 실수요도 섞여 있는 만큼, 은행들은 완전히 막지는 않더라도 대면 창구에서만 신청을 받고 면밀히 심사할 방침이다. 현재 비규제 지역과 조정대상 지역의 시가 9억원 이하 한 주택을 보유한 사람은 전세자금 대출도 받을 수 있다.    한 시중은행 관계자는 "전체 전세자금 대출을 무리하게 막으면 실수요자의 피해가 예상되기 때문에, 실수요 가능성이 낮은 전세자금 대출을 최대한 걸러내 규제하자는 것"이라며 "올해 늘어난 가계대출의 절반 가량이 전세자금대출인만큼, 총량 관리 대상에서 제외됐더라도 불필요한 전세자금대출은 은행 입장에서도 억제할 필요가 있다"고 설명했다.    shk999@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>전방위 대출규제에 부동산 오름세 꺾였다는데... “2달 뒤 대출 풀리면 어쩌나”</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000768872?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>정부의 전방위 대출규제 등으로 부동산 매수심리가 악화하고 가격 상승 폭이 작아지고 있다. 이대로 조정 국면에 진입할 수 있다는 기대감도 피어오르지만, 전문가들은 일시적 둔화 이후 억눌린 수요가 폭발할 가능성도 있다고 우려하고 있다. 앞으로 2달이 지나 새해가 되면, 시중은행의 대출 총량이 초기화되면서 대출 규제가 사실상 완화되기 때문이다.서울의 한 시중 은행 외벽에 주택담보대출 상품과 개인신용대출 등 대출 상품 관련 안내문이 함께 붙어 있다. /연합뉴스        25일 국토연구원에 따르면, 서울의 9월 부동산시장 소비심리지수는 129.5로 전월(132.9) 대비 3.4포인트(P) 하락했다. 해당 지수가 하락한 것은 지난 4월 이후 5개월 만이다. 소비심리지수는 100을 기준으로 이보다 높으면 ‘전월에 비해 가격이 상승하고 거래가 증가할 것’ 이라는 응답자가 많다는 의미이고, 이보다 낮으면 그 반대다.전국적으로 9월 주택매매시장 소비심리지수는 139.2로 전월(141.4) 대비 2.1P 하락한 가운데, 수도권(-5.7P)과 비수도권(1.6P)에 대한 전망이 엇갈렸다. 전국 주택전세시장 소비심리지수는 119.3으로 전월과 같았다. 특히 지난달 서울의 주택매매시장 소비심리지수는 6.1P나 하락하며, 전세시장 지수(-1.5P)보다 낙폭이 훨씬 컸다.민간조사기관인 KB국민은행 리브부동산이 발표하는 전국 매매가격 전망지수도 지난달 122.3으로 전월(124.9) 대비 2.5P 하락한 것으로 집계됐다. 서울의 매매가격 전망지수는 122.5로 전월보다 3.4P 하락했고, 수도권도 125.9로 전월보다 3.6P 낮아졌다. 이처럼 공공·민간기관에서 모두 서울과 수도권의 주택시장 상승세가 꺾이는 지표를 제시하며, 집값 안정기에 연착륙할 수 있다는 기대가 커지는 상황이다.실제로 아파트 가격 상승세도 꺾이는 모양새다. 한국부동산원에 따르면 10월 셋째주(18일 기준) 전국 아파트 매매가격은 0.25% 오르면서 전주(0.27%) 대비 0.02%포인트(p) 하락했다. 매매가격 상승률은 10월 첫째주에 0.28%를 기록한 이후 둘째주 0.27%, 셋째주 0.25%로 2주 연속 하락했다. 수도권은 0.30% 올라 전주(0.32%)대비 상승 폭이 0.02%p 작아졌다.이처럼 주택 매매시장 분위기가 한풀 꺾인 데에는 거래량 축소와 급등 피로감 등 여러 요인이 있지만, 그중에서도 금융당국의 고강도 대출규제가 직접적인 요인으로 꼽힌다. 금융당국은 각 시중은행에 연초 설정한 가계부채 총량 증가 한도인 6%를 준수할 것을 거듭 권고했고, 이에 따라 일부 은행과 지점에서 전세대출을 중단하고 중도금 대출 역시 막으면서 대부업체로 발길을 돌리는 등 실수요자 피해가 잇따르기도 했다.금융당국은 이달 안에 추가로 가계부채 대책도 발표할 예정이다. 논란이 된 전세대출 규제는 총량 규제 대상에서 빠지지만, 대출 한도와 요건이 강화되고, ‘빚투’와 ‘갭투’를 차단하기 위해 총부채원리금상환비율(DSR) 관련 규제도 강화될 전망이다.고승범 금융위원장은 지난 21일 국회 정무위원회에서 열린 국정감사에서 실수요자 피해가 클 것으로 예상되는 전세대출 규제는 접어두겠지만, 내년 가계부채 관리는 올해보다 더욱 강화하겠다는 취지를 밝혔다. 고 위원장은 이날 전세대출 관리 방안에 대해 “전세대출을 직접적으로 DSR로 관리하는 방안은 이번 대책에 포함시키지 않기로 했다”고 했다.가계부채 대책과 관련된 질문에는 “내년 가계부채 총량 증가율은 경상성장률을 고려해 정하고 있으며, (올해보다) 강화된 관리를 해야한다고 생각한다”면서 “다음주 화요일(26일) 가계부채 대책에 내년도 가계부채 총량 관리 관련 내용도 포함될 것”이라고 했다.다만 거듭된 대출 규제에 억눌렸을 뿐 대출 수요 자체는 여전히 건재한 것으로 보인다. 지난달 5일부터 영업을 시작한 토스뱅크는 단 9일만에 대출 한도 5000억원을 소진하며, 모든 대출업무를 중단하게 되는 해프닝이 벌어지기도 했다.끝없는 집값 상승을 일으킨 근본 원인인 공급 부족과 매물 품귀 현상도 해소될 기미가 보이지 않는다. 둔촌주공(1만2032가구)이나 방배5구역(3080가구) 등 서울 주요 정비사업지는 잇달아 분양 시기를 내년으로 연기했고, 양도·취득세 부담으로 인한 매물 잠금 문제도 여전한 상황이다.고준석 동국대 겸임교수는 “지난달 매수심리지수 등은 일시적으로 상승세가 둔화된 것일 뿐 여전히 상승 전망이 우세한 국면으로 안정기에 접어들었다고 보기는 어렵다”면서 “여전히 실수요에 비해 공급이 부족하고, 전세난이 매수세를 촉발하는 상황이라 지금으로선 집값이 내릴 이유가 없다”고 말했다.문제는 불과 두달만 지나면 새해가 되어 각 시중은행의 대출 총량이 초기화되면서 ‘영끌 러시’가 다시 시작될 수 있다는 점이다. 통상 연말에 억눌린 대출 수요는 연초에 폭증하는 경향을 보여왔다. 올해 초에도 시중은행이 신용대출 판매를 재개하자 5대 은행의 대출 판매규모가 하루 만에 3000억원에 달했던 바 있다. 올해는 9월부터 곳곳에서 대출이 막히는 대란이 벌어졌던 만큼 그 반작용도 더할거란 전망이다.이은형 대한건설정책연구원 책임연구원은 “이제까지 사례를 보면 규제정책이 오히려 군중심리를 부추겨서 주택매수에 뛰어들게 하는 효과를 불러왔다”면서 “수요를 강제로 누른 대출제한이 완화되면 스프링이 튀어오르듯 ‘막히기 전에 영끌하자’는 심리가 작용할 가능성이 크다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2021.10.18.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>[취재수첩] 토스뱅크의 파행적 출발, 누구 탓일까</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004617187?sid=110</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>출범 9일만에 대출 멈춘 인터넷銀'무리한 가계대출 총량규제' 씁쓸임현우 금융부 기자이달 5일부터 문을 연 토스뱅크가 이제서야 대기표 없이 계좌를 개설할 수 있게 됐다. 공식 출범 전후로 150만 명 이상의 사전예약자를 확보해 조금씩 계좌를 터주던 토스뱅크가 17일 “누구나 대기 없이 이용할 수 있도록 하겠다”고 방침을 바꿨기 때문이다. 그동안 “묻지도 따지지도 않고 무조건 ‘연 2% 금리’를 준다”며 고객을 끌어모은 토스뱅크 통장에는 뭉칫돈도 적잖게 들어오고 있다는 후문이다.토스뱅크는 케이뱅크와 카카오뱅크에 이어 ‘국내 3호 인터넷전문은행’이자 스무 번째 시중은행이다. 여기에다 ‘출범 9일 만에 대출을 멈춘 은행’이라는 씁쓸한 진기록도 얻게 됐다. 토스뱅크는 모든 대출 업무를 중단하면서 한도 300만원짜리 소액 대출조차 내주지 못하고 있다. 핵심 원인은 알려진 대로 가계대출 총량규제다.금융당국이 토스뱅크에 부여한 대출한도는 ‘연말까지 5000억원’이다. 카카오뱅크 영업 시작 후 1주일 동안 풀린 대출만 4950억원이었다. 토스로선 너무하다고 느꼈을 법하다. 역시 출범 사흘 만에 한도의 절반 가까이 소진됐다. 이후 나흘 동안 사전신청자의 계좌 개설을 중단하는 강수 조치로 버텼지만 결국 14일 오후 5000억원이 모두 동났다.일반 은행은 가계대출이 막히면 기업대출에서라도 활로를 모색할 수 있다. 그러나 인터넷은행은 그조차 불가능하다. 유일한 수익원인 대출이 끊긴 채 이자를 듬뿍 줘야 하니 건전성 부담이 커지게 됐다.토스뱅크의 파행적 출발은 불가피한 것이었을까. 금융위원회 관계자는 “신생 은행이라고 토스만 봐줬다간 형평성 문제가 일었을 것”이라고 일축했다. 은행권에서는 “토스가 총량 규제 파장을 과소평가하고 ‘일단 열고 보자’는 식이었다”는 지적도 제기된다. 토스뱅크 스스로도 ‘세몰이 마케팅’만이 능사가 아니라는 점을 뼈저리게 느꼈을 것이다.그렇다고 해도 당국의 적극적인 지원을 등에 업고 탄생한 토스뱅크가 당국의 규제 강화로 날개가 꺾인 현 상황은 말 그대로 아이러니다. 토스는 2019년 인터넷은행 인가전에서 한 차례 탈락하고 재수 끝에 사업권을 따냈다. 금융위는 ‘혁신금융’ 성과를 내기 위해 제3 인터넷은행에 공을 들였다. ‘유력 후보’ 토스가 심사에서 떨어지자 당혹감을 감추지 못했던 당국은 두 달 만에 재선정 작업에 나섰고 희망 기업들에 사전 컨설팅까지 해줬다.금융위가 전세대출을 총량규제에서 제외하겠다고 밝혔지만 오히려 신용대출과 주택담보대출은 연말까지 ‘올스톱’되는 분위기다. 대출을 못 해주는 은행을 제대로 된 은행이라고 할 수 있나. 어쩌다 이렇게 ‘은행답지 못한 은행’이 많아진 것인가.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2021.10.31.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>조용병號 신한지주 '리딩금융' 포석 마무리</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004622817?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>신한금융, 카디프손보 인수조용병 체제서 M&amp;A 본격 시동생보·신탁사·벤처캐피털 이어'오랜 숙원' 손보사 편입도 앞둬"디지털 손보사 전환 서둘러카카오·토스 등 빅테크와 승부"신한금융은 2007년 LG카드(현 신한카드) 인수 이후 10년간 대형 인수합병(M&amp;A)을 하지 않았다. 외형 성장보다 내부 실력을 갖추는 게 우선이라는 판단 때문이었다. 그러다 2017년 조용병 회장(사진) 체제가 출범한 이후 180도 달라졌다. 조 회장은 저금리·저성장 구조 속에서 새로운 수익 기회를 포착하려면 적극적인 외연 확장이 필요하다고 판단했다. 신한금융은 이에 따라 2017년 호주 ANZ은행의 베트남 리테일 부문(베트남신한은행)을 인수한 데 이어 국내에선 생명보험사(옛 ING생명), 신탁사(아시아신탁), 벤처캐피털(옛 네오플럭스) 등 크고 작은 M&amp;A를 잇달아 성사시켰다. 조용병의 ‘M&amp;A 릴레이’에 마침표신한금융의 BNP파리바카디프손보 인수는 조 회장이 추진해온 국내 금융업 포트폴리오 구축이 사실상 완성된다는 의미가 있다. 신한금융이 순이익 1위 ‘리딩 금융그룹’ 왕좌를 놓고 겨루고 있는 KB금융은 이미 업계 4위 손해보험사(2014년 LIG손보를 인수해 KB손보로 변경)를 보유하고 있다. 반면 신한금융은 올해 하반기 신한라이프를 출범시키면서 생명보험업계에서는 존재감을 드러냈지만 아직 손보업계에선 이렇다 할 족적을 남기지 못했다.금융당국은 그동안 업계 출혈 경쟁 등에 따른 소비자 피해를 우려해 종합손해보험사 신규 허가에 소극적이었다. 이런 탓에 신한금융은 2~3년 전부터 손해보험사 매물을 꾸준히 물색한 것으로 알려졌다. 지난해 인수를 검토한 AXA손해보험이 대표적이다. 신한금융은 메리츠화재, 롯데손보, 한화손보 등 최근 수년간 매물로 나왔거나 매각이 거론된 손보사의 잠재 인수 후보로 꼽혔다.신한금융이 카디프손보를 낙점한 것은 신한금융지주의 주요 주주인 프랑스 BNP파리바그룹과의 오랜 인연도 작용했다는 분석이다. 신한금융과 BNP파리바는 2001년 지주 출범 당시부터 동반자 관계를 이어왔다. 신한금융은 지난해 신한자산운용의 BNP파리바 보유 지분을 모두 인수해 사명을 바꾸기도 했다.손해보험은 생명보험에 비해 대면 영업조직의 필요성이 작다. 인수 부담이 크지 않으면서 보험업의 화두인 인슈어테크(보험+기술)를 실험하기에 적합하다는 평가도 있다. 보험시장에서도 빅테크와 격전신한금융이 카디프손보를 기반으로 일상 생활과 관련한 미니 보험 영역에 적극 진출할 것이라는 예상도 나온다. 모바일 앱을 통해 자동차보험과 휴대폰 보상보험 및 여행자보험 등을 우선 취급하고, 카디프손보가 장점을 보인 기업보험 등 특화 영업을 강화할 가능성이 높다.이런 일상 미니 보험 서비스를 향후 마이데이터(본인신용정보관리업)와 연계해 빅데이터, 인공지능(AI) 등을 접목한 초개인화 서비스로 확대하는 방안도 거론된다. 카카오, 토스 등 빅테크 기업들이 보험대리점(GA)이나 디지털 손보사 설립에 나선 것도 비슷한 취지로 풀이된다. 마찬가지로 신한은행에서 방카슈랑스 영업이 가능한 데다 신한카드, 신한라이프 등 주요 계열사와 시너지 효과도 기대할 수 있다. 보험업계 관계자는 “향후 보험시장에서도 빅테크와 전통 금융사 간 플랫폼 경쟁이 치열하게 펼쳐질 것”이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>정부, 물류·원자재 가격·부품수급 3대 현장 애로 밀착관리</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002237360?sid=105</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>‘제5차 확대무역전략조정회의’서 ‘미래 무역기반 확충 방안’ 발표정부가 물류·원자재가격·부품수급 등 3대 수출현장 애로를 밀착 관리한다.정부는 27일 김부겸 국무총리 주재로 서울 삼성동 무역센터에서 ‘제5차 확대무역전략조정회의’를 개최하고 무역 역사상 최단기 1조 달러를 돌파한 성과와 의미를 점검하고 무역 2조 달러 달성을 위해 풀어야 할 수출현장 애로와 미래 무역과제를 발표했다.정세균 전 국무총리가 지난해 11월 서울 염곡동 KOTRA에서 열린 제3차 확대무역전략조정회의에 참석해 발언을 하고 있다.(사진=뉴시스)정부는 민관 협업으로 물류 애로를 집중 해소해 나가기로 했다. 올해 4분기까지 선박을 최소 23척 이상 추가 투입하고 화물기 운항(미주항로)도 올해 1만편까지 늘려 공급 능력을 확충할 계획이다. 또 운임·정책금융 지원을 내년에도 지속해서 추진하기로 했다. 올해에는 추경에서 물류 바우처 142억원을 반영했고 1천500억원 규모 물류애로 기업 정책금융을 지원했다.이와 함께 로테르담·바르셀로나·자바 등 3곳에 해외 공동물류 센터를 확충하고 지원규모도 올해 640곳에서 내년에는 1천280곳으로 확대한다. 연구용역 중인 업종별 협회-포워더-소형화주 간 장기계약 혜택 공유 모델을 연말까지 마무리해 지원 방안을 마련할 계획이다. 물류정보 플랫폼 구축 등을 통해 리스크에 강한 물류 생태계를 조성한다는 방침이다.원부자재 수급관리를 강화하고 가격 상승 부담을 완화한다. 최근 가격이 급등하고 있는 LNG·LPG·원유·기초 원재료 등의 할당관세 지원을 검토하고 원자재 구매자금 지원 규모도 내년에 무역보험공사 수입보험(2천500억원), 수출입은행 원자재 구매기업 운영자금 지원(3천억원) 등 5천500억원으로 확대한다.신성장 품목들의 주요 실적(단위: 억달러)신속 통관 지원과 함께 차량용 반도체 관련해서는 주요 반도체 기업의 공급 확대 협력을 지원하고 인공지능(AI) 가속기, 고신뢰성 MCU 등 소재부품장비 협력모델을 발굴하고 핵심부품 연구개발(R&amp;D)을 확대해 주요 부품에 대한 공급망 관리를 강화하기로 했다. 기술별·국가별 특성에 맞는 기술통상전략을 마련하고 핵심 필수산업 보호 및 기업역량 강화를 위해 산업기술보호·수출통제·외투심사 등 3대 분야 중심의 신 무역안보전략을 수립하기로 했다.바이오·콘텐츠·이차전지·플랜트·농수산식품 등 신성장 산업을 대상으로 한 맞춤형 애로 해소에 나선다.바이오 분야는 해외 제약시장 지원을 위한 현지 거점을 마련하는 한편, 의료기기 사용 적합성 평가와 해외 인허가·인증 지원을 강화한다.콘텐츠 분야는 해외 비즈니스센터 거점을 기존 7개국 8곳에서 9개국 10곳으로 확대해 해외진출 다변화를 지원한다.이차전지 분야는 기술개발, 국내 소재기업 투자 촉진 및 재활용 생산 테스트베드 구축 등을 통해 핵심 소재 광물의 국내 자급능력을 확보한다는 계획이다.플랜트 분야는 원팀코리아 프로젝트(가칭)를 가동해 우리 기업의 해외 플랜트·건설 수주 촉진 및 신시장 개척을 위해 수출입은행-무역보험공사 공동 지원을 활성화한다.전시사업 정상화도 지원한다. ‘단계적 일상회복’ 시기에 전시회 개최 기준 완화를 검토하고 정책자금과 고용유지지원제도를 적극 활용해 피해를 최소화한다. 2026년까지 전국 전시회 인프라를 2배로 확충하고 부산국제기계대전·대구그린에너지엑스포·광주국제뿌리산업전 등 지역별 특화산업과 연계한 전문 전시회를 육성한다.7일 서울 삼성 코엑스 D홀에서 열린 '대한민국 4차 산업혁명 페스티벌'에서 토스 강지훈 데이터 헤드가 발언하고 있다.정부는 또 국내 중소기업과 글로벌 기업 매칭을 지원하는 온라인 글로벌 파트너링(GP) 전용관과 오픈이노베이션 구축을 통한 3대 B2B 공공 플랫폼(바이코리아·고비즈코리아·트레이드코리아)을 고도화하고 코리아세일페스타 등과 연계한 온라인 수출 붐을 조성한다.무역금융 공급도 내년에 257조 이상으로 확대하고 기존 1년짜리 수출신용보증상품을 빅3(미래자동차·시스템반도체·바이오헬스) 신산업과 소부장 대상 3년 만기 보증상품을 신설한다.문승욱 산업부 장관은 “양적 성장과 함께 체질 고도화도 이루었지만 앞으로 탄소중립·공급망 재편 등 변화에 따른 도전과 기회도 직면하고 있다”면서 “앞으로 더 많은 중소·벤처기업이 해외시장에 도전적으로 진출할 수 있도록 무역 인재를 적극 양성하고 달라진 무역환경에 우리 기업이 원활하게 참여할 수 있도록 디지털경제동반자협정(DEPA) 등 글로벌 통상 규범 논의에도 선제적으로 대응할 계획”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>타다 인수한 토스, 대형택시 ‘타다 넥스트’ 12월 초 출시</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000767879?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>최대 4100만원 지급 조건으로 기사 모집타다의 대형택시 '타다 넥스트'이 드라이버 모집 안내 이미지. /토스 제공        가맹택시 ‘타다’를 인수한 비바리퍼블리카(토스 운영사, 이하 토스)가 오는 12월 초 타다 서비스의 본격적인 운영 시작에 맞춰 대형택시 ‘타다 넥스트’를 출시한다고 20일 밝혔다.관련 기사: [단독] 타다 인수한 토스, 12월 ‘대형 택시’로 카카오에 도전장타다 넥스트는 현대자동차의 ‘스타리아’ 등 7인승 이상 대형 차량으로 운영되며, 택시 면허를 가진 드라이버가 운행할 예정이다. 토스는 출시에 앞서 드라이버(기사)를 모집한다.서울 개인택시 면허를 보유하고 행정처분 이력이 없으며 5년 무사고 경력의 개인 택시 사업자면 누구나 드라이버에 지원할 수 있다. 선정된 드라이버는 최대 4100만원을 지원받는다. 홍보비 1500만원이 일시 지급되고 조건 충족 시 12개월 동안 매월 최대 200만원의 활동비를 제공한다. 기존 타다 브랜드택시인 타다 라이트나 타다 플러스의 드라이버가 타다 넥스트로 전환 시 경력 기간에 따라 최대 200만원을 지급한다.이정행 타다 대표는 “‘타다 넥스트’는 이용 고객과 드라이버 모두 만족할 수 있는 서비스가 될 수 있도록 면밀히 준비 중이다”라며 “새로운 이동 기준을 제시할 ‘타다 넥스트’에 많은 드라이버분들의 관심과 지원을 부탁드린다”라고 말했다.타다 넥스트 드라이버 모집 정보 및 신청은 타다 홈페이지(tadatada.com)의 드라이버 지원 메뉴에서 ‘넥스트(개인)’를 클릭하면 확인할 수 있다. 지원을 완료한 드라이버에게는 순차적으로 개별 안내 연락이 나갈 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2021.10.29.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>[Q&amp;A] 다음달부터 헬스장·노래방 등 출입하려면 방역패스 받아야</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004731242?sid=102</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 박미소 기자 = 29일 오후 서울 강남구 세텍에서 열린 '2021 서울네일엑스포'에서 시민들이 네일 상품을 살펴보고 있다. 2021.10.29. misocamera@newsis.com &lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt; /사진=뉴시스화상  [파이낸셜뉴스] 다음달부터 접종증명·음성확인제(방역패스)가 한시적으로 도입된다. 정부는 방역패스를 도입, 접종 완료자 및 일부 예외자만 다중이용시설 및 행사 등 이용을 허용한다는 방침이다. 적용 대상 시설은 유흥시설, 노래연습장, 실내체육시설, 목욕장업, 경마·경륜·경정·카지노 등이다. 대상은 접종 완료자 및 미접종자 중 △PCR 음성확인자 △18세 이하 아동·청소년, 완치자, 접종후 중대이상 반응 등 접종 곤란 사유 등을 위험도 및 필수성에 따라 예외범위로 인정한다.   다음은 방역패스 관련 질의응답이다.     Q. 11월부터 적용되는 접종증명·음성확인제(방역패스)란 무엇인가요.  -감염 전파 위험이 높은 일부 시설과 고령층 등 고위험군의 보호가 필요한 시설(요양병원·시설, 의료기관 등)을 대상으로, 안전한 시설 이용 및 미접종자 보호를 위해 접종 완료자 및 일부예외자만 시설의 이용을 허용하는 이른바 '방역 패스'의 개념이다.     Q. 어떤 다중이용시설에 접종증명·음성확인제가 적용되나요.  -11월 1일 시행하는 접종증명·음성확인제의 적용대상 시설은 고위험 다중이용시설, 감염취약시설이다. 고위험 다중이용시설은 유흥시설, 노래연습장, 목욕장업, 실내체육시설 및 기타시설(경마·경륜·경정, 카지노)이다. 감염취약시설은 의료기관, 요양병원·시설, 중증장애인·치매시설, 경로당·노인복지관 등 고령층 이용 및 방문시설이다. 감염취약시설 중 의료기관, 요양병원·시설의 경우 입원 환자나 시설 입소자를 면회하는 경우에 한하여 적용되며, 의료기관의 외래 진료자는 증명서 없이도 시설 이용 가능합니다.     Q. 접종증명·음성확인제 적용시설을 이용할 수 있는 대상자는 어떻게 되나요.  -접종완료자와 PCR 음성확인서 소지자, 코로나19 확진 후 격리해제자, 만 18세 이하인 사람, 불가피한 사유(건강상 이유)로 접종이 불가한 사람 등이 시설 이용대상자이며, 시설별로 이용가능한 대상자 범위가 다르다. 적용 시설 중 유흥시설은 접종완료자만 이용할 수 있다.     Q. 접종증명·음성확인제는 언제까지 적용되나요.  -접종증명·음성확인제는 11월1일 1차 개편부터 일부 시설에 대해 적용되며, 대상시설의 감염전파 등 위험도를 평가하여 2차 개편 이후 계속 적용 여부를 검토할 예정이다.     Q. 코로나19 예방접종 완료 즉시 예방접종증명서를 받을 수 있나요.  -예방접종증명서는 접종 완료 후 접종기관(예방접종센터, 위탁의료기관)·보건소 또는 정부24 및 예방접종도우미 누리집에서 언제든지 발급 가능하다. 다만, 접종증명·음성확인제 적용시설을 이용하기 위해서는 접종완료일에서 2주(14일)가 경과해야 된다.     Q. 접종 완료 후 쿠브(COOV)에서 발급받은 '코로나19 예방접종 증명서'를 그대로 사용할 수 있나요.  -COOV앱(COOV앱과 연동된 전자출입명부 플랫폼)에서 본인인증 및 접종정보 업데이트 후 사용 가능하며, 고위험 다중이용시설 또는 감염취약시설 이용 시, COOV앱에서 QR코드 생성·스캔 후 입장할 수 있다.     Q. 접종완료 후 14일이 경과했음에도 쿠브(COOV)에서 '14일 경과'가 표시되지 않는 경우, 어떻게 하면 표시가 되나요.  -접종완료 후 14일이 경과한 날의 자정(24시)부터 '14일 경과'가 자동으로 표시된다. 표시되지 않는 경우, 앱을 최신 버전으로 업데이트 하거나 앱 상단의 '나의 코로나19 예방접종 내역 발급받기'를 통해 증명서를 갱신하면 된다.     Q. 1차 접종만 완료한 경우에는 접종증명서를 받을 수 있나요.  -예방접종증명서는 접종완료자만 발급 가능하다. 1회로 접종 완료되는 얀센 백신 접종자는 1차 접종 후 예방접종증명서 발급이 가능하고, 2회로 접종 완료되는 백신(아스트라제네카·화이자·모더나) 접종자는 1차 접종 후 예방접종증명서 발급이 불가하다.     Q. 접종 완료 후 추가접종 대상자인 경우, 추가 접종을 맞아야만 접종완료자로 인정받을 수 있나요.  -11월 1일 시작되는 단계적 일상회복 1차 개편은 추가접종 여부를 확인하지 않으며, 국내 또는 해외에서 접종완료 후 14일이 경과된 자는 예방접종완료자로 인정된다. 향후 코로나19 유행 및 방역상황 변화, 추가접종 대상 확대 등을 면밀히 검토하여 추가접종 포함 여부를 검토할 예정이다.     Q. 검사 방법 중에는 PCR 검사만 인정되나요.  -국내 광범위한 PCR 검사 인프라 및 신속항원검사의 한계(높은 위음성률, 무증상자 낮은 활용도)등을 고려하여 PCR 검사만 인정된다.     Q. PCR 검사결과는 어떤 방식으로 증명하면 되나요.  -PCR 음성확인은 △보건소에서 발송한 PCR 음성확인 문자 △보건소에서 발급한 종이증명서로 가능하다. 12월말부터는 질병관리청 전용 누리집을 통해 온라인으로 'PCR 음성확인서' 출력·발급이 가능하며, COOV(코로나19 예방접종증명서) 앱을 통해서도 PCR 음성결과 확인이 가능하다.     Q. 대상시설 이용시 PCR 음성확인서는 사용 유효기간이 있나요.  -음성확인문자의 경우 통보받은 시점으로부터 48시간이 경과한 날의 자정까지 유효하며, 음성확인 종이증명서의 경우 서류에 기재된 음성 결과 등록(보고) 시점으로부터 48시간이 경과한 날의 자정까지 효력이 인정된다.     Q. PCR 검사 비용이 있나요.  -음성확인을 위한 PCR 검사비용은 무료이나, 추후 단계적 일상회복 방안 등에 따라 유료로 전환될 수 있다.     Q. 의학적 사유로 접종증명·음성확인의 예외적용을 받는 사람이 있나요.  -확진 후 격리해제자, 코로나19 예방접종 후 중대한 이상반응으로 인한 접종 금기·연기 대상자, 면역결핍자, 항암제·면역억제제 투여로 인해 백신 접종이 연기된 자, 코로나19 백신 임상시험 참여자의 경우가 의학적 사유로 인한 적용 예외 대상이다.     Q. 의학적, 건강상의 이유가 아닌 개인 신념 등을 이유로 접종을 하지 않은 경우도 접종증명·음성확인의 예외 대상이 되나요.  -접종증명·음성확인 예외자는 건강상 이유로 접종이 불가한 사람에 한정되며, 종교적 사유 등 개인 신념에 따른 접종 거부자, 경미한 부작용(발열, 통증 등) 및 불안감에 따른 접종거부자는 예외 대상에서 제외된다.     Q 확진 후 격리해제자임을 어떻게 증명하면 되나요.  -신분증 지참 후 신고지 관할 보건소에 방문하여 '격리 해제 확인서'를 발급받으면 된다. 추후 질병관리청 별도 누리집을 구축할 예정이며, 12월 말부터 전용 누리집을 통해 본인인증 후 종이 '격리해제서' 출력·발급이 가능하다. 다만, 시설 이용을 위한 격리해제 확인서의 유효기간은 격리해제일로부터 6개월이다.     Q. 국내 백신개발을 위한 임상시험에 참여 중인 사람들은 어떤 증명서를 제출해야 하나요.  -「국가임상시험지원재단」에서 발급한 '임상시험 참여증명서'를 보건소에 제출하면 접종증명·음성확인제 예외 확인서를 발급 받을수 있다.     Q. 기저질환이 있어 예방접종을 맞지 않은 경우 접종증명·음성확인제 예외 사유로 인정되나요.  -기저질환이 있는 경우에도 대부분 백신 접종의 이득이 더 크므로 기저질환을 가진 것만으로(의사 소견서를 받더라도) 접종증명·음성확인제의 예외 사유에 해당하지는 않는다. 다만 면역결핍자나 항암제·면역치료제 투여로 인해 불가피하게 예방접종을 연기하는 경우 접종예외 사유로 인정되며, 이 경우 해당 사유로 인해 백신접종 연기가 필요하다고 명시된 진단서 또는 소견서를 보건소에 제출한 경우에 한하여 '접종증명·음성확인제 예외확인서'를 발급받을 수 있다.     Q. 건강상 이유에 의한 접종증명·음성확인의 예외인 경우, 확인서는 어디서 누가 발급해 주며 유효기간이 별도로 있나요.  -코로나19 예방접종 후 중대한 이상반응자(아나필락시스 등)의 경우, COOV 앱 또는 전자출입명부 플랫폼(네이버, 카카오, 토스, PASS앱(SKT, KT, LG))을 통해 발급받으실 수 있으며, 본인인증 후 전자증명서를 발급받으면 된다.   기타 건강상의 이유(면역결핍, 항암제·면역치료제 투여)로 예방접종 연기가 필요한 경우, 의료기관에서 진단서 또는 소견서를 발급받은 후 신분증·진단서 지참 후 보건소를 방문하여 '접종증명·음성확인제 예외확인서' 발급이 가능하며, 별도 유효기간은 없다.   추후 질병관리청 별도 누리집을 구축할 예정이며, '21.12월 말부터 전용 누리집을 통해 본인인증 후 종이 '접종증명·음성확인제 예외확인서' 발급이 가능하다.     Q. 건강상 이유에 의한 접종불가를 확인해 주는 의사소견서는 발급받을 때 별도의 비용이 발생하나요.  -의사진단서 또는 소견서 발급에는 별도 비용이 발생하며, 의료기관에 따라 금액이 상이하므로, 방문하시려는 기관에 문의해야 한다. 다만, 진단서 내용(병·의원, 진료의사, 진단명 및 사유)을 확인 후, 보건소에서 '접종증명·음성확인제 예외확인서'를 발급받는 비용은 무료이다.     Q. 접종증명·음성확인제 대상시설 이용시 어떤 절차를 통해 입장하나요.  -코로나19 백신 △예방접종완료 △PCR 검사결과 음성확인 또는 예방접종증명·음성확인의 예외적용을 증명할 수 있는 수단과 신분증을 함께 제시하면 해당 시설의 이용 및 출입이 가능하다.   다만, 대상 시설별로 유효한 증명 수단이 다를 수 있고, 증명수단 별로 효력이 인정되는 기간이 다르므로 사전에 확인을 해야 한다.     Q. 실제 접종완료 또는 음성확인자 등에 해당되나 증명서가 없는 경우, 사후적으로 제시하고 대상시설 이용이 가능한가요.  -접종증명·음성확인제 대상시설 입장할 때 코로나19 백신 예방접종완료, PCR 검사결과 음성확인 또는 예방접종증명·음성확인의 예외적용을 증명할 수 있는 수단과 신분증을 함께 제시 하여야 하며, 사후에 제시하는 방법은 허용되지 않는다.     Q. 인정되는 신분증의 종류는 무엇이 있나요.  -성인의 경우에는 주민등록증, 자동차운전면허증, 장애인등록증(주민등록번호 및 주소 기재된 것에 한함), 기간만료 전 여권, 외국인등록증 및 외국인등록사실증명서, 국내거소신고증 및 국내거소신고 사실증명서 등의 신분증을 사용할 수 있다. 만 18세 이하 청소년의 경우에는 주민등록증, 주민등록증 발급 확인서(유효기간 내), 청소년증, 유효기간 내 청소년증(청소년증 발급확인서), 기간만료 전 여권, 학교생활기록부 개인 신상 페이지(학교장 확인 필요), 학생증, 재학증명서, 재학 중인 학교에서 발급하는 신분증명서를 사용할 수 있다. 다만, 영유아 등 육안으로 보아 18세 이하임이 명백한 경우에는 신분증 확인 없이도 시설 이용 가능합니다.     Q. 접종증명·음성확인 증명서 등의 위변조 여부는 어떤 식으로 확인 가능한가요? 위변조한 증명서 활용 시 처벌 받나요.  -접종증명·음성확인 증명서 중 COOV 등 전자 증명서는 QR체크인 시 위·변조 여부가 검증된다. 다만, 전자 증명서의 육안확인이나 종이 증명서 및 문자 통지서 등의 위·변조 여부는 중앙부처와 지방자치단체에서 집중 점검을 통해 단속할 예정이며, 적발시 관계법률에 따라 고발 등 무관용 원칙로 처리할 예정이다.   특히 관련 증명서 등을 위·변조하였을 경우 형법 제225조, 위·변조한 예방접종증명서 등을 사용하였을 경우 형법 제229조에 따라 각각 10년 이하의 징역에 처할 수 있으며, 증명서 등을 위·변조한 사람과 위&amp;#8228;변조한 증명서 등을 사용한 사람이 동일인일 경우 상기 벌칙 병과 적용될 수 있다.   또한, 증명서 등을 부정하게 사용하였을 경우 형법 제230조에 따라 2년 이하의 징역이나 금고 또는 500만원 이하의 벌금에 처할 수 있다.     Q. 접종증명·음성확인제 대상시설을 이용하려는 사람이 증명서 등 제시요구에 응하지 않는 경우 관리자·운영자는 어떤 조치를 취할 수 있나요.  -유흥시설 등 접종증명·음성확인제 대상 시설 입장 시 또는 사적모임제한 초과 인원이 해당 시설 입장 시 시설의 관리·운영자는 예방접종증명서·음성확인서를 확인하여야 하며, 이용자가 이에 응하지 않을 경우 입장을 거부할 수 있다. 만약 증명서 등을 제시하지 않고 입장을 하는 경우 관할 시·군·구 또는 관할 경찰서 등에 신고할 수 있다.     Q. 접종증명·음성확인 없이 대상시설을 이용하다 적발되는 경우 관리자·운영자 및 이용자는 각각 어떤 제재를 받게 되나요.  -접종증명·음성확인제 적용 시설에서 관리·운영자가 증명서 등을 확인하지 않고 입장시킨 경우 또는 이용자가 증명서 등을 제시하지 않고 이용하다 적발되는 경우 방역수칙을 위반한 것으로 보아 시설의 관리·운영자 및 이용자에게 과태료 부과 및 영업정지 등의 행정처분이 될 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2021.10.29.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>손병환의 특명 "토스 카카오에서 배워라"(종합)</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003979220?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>제4차 농협금융 DT추진최고협의회 개최내년 종합금융플랫폼 전환 앞두고고객 중심 모바일앱 연동 등 주문손병환 NH농협금융 회장이 28일 서울 중구 NH농협금융지주 본사 회의실에서 제4차 농협금융 DT추진최고협의회를 화상으로 주재하고 있다. /사진 제공=농협금융[서울경제] 손병환 NH농협금융이 카카오뱅크·토스뱅크를 콕 집어 벤치마킹할 것을 주문했다. 내년 6월 고객 중심의 종합 금융 플랫폼으로의 전환을 앞두고 빠르게 고객들을 확보한 인터넷전문은행의 성공을 적용하자는 취지에서다. 최근 KB국민은행도 ‘KB스타뱅킹’을 대대적으로 개편하는 등 인터넷은행에 맞서 시중은행의 변화에도 속도가 붙을 전망이다.NH농협금융은 손병환 회장과 전 계열사 디지털 최고책임자들이 참석하는 제4차 농협금융 DT(디지털 전환)추진최고협의회를 화상으로 열고 이 같은 방안을 논의했다고 29일 밝혔다. 손 회장은 계열사의 DT 추진 상황을 점검하고 2022년 농협금융 DT 추진 방향과 중점 추진 과제를 논의했다.이날 회의에서 손 회장은 인터넷전문은행은 가능한데 농협이 놓치고 있는 상품이나 서비스는 없는지 세밀하게 분석해 대응 방안을 마련할 것을 지시했다. 평소 그는 기존 금융기관이 인터넷전문은행과 경쟁해 살아남기 위해서는 적어도 인터넷은행과 동일한 수준의 상품·서비스를 제공할 수 있어야 한다고 봤다. 손 회장은 “우리도 지난 몇 년간 DT 추진에 많은 노력을 기울여왔지만 아직 부족하다”며 “고객의 불편 사항 해소를 위한 토스나 카카오의 노력과 사업 추진 자세를 벤치마킹해야 한다”고 말했다.특히 내부 규정, 업무 관행 등의 이유로 고객의 불편 사항을 해소하지 못하고 있는 것은 아닌지 고객 입장에서 철저하게 따져볼 것을 주문했다. 가령 농협은행은 금융 사고 취약 계층인 고령 고객이 많은 특성을 감안해 엄격한 규정을 적용한 결과 대포통장 발생 건수가 시중은행 중 가장 낮다. 그러나 이 같은 점이 디지털 환경에서 고객에게 불편을 줄 수 있는 만큼 새로운 묘수를 찾아야 한다는 것이다. 손 회장은 “고객이 체감할 수 있어야 비로소 DT 추진이 성공하는 것”이라며 “당연하다 생각했던 것도 고객 입장에서 한 번 더 살펴보고 해결 방법을 함께 찾아 나가자”고 촉구했다.손 회장이 카카오·토스까지 언급하며 이같이 주문한 데는 2022년 금융지주회사 체제 전환 10주년을 맞아 고객이 체감하는 디지털 전환을 목표로 제시했기 때문이다. 농협금융은 농협은행의 모바일 애플리케이션인 ‘올원뱅크’를 종합 금융 플랫폼으로 거듭나게 만드는 방안을 추진하고 있다. 올원뱅크에 증권·보험 등 계열사의 핵심 서비스를 연동해 농협금융의 허브 역할로 자리매김하겠다는 취지다. 농협은행 차원에서는 NH스마트뱅킹·NH웹캐시·올원뱅크·NH스마트인증·NH기업스마트뱅킹·NH스마트알림·NH스마트고지서 등 7개의 별도 애플리케이션(앱)을 NH스마트뱅킹·올원뱅크·NH기업스마트뱅킹 등 3개로 줄이는 ‘앱 다이어트’도 실시한다.금융권에서는 이 같은 변화가 기존 금융사에서 앞으로 계속될 것으로 전망한다. 토스·카카오뱅크 등이 단 하나의 앱에서 모든 서비스를 제공해 빠르게 이용자를 확보했기 때문이다. 실제로 앱 분석 서비스 와이즈앱에 따르면 토스(1,116만 명)와 카카오뱅크(1,036만 명)는 기존 금융사 앱보다 400만 명 이상 사용자가 더 많은 것으로 집계됐다. 농협금융에 앞서 KB국민은행 역시 대표 앱인 ‘KB스타뱅킹’을 대대적으로 개편한 것도 이 같은 이유에서다. 증권·손해보험·카드 등 6개 계열사의 주요 서비스를 모았다.은행권의 관계자는 “보안·안전성 문제 때문에 은행 앱은 불편할 수밖에 없다는 선입관이 카뱅·토스를 통해 깨졌다”며 “이러다 고객을 뺏길 수 있다는 위기 의식을 다들 느끼고 있다”고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>진에어, 업계 첫 '티머니페이' 간편 결제 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010784225?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>기사내용 요약버스, 지하철, 택시 뿐만아니라 국내외 항공권도 결제[서울=뉴시스] [서울=뉴시스] 이재은 기자 = 진에어가 항공업계 최초로 티머니의 간편 결제 서비스를 제공한다.진에어가 이번에 도입한 '티머니페이'는 전국 대중교통, 고속버스 등 교통카드 기능 중심으로 해외 42개국에서 사용이 가능한 글로벌 모바일 QR결제 등 이용 범용성과 실용성을 두루 갖춘 티머니의 간편 결제 플랫폼이다.티머니페이 이용 고객은 기존 간편 결제 서비스 이용방법과 동일하게 진에어 홈페이지 모바일 웹·앱에서 원하는 여정 선택 후 항공권 예매 단계에서 티머니페이를 결제 수단으로 선택하면 된다. 이후 별도의 인증서 설치 없이 간단한 결제 인증 과정만으로 항공권 예매가 완료된다. 이와 더불어 사전좌석지정서비스, 번들서비스 등 다양한 부가서비스도 함께 결제 가능하다.또한 기업 회원 대상으로 운영되는 '티머니 비즈페이'도 함께 운영한다. 티머니 비즈페이는 기업 임직원들이 업무 목적의 교통 비용을 법인카드, 전표없이 간편하게 처리할 수 있는 업무용 모바일 교통 결제 서비스다. 앞으로 티머니 비즈페이 가입 기업 임직원은 외근, 출장 등으로 이동 시 지하철, 택시, 공항버스, 고속도로 통행료 등과 함께 진에어 국내선, 국제선 항공편도 손쉽게 결제가 가능해졌다.티머니페이 간편 결제 서비스 도입은 올해 3월 진에어와 티머니가 체결한 전략적 업무협약의 첫 결과물이다. 앞으로 진에어와 티머니는 티머니의 통합 모빌리티 플랫폼인 '티머니GO' 내에서도 타 교통수단과 함께 국내외 항공편 스케줄 및 운임 조회 정보 등을 연동해 제공하는 서비스도 선보일 계획이다.진에어 측은 "앞으로도 다양한 항공 네트워크와 대중 교통 및 모빌리티 결제 서비스를 보유하고 있는 양사간의 협업을 통해 고객 이용 편의성을 강화해 나가겠다"고 설명했다.한편 진에어는 이번에 새로 도입한 티머니페이를 비롯해 네이버페이, 카카오페이, 스마일페이, 페이코, 페이북, 토스 등 고객 결제 편의성 확대를 위해 다양한 간편 결제 서비스도 함께 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>길잃은 8兆 은행에 몰려…'머니 무브' 본격화 전망(종합)</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004985612?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>불안한 증시에 금리 뛰자 '유턴'은행 정기예금에 뭉칫돈이 몰리고 있다. 제로금리로 매력을 잃은 예·적금 대신 증시와 부동산, 가상화폐에 쏠렸던 시중 유동자금이 은행으로 '유턴'하고 있는 것이다. 한국은행의 기준금리 인상으로 예·적금의 메리트가 높아지고 주식 시장이 크게 조정을 받은 것으로 풀이된다.여기에 대출 규제 강화로 '빚투(빚내서 투자)'가 막힌 것도 자금 이동의 요인이란 해석이다. 한은의 연내 추가 금리 인상 전망과 미국 연방준비제도(Fed)의 테이퍼링 임박 등 대내외적 리스크로 인해 안전자산으로의 '머니 무브(자금 이동)'가 본격화될 수 있다는 전망이 나온다.19일 금융권에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 지난 15일 기준 정기예금 잔액은 640조2670억원으로 9월 말(632조4234억원) 대비 7조8436억원 급증했다.이는 지난 5월(9조5564억원 증가) 이후 최대 증가치다. 이 같은 유입 속도면 15조원을 훌쩍 넘길 가능성이 커 연내 최대를 기록할 것으로 추정된다.정기예금이 늘어나는 건 투자에 대한 불확실성이 커진 데 따른 것으로 풀이된다. 은행들의 금리 인상으로 예금 가치가 상대적으로 높아진 데다 주식시장이 맥을 못추면서 돈을 묶어두는 투자자가 늘고 있다는 분석이다.실제 수시입출금이 가능해 대기성자금으로 불리는 5대 은행의 요구불예금 잔액은 같은 날 기준 766조2315억원으로 9월 말(774조3926억원) 대비 8조1611억원 감소했다.전문가들 "안전자산 선호 더 확산"성태윤 연세대 경제학과 교수는 "물가 상승세와 유동성 조정 국면 등을 고려하면 금리는 지속 조정될 것으로 보인다"며 "이러한 방향성에서는 안전자산 선호 심리가 더 확대될 것"이라고 내다봤다.은행 관계자도 "지난 8월 기준금리 인상에 이어 11월 한차례 더 인상이 유력시되면서 대출금리 상승뿐 아니라 예금금리 상승도 자금시장에 대대적인 변화를 가져올 것"이라고 말했다.전문가들은 시중 여유 자금이 금리 인상기와 맞물려 안전자산으로 이동할 것으로 보고 있다. 오정근 건국대 정보통신대학원 금융IT학과 교수는 "한은이 기준금리 인상을 기정사실화했고, 미 연준의 테이퍼링 우려와 중국 경기 지표 악화 등으로 당분간 위험자산에서 수익을 기대하기는 어려울 것"이라며 "긴축의 시대로 접어들고 있기때문에 안전자산으로의 자금 이동은 더욱 빠르게 이뤄질 것"이라고 전망했다.반면 2030세대의 주식·코인·부동산 열풍과 중개형 ISA 인기 등으로 시중은행의 수진고 증대가 일시적일 것이란 전망도 제기된다.업계 관계자는 "증권사 ISA의 가입자 수는 은행 가입자 수를 넘어선 이후 계속해서 늘고 있는 추세다. 특히 중개형 ISA가 2030세대에게 인기를 끌면서 가입자 이동현상이 도드라지고 있다"며 "금리 인상만으로 은행이 수신고를 늘리는 데 한계가 있을 것"이라고 예상했다.인터넷銀도 고금리 수신 상품 잇따라 출시한편 시중은행을 비롯해 인터넷은행도 고금리 수신 상품을 잇따라 선보이고 있다. 가장 매력적인 예금금리를 제공하는 곳은 토스뱅크다. 토스뱅크의 수신상품은 아무 조건 없이 2% 금리를 제공한다. 단 하루를 맡겨도 맡긴 날짜만큼 이자가 제공되고 중간에 해지해도 혜택을 누릴 수 있다.카카오뱅크와 케이뱅크 등 앞서 출범한 인터넷은행도 시중은행에 비해 비교적 높은 금리를 제공하고 있다. 케이뱅크는 지난 1일부터 '코드K 정기예금'의 금리를 1.5%로 인상했다. 지난 8월 기준금리 인상 발표 직후에는 수신금리를 0.2%포인트 올린 바 있다. 카카오뱅크는 지난 달 예·적금 금리를 0.3~0.4%포인트 인상했다. 예금의 경우 1.5%, 적금의 경우 자동이체 시 1.8% 금리를 제공한다.김학수 하나은행 도곡PB센터지점 PB팀장은 "금리 상승기에는 투자상품의 비중을 줄이고 현금자산의 비중을 높이는 것이 바람직하다"며 "정기예금을 한다면 만기가 짧은 고정금리 상품이나 계약기간 내 자동 금리연동 상품을 선택하는 것이 좋다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>토스, 포괄임금제 폐지…다음달부터 겨울방학·주4.5일제 도입</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000261267?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[(자료: 토스)]토스가 '포괄임금제'를 폐지하고 연말 휴가제도인 '겨울방학'을 도입하기로 했습니다. 아울러 그동안 시범운영했던 '금요일 조기 퇴근제도'를 정례화하면서 사실상 '주 4.5일제도'를 실시합니다. 오늘(19일) 토스는 '워라밸 및 보상강화', '단기평가 폐지'에 초점을 맞춘 새로운 인사제도를 다음달부터 시행하기로 했다고 밝혔습니다.먼저, 현재의 포괄임금제는 내년 초 비포괄임금제로 전환됩니다. 새 임금제도에서는 법정 표준 근무시간인 주 40시간을 초과한 근무시간에 대해서는 연봉 외에 별도 수당이 지급됩니다.  토스 관계자는 "신규 입사자 뿐만 아니라 기존 입사자들에게도 기존 연봉이 크게 오르는 효과가 있을 것"이라고 말했습니다.연말 휴가제도로 운영되던 겨울방학도 정례화됩니다. 12월 25일 성탄절을 전후로 약 10일간 전사 휴무를 갖는 제도입니다.고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 것을 원칙으로 하며, 사내 메신저도 업무 종료 후 상호 답변을 요구하지 않는 휴식모드에 들어갑니다.선택적 근로시간제 도입과 함께 휴가 사용과 재택근무, 출퇴근 시간 등 근태를 별도 승인 없이 구성원 자율에 맡기는 원칙은 그대로 유지됩니다. 아울러 평가 제도도 대폭 바뀝니다. 출범 초기부터 전통적 인사 고과의 대안으로 운영되던 ▲3개월 리뷰 과정 ▲스트라이크 제도가 폐지됩니다. 토스는 그동안 동료 간 적극적 피드백으로 신규 입사자의 성과 수준을 높이고 구성원의 도덕적 해이를 방지한다는 취지에서 이같은 평가 제도를 운영해왔습니다. 토스 관계자는 "입사 지원자와 재직자 모두에게 심리적 안정감을 주는 것이 장기적으로 팀의 성공에 더 효과적이라 판단해 이 제도를 폐지하기로 했다"고 설명했습니다.대신 채용절차 고도화 및 동료 간 자유로운 업무 피드백 문화를 활성화해 조직의 인재 밀도와 역량을 관리해 나갈 방침입니다.박토니 토스 피플앤컬쳐팀 리더는 "신뢰에 기반한 자율과 책임, 높은 퍼포먼스 지향의 문화라는 핵심 원칙은 변하지 않을 것"이라며 "인력 규모와 다양성이 증가하는 만큼 인사 제도의 변화는 계속될 것"이라고 말했습니다.이번 인사제도는 토스를 비롯해 토스뱅크, 토스증권, 토스페이먼츠 등 주요 계열사에 동일하게 적용됩니다. 단, 고객 상담업무를 하는 토스CX와 보험 컨설턴트 중심 조직인 토스인슈어런스는 업무 특성을 감안해 수습기간 유지 등 자체 인사제도를 운영할 예정입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2021.10.31.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>은행 ‘금리인하요구권’ 안내 적극적으로… 거부 사유도 알려준다</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000770513?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>몰라서 못 누리는 ‘금리인하요구권’ 안내 개선된다  소비자에 적극 안내하고, 정확한 정보 충분히 제공  신청 요건·심사 기준 개선하고 불수용 사유 설명  금융사별 관련 운영 실적 반기마다 공시해야        소득이 높아지거나 신용도가 올랐을 때 가지고 있던 대출의 금리 인하를 요구할 수 있는 ‘금리인하요구권’ 안내가 강화된다. 금융사들은 앞으로 적용 대상이 되는 차주에게 문자 등으로 먼저 이를 안내하고, 거절 시에는 사유도 알려줘야 한다. 그간 은행 등 금융사가 적극적으로 안내하지 않거나 제대로 알지 못해 이런 권리를 누리지 못한 소비자가 많았다.금융위원회·금융감독원 등은 31일 이런 내용의 금리인하요구권 운영 개선 방안을 마련했다. 이는 재산 증가나 신용평점 상승 등 소비자의 신용 상태가 개선될 때 금융사에 금리 인하를 요구할 수 있는 권리다. 지난해 기준 신청 건수는 91만건, 수용 건수는 34만건으로 3건 중 1건꼴로 금리 인하 신청이 받아들여졌다. 이를 통해 감면된 이자액은 은행권에서만 약 1600억원에 이르는 것으로 추정된다.한 시중은행에 붙어 있는 금리인하요구권 안내 문구. /연합뉴스        그간 은행들이 금리인하요구권을 소비자에게 적극적으로 안내하지 않는다는 비판을 받았다. 은행 입장에선 금리인하요구권 수용이 많아질수록 이자 이익이 줄어드는 셈이기 때문이다. 인터넷전문은행인 카카오뱅크나 토스뱅크 정도가 신용점수가 상승한 고객들을 대상으로 이를 수시로 안내할 뿐이었다. 신청·심사 절차 등에 있어 은행별로 운영 방식이 차이가 있다는 문제도 있었다.금융위는 우선 대출 실행 시 금리인하요구권과 관련해 반드시 기재해야 하는 핵심 항목을 포함한 ‘고객 안내·설명 기준’을 마련하기로 했다. 권리 행사를 못 하는 것으로 오인하지 않도록 대상 대출 상품의 범위나 유의 사항을 정확히 기재한다는 방침이다.가계대출 금리인하 신청 요건 안내 표준안. /금융위원회 제공        예로 차주의 신용 상태가 개선되면 신청 횟수나 신청 시점 등에 관계없이 권리 행사가 가능하지만, 일부 은행에서는 대출 계약 체결 후 3개월이 지나지 않으면 신청이 안 된다고 잘못 안내하고 있다. 이밖에 적용 대상 차주에게 대출 기간 중 연 2회 정기적으로 문자·이메일·우편 등으로 주요 사항을 안내할 예정이다.신청 기준이나 심사 절차도 개선된다. 금융당국은 금융권 공통의 신청 요건 표준안을 마련해 ▲소득·재산 증가 ▲신용도 상승 ▲기타 등 신청 사유를 명확히 하고, 참고 가능한 항목별 사례를 제시할 예정이다. 또 금융사별로 다른 인하 금리 적용 시점을 ‘금리 변경 약정 시점’으로 통일해 적용하기로 했다. 금리인하요구권 신청 후 수용되지 않았을 때 해당 사유도 표준 통지 서식에 따라 고객에게 안내해야 한다.·귀하의 대출은 신용 상태가 금리산정에 영향을 주지 않는 대출로 금리 인하 요구 대상에 해당하지 않습니다.·귀하의 신청 사유 및 제출 자료 심사 결과, 귀하가 이용 중인 대출상품의 금리를 인하할 정도로 당행 내부 신용등급이 개선되지 않아 금리가 유지됨을 알려 드립니다.·귀하께서는 이미 당행 내부 신용등급이 1등급에 해당하거나, 이와 동일한 신용도가 적용되고 있어 추가적인 금리 인하가 어려움을 알려 드립니다.불수용 사유 유형별 안내 문구 예시금리인하요구권과 관련된 통계도 재정비된다. 통일된 산출 기준을 마련하고, 매 반기별 신청 건수·수용 건수·수용률·이자 감면액(1년 기준) 등 실적을 공시해야 하는 의무도 생긴다.금융위 관계자는 “금융협회 등과 함께 세부 조치 사항 마련을 올해부터 내년 상반기까지 신속하게 완료해 나가겠다”며 “금리인하요구권이 법제화되지 않은 상호금융업권의 경우 올해 말 행정지도 연장 시 개선 방안 내용을 포함할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>금융사가 온투업 참여하면 대출?…업계, "금융혁신 어렵다"(종합)</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004986203?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>8월 기준 20대 대위변제, 2만1216건이미 작년 전체 건수보다 21.6% 늘어나전체 연령 중 20대 비중 30%로 가장 커민형배 의원 "대위변제까지 안 가게 해야"온라인투자연계금융업(온투업) 기관투자자로 참여한 금융사를 ‘투자자’로 봐야 하는 지가 업계 쟁점으로 떠올랐다. 만약 ‘대출자’로 규정되면 금융사가 리스크를 직접 관리해야 하는지, 대출총량 규제에 포함해야 하는지 등도 논란이다. 금융당국이 관련 사안을 두고 고심 중인 가운데, 온투업체들은 기관투자자의 참여 저조로 업계 성장이 저해될 수 있다고 우려한다.20일 업계에 따르면 금융당국은 현재 민간 금융사의 온투업 투자 행위와 관련된 세부사항을 조정하고 있다. 법 조항 해석부터 투자성격, 규제적용 범위 등을 살펴보고 있다.핵심 쟁점은 금융사의 온투업 투자가 대출인지 여부다. 온투업 사업구조는 대출을 희망하는 자와 투자자를 직접 연결해주는 방식이다. 금융사가 온투업 투자자가 되면 하나의 플랫폼을 거칠 뿐 사실상 금융 소비자에 대출을 실행하는 효과가 생긴다.현재 온투법은 금융사가 온투업체에 투자할 경우 여신으로 판단한다. 온투업법 제 35조는 여신금융기관과의 연계투자를 업권 별 법령에서 정하지 않는 이상 ‘대출 또는 신용공여’로 본다고 명시하고 있다.문제는 대출로 보게 될 경우 금융사들이 법률상 까다로운 규정을 이행해야 한다는 점이다. 현행법상 금융기관은 돈을 빌려줄 때 ‘개인차주 동일인 여신 한도’나 ‘총부채원리금상환비율(DSR) 규제’를 지켜야 한다. 금융사로서는 대출규제를 적용받게 되면 온투업 투자를 꺼릴 수밖에 없다.로펌 의견도 제각각…금융당국 권고도 적용될까법률상 충돌지점도 생긴다. 금융사는 여신을 실행하는 순간 리스크를 관리해야 하는 의무가 발생한다. 관리를 위해서 돈을 빌려 간 사람의 정보를 알아야 하는데, 온투업법은 차입자 정보 제공을 금지하고 있다. 온투업 투자에 관심을 보이던 저축은행과 상호금융업권이 기관투자자 참여를 망설이는 이유다.법률이 아닌 금융당국의 지도나 권고를 어떻게 적용할 지도 문제다. 현재 각 금융업권은 당국지침에 따라 대출 총량을 규제하고 있다. 온투업에 투자한 자금을 대출로 해석한다면 총량에 포함될 가능성이 크다.온투업계는 금융기관 투자행위가 대출로 해석되는 상황을 경계하고 있다. 한 온투업체 관계자는 "대부분의 국가가 금융기관의 온투업 참여를 투자로 판단한다"면서 "성장의 핵심 열쇠로 여겼던 금융사의 참여가 어려워지면 금융혁신 발전도 더뎌지는 것"이라고 토로했다. 현재 온투협회는 금융당국과 관련 내용에 대한 의견을 전달하고 조율하고 있는 것으로 전해졌다.이에 금융감독원은 법률자문을 얻기 위해 다수 로펌에 관련 내용을 질의했지만, 로펌에서도 각기 다른 의견이 나온 것으로 알려졌다. 해당 안건은 금감원 차원에서 판단을 내리지 않고 상위 기관인 금융위원회에 보고된 상태다.금감원 관계자는 "법 해석의 영역이라면 당국 차원에서 해결할 수도 있겠지만 지금은 법률 간의 충돌문제도 있다"며 "온투업 취지상 투자로 봐야 한다는 목소리가 있지만 법이 모호할 때나 그렇지 지금은 명확하게 문제의 소지가 있어 (내부 판단을) 기다리는 상황"이라고 설명했다.금융당국의 플랫폼 규제도 업계로서는 악재다. 금융당국은 최근 카카오페이나 토스 등 플랫폼 회사의 P2P 투자 서비스를 ‘중개’라는 유권해석을 내렸다. 그간 플랫폼 업체들은 단순 ‘광고’라고 주장했었다. 하지만 금융소비자보호법 위반 소지 등을 이유로 각종 규제를 적용받게 되면서 관련 서비스가 일제히 중단된 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2021.10.27.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>‘IPO 마지막 대어’ 카카오페이, 공모 흥행… 주가 날아오를까</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003632385?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>카카오페이, 11월 3일 코스피 상장일반청약 180만건 넘어… 흥행 성공국내 대표 핀테크 기업… 잠재력 높아‘카카오 시너지’도 긍정적… 규제 리스크는 불안요소    카카오페이 공모주 청약일인 지난 25일 서울 영등포구 여의도 한국투자증권 여의도본점 영업장에 설치된 카카오페이 청약 입간판 너머로 고객들이 상담을 받고 있다. 연합뉴스    올해 기업공개(IPO) 마지막 대어인 카카오페이가 얼어붙은 공모주 시장에서 흥행에 성공하면서 코스피 상장 후에도 좋은 흐름을 이어갈지 관심이 쏠린다. 증권가는 국내 대표 핀테크 기업의 잠재력을 높이 사면서도 금융 플랫폼의 규제 리스크를 불안요소로 꼽는다.   27일 카카오페이 IPO 대표주관사 삼성증권에 따르면 전날까지 이틀간 공모주 일반청약을 진행한 결과 삼성증권과 대신증권, 한국투자증권, 신한금융투자에 모인 청약 증거금은 5조6609억원이다. 청약계좌 건수는 182만4364건, 청약 경쟁률은 29.60대 1을 기록했다. 청약자가 받는 물량은 평균 2.33주로 증권사별로 1∼4주를 받게 된다.   카카오페이의 청약 증거금은 올해 주요 공모주였던 SK아이이테크놀로지(80조9000억원), SK바이오사이언스(63조6000억원), 카카오뱅크(58조3000억원), 현대중공업(55조9000억원) 등과 비교하면 10분의 1 수준이다. 이는 최소단위 주로 청약한 투자자가 많기 때문으로 보인다.   카카오페이는 국내 IPO 사상 처음으로 일반 청약자 몫의 공모주 물량을 100% 균등 배정했다. 증거금이 많을수록 유리하던 기존 비례 방식과 달리 카카오페이 청약에선 최소단위인 20주(증거금 90만원)만 청약하면 모두가 같은 수량의 주식을 받을 수 있다. 청약 증거금은 상대적으로 적지만, 청약 건수를 보면 카카오뱅크(186만건)와 현대중공업(171만건)보다 더 많다. 카카오페이가 흥행에 성공했다고 평가받는 이유다.   카카오페이는 다음 달 3일 코스피에 상장한다. 지난 20일~21일 진행된 기관투자자 대상 수요예측 결과 최종 공모가는 밴드 상단인 9만원으로 확정됐다. 공모가 기준 시가총액은 11조7330억원이다. 이는 코스피 시총 36위(우선주 제외)에 해당한다.     류영준 카카오페이 대표가 지난 25일 온라인 IPO 기자간담회를 하고 있다. 카카오페이 제공    상장 후 주가 전망은 엇갈린다. 메리츠증권은 국내 대표 핀테크 기업의 잠재력을 높이 평가해 적정주가 11만원을 제시했다. 반면 KTB투자증권은 금융 플랫폼의 규제 리스크를 고려해 적정주가를 5만7000원으로 산정했다.   전문가들은 카카오페이를 두고 금융 플랫폼으로서의 성장 가능성과 ‘카카오 시너지’를 주목해야 한다고 봤다. 최관순 SK증권 연구원은 “카카오페이는 금융업이 아닌 성장률 높은 플랫폼 사업자로 이해해야 한다”며 “코로나19 이후 급격하게 성장하고 있는 간편결제 부문은 오프라인 인프라 확대, 후불결제 등을 통해 높은 성장세가 이어질 전망이며 내년부터 시작될 디지털보험업에서도 의미 있는 성과가 예상된다”고 평가했다.   또 그는 ‘카카오 시너지’를 말하며 “카카오 계열사와의 전략적 협업으로 카카오페이 이용자 확보에 필요한 비용절감이 가능하고, 데이터 공유를 통해 소비자 효용을 극대화할 수 있는 신규 금융상품 개발에도 용이하다”고 설명했다.   김동희 메리츠증권 연구원은 “지급결제부터 신용대출, 자산관리, 보험 등의 금융 포트폴리오 구축한 사업자는 카카오페이, 네이버페이, 토스 정도”라며 “카카오페이는 3660만명의 가입자와 높은 이용자 충성도·ARPPU(평균결제금액), 카카오톡 플랫폼에 근거한 네트워크 효과 및 빅데이터 경쟁력을 갖췄다”고 밝혔다.     카카오페이 공모주 일반 투자자 대상 청약 마지막 날인 지난 26일 서울 영등포구 한국투자증권 본사 영업점에서 내방객들이 청약 상담을 받고 있다. 뉴시스    한편에선 온라인 플랫폼 규제 리스크가 향후 더 커져 카카오페이 앞길에 먹구름이 낄 수 있다는 전망도 나온다.    김진구 KTB투자증권 연구원은 “(국내 플랫폼 규제가) 현재까지는 업체에 부정적인 영향을 크게 주지는 않는다”면서도 현재가 아닌 방향성을 봐야 한다고 지적했다. 그는 “미국처럼 다양한 이해관계자의 이익을 보호하는 포괄적 규제로 진입할 가능성이 있다”며 “최근 국정감사에서 부각된 모빌리티와 웹툰·웹소설을 중심으로 공급자에 대한 적정 테이크 레이트(거래수수료)에 대한 논의가 확산되는 것도 일맥상통한다”고 했다.   이어 그는 “테크핀에 대한 정부의 스탠스가 과거 육성 정책에서 최근 규제를 기점으로 기존 금융기관과의 형평성 등 동일 기능 동일 규제 원칙을 강조하는 방향으로 선회할 가능성도 염두에 둬야 한다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>토스, 연말 휴가 제도 '겨울방학' 도입…약 10일</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001654142?sid=102</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>ⓒYTN금융 플랫폼 기업 토스가 '겨울방학' 제도를 도입하고 '주 4.5일 근무제'를 시행한다고 밝혔다.19일 토스는 연말 휴가 제도인 '겨울방학'을 정례화한다고 밝혔다. 겨울방학은 성탄절을 전후해 약 10일 간의 전사 휴무를 갖는 제도다.고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 것이 원칙이다. 사내 메신저도 상호 답변을 요구하지 않는 휴식 모드로 전환한다.토스는 또 지난 4개월간 시범 운영한 금요일 조기 퇴근제를 다음 달부터 정식으로 운영해 사실상 '주 4.5일 근무제'로 전환키로 했다.토스는 현재 포괄임금제를 시행하고 있으나, 내년 초 이를 비포괄임금제로 전환한다. 이에 따라 법정 표준 근무시간인 주 40시간을 초과한 근무시간은 연봉 외에 별도 수당을 직원들에게 지급하게 된다.토스는 아울러 그동안 운영해온 동료 간 단기 평가 시스템인 '3개월 리뷰 과정'과 '스트라이크' 제도를 다음 달부터 폐지하기로 했다.토스 측은 "입사 지원자와 재직자 모두에게 충분한 심리적 안정감을 제공하는 것이 장기적으로 팀의 성공에 더 효과적이라고 판단했다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2021.10.25.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>“여기가 한국 회사 맞나요?” 1억 보너스에 성탄 휴가도 10일이나!</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001903713?sid=105</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>스타트업 ‘딥브레인A’I가 지하철역에 내건 채용 광고. 1억원 인센티브·1억 스톡옵션 등이 강조됐다.[딥브레인AI 제공][헤럴드경제=유동현 기자] “3억 이상도 가능하다”정보기술(IT)업체들이 높은 연봉을 자랑하는 미국 기업들 뺨칠 정도로 파격적인 입사 조건을 내걸며, 인재 유치전을 벌이고 있다. 하반기 채용 시즌에 돌입하면서 다수 기업이 입사 시 1억원 보너스를 내걸었다. 금전 혜택을 넘어 열흘간 성탄 휴가, 코로나19 종식 후에도 원격 근무 등 ‘워라밸’을 보장하는 근무환경도 다양하다. 업계에선 ‘한국 기업이 맞냐?’며 급속도로 달라진 채용 현장을 실감하고 있다.25일 여가플랫폼 ‘여기어때’는 개발 인재에게 1억원의 인센티브를 제공하는 대규모 채용 계획을 밝혔다. 리드급 인사의 경우 연봉에 더해 사이닝 보너스(입사 보너스) 4000만원과 스톡옵션(주식 매수권) 6000만원을 최소 지급한다. 사측에 따르면 인센티브 상한선을 두지 않았다. 여기어때 관계자는 “능력을 인정받을 경우 3억원 이상도 가능하다”고 설명했다. 신입사원도 연봉과 별도로 3000만원을 인센티브로 받는다.IT업계에선 ‘1억원 인센티브’가 더는 파격적 수준이 아니다. 많은 IT기업들이 1억원 상당의 금전혜택을 내세우고 있다. 하반기 공개 채용에 나선 이스트소프트도 최대 1억원 상당의 스톡옵션을 내걸었다. 종합 유통물류 브랜드 ‘부릉’을 운영하는 메쉬코리아도 최종합격한 개발자에게 5000만원 상당의 사이닝 보너스 또는 1억 규모의 스톡옵션을 지급한다.기업 규모·매출과 상관없이 ‘괜찮은 개발자’ 유치에 1억원은 ‘제값’이란 분위기도 형성되고 있다. 인공지능(AI) 스타트업 ‘딥브레인AI’도 개발자들에게 1억원 상당 스톡옵션과 인센티브 및 연간 복지비 1000만원 혜택을 준다. 장세영 딥브레인AI 대표는 “500억 규모의 시리즈 B 투자를 성공적으로 이끌어냈고, 연이은 공격적인 인재 채용을 통해 퀀텀점프하는 기회를 새롭게 만들고자 한다”고 설명했다.라인플러스가 시행 중인 ‘원격근무’ 제도를 통해 제주도에서 근무했던 개발자 사례[라인플러스 제공]단순 금전혜택을 넘어 ‘워라밸’에 힘을 싣는 근무환경도 조성되고 있다. 모바일 금융 플랫폼 ‘토스’는 최근 채용 공고를 내면서 ‘전직장 연봉 150% 지급’과 더불어 성탄절 전후 ‘10일간 겨울방학’을 제시했다.토스를 운영하는 비바퍼블리카에 따르면 겨울방학 동안 고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 것이 원칙이다. 이 기간에는 사내 메신저도 휴식 모드로 전환된다. 임직원 복지 증진 차원에서 겨울방학 제도는 정례화한다. 더불어 지난 4개월간 시범 운영한 금요일 조기 퇴근제도도 다음 달부터 본격 시행된다. ‘주 4.5일 근무제’인 셈이다.코로나19 종식과 무관하게 사무실 출근 개념을 없앤 기업도 생겼다. 라인을 운영하는 라인플러스는 지난7월부터 원하는 장소 어디서든 근무하는 '라인 하이브리드 워크 1.0'를 시행 중이다. 근무지역은 제주, 강릉 등 국내 어디든 가능하다. 내년 6월 말까지 시행한 뒤, 원격근무 지역을 해외로 확장하는 방안도 고려할 계획이다.한편 높은 대우 이면에는 치열한 업무 강도가 무관치 않다는 지적이다. IT기업 4년차 개발자 박모씨는 “번아웃이 오면 이 직무를 버티기 힘든 경험은 다들 가지고 있을 것”이라며 “근무시간이 불규칙한 만큼 몸을 희생한 대가, 이른바 ‘몸센티브’라고도 볼 수 있다”고 말했다. IT업계 관계자는 “개발자 대우가 몇년새 급속도로 올라갔다”며 “이제는 해외 IT기업 수준과 비교해도 마냥 뒤쳐지지 않는다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2021.10.19.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>[택시플랫폼①] 모빌리티 패러다임 변화, ‘택시 플랫폼’ 달린다</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002111873?sid=105</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>우버‧리프트 등 글로벌 차량공유 서비스 등장으로 전세계 모빌리티 패러다임이 변화하는 가운데, 한국은 택시 호출 앱 중심 모빌리티 플랫폼 경쟁이 불붙고 있다. 콜택시 대신 카카오택시(카카오T)를, 현금 대신 자동 결제를 이용하는 등 ‘택시 플랫폼’은 일상생활에 안착했다. 카카오뿐 아니라 SK텔레콤 등 기술기업이 택시 플랫폼 사업에 진출했으며, 데이터와 정보통신기술(ICT)을 통해 이동 혁신과 함께 택시시장 구조 변화까지 꾀했다. 이에 최근 변화하는 택시플랫폼 산업과 규제 및 과제 등을 짚어본다. &lt;편집자주&gt;   [디지털데일리 최민지기자] 전통산업 ‘택시’가 플랫폼으로 변화했다. 도로에서 손을 흔들어 택시를 잡는 대신, 스마트폰 앱을 켜고 취향에 맞는 다양한 택시를 호출하는 모습을 어디서나 볼 수 있다. 이용자가 생활 속에서 가장 크게 변화를 체감하는 플랫폼은 택시다.    카카오T로 대표되는 택시 플랫폼은 한국 모빌리티 분야 중 빠르게 성장한 시장이다. 기존 택시업계 반발을 줄이고, 법 테두리 내에서 사업을 확장했기 때문이다. 카카오모빌리티는 법인택시 회사를 인수해 면허를 확보하는 방식을 취했다. 이는 다시 말해, 택시업계가 반발한 모빌리티 플랫폼은 시장에서 제대로 설 수 없었다는 의미이기도 하다.    과거 카카오는 2018년 출퇴근 시간 승차공유 ‘카카오 카풀’ 서비스를 발표한 후, 강력한 반대에 부딪혀 사업을 접은 바 있다. 당시 카카오 카풀 시행을 막기 위해 일부 택시기사들의 분신 사망하는 안타까운 사건까지 발생했기 때문이다. 지난해 4월엔 ‘타다 금지법’으로 불리는 개정 여객자동차운송사업법으로 타다 서비스는 중단되기도 했다. 이 또한 택시 업계와의 갈등이 주효했다.    이처럼 택시업계와의 충돌과 유사영업행위 규제 등으로 국내 모빌리티 플랫폼 시작은 우버와 같은 글로벌 사업자보다 다소 늦었으나, 성장성이 높은 산업인 만큼 새로운 플레이어들이 속속 등장하고 있다.    카카오T 독주를 막기 위해 다음달 우버와 손잡은 티맵택시가 ‘우티’로 새롭게 출범한다. SK텔레콤 자회사 티맵모빌리티는 우버와 합작법인을 설립해 통합 앱 우티 출시를 앞두고 있다. 또한, 토스 운영사 비바리퍼블리카는 쏘카가 보유한 타다 운영사 VCNC 지분 60%를 인수하고 12월 타다 서비스를 내놓을 계획이다.   이들은 기술적 강점을 적용해, 단순히 택시 호출 앱이 아닌 플랫폼 확장을 꾀한다. 카카오T는 90% 이상 시장점유율을 확보한 만큼, 방대한 승차 데이터를 보유하고 있다. 빅데이터는 인공지능 등과 결합해 운행 전 호출부터 배차, 픽업, 주행, 결제, 평가에 이르기까지 전 단계에 활용된다. 우티는 국내 대표 내비게이션 ‘티맵’ 데이터 역량에 글로벌 사업자 우버 기술력을 더한다. 타다는 모바일 금융 플랫폼 ‘토스’를 통해 핀테크를 결합할 수 있다.    국내 모빌리티 플랫폼은 규제 안에서 발전하고 있으나, 여전히 과제는 존재한다. 카카오T의 경우, 올해 국정감사에서 시장 독과점 및 수수료 문제를 질타받았다. 네이버‧카카오 등 플랫폼 옥죄기가 현실화되는 상황에서 택시 플랫폼 규제 리스크도 관건이다.    한편, 택시 플랫폼뿐 아니라 다양한 모빌리티 플랫폼 출현을 기대하는 목소리도 크다. 5G‧자율주행 기술 발전과 함께 자동차 시장이 제조에서 서비스로 전환되면, 모빌리티 플랫폼은 택시‧렌터카 사업을 뛰어넘는 새로운 서비스형모빌리티(MaaS) 역할을 기대해볼 수 있다. 이는 전세계 흐름인 만큼 정부와 산업계가 적극적으로 대응해야 한다는 것이다. 이를 위해 다양한 플랫폼을 안전하게 받아들일 수 있는 법제도 정비가 필요하다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2021.10.20.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>센스톤, 토스뱅크에 '스위치 OTP' 공급…고액 송금·이체도 간편</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004659155?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>토스뱅크 고액송금 /사진제공=센스톤인증보안 기술 스타트업 센스톤이 인터넷전문은행 토스뱅크에 아이폰에서도 이용할 수 있는 카드 접촉식 OTP 인증 기술 '스위치 OTP(switch OTP)'를 공급한다고 20일 밝혔다.센스톤이 선보인 스위치 OTP는 휴대폰 뒷면에 태깅하는 것만으로도 OTP 코드를 실시간으로 생성하는 기술이다. 사용자 편의성과 강력한 보안 기능을 동시에 갖췄으며, 현재 가장 진화된 형태의 OTP 솔루션으로 평가받는다. 이번에 토스뱅크 체크카드에 탑재되었으며, 이를 통해 토스뱅크 앱 사용자는 체크카드를 휴대폰에 태깅하는 것만으로 고액 송금 서비스를 이용할 수 있다. 스위치 OTP에는 센스톤의 원천기술인 OTAC(One-Time Authentication Code)가 적용됐다. 근거리무선통신(NFC) 기술을 활용해 사용자가 본인의 휴대폰 뒷면에 카드를 태깅하면 금융 서비스를 이용하는 과정에서 본인 인증은 물론, 고액 송금 및 이체를 위한 2차 인증까지도 한 번에 가능하다. 국내 금융기관에서 많이 사용하는 모바일 OTP와 달리 핀(PIN) 번호 입력도 필요하지 않다. 기존 OTP가 아이디(ID)·비밀번호(PW) 또는 생체인식 로그인 이후 2차 인증 용도로만 사용되는 반면, 스위치 OTP에 적용된 OTAC는 고유 사용자 식별이 가능하고 타 사용자와 코드 중복 가능성이 없어 곧바로 1차 인증만으로도 금융 서비스를 제한 없이 이용할 수 있다. 게다가 기존 스마트 OTP 사용이 불가능한 아이폰에서도 이용할 수 있도록 문제를 개선했다. 그동안 스마트OTP 활용에 있어 어려움을 겪던 아이폰 이용자들도 더욱 안전하고 간편하게 인터넷 뱅킹 서비스를 이용할 수 있게 됐다. 유창훈 센스톤 대표는 "디지털 금융 혁신을 선도하는 토스뱅크에서 센스톤의 세계 최초 단방향 다이내믹 인증 기술인 OTAC 기반의 스위치 OTP가 적용된 금융 서비스를 선보이게 됐다"며 "앞으로 토스뱅크와의 보다 긴밀한 파트너십을 바탕으로 다양한 금융 서비스 인증은 물론, 새로운 비즈니스 개발에 기여할 수 있기를 기대한다"고 말했다.[머니투데이 미디어 액셀러레이팅 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2021.10.24.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>"카뱅·케뱅·토뱅 나와"…돈 불려주는 KB스타뱅킹 전면 개편</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004660661?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>KB국민은행이 오는 27일 1760만명에 달하는 고객 중심으로 진화한 새로운 KB스타뱅킹을 선보인다고 24일 밝혔다. 시중은행 애플리케이션(앱)은 그간 생활금융플랫폼을 기치로 사용자 편의성을 강화하는 방향으로 진화했으나 여전히 복잡하고 무겁다는 지적을 받아 왔다.  카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷전문은행들이 '원앱 전략'으로 금융 영토를 잠식해 가고 있는 만큼 KB국민은행도 새 스타뱅킹 앱을 무기로 디지털 금융 경쟁을 본격화할 계획이다. 새 KB스타뱅킹앱의 콘셉트는  '나를 찾아오고, 나를 알아주고, 나를 챙겨주는 나만을 위한 나의 KB스타뱅킹'이다.  접근성과 사용성 등 모든 부분에서 '나(고객)'를 위한 맞춤형 서비스에 초점을 맞췄다.  새 스타뱅킹앱엔 자동로그인 기능이 도입됐다. 앱을 실행하면 별도의 인증 단계 없이 아이콘 터치만으로 구동된다.  본인명의 휴대폰 사용자가 휴대폰 잠금 화면을 설정하면 이용할 수 있다. 이체거래도 내용 입력이 완료되면 진행 버튼을 누르지 않아도 다음 거래 화면으로 자동 전환되도록 구현해 편의성을 높였다. 홈 화면에선 대표 계좌를 설정해 잔액을 확인하고 이체를 빠르게 할 수 있다. KB국민은행뿐 아니라 타 은행과 증권, 저축은행 계좌 등 최대 5개까지 설정할 수 있다.  KB국민은행의 자산관리 노하우를 담은 '마이자산관리' 도 신설했다. 은행 자산 외에 증권, 보험 등 타 금융업권의 거래 정보와 부동산·자동차 등 비금융 자산정보까지 활용해 자산을 관리해 준다.  세테크, 부동산상담, 상속 및 은퇴 준비 등 다양한 관리 서비스도 제공한다. 스타뱅킹앱에선 KB증권의 'Easy 주식 매매' 서비스, KB국민카드의 'KB Pay 간편결제', KB손해보험의 '스마트 보험금 청구' 등 KB금융그룹 6개 계열사의 핵심 서비스를 만날 수 있다. KB금융그룹의 허브 역할을 수행하는 확장형 종합금융플랫폼으로 토털 금융 서비스를 제공한다는 의미에서다.  고객 맞춤형 콘텐츠와 알림 서비스도 특징이다. 170개의 알림서비스가 별도의 앱 다운로드 없이 제공된다. 예컨대 지방세 고지서 알림 콘텐츠에서는 직접 납부화면으로 이동할 수 있다. KB국민은행 관계자는 "은행을 넘어 계열사 및 외부 제휴서비스까지 유연하게 확장할 수 있는 기반을 갖춰 넘버원 종합금융플랫폼으로 도약하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2021.10.21.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>‘성장’과 ‘일자리’ 해결 하는 스케일업 육성 [김용우의 경영 전략]</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000058793?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>전담 연구 기관 마련 등 정부 차원의 적극적인 노력 필요해[경영 전략]저성장과 일자리가 이슈인 시대에 이 두 가지를 모두 잡으려면 어떻게 해야 할까. 기업가 정신을 실현하는 창업 기업가, 벤처 기업가가 많아야 한다. 특히 비상장 기업으로 기업 가치 10억 달러(1조원) 이상인 ‘유니콘 기업’이 많이 나와야 한다.중소벤처기업부의 발표에 따르면 2021년 6월 말 벤처기업 고용은 전년 동기 대비 10.2% 증가했다. 이는 고용보험 가입자 기준 전체 기업 고용 증가율 3.4% 대비 약 3배 높은 수준이다. 특히 유니콘 기업인 벤처기업 8개사의 평균 고용 증가 인원은 전체 벤처기업 평균 대비 약 139배나 높았다.이처럼 벤처기업, 특히 유니콘 기업이 고용에 미치는 영향은 막강하다. 그리고 유니콘이 된 기업의 성장 속도는 아주 빠르다. 그런데 문제는 한국의 유니콘 기업 수는 글로벌 전체 대비 1.4% 수준에 불과하다는 것이다.글로벌 시장 조사 기관 CB인사이트가 최근 발표한 조사에 따르면 글로벌 전체 779개 유니콘 기업 중 한국 기업은 11개였다. 최근 중소벤처기업부는 티몬·두나무·직방 등을 포함해 한국 유니콘 기업이 15개라고 발표했는데, 그래도 2%가 채 되지 않는다. 그러면 어떻게 해야 유니콘 기업이 많이 나올까. 유니콘 기업으로 빠르게 성장하는 ‘스케일업(scale-up)’ 기업이 많이 나와야 한다.정보공유·네트워킹 장 만들어 줘야경제협력개발기구(OECD)의 정의에 따르면 스케일업 기업은 매출이나 고용이 최근 3년간 평균 20% 이상 성장한 기업을 말한다.미국은 5%의 스케일업 기업이 신규 일자리의 3분의 2를 창출하고 있고 영국은 6%의 스케일업 기업이 54%를 차지한다. 한국은 9.8%의 스케일업 기업이 33.4%의 신규 일자리를 창출한다는 조사 결과가 있다. 매년 빠르게 성장하면서 고용을 늘리는 스케일업 기업은 그 자체로 성장과 고용 모두를 잡는 기업이다. 그리고 동시에 유니콘 기업이 될 가능성을 높인다.그런데 안타깝게도 한국 창업 기업의 3년 생존율은 40% 수준이고 5년 생존율은 30% 수준에 불과하다. 그리고 창업 기업이 스케일업 기업이 되는 비율은 3%가 채 되지 않는다고 알려져 있다. 어떻게 해야 성장과 고용을 모두 잡는 스케일업 기업이 많이 나올 수 있을까.스타트업에서 스케일업으로 관심을 돌리고 교육, 정보 공유, 네트워킹의 장을 만들어야 한다. 최근 정부 정책의 방향을 스타트업에서 스케일업으로 전환하자는 말들이 많다.과학기술정책연구원의 벤처기업의 스케일업 방안 발표 자료에 따르면 이미 미국·영국 등 주요국은 일자리 창출을 위해 스타트업에서 스케일업으로 정책의 중심이 옮겨 가고 있다.특히 영국은 2014년 세계 최초로 스케일업 육성 전담 기관인 스케일업연구소(Scale Up Institute)를 설립하고 스타트업에서 스케일업으로 연결하는 새로운 생태계를 만들고 있다.이 기관은 리더십 강화, 인재 확보, 시장 접근성 제고, 투자 촉진, 인프라 구축 등 스케일업에 필요한 지원에 중점을 두고 있다. 이를 위해 교육, 정보 공유, 네트워킹 등 창업에서 스케일업을 거쳐 유니콘 기업까지 성장 단계별로 지원한다.이처럼 스타트업 중심의 교육, 정보 공유, 네트워킹 등에서 스케일업 중심으로 관심을 돌릴 필요가 있다. 그런데 한국 스타트업을 위한 모임은 많지만 스케일업을 위한 모임은 찾기가 어렵다. 따라서 스케일업으로 관심을 돌리고 스케일업을 위한 모임과 지원이 많아야 한다.연초 필자의 회사에서 스케일업 최고경영자(CEO)들과 권오현 전 삼성전자 회장이 간담회를 가진 바 있다. 권 회장은 당시 “스타트업, 특히 스케일업 CEO들은 본인의 사업 영역에서만 사람들을 만나는데, 보다 다양한 분야의 사람들을 정기적으로 만나야 성장의 기회와 가능성을 높일 수 있다”고 조언했다.현대 경영학의 창시자 피터 드러커는 “경영자가 회사 내부 이슈에 집중하면 성장할 수 없고 세상의 변화에서 기회를 발견하고 이를 회사로 연결하는 데 더 많은 시간을 사용해야 한다”고 했다. 쏟아지는 당면한 이슈로 좁은 시야를 가질 수밖에 없는 스타트업 CEO가 스케일업 기업으로 성장하려면 회사 내부 이슈에서 외부로 시야를 넓힐 수 있는 기회를 가져야 한다.유니콘 기업인 박재욱 쏘카 대표는 “성공한 창업자가 활발히 투자하고 스타트업 기업에 멘토 역할도 해 줄 분위기가 필요하다. 그게 한국에 유니콘 기업이 많이 탄생할 수 있는 길”이라고 말했다. 인재 영입 위해 명확한 비전 제시해야다양한 분야의 스타트업 CEO들이 모이고 이 자리에서 앞서 유니콘 기업을 이룬 창업 CEO, 스케일업과 유니콘 기업의 탄생을 도와준 투자자, 빠른 성장을 이루고 이를 지속하고 있는 선도 기업의 CEO 등 스케일업을 위한 앞선 경험을 나눈다면 더 많은 유니콘 기업을 만들 수 있을 것이다. 앞이 보이지 않는 정글 속에서도 먼저 지나간 사람들의 흔적이 있다면 조금은 더 쉽게 헤쳐 나갈 것이기 때문이다.얼마 전 스케일업을 위한 CEO 모임에서 앞서 유니콘 기업이 된 이승건 토스 대표가 토스 초기의 스케일업 경험을 공유했다. 그는 이 자리에서 다음과 같이 조언했다.“본인이 창업한 진짜 이유, 세상에 주려고 하는 가치관을 바로 세우고 이를 향해 끈기 있게 나아가면 반드시 기회는 온다. 무엇보다 성장하는 데 필요한 요소를 찾고 오직 성장하는 일에만 몰입해야 한다. 회사의 가치와 성장에 공감하는 소수의 인재를 확보해 인재 밀도를 높이고 CEO의 지시에도 솔직하게 말하는 문화를 만드는 것이 중요하다. 그래야만 성장을 위해 무엇이든 시도하고 실패해도 다시 시작할 수 있다.”스타트업 기업은 대부분 앞이 보이지 않는 암흑 속에서 매일매일 치열하게 앞으로 나간다. 생각과 다른 결과, 실패가 일상인 상황에서 앞으로 나아가는 힘은 본인이 창업한 진짜 이유, 가치관이다.가령 복잡한 것을 단순하게 만들어 편리함을 주고자 하는 가치를 가지고 있다면 금융·제조·서비스 등 사업 분야나 사업 아이템은 다음 문제가 된다. 그러면 어느 하나에서 실패해도 다시 일어서게 만들고 끈기·인내·도전의 용기도 생긴다.또 다른 유니콘 기업인 이수진 야놀자 대표가 유니콘 기업이 되기 전에 쓴 책 ‘리스타트’를 보면 그는 “무엇으로 살 것인가, 어떻게 살 것인가, 야놀자의 가치는 무엇이고 내 동료의 가치는 무엇인가 등을 끊임없이 질문하고 끝까지 포기만 하지 않으면 된다”고 성공의 비결을 적었다.스타트업 기업은 해야 할 일은 많지만 일할 사람은 없다. 성장에 반드시 필요한 일이 무엇인지 찾고 나머지는 하지 않을 방법을 찾아야 한다. 그럼에도 꼭 필요한 인재는 찾아야 한다. 하지만 쉬운 일은 아니다. 회사와 함께 성장해 나갈 미래 비전을 제시하는 것이 거의 유일한 방법이다.이때 앞서 언급한 것처럼 창업 CEO의 가치관이 바로 서 있고 행동으로 보여준다면 미래 비전에 공감하는 소수의 인재들로 인재 밀도를 높일 수 있을 것이다. 그리고 CEO의 생각에도 아닌 것은 아니라고 말하고 무엇이든 해 보겠다고 말할 수 있는 투명하고 솔직한 문화를 구축해야 한다.저성장 시대 성장과 고용을 모두 잡으려면 스케일업 기업이 많이 나오고 이들이 빠르게 유니콘 기업으로 성장하는 환경과 스케일업 관점의 생태계를 만들어야 한다. 우선 다양한 분야의 스타트업 CEO들이 모여 앞선 경험에서 배우고 서로의 길을 나누며 스케일업에 집중할 수 있는 환경을 어떻게 만들지 고민해 보자.김용우 IGM세계경영연구원 교수</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
